--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$2590</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$2625</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$2626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$2627</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="3521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="3523">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -10583,6 +10583,12 @@
   </si>
   <si>
     <t>Her's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Attack</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
   </si>
 </sst>
 </file>
@@ -11207,7 +11213,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A2512" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -50532,9 +50538,15 @@
       </c>
     </row>
     <row r="2627" ht="12.75">
-      <c r="A2627"/>
-      <c r="B2627"/>
-      <c r="C2627"/>
+      <c r="A2627" s="7" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>3522</v>
+      </c>
     </row>
     <row r="2628" ht="12.75">
       <c r="B2628"/>
@@ -50684,7 +50696,7 @@
     <row r="2755" ht="12.75"/>
     <row r="2756" ht="12.75"/>
   </sheetData>
-  <autoFilter ref="A1:D2625"/>
+  <autoFilter ref="A1:D2627"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$1145</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$1214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$1215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$D$1215</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="2308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="2343">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -6944,6 +6944,111 @@
   </si>
   <si>
     <t>Anti-Matter</t>
+  </si>
+  <si>
+    <t>CityPop</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiko Nakahara</t>
+  </si>
+  <si>
+    <t>じゃじゃ馬娘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taehko ohnuki</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miki Matsubara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transit In Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega Tribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a Joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yurie Kokubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dress Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaoru Akimoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyday Chinatown</t>
+  </si>
+  <si>
+    <t>Yasuha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny Lady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Sato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust Night</t>
+  </si>
+  <si>
+    <t>Jadoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Reggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masayoshi Takanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin in Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingo Hamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Scraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiki Kadomatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taeko Ohnuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAY CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junko Yagami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitonatsu no Tapestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mystical Composer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikuchi Momoko</t>
+  </si>
+  <si>
+    <t>Kagerou</t>
+  </si>
+  <si>
+    <t>Char</t>
   </si>
 </sst>
 </file>
@@ -7056,7 +7161,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="18" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7569,14 +7676,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1179" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A325" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="0" width="28.7109375"/>
-    <col customWidth="1" min="2" max="2" style="0" width="85.28125"/>
+    <col customWidth="1" min="2" max="2" style="0" width="45.8515625"/>
     <col customWidth="1" min="3" max="3" style="0" width="43.285714285714299"/>
     <col customWidth="1" min="4" max="4" style="0" width="122.428571428571"/>
     <col min="5" max="16384" style="0" width="9.140625"/>
@@ -12418,7 +12525,7 @@
       <c r="E305"/>
       <c r="H305"/>
     </row>
-    <row r="306" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="306" s="5" customFormat="1" ht="12.75">
       <c r="A306" t="s">
         <v>632</v>
       </c>
@@ -12434,7 +12541,7 @@
       <c r="E306"/>
       <c r="H306"/>
     </row>
-    <row r="307" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="307" s="0" customFormat="1" ht="12.75">
       <c r="A307" t="s">
         <v>632</v>
       </c>
@@ -12450,7 +12557,7 @@
       <c r="E307"/>
       <c r="H307"/>
     </row>
-    <row r="308" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="308" s="5" customFormat="1" ht="12.75">
       <c r="A308" t="s">
         <v>632</v>
       </c>
@@ -12466,7 +12573,7 @@
       <c r="E308"/>
       <c r="H308"/>
     </row>
-    <row r="309" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="309" s="0" customFormat="1" ht="12.75">
       <c r="A309" t="s">
         <v>632</v>
       </c>
@@ -12482,7 +12589,7 @@
       <c r="E309"/>
       <c r="H309"/>
     </row>
-    <row r="310" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="310" s="5" customFormat="1" ht="12.75">
       <c r="A310" t="s">
         <v>632</v>
       </c>
@@ -12498,7 +12605,7 @@
       <c r="E310"/>
       <c r="H310"/>
     </row>
-    <row r="311" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="311" s="0" customFormat="1" ht="12.75">
       <c r="A311" t="s">
         <v>632</v>
       </c>
@@ -12514,7 +12621,7 @@
       <c r="E311"/>
       <c r="H311"/>
     </row>
-    <row r="312" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="312" s="5" customFormat="1" ht="12.75">
       <c r="A312" t="s">
         <v>632</v>
       </c>
@@ -12530,7 +12637,7 @@
       <c r="E312"/>
       <c r="H312"/>
     </row>
-    <row r="313" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="313" s="0" customFormat="1" ht="12.75">
       <c r="A313" t="s">
         <v>632</v>
       </c>
@@ -12546,7 +12653,7 @@
       <c r="E313"/>
       <c r="H313"/>
     </row>
-    <row r="314" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="314" s="5" customFormat="1" ht="12.75">
       <c r="A314" t="s">
         <v>632</v>
       </c>
@@ -12562,7 +12669,7 @@
       <c r="E314"/>
       <c r="H314"/>
     </row>
-    <row r="315" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="315" s="0" customFormat="1" ht="12.75">
       <c r="A315" t="s">
         <v>632</v>
       </c>
@@ -12578,7 +12685,7 @@
       <c r="E315"/>
       <c r="H315"/>
     </row>
-    <row r="316" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="316" s="5" customFormat="1" ht="12.75">
       <c r="A316" t="s">
         <v>632</v>
       </c>
@@ -12594,7 +12701,7 @@
       <c r="E316"/>
       <c r="H316"/>
     </row>
-    <row r="317" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="317" s="0" customFormat="1" ht="12.75">
       <c r="A317" t="s">
         <v>632</v>
       </c>
@@ -12610,7 +12717,7 @@
       <c r="E317"/>
       <c r="H317"/>
     </row>
-    <row r="318" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="318" s="5" customFormat="1" ht="12.75">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -12626,7 +12733,7 @@
       <c r="E318"/>
       <c r="H318"/>
     </row>
-    <row r="319" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="319" s="0" customFormat="1" ht="12.75">
       <c r="A319" t="s">
         <v>632</v>
       </c>
@@ -12642,7 +12749,7 @@
       <c r="E319"/>
       <c r="H319"/>
     </row>
-    <row r="320" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="320" s="5" customFormat="1" ht="12.75">
       <c r="A320" t="s">
         <v>632</v>
       </c>
@@ -12658,7 +12765,7 @@
       <c r="E320"/>
       <c r="H320"/>
     </row>
-    <row r="321" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="321" s="0" customFormat="1" ht="12.75">
       <c r="A321" t="s">
         <v>632</v>
       </c>
@@ -12674,7 +12781,7 @@
       <c r="E321"/>
       <c r="H321"/>
     </row>
-    <row r="322" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="322" s="5" customFormat="1" ht="12.75">
       <c r="A322" t="s">
         <v>632</v>
       </c>
@@ -12690,7 +12797,7 @@
       <c r="E322"/>
       <c r="H322"/>
     </row>
-    <row r="323" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="323" s="0" customFormat="1" ht="12.75">
       <c r="A323" t="s">
         <v>632</v>
       </c>
@@ -12706,7 +12813,7 @@
       <c r="E323"/>
       <c r="H323"/>
     </row>
-    <row r="324" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="324" s="5" customFormat="1" ht="12.75">
       <c r="A324" t="s">
         <v>632</v>
       </c>
@@ -12722,7 +12829,7 @@
       <c r="E324"/>
       <c r="H324"/>
     </row>
-    <row r="325" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="325" s="0" customFormat="1" ht="12.75">
       <c r="A325" t="s">
         <v>632</v>
       </c>
@@ -12738,7 +12845,7 @@
       <c r="E325"/>
       <c r="H325"/>
     </row>
-    <row r="326" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="326" s="5" customFormat="1" ht="12.75">
       <c r="A326" t="s">
         <v>632</v>
       </c>
@@ -12754,7 +12861,7 @@
       <c r="E326"/>
       <c r="H326"/>
     </row>
-    <row r="327" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="327" s="5" customFormat="1" ht="12.75">
       <c r="A327" t="s">
         <v>632</v>
       </c>
@@ -12770,7 +12877,7 @@
       <c r="E327"/>
       <c r="H327"/>
     </row>
-    <row r="328" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="328" s="0" customFormat="1" ht="12.75">
       <c r="A328" t="s">
         <v>632</v>
       </c>
@@ -12784,7 +12891,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="329" s="5" customFormat="1" ht="12.75">
       <c r="A329" t="s">
         <v>632</v>
       </c>
@@ -12800,7 +12907,7 @@
       <c r="E329"/>
       <c r="H329"/>
     </row>
-    <row r="330" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="330" s="0" customFormat="1" ht="12.75">
       <c r="A330" t="s">
         <v>632</v>
       </c>
@@ -23696,7 +23803,7 @@
       <c r="E1029"/>
       <c r="H1029"/>
     </row>
-    <row r="1030" ht="12.75" hidden="1">
+    <row r="1030" ht="12.75">
       <c r="A1030" t="s">
         <v>632</v>
       </c>
@@ -23708,7 +23815,7 @@
       </c>
       <c r="D1030"/>
     </row>
-    <row r="1031" ht="12.75" hidden="1">
+    <row r="1031" ht="12.75">
       <c r="A1031" t="s">
         <v>632</v>
       </c>
@@ -23722,7 +23829,7 @@
       <c r="E1031"/>
       <c r="H1031"/>
     </row>
-    <row r="1032" ht="12.75" hidden="1">
+    <row r="1032" ht="12.75">
       <c r="A1032" t="s">
         <v>632</v>
       </c>
@@ -23734,7 +23841,7 @@
       </c>
       <c r="D1032"/>
     </row>
-    <row r="1033" ht="12.75" hidden="1">
+    <row r="1033" ht="12.75">
       <c r="A1033" t="s">
         <v>632</v>
       </c>
@@ -23748,7 +23855,7 @@
       <c r="E1033"/>
       <c r="H1033"/>
     </row>
-    <row r="1034" ht="12.75" hidden="1">
+    <row r="1034" ht="12.75">
       <c r="A1034" t="s">
         <v>632</v>
       </c>
@@ -23760,7 +23867,7 @@
       </c>
       <c r="D1034"/>
     </row>
-    <row r="1035" ht="12.75" hidden="1">
+    <row r="1035" ht="12.75">
       <c r="A1035" t="s">
         <v>632</v>
       </c>
@@ -23774,7 +23881,7 @@
       <c r="E1035"/>
       <c r="H1035"/>
     </row>
-    <row r="1036" ht="12.75" hidden="1">
+    <row r="1036" ht="12.75">
       <c r="A1036" t="s">
         <v>632</v>
       </c>
@@ -23786,7 +23893,7 @@
       </c>
       <c r="D1036"/>
     </row>
-    <row r="1037" ht="12.75" hidden="1">
+    <row r="1037" ht="12.75">
       <c r="A1037" t="s">
         <v>632</v>
       </c>
@@ -23800,7 +23907,7 @@
       <c r="E1037"/>
       <c r="H1037"/>
     </row>
-    <row r="1038" ht="12.75" hidden="1">
+    <row r="1038" ht="12.75">
       <c r="A1038" t="s">
         <v>632</v>
       </c>
@@ -23812,7 +23919,7 @@
       </c>
       <c r="D1038"/>
     </row>
-    <row r="1039" ht="12.75" hidden="1">
+    <row r="1039" ht="12.75">
       <c r="A1039" t="s">
         <v>632</v>
       </c>
@@ -23826,7 +23933,7 @@
       <c r="E1039"/>
       <c r="H1039"/>
     </row>
-    <row r="1040" ht="12.75" hidden="1">
+    <row r="1040" ht="12.75">
       <c r="A1040" t="s">
         <v>632</v>
       </c>
@@ -23838,7 +23945,7 @@
       </c>
       <c r="D1040"/>
     </row>
-    <row r="1041" ht="12.75" hidden="1">
+    <row r="1041" ht="12.75">
       <c r="A1041" t="s">
         <v>632</v>
       </c>
@@ -23852,7 +23959,7 @@
       <c r="E1041"/>
       <c r="H1041"/>
     </row>
-    <row r="1042" ht="12.75" hidden="1">
+    <row r="1042" ht="12.75">
       <c r="A1042" t="s">
         <v>632</v>
       </c>
@@ -23864,7 +23971,7 @@
       </c>
       <c r="D1042"/>
     </row>
-    <row r="1043" ht="12.75" hidden="1">
+    <row r="1043" ht="12.75">
       <c r="A1043" t="s">
         <v>632</v>
       </c>
@@ -23878,7 +23985,7 @@
       <c r="E1043"/>
       <c r="H1043"/>
     </row>
-    <row r="1044" ht="12.75" hidden="1">
+    <row r="1044" ht="12.75">
       <c r="A1044" t="s">
         <v>632</v>
       </c>
@@ -24992,7 +25099,7 @@
       <c r="E1129"/>
       <c r="H1129"/>
     </row>
-    <row r="1130" ht="12.75">
+    <row r="1130" ht="12.75" hidden="1">
       <c r="A1130" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25004,7 +25111,7 @@
       </c>
       <c r="D1130"/>
     </row>
-    <row r="1131" ht="12.75">
+    <row r="1131" ht="12.75" hidden="1">
       <c r="A1131" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25018,7 +25125,7 @@
       <c r="E1131"/>
       <c r="H1131"/>
     </row>
-    <row r="1132" ht="12.75">
+    <row r="1132" ht="12.75" hidden="1">
       <c r="A1132" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25030,7 +25137,7 @@
       </c>
       <c r="D1132"/>
     </row>
-    <row r="1133" ht="12.75">
+    <row r="1133" ht="12.75" hidden="1">
       <c r="A1133" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25044,7 +25151,7 @@
       <c r="E1133"/>
       <c r="H1133"/>
     </row>
-    <row r="1134" ht="12.75">
+    <row r="1134" ht="12.75" hidden="1">
       <c r="A1134" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25056,7 +25163,7 @@
       </c>
       <c r="D1134"/>
     </row>
-    <row r="1135" ht="12.75">
+    <row r="1135" ht="12.75" hidden="1">
       <c r="A1135" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25070,7 +25177,7 @@
       <c r="E1135"/>
       <c r="H1135"/>
     </row>
-    <row r="1136" ht="12.75">
+    <row r="1136" ht="12.75" hidden="1">
       <c r="A1136" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25082,7 +25189,7 @@
       </c>
       <c r="D1136"/>
     </row>
-    <row r="1137" ht="12.75">
+    <row r="1137" ht="12.75" hidden="1">
       <c r="A1137" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25096,7 +25203,7 @@
       <c r="E1137"/>
       <c r="H1137"/>
     </row>
-    <row r="1138" ht="12.75">
+    <row r="1138" ht="12.75" hidden="1">
       <c r="A1138" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25108,7 +25215,7 @@
       </c>
       <c r="D1138"/>
     </row>
-    <row r="1139" ht="12.75">
+    <row r="1139" ht="12.75" hidden="1">
       <c r="A1139" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25122,7 +25229,7 @@
       <c r="E1139"/>
       <c r="H1139"/>
     </row>
-    <row r="1140" ht="12.75">
+    <row r="1140" ht="12.75" hidden="1">
       <c r="A1140" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25134,7 +25241,7 @@
       </c>
       <c r="D1140"/>
     </row>
-    <row r="1141" ht="12.75">
+    <row r="1141" ht="12.75" hidden="1">
       <c r="A1141" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25148,7 +25255,7 @@
       <c r="E1141"/>
       <c r="H1141"/>
     </row>
-    <row r="1142" ht="12.75">
+    <row r="1142" ht="12.75" hidden="1">
       <c r="A1142" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25160,7 +25267,7 @@
       </c>
       <c r="D1142"/>
     </row>
-    <row r="1143" ht="12.75">
+    <row r="1143" ht="12.75" hidden="1">
       <c r="A1143" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25174,7 +25281,7 @@
       <c r="E1143"/>
       <c r="H1143"/>
     </row>
-    <row r="1144" ht="12.75">
+    <row r="1144" ht="12.75" hidden="1">
       <c r="A1144" s="7" t="s">
         <v>2218</v>
       </c>
@@ -25186,7 +25293,7 @@
       </c>
       <c r="D1144"/>
     </row>
-    <row r="1145" ht="12.75">
+    <row r="1145" ht="12.75" hidden="1">
       <c r="A1145" s="7" t="s">
         <v>2218</v>
       </c>
@@ -26065,7 +26172,7 @@
       <c r="B1212" t="s">
         <v>2303</v>
       </c>
-      <c r="C1212" s="11" t="s">
+      <c r="C1212" s="8" t="s">
         <v>2304</v>
       </c>
       <c r="D1212"/>
@@ -26096,7 +26203,7 @@
       </c>
       <c r="D1214"/>
     </row>
-    <row r="1215" ht="12.75">
+    <row r="1215" ht="12.75" hidden="1">
       <c r="A1215" s="7" t="s">
         <v>2218</v>
       </c>
@@ -26111,135 +26218,249 @@
       <c r="H1215"/>
     </row>
     <row r="1216" ht="12.75">
-      <c r="A1216"/>
-      <c r="B1216"/>
-      <c r="C1216"/>
+      <c r="A1216" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2310</v>
+      </c>
       <c r="D1216"/>
     </row>
     <row r="1217" ht="12.75">
-      <c r="A1217"/>
-      <c r="B1217"/>
-      <c r="C1217"/>
+      <c r="A1217" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2312</v>
+      </c>
       <c r="D1217"/>
       <c r="E1217"/>
       <c r="H1217"/>
     </row>
     <row r="1218" ht="12.75">
-      <c r="A1218"/>
-      <c r="B1218"/>
-      <c r="C1218"/>
+      <c r="A1218" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2314</v>
+      </c>
       <c r="D1218"/>
     </row>
     <row r="1219" ht="12.75">
-      <c r="A1219"/>
-      <c r="B1219"/>
-      <c r="C1219"/>
+      <c r="A1219" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2316</v>
+      </c>
       <c r="D1219"/>
       <c r="E1219"/>
       <c r="H1219"/>
     </row>
     <row r="1220" ht="12.75">
-      <c r="A1220"/>
-      <c r="B1220"/>
-      <c r="C1220"/>
+      <c r="A1220" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1130</v>
+      </c>
       <c r="D1220"/>
     </row>
     <row r="1221" ht="12.75">
-      <c r="A1221"/>
-      <c r="B1221"/>
-      <c r="C1221"/>
+      <c r="A1221" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2319</v>
+      </c>
       <c r="D1221"/>
       <c r="E1221"/>
       <c r="H1221"/>
     </row>
     <row r="1222" ht="12.75">
-      <c r="A1222"/>
-      <c r="B1222"/>
-      <c r="C1222"/>
+      <c r="A1222" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2321</v>
+      </c>
       <c r="D1222"/>
     </row>
     <row r="1223" ht="12.75">
-      <c r="A1223"/>
-      <c r="B1223"/>
-      <c r="C1223"/>
+      <c r="A1223" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2323</v>
+      </c>
       <c r="D1223"/>
       <c r="E1223"/>
       <c r="H1223"/>
     </row>
     <row r="1224" ht="12.75">
-      <c r="A1224"/>
-      <c r="B1224"/>
-      <c r="C1224"/>
+      <c r="A1224" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2325</v>
+      </c>
       <c r="D1224"/>
     </row>
     <row r="1225" ht="12.75">
-      <c r="A1225"/>
-      <c r="B1225"/>
-      <c r="C1225"/>
+      <c r="A1225" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>2327</v>
+      </c>
       <c r="D1225"/>
       <c r="E1225"/>
       <c r="H1225"/>
     </row>
     <row r="1226" ht="12.75">
-      <c r="A1226"/>
-      <c r="B1226"/>
-      <c r="C1226"/>
+      <c r="A1226" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>1130</v>
+      </c>
       <c r="D1226"/>
     </row>
     <row r="1227" ht="12.75">
-      <c r="A1227"/>
-      <c r="B1227"/>
-      <c r="C1227"/>
+      <c r="A1227" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2330</v>
+      </c>
       <c r="D1227"/>
       <c r="E1227"/>
       <c r="H1227"/>
     </row>
     <row r="1228" ht="12.75">
-      <c r="A1228"/>
-      <c r="B1228"/>
-      <c r="C1228"/>
+      <c r="A1228" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2332</v>
+      </c>
       <c r="D1228"/>
     </row>
     <row r="1229" ht="12.75">
-      <c r="A1229"/>
-      <c r="B1229"/>
-      <c r="C1229"/>
+      <c r="A1229" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2334</v>
+      </c>
       <c r="D1229"/>
       <c r="E1229"/>
       <c r="H1229"/>
     </row>
     <row r="1230" ht="12.75">
-      <c r="A1230"/>
-      <c r="B1230"/>
-      <c r="C1230"/>
+      <c r="A1230" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1230" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2335</v>
+      </c>
       <c r="D1230"/>
     </row>
     <row r="1231" ht="12.75">
-      <c r="A1231"/>
-      <c r="B1231"/>
-      <c r="C1231"/>
+      <c r="A1231" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>2337</v>
+      </c>
       <c r="D1231"/>
       <c r="E1231"/>
       <c r="H1231"/>
     </row>
     <row r="1232" ht="12.75">
-      <c r="A1232"/>
-      <c r="B1232"/>
-      <c r="C1232"/>
+      <c r="A1232" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>403</v>
+      </c>
       <c r="D1232"/>
     </row>
     <row r="1233" ht="12.75">
-      <c r="A1233"/>
-      <c r="B1233"/>
-      <c r="C1233"/>
+      <c r="A1233" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2340</v>
+      </c>
       <c r="D1233"/>
       <c r="E1233"/>
       <c r="H1233"/>
     </row>
     <row r="1234" ht="12.75">
-      <c r="A1234"/>
-      <c r="B1234"/>
-      <c r="C1234"/>
+      <c r="A1234" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2342</v>
+      </c>
       <c r="D1234"/>
     </row>
     <row r="1235" ht="12.75">
@@ -29198,10 +29419,10 @@
       <c r="C2651" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1214">
+  <autoFilter ref="A1:D1215">
     <filterColumn colId="0">
       <filters>
-        <filter val="(This is ...) MFDOOM"/>
+        <filter val="Brazilian CityPop"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1191</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1256</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1797">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -3835,1528 +3835,1582 @@
     <t xml:space="preserve">Lou Master</t>
   </si>
   <si>
+    <t xml:space="preserve">(Themed) Exoteric Larp</t>
+  </si>
+  <si>
+    <t>Sadness</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>Ameno</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Time</t>
+  </si>
+  <si>
+    <t>Enya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiem For A Tower</t>
+  </si>
+  <si>
+    <t>Divano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Sad</t>
+  </si>
+  <si>
+    <t>Gregorian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conquest of Paradise</t>
+  </si>
+  <si>
+    <t>Vangelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacral Nirvana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Shanti &amp; Friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now We Are Free (Gladiator Main Theme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tina Guo</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Yanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Themed) Latin Playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Bamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Lobos</t>
+  </si>
+  <si>
+    <t>Bamboleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gipsy Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamacun - Remastered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo y Gabriela</t>
+  </si>
+  <si>
+    <t>Guantanamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celia Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Vida Es Un Carnaval - Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te He Prometido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Gardenias</t>
+  </si>
+  <si>
+    <t>Macarena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Del Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baila Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guajira guantanamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compay Segundo</t>
+  </si>
+  <si>
+    <t>Candela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Tierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria Estefan</t>
+  </si>
+  <si>
+    <t>Cumbanchero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bésame Mucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Bocelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amores Como el Nuestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) Groove, Disco, Soul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give Me the Night - Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sing a Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blame It on the Boogie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jacksons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Freak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rick James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superstition - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Come Down - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn "Champagne" King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Coming Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shake, Shake, Shake) Shake Your Booty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC &amp; The Sunshine Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shining Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Make Me Feel (Mighty Real)</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn Your Love Around</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Duke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Down On It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can You Feel It - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Can't Hurry Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Supremes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's the Greatest Dancer - 1995 Remaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Freak</t>
+  </si>
+  <si>
+    <t>CHIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to the Beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacy Lattisaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy Yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give It Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Down On It - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomp! - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're The First, The Last, My Everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's the Way (I Like It) - 2004 Remaster</t>
+  </si>
+  <si>
+    <t>Shame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I Do - Short Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurice McGee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toccata and Fugue in D minor, BWV 565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danse macabre in G Minor, Op. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camille Saint-Saëns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Fortuna from Carmina Burana - Vocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Orff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marschner: Der Vampyr: Halter ein!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heinrich Marschner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic Symphony: Dreams of a Witches Sabbat (Theme from the Movie "The Shining")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Highland Motion Picture Orchestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music for Strings, Percussion and Celesta, Sz. 106, BB 114: II. Allegro con grazia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Béla Bartók</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer Gynt, Op. 23: IV. In the Hall of the Mountain King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edvard Grieg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marche funèbre d'une marionnette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Gounod</t>
+  </si>
+  <si>
+    <t>Hallowe'en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Ives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Episoden aus Lenau's Faust, S. 110: No. 2, Der Tanz in der Dorfschenke "Mephisto Waltz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franz Liszt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Night on the Bare Mountain (Arr. Rimsky-Korsakov)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modest Mussorgsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piano Sonata No. 2 in B-Flat Minor, Op. 35, "Funeral March": III. Marche funebre: Lento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frédéric Chopin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Giovanni, K. 527: Overture (Live)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team America</t>
+  </si>
+  <si>
+    <t>66samus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Pie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don McLean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born in the U.S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce Springsteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Dreamin' - Single Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel California - 2013 Remaster</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfin' U.S.A. - Remastered 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco (Be Sure to Wear Flowers In Your Hair)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott McKenzie</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crosby, Stills, Nash &amp; Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Uber Alles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) Yatch Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dismal Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Keep Forgettin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael McDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do It Again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steely Dan</t>
+  </si>
+  <si>
+    <t>Sailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Breeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seals &amp; Crofts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Come Back</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey Nineteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daryl Hall &amp; John Oates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ride Like the Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's Mine</t>
+  </si>
+  <si>
+    <t>MoKenStef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakin' My Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mint Condition Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a Fool Bealives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobie Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Eyes</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Yo Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.Y State of Mind</t>
+  </si>
+  <si>
+    <t>Nas</t>
+  </si>
+  <si>
+    <t>CREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu Tang Clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party and Shit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give Up the Goods</t>
+  </si>
+  <si>
+    <t>Hypnotize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put it On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuthin'But A "G" Thang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Dre &amp; Snoop Dogg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Was a Good Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) Rap (Modern)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendrick Lamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Pray for You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusha T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Role Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diet Coke</t>
+  </si>
+  <si>
+    <t>NightCrawler</t>
+  </si>
+  <si>
+    <t>CZARFACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come Back Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry on Doubt</t>
+  </si>
+  <si>
+    <t>Hers</t>
+  </si>
+  <si>
+    <t>Telephones</t>
+  </si>
+  <si>
+    <t>Vacations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn the Tv off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killer Mike</t>
+  </si>
+  <si>
+    <t>Reagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist the Stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Religion</t>
+  </si>
+  <si>
+    <t>Nookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limp Bizkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrilla Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rage Against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Separation of Church an Skate</t>
+  </si>
+  <si>
+    <t>Chimaera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Cigar</t>
+  </si>
+  <si>
+    <t>Millecolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holliday in Camboja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Kennydys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to Conquer the World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five Lessons Learned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swingin' Utters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do What You Want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Entertaiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulls Parade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rage Againts the Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuck Armageddon...(This is ...) Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let Them eat war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 More Fools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bro Hymn</t>
+  </si>
+  <si>
+    <t>Pennywise</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break Stuff</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Esteem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come Join Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before You Die</t>
+  </si>
+  <si>
+    <t>Suffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep Now in the Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to Paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) Slacker Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the World</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you say i'm in love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANE'S WORLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Once Was</t>
+  </si>
+  <si>
+    <t>Her's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Attack</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen Campbell</t>
+  </si>
+  <si>
+    <t>Palco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela Cidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra de Sá</t>
+  </si>
+  <si>
+    <t>Miragem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djavan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evinha </t>
+  </si>
+  <si>
+    <t>Fullgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onda Negra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Sá</t>
+  </si>
+  <si>
+    <t>Lilás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Guanabara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindo Lago do Amor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzaguinha </t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotus 72D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zé Roberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarde Minha Voz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funk-se quem puder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djavan - Canto da Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a Long Way Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) EletroSwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolie Coquine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock it for Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lone Digger</t>
+  </si>
+  <si>
+    <t>Dramophone</t>
+  </si>
+  <si>
+    <t>Clash</t>
+  </si>
+  <si>
+    <t>Dragons</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je m'amuse</t>
+  </si>
+  <si>
+    <t>Wonderland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booty Swing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parov Stelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Night</t>
+  </si>
+  <si>
+    <t>Catgroove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mojo Radio Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Boy Good Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tape 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinnamon Girl</t>
+  </si>
+  <si>
+    <t>[dunkelbunt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Games People Play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) PowerMetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) The Pretenders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk of the Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th Predenters</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back on the Chain Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brass in Pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night in My Veins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't get me wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle of the Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hymn to Her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin Line Between Love and Hate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Miles</t>
+  </si>
+  <si>
+    <t>Otonoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creepy Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Djavan</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha do Equador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canto da Lira</t>
+  </si>
+  <si>
+    <t>Transe</t>
+  </si>
+  <si>
+    <t>Cigano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor de Liz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Zabadak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooi Ongaku</t>
+  </si>
+  <si>
+    <t>Zabadak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizu no Sortilège</t>
+  </si>
+  <si>
+    <t>Psi-trailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Jorge Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assim Falou Santo Thomas de Aquino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermes Trismegisto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amante Amado</t>
+  </si>
+  <si>
+    <t>Berenice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom dia Boa Tarde Boa Noite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velhos, Flores e Criancinhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por Causa de Você, Menina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O homem da Gravata Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha Estrela É do Oriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que Pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ive Brussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina, Carol Bela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Banda do Zé Pretinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirogyra Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menina Mulher da Pele Preta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que é Proibido Pisar na Grama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebete Vão Bora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Alquimistas estão chegando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oba, la vem ela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chama Curumin</t>
+  </si>
+  <si>
+    <t>Domingas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Fishmans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikareta Baby</t>
+  </si>
+  <si>
+    <t>Fishmans</t>
+  </si>
+  <si>
+    <t>あの娘が眠ってる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Blue</t>
+  </si>
+  <si>
+    <t>Zuttomae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すばらしくてNICE CHOICE</t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) PizzicatoFive</t>
+  </si>
+  <si>
+    <t>Triste</t>
+  </si>
+  <si>
+    <t>PizzicatoFive</t>
+  </si>
+  <si>
+    <t>きみみたいにきれいな女の子</t>
+  </si>
+  <si>
+    <t>メッセージソング</t>
+  </si>
+  <si>
+    <t>ベイビィ・ポータブル・ロック</t>
+  </si>
+  <si>
+    <t>ウィークエンド</t>
+  </si>
+  <si>
+    <t>東京は夜の七時</t>
+  </si>
+  <si>
+    <t>スウィート・ソウル・レヴュー</t>
+  </si>
+  <si>
+    <t>イッツ・ア・ビューティフル・デイ</t>
+  </si>
+  <si>
+    <t>陽の当たる大通り</t>
+  </si>
+  <si>
+    <t>恋のルール・新しいルール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Love Child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) MFDOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhymes Like Dimes</t>
+  </si>
+  <si>
+    <t>MFDOOM</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>Fazers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Beer</t>
+  </si>
+  <si>
+    <t>Doomsday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoe Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Fried Frenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November has Come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapp Snitch Knishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat Grinder</t>
+  </si>
+  <si>
+    <t>Curls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fancy Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Caps</t>
+  </si>
+  <si>
+    <t>Raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) The Police</t>
+  </si>
+  <si>
+    <t>Roxane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrapped Around Your Finger</t>
+  </si>
+  <si>
+    <t>Synchronicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Ramemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba do Brasil (Borel Flip)</t>
+  </si>
+  <si>
+    <t>Ramemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peek a Boo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudo 2 vs Macintosh plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamber of Baile Funk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bvcet@o Triste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty Girl of Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Im Yours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamando ela foi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 20 ela fuma m@c0nh@ 4 30 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudade da Minhas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereolove vs Baile do Jaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funk Japones 150bpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skrillex Vs Baile do Jaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunny Girl Vs Beat Neymar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Order te chama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimewave no Juramento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambor Comga vs Relíquias Internacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramemes &amp; Phobos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo-fi pai da facção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macete Futuristico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu adoro quando você</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTG - FULL METAL VS FODASE TO NEM AI (DJ RAMEMES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencia de Molchat Doma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Tacação Shy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanborzin da Wandinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beat do Terraria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brotei no baile do Japão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funk Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bafora Pedrinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tame Impala na pvt@ria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mão na X&amp;r&amp;c@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenzinho dos Traficantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixa acontecer naturalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthquak do Chapadão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summereletrohits vs tambor conga</t>
+  </si>
+  <si>
+    <t>Verzache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQUENCIA 10 MIN - TAMBOR CONGA VS RELIQUÍAS INTERNACIONAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baile Groove Do Vuk Mal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTG - Buttlefly X Senta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riders on The Baile Funk - RaMeMes &amp; $rpr1m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This is ...) Kanye West / Ye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENSORI OVERLOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanye West/Ye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Stretch My Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Souls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bound 2</t>
+  </si>
+  <si>
+    <t>Heartless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devil in a New Dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World War 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Digger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Falls Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashing Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through The Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't Tell Me Nothing</t>
+  </si>
+  <si>
+    <t>Stronger</t>
+  </si>
+  <si>
+    <t>Runaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed on Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Walks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Tell me Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO HANDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey Valence &amp; Brae</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>DOUGHBOY</t>
+  </si>
+  <si>
+    <t>Anti-Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) CityPop</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiko Nakahara</t>
+  </si>
+  <si>
+    <t>誤解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kato Yuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F L Y</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>じゃじゃ馬娘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taehko ohnuki</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miki Matsubara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transit In Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega Tribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junko Ohashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a Joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yurie Kokubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dress Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaoru Akimoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyday Chinatown</t>
+  </si>
+  <si>
+    <t>Yasuha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny Lady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Sato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust Night</t>
+  </si>
+  <si>
+    <t>Jadoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Reggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masayoshi Takanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin in Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingo Hamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Scraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiki Kadomatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taeko Ohnuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAY CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junko Yagami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitonatsu no Tapestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mystical Composer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikuchi Momoko</t>
+  </si>
+  <si>
+    <t>Kagerou</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY LIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noriko Miyamoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Girl Stay Pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyness Boy</t>
+  </si>
+  <si>
+    <t>Anri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガラスのPALM TREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazzy Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunset Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reiko Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonaka no Joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takako Mamiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Love You So</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Buy Boogie Dance</t>
+  </si>
+  <si>
+    <t>くすりをたくさん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatsuro Yamashita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK JACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLLING MEMORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Rain</t>
+  </si>
+  <si>
+    <t>イフ(If)</t>
+  </si>
+  <si>
+    <t>雪の中の少女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto Imai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling Memories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiyotaka Sugiyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kindan no Telepathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shizuka Kudo</t>
+  </si>
+  <si>
+    <t>サファリ・ナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Breeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(黒沢律子) HOT BOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritsuko Kurosawa </t>
+  </si>
+  <si>
+    <t>Oceano</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Themed) Exoteric</t>
   </si>
   <si>
-    <t>Sadness</t>
-  </si>
-  <si>
-    <t>Enigma</t>
-  </si>
-  <si>
-    <t>Ameno</t>
-  </si>
-  <si>
-    <t>ERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Time</t>
-  </si>
-  <si>
-    <t>Enya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requiem For A Tower</t>
-  </si>
-  <si>
-    <t>Divano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So Sad</t>
-  </si>
-  <si>
-    <t>Gregorian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conquest of Paradise</t>
-  </si>
-  <si>
-    <t>Vangelis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacral Nirvana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver Shanti &amp; Friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now We Are Free (Gladiator Main Theme)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tina Guo</t>
-  </si>
-  <si>
-    <t>Aria</t>
-  </si>
-  <si>
-    <t>Yanni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Themed) Latin Playlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Bamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Lobos</t>
-  </si>
-  <si>
-    <t>Bamboleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gipsy Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamacun - Remastered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo y Gabriela</t>
-  </si>
-  <si>
-    <t>Guantanamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celia Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Vida Es Un Carnaval - Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Te He Prometido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo Dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos Gardenias</t>
-  </si>
-  <si>
-    <t>Macarena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Del Rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baila Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guajira guantanamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compay Segundo</t>
-  </si>
-  <si>
-    <t>Candela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi Tierra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloria Estefan</t>
-  </si>
-  <si>
-    <t>Cumbanchero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben Gonzalez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bésame Mucho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Bocelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amores Como el Nuestro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerry Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) Groove, Disco, Soul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give Me the Night - Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sing a Song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blame It on the Boogie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jacksons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Freak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rick James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superstition - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love Come Down - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn "Champagne" King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm Coming Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shake, Shake, Shake) Shake Your Booty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC &amp; The Sunshine Band</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shining Star</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Make Me Feel (Mighty Real)</t>
-  </si>
-  <si>
-    <t>Sylvester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn Your Love Around</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Duke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Down On It</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can You Feel It - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Can't Hurry Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Supremes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He's the Greatest Dancer - 1995 Remaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Freak</t>
-  </si>
-  <si>
-    <t>CHIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to the Beat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacy Lattisaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enjoy Yourself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good Times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give It Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Down On It - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomp! - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're The First, The Last, My Everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's the Way (I Like It) - 2004 Remaster</t>
-  </si>
-  <si>
-    <t>Shame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do I Do - Short Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurice McGee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toccata and Fugue in D minor, BWV 565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danse macabre in G Minor, Op. 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camille Saint-Saëns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Fortuna from Carmina Burana - Vocal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl Orff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marschner: Der Vampyr: Halter ein!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heinrich Marschner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantastic Symphony: Dreams of a Witches Sabbat (Theme from the Movie "The Shining")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Highland Motion Picture Orchestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music for Strings, Percussion and Celesta, Sz. 106, BB 114: II. Allegro con grazia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Béla Bartók</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peer Gynt, Op. 23: IV. In the Hall of the Mountain King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edvard Grieg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marche funèbre d'une marionnette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Gounod</t>
-  </si>
-  <si>
-    <t>Hallowe'en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Ives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Episoden aus Lenau's Faust, S. 110: No. 2, Der Tanz in der Dorfschenke "Mephisto Waltz"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz Liszt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Night on the Bare Mountain (Arr. Rimsky-Korsakov)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modest Mussorgsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piano Sonata No. 2 in B-Flat Minor, Op. 35, "Funeral March": III. Marche funebre: Lento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédéric Chopin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don Giovanni, K. 527: Overture (Live)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team America</t>
-  </si>
-  <si>
-    <t>66samus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Pie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don McLean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born in the U.S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruce Springsteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Dreamin' - Single Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel California - 2013 Remaster</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surfin' U.S.A. - Remastered 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco (Be Sure to Wear Flowers In Your Hair)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott McKenzie</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crosby, Stills, Nash &amp; Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Uber Alles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) Yatch Rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dismal Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Keep Forgettin'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael McDonald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do It Again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steely Dan</t>
-  </si>
-  <si>
-    <t>Sailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher Cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Breeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seals &amp; Crofts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Come Back</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey Nineteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara Smile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daryl Hall &amp; John Oates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ride Like the Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He's Mine</t>
-  </si>
-  <si>
-    <t>MoKenStef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakin' My Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mint Condition Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What a Fool Bealives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobie Brothers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Eyes</t>
-  </si>
-  <si>
-    <t>Toto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Yo Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.Y State of Mind</t>
-  </si>
-  <si>
-    <t>Nas</t>
-  </si>
-  <si>
-    <t>CREAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wu Tang Clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Party and Shit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give Up the Goods</t>
-  </si>
-  <si>
-    <t>Hypnotize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put it On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuthin'But A "G" Thang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Dre &amp; Snoop Dogg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It Was a Good Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) Rap (Modern)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendrick Lamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Pray for You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pusha T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Role Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet Coke</t>
-  </si>
-  <si>
-    <t>NightCrawler</t>
-  </si>
-  <si>
-    <t>CZARFACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Come Back Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry on Doubt</t>
-  </si>
-  <si>
-    <t>Hers</t>
-  </si>
-  <si>
-    <t>Telephones</t>
-  </si>
-  <si>
-    <t>Vacations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn the Tv off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killer Mike</t>
-  </si>
-  <si>
-    <t>Reagan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist the Stance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad Religion</t>
-  </si>
-  <si>
-    <t>Nookie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limp Bizkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrilla Radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rage Against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Separation of Church an Skate</t>
-  </si>
-  <si>
-    <t>Chimaera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Cigar</t>
-  </si>
-  <si>
-    <t>Millecolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holliday in Camboja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Kennydys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to Conquer the World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five Lessons Learned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swingin' Utters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do What You Want</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Entertaiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulls Parade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rage Againts the Machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuck Armageddon...(This is ...) Hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modern Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let Them eat war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 More Fools </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police Truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bro Hymn</t>
-  </si>
-  <si>
-    <t>Pennywise</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break Stuff</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Revolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self Esteem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Come Join Us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before You Die</t>
-  </si>
-  <si>
-    <t>Suffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep Now in the Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Paradise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) Slacker Rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the World</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you say i'm in love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANE'S WORLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Once Was</t>
-  </si>
-  <si>
-    <t>Her's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Attack</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glen Campbell</t>
-  </si>
-  <si>
-    <t>Palco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pela Cidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra de Sá</t>
-  </si>
-  <si>
-    <t>Miragem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djavan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassiano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evinha </t>
-  </si>
-  <si>
-    <t>Fullgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marina Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onda Negra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Sá</t>
-  </si>
-  <si>
-    <t>Lilás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Guanabara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindo Lago do Amor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzaguinha </t>
-  </si>
-  <si>
-    <t>Asa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lotus 72D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zé Roberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guarde Minha Voz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funk-se quem puder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djavan - Canto da Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a Long Way Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) EletroSwing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jolie Coquine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock it for Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lone Digger</t>
-  </si>
-  <si>
-    <t>Dramophone</t>
-  </si>
-  <si>
-    <t>Clash</t>
-  </si>
-  <si>
-    <t>Dragons</t>
-  </si>
-  <si>
-    <t>Suzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je m'amuse</t>
-  </si>
-  <si>
-    <t>Wonderland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booty Swing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parov Stelar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Night</t>
-  </si>
-  <si>
-    <t>Catgroove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mojo Radio Gang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad Boy Good Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tape 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinnamon Girl</t>
-  </si>
-  <si>
-    <t>[dunkelbunt]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games People Play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) PowerMetal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) The Pretenders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk of the Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th Predenters</t>
-  </si>
-  <si>
-    <t>Kid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back on the Chain Gang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brass in Pocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message of Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night in My Veins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't get me wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle of the Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymn to Her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thin Line Between Love and Hate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Miles</t>
-  </si>
-  <si>
-    <t>Otonoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creepy Nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Djavan</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linha do Equador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canto da Lira</t>
-  </si>
-  <si>
-    <t>Transe</t>
-  </si>
-  <si>
-    <t>Cigano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor de Liz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Zabadak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooi Ongaku</t>
-  </si>
-  <si>
-    <t>Zabadak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mizu no Sortilège</t>
-  </si>
-  <si>
-    <t>Psi-trailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Jorge Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assim Falou Santo Thomas de Aquino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermes Trismegisto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amante Amado</t>
-  </si>
-  <si>
-    <t>Berenice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Minutos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bom dia Boa Tarde Boa Noite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velhos, Flores e Criancinhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por Causa de Você, Menina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O homem da Gravata Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha Estrela É do Oriente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que Pena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ive Brussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina, Carol Bela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Banda do Zé Pretinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirogyra Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menina Mulher da Pele Preta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que é Proibido Pisar na Grama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bebete Vão Bora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Alquimistas estão chegando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oba, la vem ela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chama Curumin</t>
-  </si>
-  <si>
-    <t>Domingas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Fishmans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikareta Baby</t>
-  </si>
-  <si>
-    <t>Fishmans</t>
-  </si>
-  <si>
-    <t>あの娘が眠ってる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slow Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Blue</t>
-  </si>
-  <si>
-    <t>Zuttomae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すばらしくてNICE CHOICE</t>
-  </si>
-  <si>
-    <t>ひこうき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) PizzicatoFive</t>
-  </si>
-  <si>
-    <t>Triste</t>
-  </si>
-  <si>
-    <t>PizzicatoFive</t>
-  </si>
-  <si>
-    <t>きみみたいにきれいな女の子</t>
-  </si>
-  <si>
-    <t>メッセージソング</t>
-  </si>
-  <si>
-    <t>ベイビィ・ポータブル・ロック</t>
-  </si>
-  <si>
-    <t>ウィークエンド</t>
-  </si>
-  <si>
-    <t>東京は夜の七時</t>
-  </si>
-  <si>
-    <t>スウィート・ソウル・レヴュー</t>
-  </si>
-  <si>
-    <t>イッツ・ア・ビューティフル・デイ</t>
-  </si>
-  <si>
-    <t>陽の当たる大通り</t>
-  </si>
-  <si>
-    <t>恋のルール・新しいルール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Love Child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) MFDOOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhymes Like Dimes</t>
-  </si>
-  <si>
-    <t>MFDOOM</t>
-  </si>
-  <si>
-    <t>Accordion</t>
-  </si>
-  <si>
-    <t>Fazers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Beer</t>
-  </si>
-  <si>
-    <t>Doomsday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoe Cakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Fried Frenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November has Come</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapp Snitch Knishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meat Grinder</t>
-  </si>
-  <si>
-    <t>Curls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figaro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strange Ways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fancy Clown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Caps</t>
-  </si>
-  <si>
-    <t>Raid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) The Police</t>
-  </si>
-  <si>
-    <t>Roxane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrapped Around Your Finger</t>
-  </si>
-  <si>
-    <t>Synchronicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Ramemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba do Brasil (Borel Flip)</t>
-  </si>
-  <si>
-    <t>Ramemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peek a Boo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tudo 2 vs Macintosh plus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamber of Baile Funk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bvcet@o Triste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretty Girl of Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Im Yours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamando ela foi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 20 ela fuma m@c0nh@ 4 30 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudade da Minhas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stereolove vs Baile do Jaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funk Japones 150bpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skrillex Vs Baile do Jaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunny Girl Vs Beat Neymar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Order te chama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crimewave no Juramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tambor Comga vs Relíquias Internacionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramemes &amp; Phobos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo-fi pai da facção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macete Futuristico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu adoro quando você</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTG - FULL METAL VS FODASE TO NEM AI (DJ RAMEMES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencia de Molchat Doma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Tacação Shy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanborzin da Wandinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beat do Terraria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brotei no baile do Japão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funk Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bafora Pedrinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tame Impala na pvt@ria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mão na X&amp;r&amp;c@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenzinho dos Traficantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deixa acontecer naturalmente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthquak do Chapadão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summereletrohits vs tambor conga</t>
-  </si>
-  <si>
-    <t>Verzache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEQUENCIA 10 MIN - TAMBOR CONGA VS RELIQUÍAS INTERNACIONAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baile Groove Do Vuk Mal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTG - Buttlefly X Senta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riders on The Baile Funk - RaMeMes &amp; $rpr1m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(This is ...) Kanye West / Ye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENSORI OVERLOAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanye West/Ye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father Stretch My Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pure Souls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bound 2</t>
-  </si>
-  <si>
-    <t>Heartless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devil in a New Dress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World War 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Digger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Falls Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of the Lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flashing Lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Through The Wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't Tell Me Nothing</t>
-  </si>
-  <si>
-    <t>Stronger</t>
-  </si>
-  <si>
-    <t>Runaway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed on Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Walks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Tell me Nothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO HANDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joey Valence &amp; Brae</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>DOUGHBOY</t>
-  </si>
-  <si>
-    <t>Anti-Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Genre) CityPop</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiko Nakahara</t>
-  </si>
-  <si>
-    <t>誤解</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kato Yuki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F L Y</t>
-  </si>
-  <si>
-    <t>Spectrum</t>
-  </si>
-  <si>
-    <t>じゃじゃ馬娘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taehko ohnuki</t>
-  </si>
-  <si>
-    <t>Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miki Matsubara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transit In Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega Tribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junko Ohashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just a Joke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yurie Kokubu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dress Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaoru Akimoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flyday Chinatown</t>
-  </si>
-  <si>
-    <t>Yasuha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny Lady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Sato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stardust Night</t>
-  </si>
-  <si>
-    <t>Jadoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokyo Reggie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masayoshi Takanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolphin in Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingo Hamada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toshiki Kadomatsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taeko Ohnuki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAY CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junko Yagami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitonatsu no Tapestry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mystical Composer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kikuchi Momoko</t>
-  </si>
-  <si>
-    <t>Kagerou</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY LIFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noriko Miyamoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stay Girl Stay Pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shyness Boy</t>
-  </si>
-  <si>
-    <t>Anri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガラスのPALM TREE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazzy Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunset Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reiko Takahashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayonaka no Joke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takako Mamiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Love You So</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love Trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good Buy Boogie Dance</t>
-  </si>
-  <si>
-    <t>くすりをたくさん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatsuro Yamashita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK JACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLLING MEMORIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Rain</t>
-  </si>
-  <si>
-    <t>イフ(If)</t>
-  </si>
-  <si>
-    <t>雪の中の少女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makoto Imai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling Memories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiyotaka Sugiyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kindan no Telepathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shizuka Kudo</t>
-  </si>
-  <si>
-    <t>サファリ・ナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Breeze</t>
+    <t>Gita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Seixas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixa a Gira GIrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Tincoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Alquimistas Estão Chegando</t>
+  </si>
+  <si>
+    <t>Exotérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave Lucifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Mutantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte Castelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se quiser falar com Deus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Polarizada</t>
+  </si>
+  <si>
+    <t>Astralização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa das Máquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Da Capadócia</t>
   </si>
 </sst>
 </file>
@@ -5438,7 +5492,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5464,11 +5518,9 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5984,7 +6036,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1226" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21331,7 +21383,7 @@
       <c r="D1191"/>
       <c r="G1191"/>
     </row>
-    <row r="1192" ht="12.75">
+    <row r="1192" ht="12.75" hidden="1">
       <c r="A1192" t="s">
         <v>1707</v>
       </c>
@@ -21343,7 +21395,7 @@
       </c>
       <c r="D1192" s="1"/>
     </row>
-    <row r="1193" ht="12.75">
+    <row r="1193" ht="12.75" hidden="1">
       <c r="A1193" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21356,7 +21408,7 @@
       <c r="D1193" s="1"/>
       <c r="G1193" s="1"/>
     </row>
-    <row r="1194" ht="12.75">
+    <row r="1194" ht="12.75" hidden="1">
       <c r="A1194" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21368,7 +21420,7 @@
       </c>
       <c r="D1194" s="1"/>
     </row>
-    <row r="1195" ht="12.75">
+    <row r="1195" ht="12.75" hidden="1">
       <c r="A1195" s="1" t="s">
         <v>1707</v>
       </c>
@@ -21381,8 +21433,8 @@
       <c r="D1195"/>
       <c r="G1195"/>
     </row>
-    <row r="1196" ht="12.75">
-      <c r="A1196" s="11" t="s">
+    <row r="1196" ht="12.75" hidden="1">
+      <c r="A1196" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="B1196" t="s">
@@ -21393,7 +21445,7 @@
       </c>
       <c r="D1196" s="1"/>
     </row>
-    <row r="1197" ht="12.75">
+    <row r="1197" ht="12.75" hidden="1">
       <c r="A1197" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21406,7 +21458,7 @@
       <c r="D1197"/>
       <c r="G1197"/>
     </row>
-    <row r="1198" ht="12.75">
+    <row r="1198" ht="12.75" hidden="1">
       <c r="A1198" s="1" t="s">
         <v>1707</v>
       </c>
@@ -21418,7 +21470,7 @@
       </c>
       <c r="D1198" s="1"/>
     </row>
-    <row r="1199" ht="12.75">
+    <row r="1199" ht="12.75" hidden="1">
       <c r="A1199" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21431,7 +21483,7 @@
       <c r="D1199"/>
       <c r="G1199"/>
     </row>
-    <row r="1200" ht="12.75">
+    <row r="1200" ht="12.75" hidden="1">
       <c r="A1200" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21443,7 +21495,7 @@
       </c>
       <c r="D1200" s="1"/>
     </row>
-    <row r="1201" ht="12.75">
+    <row r="1201" ht="12.75" hidden="1">
       <c r="A1201" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21456,7 +21508,7 @@
       <c r="D1201"/>
       <c r="G1201"/>
     </row>
-    <row r="1202" ht="12.75">
+    <row r="1202" ht="12.75" hidden="1">
       <c r="A1202" s="1" t="s">
         <v>1707</v>
       </c>
@@ -21468,7 +21520,7 @@
       </c>
       <c r="D1202" s="1"/>
     </row>
-    <row r="1203" ht="12.75">
+    <row r="1203" ht="12.75" hidden="1">
       <c r="A1203" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21481,7 +21533,7 @@
       <c r="D1203"/>
       <c r="G1203"/>
     </row>
-    <row r="1204" ht="12.75">
+    <row r="1204" ht="12.75" hidden="1">
       <c r="A1204" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21493,7 +21545,7 @@
       </c>
       <c r="D1204" s="1"/>
     </row>
-    <row r="1205" ht="12.75">
+    <row r="1205" ht="12.75" hidden="1">
       <c r="A1205" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21506,7 +21558,7 @@
       <c r="D1205"/>
       <c r="G1205"/>
     </row>
-    <row r="1206" ht="12.75">
+    <row r="1206" ht="12.75" hidden="1">
       <c r="A1206" s="1" t="s">
         <v>1707</v>
       </c>
@@ -21518,7 +21570,7 @@
       </c>
       <c r="D1206" s="1"/>
     </row>
-    <row r="1207" ht="12.75">
+    <row r="1207" ht="12.75" hidden="1">
       <c r="A1207" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21531,11 +21583,11 @@
       <c r="D1207"/>
       <c r="G1207"/>
     </row>
-    <row r="1208" ht="12.75">
+    <row r="1208" ht="12.75" hidden="1">
       <c r="A1208" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="B1208" s="12">
+      <c r="B1208" s="11">
         <v>0.16666666666666666</v>
       </c>
       <c r="C1208" t="s">
@@ -21543,7 +21595,7 @@
       </c>
       <c r="D1208" s="1"/>
     </row>
-    <row r="1209" ht="12.75">
+    <row r="1209" ht="12.75" hidden="1">
       <c r="A1209" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21556,7 +21608,7 @@
       <c r="D1209"/>
       <c r="G1209"/>
     </row>
-    <row r="1210" ht="12.75">
+    <row r="1210" ht="12.75" hidden="1">
       <c r="A1210" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21568,7 +21620,7 @@
       </c>
       <c r="D1210" s="1"/>
     </row>
-    <row r="1211" ht="12.75">
+    <row r="1211" ht="12.75" hidden="1">
       <c r="A1211" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21581,7 +21633,7 @@
       <c r="D1211"/>
       <c r="G1211"/>
     </row>
-    <row r="1212" ht="12.75">
+    <row r="1212" ht="12.75" hidden="1">
       <c r="A1212" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21593,7 +21645,7 @@
       </c>
       <c r="D1212" s="1"/>
     </row>
-    <row r="1213" ht="12.75">
+    <row r="1213" ht="12.75" hidden="1">
       <c r="A1213" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21606,7 +21658,7 @@
       <c r="D1213"/>
       <c r="G1213"/>
     </row>
-    <row r="1214" ht="12.75">
+    <row r="1214" ht="12.75" hidden="1">
       <c r="A1214" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21618,7 +21670,7 @@
       </c>
       <c r="D1214" s="1"/>
     </row>
-    <row r="1215" ht="12.75">
+    <row r="1215" ht="12.75" hidden="1">
       <c r="A1215" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21631,7 +21683,7 @@
       <c r="D1215"/>
       <c r="G1215"/>
     </row>
-    <row r="1216" ht="12.75">
+    <row r="1216" ht="12.75" hidden="1">
       <c r="A1216" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21643,7 +21695,7 @@
       </c>
       <c r="D1216" s="1"/>
     </row>
-    <row r="1217" ht="12.75">
+    <row r="1217" ht="12.75" hidden="1">
       <c r="A1217" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21656,7 +21708,7 @@
       <c r="D1217"/>
       <c r="G1217"/>
     </row>
-    <row r="1218" ht="12.75">
+    <row r="1218" ht="12.75" hidden="1">
       <c r="A1218" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21668,7 +21720,7 @@
       </c>
       <c r="D1218" s="1"/>
     </row>
-    <row r="1219" ht="12.75">
+    <row r="1219" ht="12.75" hidden="1">
       <c r="A1219" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21681,19 +21733,19 @@
       <c r="D1219"/>
       <c r="G1219"/>
     </row>
-    <row r="1220" ht="12.75">
+    <row r="1220" ht="12.75" hidden="1">
       <c r="A1220" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="B1220" s="11" t="s">
+      <c r="B1220" s="7" t="s">
         <v>1756</v>
       </c>
-      <c r="C1220" s="11" t="s">
+      <c r="C1220" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="D1220" s="1"/>
     </row>
-    <row r="1221" ht="12.75">
+    <row r="1221" ht="12.75" hidden="1">
       <c r="A1221" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21706,7 +21758,7 @@
       <c r="D1221"/>
       <c r="G1221"/>
     </row>
-    <row r="1222" ht="12.75">
+    <row r="1222" ht="12.75" hidden="1">
       <c r="A1222" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21718,7 +21770,7 @@
       </c>
       <c r="D1222" s="1"/>
     </row>
-    <row r="1223" ht="12.75">
+    <row r="1223" ht="12.75" hidden="1">
       <c r="A1223" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21731,7 +21783,7 @@
       <c r="D1223"/>
       <c r="G1223"/>
     </row>
-    <row r="1224" ht="12.75">
+    <row r="1224" ht="12.75" hidden="1">
       <c r="A1224" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21743,7 +21795,7 @@
       </c>
       <c r="D1224" s="1"/>
     </row>
-    <row r="1225" ht="12.75">
+    <row r="1225" ht="12.75" hidden="1">
       <c r="A1225" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21756,7 +21808,7 @@
       <c r="D1225"/>
       <c r="G1225"/>
     </row>
-    <row r="1226" ht="12.75">
+    <row r="1226" ht="12.75" hidden="1">
       <c r="A1226" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21768,7 +21820,7 @@
       </c>
       <c r="D1226" s="1"/>
     </row>
-    <row r="1227" ht="12.75">
+    <row r="1227" ht="12.75" hidden="1">
       <c r="A1227" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21778,9 +21830,9 @@
       <c r="C1227" t="s">
         <v>1719</v>
       </c>
-      <c r="D1227" s="13"/>
-    </row>
-    <row r="1228" ht="12.75">
+      <c r="D1227" s="1"/>
+    </row>
+    <row r="1228" ht="12.75" hidden="1">
       <c r="A1228" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21793,32 +21845,32 @@
       <c r="D1228"/>
       <c r="G1228"/>
     </row>
-    <row r="1229" ht="12.75">
+    <row r="1229" ht="12.75" hidden="1">
       <c r="A1229" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="B1229" s="11" t="s">
+      <c r="B1229" s="7" t="s">
         <v>1764</v>
       </c>
-      <c r="C1229" s="11" t="s">
+      <c r="C1229" s="7" t="s">
         <v>1765</v>
       </c>
       <c r="D1229" s="1"/>
     </row>
-    <row r="1230" ht="12.75">
+    <row r="1230" ht="12.75" hidden="1">
       <c r="A1230" s="10" t="s">
         <v>1707</v>
       </c>
       <c r="B1230" t="s">
         <v>1766</v>
       </c>
-      <c r="C1230" s="14" t="s">
+      <c r="C1230" s="12" t="s">
         <v>1711</v>
       </c>
       <c r="D1230"/>
       <c r="G1230"/>
     </row>
-    <row r="1231" ht="12.75">
+    <row r="1231" ht="12.75" hidden="1">
       <c r="A1231" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21830,7 +21882,7 @@
       </c>
       <c r="D1231" s="1"/>
     </row>
-    <row r="1232" ht="12.75">
+    <row r="1232" ht="12.75" hidden="1">
       <c r="A1232" s="6" t="s">
         <v>1707</v>
       </c>
@@ -21843,7 +21895,7 @@
       <c r="D1232"/>
       <c r="G1232"/>
     </row>
-    <row r="1233" ht="12.75">
+    <row r="1233" ht="12.75" hidden="1">
       <c r="A1233" s="6" t="s">
         <v>1707</v>
       </c>
@@ -21855,7 +21907,7 @@
       </c>
       <c r="D1233" s="1"/>
     </row>
-    <row r="1234" ht="12.75">
+    <row r="1234" ht="12.75" hidden="1">
       <c r="A1234" s="6" t="s">
         <v>1707</v>
       </c>
@@ -21868,7 +21920,7 @@
       <c r="D1234"/>
       <c r="G1234"/>
     </row>
-    <row r="1235" ht="12.75">
+    <row r="1235" ht="12.75" hidden="1">
       <c r="A1235" s="6" t="s">
         <v>1707</v>
       </c>
@@ -21880,7 +21932,7 @@
       </c>
       <c r="D1235" s="1"/>
     </row>
-    <row r="1236" ht="12.75">
+    <row r="1236" ht="12.75" hidden="1">
       <c r="A1236" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21893,7 +21945,7 @@
       <c r="D1236"/>
       <c r="G1236"/>
     </row>
-    <row r="1237" ht="12.75">
+    <row r="1237" ht="12.75" hidden="1">
       <c r="A1237" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21905,7 +21957,7 @@
       </c>
       <c r="D1237" s="1"/>
     </row>
-    <row r="1238" ht="12.75">
+    <row r="1238" ht="12.75" hidden="1">
       <c r="A1238" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21918,7 +21970,7 @@
       <c r="D1238"/>
       <c r="G1238"/>
     </row>
-    <row r="1239" ht="12.75">
+    <row r="1239" ht="12.75" hidden="1">
       <c r="A1239" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21930,1732 +21982,1826 @@
       </c>
       <c r="D1239" s="1"/>
     </row>
-    <row r="1240" ht="12.75">
-      <c r="A1240" s="1"/>
-      <c r="B1240" s="1"/>
-      <c r="C1240" s="1"/>
+    <row r="1240" ht="12.75" hidden="1">
+      <c r="A1240" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>1780</v>
+      </c>
       <c r="D1240"/>
       <c r="G1240"/>
     </row>
-    <row r="1241" ht="12.75">
-      <c r="A1241"/>
-      <c r="B1241"/>
-      <c r="C1241"/>
+    <row r="1241" ht="12.75" hidden="1">
+      <c r="A1241" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1504</v>
+      </c>
       <c r="D1241" s="1"/>
     </row>
     <row r="1242" ht="12.75">
-      <c r="A1242"/>
-      <c r="B1242"/>
-      <c r="C1242"/>
+      <c r="A1242" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1784</v>
+      </c>
       <c r="D1242"/>
       <c r="G1242"/>
     </row>
-    <row r="1243" ht="12.75">
+    <row r="1243" ht="12.75" hidden="1">
       <c r="A1243"/>
       <c r="B1243"/>
-      <c r="C1243"/>
+      <c r="C1243" t="s">
+        <v>423</v>
+      </c>
       <c r="D1243" s="1"/>
     </row>
     <row r="1244" ht="12.75">
-      <c r="A1244"/>
-      <c r="B1244"/>
-      <c r="C1244"/>
+      <c r="A1244" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1244" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>423</v>
+      </c>
       <c r="D1244"/>
       <c r="G1244"/>
     </row>
     <row r="1245" ht="12.75">
-      <c r="A1245"/>
-      <c r="B1245"/>
-      <c r="C1245"/>
+      <c r="A1245" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>1786</v>
+      </c>
       <c r="D1245" s="1"/>
     </row>
     <row r="1246" ht="12.75">
-      <c r="A1246"/>
-      <c r="B1246"/>
-      <c r="C1246"/>
-      <c r="D1246"/>
-      <c r="G1246"/>
+      <c r="A1246" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1246" s="1"/>
     </row>
     <row r="1247" ht="12.75">
-      <c r="A1247"/>
-      <c r="B1247"/>
-      <c r="C1247"/>
-      <c r="D1247" s="1"/>
+      <c r="A1247" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1247"/>
+      <c r="G1247"/>
     </row>
     <row r="1248" ht="12.75">
-      <c r="A1248"/>
-      <c r="B1248"/>
-      <c r="C1248"/>
+      <c r="A1248" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1248" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>423</v>
+      </c>
       <c r="D1248"/>
       <c r="G1248"/>
     </row>
     <row r="1249" ht="12.75">
-      <c r="A1249"/>
-      <c r="B1249"/>
-      <c r="C1249"/>
+      <c r="A1249" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>1790</v>
+      </c>
       <c r="D1249" s="1"/>
     </row>
     <row r="1250" ht="12.75">
-      <c r="A1250"/>
-      <c r="B1250"/>
-      <c r="C1250"/>
-      <c r="D1250"/>
-      <c r="G1250"/>
+      <c r="A1250" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1250" s="1"/>
     </row>
     <row r="1251" ht="12.75">
-      <c r="A1251"/>
-      <c r="B1251"/>
-      <c r="C1251"/>
-      <c r="D1251" s="1"/>
+      <c r="A1251" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>930</v>
+      </c>
+      <c r="D1251"/>
+      <c r="G1251"/>
     </row>
     <row r="1252" ht="12.75">
-      <c r="A1252"/>
-      <c r="B1252"/>
-      <c r="C1252"/>
-      <c r="D1252"/>
-      <c r="G1252"/>
+      <c r="A1252" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1252" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1252" s="1"/>
     </row>
     <row r="1253" ht="12.75">
-      <c r="A1253"/>
-      <c r="B1253"/>
-      <c r="C1253"/>
-      <c r="D1253" s="1"/>
+      <c r="A1253" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1253"/>
+      <c r="G1253"/>
     </row>
     <row r="1254" ht="12.75">
-      <c r="A1254"/>
-      <c r="B1254"/>
-      <c r="C1254"/>
-      <c r="D1254"/>
-      <c r="G1254"/>
+      <c r="A1254" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C1254" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1254" s="1"/>
     </row>
     <row r="1255" ht="12.75">
-      <c r="A1255"/>
-      <c r="B1255"/>
-      <c r="C1255"/>
+      <c r="A1255" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>1795</v>
+      </c>
       <c r="D1255" s="1"/>
     </row>
     <row r="1256" ht="12.75">
-      <c r="A1256"/>
-      <c r="B1256"/>
-      <c r="C1256"/>
-      <c r="D1256"/>
-      <c r="G1256"/>
+      <c r="A1256" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1256" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1256" s="1"/>
+      <c r="G1256" s="1"/>
     </row>
     <row r="1257" ht="12.75">
-      <c r="A1257"/>
-      <c r="B1257"/>
-      <c r="C1257"/>
-      <c r="D1257" s="1"/>
+      <c r="D1257"/>
+      <c r="G1257"/>
     </row>
     <row r="1258" ht="12.75">
       <c r="A1258"/>
       <c r="B1258"/>
       <c r="C1258"/>
-      <c r="D1258"/>
-      <c r="G1258"/>
+      <c r="D1258" s="1"/>
     </row>
     <row r="1259" ht="12.75">
-      <c r="A1259"/>
-      <c r="B1259"/>
-      <c r="C1259"/>
-      <c r="D1259" s="1"/>
+      <c r="D1259"/>
+      <c r="G1259"/>
     </row>
     <row r="1260" ht="12.75">
       <c r="A1260"/>
       <c r="B1260"/>
       <c r="C1260"/>
-      <c r="D1260"/>
-      <c r="G1260"/>
+      <c r="D1260" s="1"/>
     </row>
     <row r="1261" ht="12.75">
       <c r="A1261"/>
       <c r="B1261"/>
       <c r="C1261"/>
-      <c r="D1261" s="1"/>
+      <c r="D1261"/>
+      <c r="G1261"/>
     </row>
     <row r="1262" ht="12.75">
       <c r="A1262"/>
       <c r="B1262"/>
       <c r="C1262"/>
-      <c r="D1262"/>
-      <c r="G1262"/>
+      <c r="D1262" s="1"/>
     </row>
     <row r="1263" ht="12.75">
       <c r="A1263"/>
       <c r="B1263"/>
       <c r="C1263"/>
-      <c r="D1263" s="1"/>
+      <c r="D1263"/>
+      <c r="G1263"/>
     </row>
     <row r="1264" ht="12.75">
       <c r="A1264"/>
       <c r="B1264"/>
       <c r="C1264"/>
-      <c r="D1264"/>
-      <c r="G1264"/>
+      <c r="D1264" s="1"/>
     </row>
     <row r="1265" ht="12.75">
       <c r="A1265"/>
       <c r="B1265"/>
       <c r="C1265"/>
-      <c r="D1265" s="1"/>
+      <c r="D1265"/>
+      <c r="G1265"/>
     </row>
     <row r="1266" ht="12.75">
       <c r="A1266"/>
       <c r="B1266"/>
       <c r="C1266"/>
-      <c r="D1266"/>
-      <c r="G1266"/>
+      <c r="D1266" s="1"/>
     </row>
     <row r="1267" ht="12.75">
       <c r="A1267"/>
       <c r="B1267"/>
       <c r="C1267"/>
-      <c r="D1267" s="1"/>
+      <c r="D1267"/>
+      <c r="G1267"/>
     </row>
     <row r="1268" ht="12.75">
       <c r="A1268"/>
       <c r="B1268"/>
       <c r="C1268"/>
-      <c r="D1268"/>
-      <c r="G1268"/>
+      <c r="D1268" s="1"/>
     </row>
     <row r="1269" ht="12.75">
       <c r="A1269"/>
       <c r="B1269"/>
       <c r="C1269"/>
-      <c r="D1269" s="1"/>
+      <c r="D1269"/>
+      <c r="G1269"/>
     </row>
     <row r="1270" ht="12.75">
       <c r="A1270"/>
       <c r="B1270"/>
       <c r="C1270"/>
-      <c r="D1270"/>
-      <c r="G1270"/>
+      <c r="D1270" s="1"/>
     </row>
     <row r="1271" ht="12.75">
       <c r="A1271"/>
       <c r="B1271"/>
       <c r="C1271"/>
-      <c r="D1271" s="1"/>
+      <c r="D1271"/>
+      <c r="G1271"/>
     </row>
     <row r="1272" ht="12.75">
       <c r="A1272"/>
       <c r="B1272"/>
       <c r="C1272"/>
-      <c r="D1272"/>
-      <c r="G1272"/>
+      <c r="D1272" s="1"/>
     </row>
     <row r="1273" ht="12.75">
       <c r="A1273"/>
       <c r="B1273"/>
       <c r="C1273"/>
-      <c r="D1273" s="1"/>
+      <c r="D1273"/>
+      <c r="G1273"/>
     </row>
     <row r="1274" ht="12.75">
       <c r="A1274"/>
       <c r="B1274"/>
       <c r="C1274"/>
-      <c r="D1274"/>
-      <c r="G1274"/>
+      <c r="D1274" s="1"/>
     </row>
     <row r="1275" ht="12.75">
       <c r="A1275"/>
       <c r="B1275"/>
       <c r="C1275"/>
-      <c r="D1275" s="1"/>
+      <c r="D1275"/>
+      <c r="G1275"/>
     </row>
     <row r="1276" ht="12.75">
       <c r="A1276"/>
       <c r="B1276"/>
       <c r="C1276"/>
-      <c r="D1276"/>
-      <c r="G1276"/>
+      <c r="D1276" s="1"/>
     </row>
     <row r="1277" ht="12.75">
       <c r="A1277"/>
       <c r="B1277"/>
       <c r="C1277"/>
-      <c r="D1277" s="1"/>
+      <c r="D1277"/>
+      <c r="G1277"/>
     </row>
     <row r="1278" ht="12.75">
       <c r="A1278"/>
       <c r="B1278"/>
       <c r="C1278"/>
-      <c r="D1278"/>
-      <c r="G1278"/>
+      <c r="D1278" s="1"/>
     </row>
     <row r="1279" ht="12.75">
       <c r="A1279"/>
       <c r="B1279"/>
       <c r="C1279"/>
-      <c r="D1279" s="1"/>
+      <c r="D1279"/>
+      <c r="G1279"/>
     </row>
     <row r="1280" ht="12.75">
       <c r="A1280"/>
       <c r="B1280"/>
       <c r="C1280"/>
-      <c r="D1280"/>
-      <c r="G1280"/>
+      <c r="D1280" s="1"/>
     </row>
     <row r="1281" ht="12.75">
       <c r="A1281"/>
       <c r="B1281"/>
       <c r="C1281"/>
-      <c r="D1281" s="1"/>
+      <c r="D1281"/>
+      <c r="G1281"/>
     </row>
     <row r="1282" ht="12.75">
       <c r="A1282"/>
       <c r="B1282"/>
       <c r="C1282"/>
-      <c r="D1282"/>
-      <c r="G1282"/>
+      <c r="D1282" s="1"/>
     </row>
     <row r="1283" ht="12.75">
       <c r="A1283"/>
       <c r="B1283"/>
       <c r="C1283"/>
-      <c r="D1283" s="1"/>
+      <c r="D1283"/>
+      <c r="G1283"/>
     </row>
     <row r="1284" ht="12.75">
       <c r="A1284"/>
       <c r="B1284"/>
       <c r="C1284"/>
-      <c r="D1284"/>
-      <c r="G1284"/>
+      <c r="D1284" s="1"/>
     </row>
     <row r="1285" ht="12.75">
       <c r="A1285"/>
       <c r="B1285"/>
       <c r="C1285"/>
-      <c r="D1285" s="1"/>
+      <c r="D1285"/>
+      <c r="G1285"/>
     </row>
     <row r="1286" ht="12.75">
       <c r="A1286"/>
       <c r="B1286"/>
       <c r="C1286"/>
-      <c r="D1286"/>
-      <c r="G1286"/>
+      <c r="D1286" s="1"/>
     </row>
     <row r="1287" ht="12.75">
       <c r="A1287"/>
       <c r="B1287"/>
       <c r="C1287"/>
-      <c r="D1287" s="1"/>
+      <c r="D1287"/>
+      <c r="G1287"/>
     </row>
     <row r="1288" ht="12.75">
       <c r="A1288"/>
       <c r="B1288"/>
       <c r="C1288"/>
-      <c r="D1288"/>
-      <c r="G1288"/>
+      <c r="D1288" s="1"/>
     </row>
     <row r="1289" ht="12.75">
       <c r="A1289"/>
       <c r="B1289"/>
       <c r="C1289"/>
-      <c r="D1289" s="1"/>
+      <c r="D1289"/>
+      <c r="G1289"/>
     </row>
     <row r="1290" ht="12.75">
       <c r="A1290"/>
       <c r="B1290"/>
       <c r="C1290"/>
-      <c r="D1290"/>
-      <c r="G1290"/>
+      <c r="D1290" s="1"/>
     </row>
     <row r="1291" ht="12.75">
       <c r="A1291"/>
       <c r="B1291"/>
       <c r="C1291"/>
-      <c r="D1291" s="1"/>
+      <c r="D1291"/>
+      <c r="G1291"/>
     </row>
     <row r="1292" ht="12.75">
       <c r="A1292"/>
       <c r="B1292"/>
       <c r="C1292"/>
-      <c r="D1292"/>
-      <c r="G1292"/>
+      <c r="D1292" s="1"/>
     </row>
     <row r="1293" ht="12.75">
       <c r="A1293"/>
       <c r="B1293"/>
       <c r="C1293"/>
-      <c r="D1293" s="1"/>
+      <c r="D1293"/>
+      <c r="G1293"/>
     </row>
     <row r="1294" ht="12.75">
       <c r="A1294"/>
       <c r="B1294"/>
       <c r="C1294"/>
-      <c r="D1294"/>
-      <c r="G1294"/>
+      <c r="D1294" s="1"/>
     </row>
     <row r="1295" ht="12.75">
       <c r="A1295"/>
       <c r="B1295"/>
       <c r="C1295"/>
-      <c r="D1295" s="1"/>
+      <c r="D1295"/>
+      <c r="G1295"/>
     </row>
     <row r="1296" ht="12.75">
       <c r="A1296"/>
       <c r="B1296"/>
       <c r="C1296"/>
-      <c r="D1296"/>
-      <c r="G1296"/>
+      <c r="D1296" s="1"/>
     </row>
     <row r="1297" ht="12.75">
       <c r="A1297"/>
       <c r="B1297"/>
       <c r="C1297"/>
-      <c r="D1297" s="1"/>
+      <c r="D1297"/>
+      <c r="G1297"/>
     </row>
     <row r="1298" ht="12.75">
       <c r="A1298"/>
       <c r="B1298"/>
       <c r="C1298"/>
-      <c r="D1298"/>
-      <c r="G1298"/>
+      <c r="D1298" s="1"/>
     </row>
     <row r="1299" ht="12.75">
       <c r="A1299"/>
       <c r="B1299"/>
       <c r="C1299"/>
-      <c r="D1299" s="1"/>
+      <c r="D1299"/>
+      <c r="G1299"/>
     </row>
     <row r="1300" ht="12.75">
       <c r="A1300"/>
       <c r="B1300"/>
       <c r="C1300"/>
-      <c r="D1300"/>
-      <c r="G1300"/>
+      <c r="D1300" s="1"/>
     </row>
     <row r="1301" ht="12.75">
       <c r="A1301"/>
       <c r="B1301"/>
       <c r="C1301"/>
-      <c r="D1301" s="1"/>
+      <c r="D1301"/>
+      <c r="G1301"/>
     </row>
     <row r="1302" ht="12.75">
       <c r="A1302"/>
       <c r="B1302"/>
       <c r="C1302"/>
-      <c r="D1302"/>
-      <c r="G1302"/>
+      <c r="D1302" s="1"/>
     </row>
     <row r="1303" ht="12.75">
       <c r="A1303"/>
       <c r="B1303"/>
       <c r="C1303"/>
-      <c r="D1303" s="1"/>
+      <c r="D1303"/>
+      <c r="G1303"/>
     </row>
     <row r="1304" ht="12.75">
       <c r="A1304"/>
       <c r="B1304"/>
       <c r="C1304"/>
-      <c r="D1304"/>
-      <c r="G1304"/>
+      <c r="D1304" s="1"/>
     </row>
     <row r="1305" ht="12.75">
       <c r="A1305"/>
       <c r="B1305"/>
       <c r="C1305"/>
-      <c r="D1305" s="1"/>
+      <c r="D1305"/>
+      <c r="G1305"/>
     </row>
     <row r="1306" ht="12.75">
       <c r="A1306"/>
       <c r="B1306"/>
       <c r="C1306"/>
-      <c r="D1306"/>
-      <c r="G1306"/>
+      <c r="D1306" s="1"/>
     </row>
     <row r="1307" ht="12.75">
       <c r="A1307"/>
       <c r="B1307"/>
       <c r="C1307"/>
-      <c r="D1307" s="1"/>
+      <c r="D1307"/>
+      <c r="G1307"/>
     </row>
     <row r="1308" ht="12.75">
       <c r="A1308"/>
       <c r="B1308"/>
       <c r="C1308"/>
-      <c r="D1308"/>
-      <c r="G1308"/>
+      <c r="D1308" s="1"/>
     </row>
     <row r="1309" ht="12.75">
       <c r="A1309"/>
       <c r="B1309"/>
       <c r="C1309"/>
-      <c r="D1309" s="1"/>
+      <c r="D1309"/>
+      <c r="G1309"/>
     </row>
     <row r="1310" ht="12.75">
       <c r="A1310"/>
       <c r="B1310"/>
       <c r="C1310"/>
-      <c r="D1310"/>
-      <c r="G1310"/>
+      <c r="D1310" s="1"/>
     </row>
     <row r="1311" ht="12.75">
       <c r="A1311"/>
       <c r="B1311"/>
       <c r="C1311"/>
-      <c r="D1311" s="1"/>
+      <c r="D1311"/>
+      <c r="G1311"/>
     </row>
     <row r="1312" ht="12.75">
       <c r="A1312"/>
       <c r="B1312"/>
       <c r="C1312"/>
-      <c r="D1312"/>
-      <c r="G1312"/>
+      <c r="D1312" s="1"/>
     </row>
     <row r="1313" ht="12.75">
       <c r="A1313"/>
       <c r="B1313"/>
       <c r="C1313"/>
-      <c r="D1313" s="1"/>
+      <c r="D1313"/>
+      <c r="G1313"/>
     </row>
     <row r="1314" ht="12.75">
       <c r="A1314"/>
       <c r="B1314"/>
       <c r="C1314"/>
-      <c r="D1314"/>
-      <c r="G1314"/>
+      <c r="D1314" s="1"/>
     </row>
     <row r="1315" ht="12.75">
       <c r="A1315"/>
       <c r="B1315"/>
       <c r="C1315"/>
-      <c r="D1315" s="1"/>
+      <c r="D1315"/>
+      <c r="G1315"/>
     </row>
     <row r="1316" ht="12.75">
       <c r="A1316"/>
       <c r="B1316"/>
       <c r="C1316"/>
-      <c r="D1316"/>
-      <c r="G1316"/>
+      <c r="D1316" s="1"/>
     </row>
     <row r="1317" ht="12.75">
       <c r="A1317"/>
       <c r="B1317"/>
       <c r="C1317"/>
-      <c r="D1317" s="1"/>
+      <c r="D1317"/>
+      <c r="G1317"/>
     </row>
     <row r="1318" ht="12.75">
       <c r="A1318"/>
       <c r="B1318"/>
       <c r="C1318"/>
-      <c r="D1318"/>
-      <c r="G1318"/>
+      <c r="D1318" s="1"/>
     </row>
     <row r="1319" ht="12.75">
       <c r="A1319"/>
       <c r="B1319"/>
       <c r="C1319"/>
-      <c r="D1319" s="1"/>
+      <c r="D1319"/>
+      <c r="G1319"/>
     </row>
     <row r="1320" ht="12.75">
       <c r="A1320"/>
       <c r="B1320"/>
       <c r="C1320"/>
-      <c r="D1320"/>
-      <c r="G1320"/>
+      <c r="D1320" s="1"/>
     </row>
     <row r="1321" ht="12.75">
       <c r="A1321"/>
       <c r="B1321"/>
       <c r="C1321"/>
-      <c r="D1321" s="1"/>
+      <c r="D1321"/>
+      <c r="G1321"/>
     </row>
     <row r="1322" ht="12.75">
       <c r="A1322"/>
       <c r="B1322"/>
       <c r="C1322"/>
-      <c r="D1322"/>
-      <c r="G1322"/>
+      <c r="D1322" s="1"/>
     </row>
     <row r="1323" ht="12.75">
       <c r="A1323"/>
       <c r="B1323"/>
       <c r="C1323"/>
-      <c r="D1323" s="1"/>
+      <c r="D1323"/>
+      <c r="G1323"/>
     </row>
     <row r="1324" ht="12.75">
       <c r="A1324"/>
       <c r="B1324"/>
       <c r="C1324"/>
-      <c r="D1324"/>
-      <c r="G1324"/>
+      <c r="D1324" s="1"/>
     </row>
     <row r="1325" ht="12.75">
       <c r="A1325"/>
       <c r="B1325"/>
       <c r="C1325"/>
-      <c r="D1325" s="1"/>
+      <c r="D1325"/>
+      <c r="G1325"/>
     </row>
     <row r="1326" ht="12.75">
       <c r="A1326"/>
       <c r="B1326"/>
       <c r="C1326"/>
-      <c r="D1326"/>
-      <c r="G1326"/>
+      <c r="D1326" s="1"/>
     </row>
     <row r="1327" ht="12.75">
       <c r="A1327"/>
       <c r="B1327"/>
       <c r="C1327"/>
-      <c r="D1327" s="1"/>
+      <c r="D1327"/>
+      <c r="G1327"/>
     </row>
     <row r="1328" ht="12.75">
       <c r="A1328"/>
       <c r="B1328"/>
       <c r="C1328"/>
-      <c r="D1328"/>
-      <c r="G1328"/>
+      <c r="D1328" s="1"/>
     </row>
     <row r="1329" ht="12.75">
       <c r="A1329"/>
       <c r="B1329"/>
       <c r="C1329"/>
-      <c r="D1329" s="1"/>
+      <c r="D1329"/>
+      <c r="G1329"/>
     </row>
     <row r="1330" ht="12.75">
       <c r="A1330"/>
       <c r="B1330"/>
       <c r="C1330"/>
-      <c r="D1330"/>
-      <c r="G1330"/>
+      <c r="D1330" s="1"/>
     </row>
     <row r="1331" ht="12.75">
       <c r="A1331"/>
       <c r="B1331"/>
       <c r="C1331"/>
-      <c r="D1331" s="1"/>
+      <c r="D1331"/>
+      <c r="G1331"/>
     </row>
     <row r="1332" ht="12.75">
       <c r="A1332"/>
       <c r="B1332"/>
       <c r="C1332"/>
-      <c r="D1332"/>
-      <c r="G1332"/>
+      <c r="D1332" s="1"/>
     </row>
     <row r="1333" ht="12.75">
       <c r="A1333"/>
       <c r="B1333"/>
       <c r="C1333"/>
-      <c r="D1333" s="1"/>
+      <c r="D1333"/>
+      <c r="G1333"/>
     </row>
     <row r="1334" ht="12.75">
       <c r="A1334"/>
       <c r="B1334"/>
       <c r="C1334"/>
-      <c r="D1334"/>
-      <c r="G1334"/>
+      <c r="D1334" s="1"/>
     </row>
     <row r="1335" ht="12.75">
       <c r="A1335"/>
       <c r="B1335"/>
       <c r="C1335"/>
-      <c r="D1335" s="1"/>
+      <c r="D1335"/>
+      <c r="G1335"/>
     </row>
     <row r="1336" ht="12.75">
       <c r="A1336"/>
       <c r="B1336"/>
       <c r="C1336"/>
-      <c r="D1336"/>
-      <c r="G1336"/>
+      <c r="D1336" s="1"/>
     </row>
     <row r="1337" ht="12.75">
       <c r="A1337"/>
       <c r="B1337"/>
       <c r="C1337"/>
-      <c r="D1337" s="1"/>
+      <c r="D1337"/>
+      <c r="G1337"/>
     </row>
     <row r="1338" ht="12.75">
       <c r="A1338"/>
       <c r="B1338"/>
       <c r="C1338"/>
-      <c r="D1338"/>
-      <c r="G1338"/>
+      <c r="D1338" s="1"/>
     </row>
     <row r="1339" ht="12.75">
       <c r="A1339"/>
       <c r="B1339"/>
       <c r="C1339"/>
-      <c r="D1339" s="1"/>
+      <c r="D1339"/>
+      <c r="G1339"/>
     </row>
     <row r="1340" ht="12.75">
       <c r="A1340"/>
       <c r="B1340"/>
       <c r="C1340"/>
-      <c r="D1340"/>
-      <c r="G1340"/>
+      <c r="D1340" s="1"/>
     </row>
     <row r="1341" ht="12.75">
       <c r="A1341"/>
       <c r="B1341"/>
       <c r="C1341"/>
-      <c r="D1341" s="1"/>
+      <c r="D1341"/>
+      <c r="G1341"/>
     </row>
     <row r="1342" ht="12.75">
       <c r="A1342"/>
       <c r="B1342"/>
       <c r="C1342"/>
-      <c r="D1342"/>
-      <c r="G1342"/>
+      <c r="D1342" s="1"/>
     </row>
     <row r="1343" ht="12.75">
       <c r="A1343"/>
       <c r="B1343"/>
       <c r="C1343"/>
-      <c r="D1343" s="1"/>
+      <c r="D1343"/>
+      <c r="G1343"/>
     </row>
     <row r="1344" ht="12.75">
       <c r="A1344"/>
       <c r="B1344"/>
       <c r="C1344"/>
-      <c r="D1344"/>
-      <c r="G1344"/>
+      <c r="D1344" s="1"/>
     </row>
     <row r="1345" ht="12.75">
       <c r="A1345"/>
       <c r="B1345"/>
       <c r="C1345"/>
-      <c r="D1345" s="1"/>
+      <c r="D1345"/>
+      <c r="G1345"/>
     </row>
     <row r="1346" ht="12.75">
       <c r="A1346"/>
       <c r="B1346"/>
       <c r="C1346"/>
-      <c r="D1346"/>
-      <c r="G1346"/>
+      <c r="D1346" s="1"/>
     </row>
     <row r="1347" ht="12.75">
       <c r="A1347"/>
       <c r="B1347"/>
       <c r="C1347"/>
-      <c r="D1347" s="1"/>
+      <c r="D1347"/>
+      <c r="G1347"/>
     </row>
     <row r="1348" ht="12.75">
       <c r="A1348"/>
       <c r="B1348"/>
       <c r="C1348"/>
-      <c r="D1348"/>
-      <c r="G1348"/>
+      <c r="D1348" s="1"/>
     </row>
     <row r="1349" ht="12.75">
       <c r="A1349"/>
       <c r="B1349"/>
       <c r="C1349"/>
-      <c r="D1349" s="1"/>
+      <c r="D1349"/>
+      <c r="G1349"/>
     </row>
     <row r="1350" ht="12.75">
       <c r="A1350"/>
       <c r="B1350"/>
       <c r="C1350"/>
-      <c r="D1350"/>
-      <c r="G1350"/>
+      <c r="D1350" s="1"/>
     </row>
     <row r="1351" ht="12.75">
       <c r="A1351"/>
       <c r="B1351"/>
       <c r="C1351"/>
-      <c r="D1351" s="1"/>
+      <c r="D1351"/>
+      <c r="G1351"/>
     </row>
     <row r="1352" ht="12.75">
       <c r="A1352"/>
       <c r="B1352"/>
       <c r="C1352"/>
-      <c r="D1352"/>
-      <c r="G1352"/>
+      <c r="D1352" s="1"/>
     </row>
     <row r="1353" ht="12.75">
       <c r="A1353"/>
       <c r="B1353"/>
       <c r="C1353"/>
-      <c r="D1353" s="1"/>
+      <c r="D1353"/>
+      <c r="G1353"/>
     </row>
     <row r="1354" ht="12.75">
       <c r="A1354"/>
       <c r="B1354"/>
       <c r="C1354"/>
-      <c r="D1354"/>
-      <c r="G1354"/>
+      <c r="D1354" s="1"/>
     </row>
     <row r="1355" ht="12.75">
       <c r="A1355"/>
       <c r="B1355"/>
       <c r="C1355"/>
-      <c r="D1355" s="1"/>
+      <c r="D1355"/>
+      <c r="G1355"/>
     </row>
     <row r="1356" ht="12.75">
       <c r="A1356"/>
       <c r="B1356"/>
       <c r="C1356"/>
-      <c r="D1356"/>
-      <c r="G1356"/>
+      <c r="D1356" s="1"/>
     </row>
     <row r="1357" ht="12.75">
       <c r="A1357"/>
       <c r="B1357"/>
       <c r="C1357"/>
-      <c r="D1357" s="1"/>
+      <c r="D1357"/>
+      <c r="G1357"/>
     </row>
     <row r="1358" ht="12.75">
       <c r="A1358"/>
       <c r="B1358"/>
       <c r="C1358"/>
-      <c r="D1358"/>
-      <c r="G1358"/>
+      <c r="D1358" s="1"/>
     </row>
     <row r="1359" ht="12.75">
       <c r="A1359"/>
       <c r="B1359"/>
       <c r="C1359"/>
-      <c r="D1359" s="1"/>
+      <c r="D1359"/>
+      <c r="G1359"/>
     </row>
     <row r="1360" ht="12.75">
       <c r="A1360"/>
       <c r="B1360"/>
       <c r="C1360"/>
-      <c r="D1360"/>
-      <c r="G1360"/>
+      <c r="D1360" s="1"/>
     </row>
     <row r="1361" ht="12.75">
       <c r="A1361"/>
       <c r="B1361"/>
       <c r="C1361"/>
-      <c r="D1361" s="1"/>
+      <c r="D1361"/>
+      <c r="G1361"/>
     </row>
     <row r="1362" ht="12.75">
       <c r="A1362"/>
       <c r="B1362"/>
       <c r="C1362"/>
-      <c r="D1362"/>
-      <c r="G1362"/>
+      <c r="D1362" s="1"/>
     </row>
     <row r="1363" ht="12.75">
       <c r="A1363"/>
       <c r="B1363"/>
       <c r="C1363"/>
-      <c r="D1363" s="1"/>
+      <c r="D1363"/>
+      <c r="G1363"/>
     </row>
     <row r="1364" ht="12.75">
       <c r="A1364"/>
       <c r="B1364"/>
       <c r="C1364"/>
-      <c r="D1364"/>
-      <c r="G1364"/>
+      <c r="D1364" s="1"/>
     </row>
     <row r="1365" ht="12.75">
       <c r="A1365"/>
       <c r="B1365"/>
       <c r="C1365"/>
-      <c r="D1365" s="1"/>
+      <c r="D1365"/>
+      <c r="G1365"/>
     </row>
     <row r="1366" ht="12.75">
       <c r="A1366"/>
       <c r="B1366"/>
       <c r="C1366"/>
-      <c r="D1366"/>
-      <c r="G1366"/>
+      <c r="D1366" s="1"/>
     </row>
     <row r="1367" ht="12.75">
       <c r="A1367"/>
       <c r="B1367"/>
       <c r="C1367"/>
-      <c r="D1367" s="1"/>
+      <c r="D1367"/>
+      <c r="G1367"/>
     </row>
     <row r="1368" ht="12.75">
       <c r="A1368"/>
       <c r="B1368"/>
       <c r="C1368"/>
-      <c r="D1368"/>
-      <c r="G1368"/>
+      <c r="D1368" s="1"/>
     </row>
     <row r="1369" ht="12.75">
       <c r="A1369"/>
       <c r="B1369"/>
       <c r="C1369"/>
-      <c r="D1369" s="1"/>
+      <c r="D1369"/>
+      <c r="G1369"/>
     </row>
     <row r="1370" ht="12.75">
       <c r="A1370"/>
       <c r="B1370"/>
       <c r="C1370"/>
-      <c r="D1370"/>
-      <c r="G1370"/>
+      <c r="D1370" s="1"/>
     </row>
     <row r="1371" ht="12.75">
       <c r="A1371"/>
       <c r="B1371"/>
       <c r="C1371"/>
-      <c r="D1371" s="1"/>
+      <c r="D1371"/>
+      <c r="G1371"/>
     </row>
     <row r="1372" ht="12.75">
       <c r="A1372"/>
       <c r="B1372"/>
       <c r="C1372"/>
-      <c r="D1372"/>
-      <c r="G1372"/>
+      <c r="D1372" s="1"/>
     </row>
     <row r="1373" ht="12.75">
       <c r="A1373"/>
       <c r="B1373"/>
       <c r="C1373"/>
-      <c r="D1373" s="1"/>
+      <c r="D1373"/>
+      <c r="G1373"/>
     </row>
     <row r="1374" ht="12.75">
       <c r="A1374"/>
       <c r="B1374"/>
       <c r="C1374"/>
-      <c r="D1374"/>
-      <c r="G1374"/>
+      <c r="D1374" s="1"/>
     </row>
     <row r="1375" ht="12.75">
       <c r="A1375"/>
       <c r="B1375"/>
       <c r="C1375"/>
-      <c r="D1375" s="1"/>
+      <c r="D1375"/>
+      <c r="G1375"/>
     </row>
     <row r="1376" ht="12.75">
       <c r="A1376"/>
       <c r="B1376"/>
       <c r="C1376"/>
-      <c r="D1376"/>
-      <c r="G1376"/>
+      <c r="D1376" s="1"/>
     </row>
     <row r="1377" ht="12.75">
       <c r="A1377"/>
       <c r="B1377"/>
       <c r="C1377"/>
-      <c r="D1377" s="1"/>
+      <c r="D1377"/>
+      <c r="G1377"/>
     </row>
     <row r="1378" ht="12.75">
       <c r="A1378"/>
       <c r="B1378"/>
       <c r="C1378"/>
-      <c r="D1378"/>
-      <c r="G1378"/>
+      <c r="D1378" s="1"/>
     </row>
     <row r="1379" ht="12.75">
       <c r="A1379"/>
       <c r="B1379"/>
       <c r="C1379"/>
-      <c r="D1379" s="1"/>
+      <c r="D1379"/>
+      <c r="G1379"/>
     </row>
     <row r="1380" ht="12.75">
       <c r="A1380"/>
       <c r="B1380"/>
       <c r="C1380"/>
-      <c r="D1380"/>
-      <c r="G1380"/>
+      <c r="D1380" s="1"/>
     </row>
     <row r="1381" ht="12.75">
       <c r="A1381"/>
       <c r="B1381"/>
       <c r="C1381"/>
-      <c r="D1381" s="1"/>
+      <c r="D1381"/>
+      <c r="G1381"/>
     </row>
     <row r="1382" ht="12.75">
       <c r="A1382"/>
       <c r="B1382"/>
       <c r="C1382"/>
-      <c r="D1382"/>
-      <c r="G1382"/>
+      <c r="D1382" s="1"/>
     </row>
     <row r="1383" ht="12.75">
       <c r="A1383"/>
       <c r="B1383"/>
       <c r="C1383"/>
-      <c r="D1383" s="1"/>
+      <c r="D1383"/>
+      <c r="G1383"/>
     </row>
     <row r="1384" ht="12.75">
       <c r="A1384"/>
       <c r="B1384"/>
       <c r="C1384"/>
-      <c r="D1384"/>
-      <c r="G1384"/>
+      <c r="D1384" s="1"/>
     </row>
     <row r="1385" ht="12.75">
       <c r="A1385"/>
       <c r="B1385"/>
       <c r="C1385"/>
-      <c r="D1385" s="1"/>
+      <c r="D1385"/>
+      <c r="G1385"/>
     </row>
     <row r="1386" ht="12.75">
       <c r="A1386"/>
       <c r="B1386"/>
       <c r="C1386"/>
-      <c r="D1386"/>
-      <c r="G1386"/>
+      <c r="D1386" s="1"/>
     </row>
     <row r="1387" ht="12.75">
       <c r="A1387"/>
       <c r="B1387"/>
       <c r="C1387"/>
-      <c r="D1387" s="1"/>
+      <c r="D1387"/>
+      <c r="G1387"/>
     </row>
     <row r="1388" ht="12.75">
       <c r="A1388"/>
       <c r="B1388"/>
       <c r="C1388"/>
-      <c r="D1388"/>
-      <c r="G1388"/>
+      <c r="D1388" s="1"/>
     </row>
     <row r="1389" ht="12.75">
       <c r="A1389"/>
       <c r="B1389"/>
       <c r="C1389"/>
-      <c r="D1389" s="1"/>
+      <c r="D1389"/>
+      <c r="G1389"/>
     </row>
     <row r="1390" ht="12.75">
       <c r="A1390"/>
       <c r="B1390"/>
       <c r="C1390"/>
-      <c r="D1390"/>
-      <c r="G1390"/>
+      <c r="D1390" s="1"/>
     </row>
     <row r="1391" ht="12.75">
       <c r="A1391"/>
       <c r="B1391"/>
       <c r="C1391"/>
-      <c r="D1391" s="1"/>
+      <c r="D1391"/>
+      <c r="G1391"/>
     </row>
     <row r="1392" ht="12.75">
       <c r="A1392"/>
       <c r="B1392"/>
       <c r="C1392"/>
-      <c r="D1392"/>
-      <c r="G1392"/>
+      <c r="D1392" s="1"/>
     </row>
     <row r="1393" ht="12.75">
       <c r="A1393"/>
       <c r="B1393"/>
       <c r="C1393"/>
-      <c r="D1393" s="1"/>
+      <c r="D1393"/>
+      <c r="G1393"/>
     </row>
     <row r="1394" ht="12.75">
       <c r="A1394"/>
       <c r="B1394"/>
       <c r="C1394"/>
-      <c r="D1394"/>
-      <c r="G1394"/>
+      <c r="D1394" s="1"/>
     </row>
     <row r="1395" ht="12.75">
       <c r="A1395"/>
       <c r="B1395"/>
       <c r="C1395"/>
-      <c r="D1395" s="1"/>
+      <c r="D1395"/>
+      <c r="G1395"/>
     </row>
     <row r="1396" ht="12.75">
       <c r="A1396"/>
       <c r="B1396"/>
       <c r="C1396"/>
-      <c r="D1396"/>
-      <c r="G1396"/>
+      <c r="D1396" s="1"/>
     </row>
     <row r="1397" ht="12.75">
       <c r="A1397"/>
       <c r="B1397"/>
       <c r="C1397"/>
-      <c r="D1397" s="1"/>
+      <c r="D1397"/>
+      <c r="G1397"/>
     </row>
     <row r="1398" ht="12.75">
       <c r="A1398"/>
       <c r="B1398"/>
       <c r="C1398"/>
-      <c r="D1398"/>
-      <c r="G1398"/>
+      <c r="D1398" s="1"/>
     </row>
     <row r="1399" ht="12.75">
       <c r="A1399"/>
       <c r="B1399"/>
       <c r="C1399"/>
-      <c r="D1399" s="1"/>
+      <c r="D1399"/>
+      <c r="G1399"/>
     </row>
     <row r="1400" ht="12.75">
       <c r="A1400"/>
       <c r="B1400"/>
       <c r="C1400"/>
-      <c r="D1400"/>
-      <c r="G1400"/>
+      <c r="D1400" s="1"/>
     </row>
     <row r="1401" ht="12.75">
       <c r="A1401"/>
       <c r="B1401"/>
       <c r="C1401"/>
-      <c r="D1401" s="1"/>
+      <c r="D1401"/>
+      <c r="G1401"/>
     </row>
     <row r="1402" ht="12.75">
       <c r="A1402"/>
       <c r="B1402"/>
       <c r="C1402"/>
-      <c r="D1402"/>
-      <c r="G1402"/>
+      <c r="D1402" s="1"/>
     </row>
     <row r="1403" ht="12.75">
       <c r="A1403"/>
       <c r="B1403"/>
       <c r="C1403"/>
-      <c r="D1403" s="1"/>
+      <c r="D1403"/>
+      <c r="G1403"/>
     </row>
     <row r="1404" ht="12.75">
       <c r="A1404"/>
       <c r="B1404"/>
       <c r="C1404"/>
-      <c r="D1404"/>
-      <c r="G1404"/>
+      <c r="D1404" s="1"/>
     </row>
     <row r="1405" ht="12.75">
       <c r="A1405"/>
       <c r="B1405"/>
       <c r="C1405"/>
-      <c r="D1405" s="1"/>
+      <c r="D1405"/>
+      <c r="G1405"/>
     </row>
     <row r="1406" ht="12.75">
       <c r="A1406"/>
       <c r="B1406"/>
       <c r="C1406"/>
-      <c r="D1406"/>
-      <c r="G1406"/>
+      <c r="D1406" s="1"/>
     </row>
     <row r="1407" ht="12.75">
       <c r="A1407"/>
       <c r="B1407"/>
       <c r="C1407"/>
-      <c r="D1407" s="1"/>
+      <c r="D1407"/>
+      <c r="G1407"/>
     </row>
     <row r="1408" ht="12.75">
       <c r="A1408"/>
       <c r="B1408"/>
       <c r="C1408"/>
-      <c r="D1408"/>
-      <c r="G1408"/>
+      <c r="D1408" s="1"/>
     </row>
     <row r="1409" ht="12.75">
       <c r="A1409"/>
       <c r="B1409"/>
       <c r="C1409"/>
-      <c r="D1409" s="1"/>
+      <c r="D1409"/>
+      <c r="G1409"/>
     </row>
     <row r="1410" ht="12.75">
       <c r="A1410"/>
       <c r="B1410"/>
       <c r="C1410"/>
-      <c r="D1410"/>
-      <c r="G1410"/>
+      <c r="D1410" s="1"/>
     </row>
     <row r="1411" ht="12.75">
       <c r="A1411"/>
       <c r="B1411"/>
       <c r="C1411"/>
-      <c r="D1411" s="1"/>
+      <c r="D1411"/>
+      <c r="G1411"/>
     </row>
     <row r="1412" ht="12.75">
       <c r="A1412"/>
       <c r="B1412"/>
       <c r="C1412"/>
-      <c r="D1412"/>
-      <c r="G1412"/>
+      <c r="D1412" s="1"/>
     </row>
     <row r="1413" ht="12.75">
       <c r="A1413"/>
       <c r="B1413"/>
       <c r="C1413"/>
-      <c r="D1413" s="1"/>
+      <c r="D1413"/>
+      <c r="G1413"/>
     </row>
     <row r="1414" ht="12.75">
       <c r="A1414"/>
       <c r="B1414"/>
       <c r="C1414"/>
-      <c r="D1414"/>
-      <c r="G1414"/>
+      <c r="D1414" s="1"/>
     </row>
     <row r="1415" ht="12.75">
       <c r="A1415"/>
       <c r="B1415"/>
       <c r="C1415"/>
-      <c r="D1415" s="1"/>
+      <c r="D1415"/>
+      <c r="G1415"/>
     </row>
     <row r="1416" ht="12.75">
       <c r="A1416"/>
       <c r="B1416"/>
       <c r="C1416"/>
-      <c r="D1416"/>
-      <c r="G1416"/>
+      <c r="D1416" s="1"/>
     </row>
     <row r="1417" ht="12.75">
       <c r="A1417"/>
       <c r="B1417"/>
       <c r="C1417"/>
-      <c r="D1417" s="1"/>
+      <c r="D1417"/>
+      <c r="G1417"/>
     </row>
     <row r="1418" ht="12.75">
       <c r="A1418"/>
       <c r="B1418"/>
       <c r="C1418"/>
-      <c r="D1418"/>
-      <c r="G1418"/>
+      <c r="D1418" s="1"/>
     </row>
     <row r="1419" ht="12.75">
       <c r="A1419"/>
       <c r="B1419"/>
       <c r="C1419"/>
-      <c r="D1419" s="1"/>
+      <c r="D1419"/>
+      <c r="G1419"/>
     </row>
     <row r="1420" ht="12.75">
       <c r="A1420"/>
       <c r="B1420"/>
       <c r="C1420"/>
-      <c r="D1420"/>
-      <c r="G1420"/>
+      <c r="D1420" s="1"/>
     </row>
     <row r="1421" ht="12.75">
       <c r="A1421"/>
       <c r="B1421"/>
       <c r="C1421"/>
-      <c r="D1421" s="1"/>
+      <c r="D1421"/>
+      <c r="G1421"/>
     </row>
     <row r="1422" ht="12.75">
       <c r="A1422"/>
       <c r="B1422"/>
       <c r="C1422"/>
-      <c r="D1422"/>
-      <c r="G1422"/>
+      <c r="D1422" s="1"/>
     </row>
     <row r="1423" ht="12.75">
       <c r="A1423"/>
       <c r="B1423"/>
       <c r="C1423"/>
-      <c r="D1423" s="1"/>
+      <c r="D1423"/>
+      <c r="G1423"/>
     </row>
     <row r="1424" ht="12.75">
       <c r="A1424"/>
       <c r="B1424"/>
       <c r="C1424"/>
-      <c r="D1424"/>
-      <c r="G1424"/>
+      <c r="D1424" s="1"/>
     </row>
     <row r="1425" ht="12.75">
       <c r="A1425"/>
       <c r="B1425"/>
       <c r="C1425"/>
-      <c r="D1425" s="1"/>
+      <c r="D1425"/>
+      <c r="G1425"/>
     </row>
     <row r="1426" ht="12.75">
       <c r="A1426"/>
       <c r="B1426"/>
       <c r="C1426"/>
-      <c r="D1426"/>
-      <c r="G1426"/>
+      <c r="D1426" s="1"/>
     </row>
     <row r="1427" ht="12.75">
       <c r="A1427"/>
       <c r="B1427"/>
       <c r="C1427"/>
-      <c r="D1427" s="1"/>
+      <c r="D1427"/>
+      <c r="G1427"/>
     </row>
     <row r="1428" ht="12.75">
       <c r="A1428"/>
       <c r="B1428"/>
       <c r="C1428"/>
-      <c r="D1428"/>
-      <c r="G1428"/>
+      <c r="D1428" s="1"/>
     </row>
     <row r="1429" ht="12.75">
       <c r="A1429"/>
       <c r="B1429"/>
       <c r="C1429"/>
-      <c r="D1429" s="1"/>
+      <c r="D1429"/>
+      <c r="G1429"/>
     </row>
     <row r="1430" ht="12.75">
       <c r="A1430"/>
       <c r="B1430"/>
       <c r="C1430"/>
-      <c r="D1430"/>
-      <c r="G1430"/>
+      <c r="D1430" s="1"/>
     </row>
     <row r="1431" ht="12.75">
       <c r="A1431"/>
       <c r="B1431"/>
       <c r="C1431"/>
-      <c r="D1431" s="1"/>
+      <c r="D1431"/>
+      <c r="G1431"/>
     </row>
     <row r="1432" ht="12.75">
       <c r="A1432"/>
       <c r="B1432"/>
       <c r="C1432"/>
-      <c r="D1432"/>
-      <c r="G1432"/>
+      <c r="D1432" s="1"/>
     </row>
     <row r="1433" ht="12.75">
       <c r="A1433"/>
       <c r="B1433"/>
       <c r="C1433"/>
-      <c r="D1433" s="1"/>
+      <c r="D1433"/>
+      <c r="G1433"/>
     </row>
     <row r="1434" ht="12.75">
       <c r="A1434"/>
       <c r="B1434"/>
       <c r="C1434"/>
-      <c r="D1434"/>
-      <c r="G1434"/>
+      <c r="D1434" s="1"/>
     </row>
     <row r="1435" ht="12.75">
       <c r="A1435"/>
       <c r="B1435"/>
       <c r="C1435"/>
-      <c r="D1435" s="1"/>
+      <c r="D1435"/>
+      <c r="G1435"/>
     </row>
     <row r="1436" ht="12.75">
       <c r="A1436"/>
       <c r="B1436"/>
       <c r="C1436"/>
-      <c r="D1436"/>
-      <c r="G1436"/>
+      <c r="D1436" s="1"/>
     </row>
     <row r="1437" ht="12.75">
       <c r="A1437"/>
       <c r="B1437"/>
       <c r="C1437"/>
-      <c r="D1437" s="1"/>
+      <c r="D1437"/>
+      <c r="G1437"/>
     </row>
     <row r="1438" ht="12.75">
       <c r="A1438"/>
       <c r="B1438"/>
       <c r="C1438"/>
-      <c r="D1438"/>
-      <c r="G1438"/>
+      <c r="D1438" s="1"/>
     </row>
     <row r="1439" ht="12.75">
       <c r="A1439"/>
       <c r="B1439"/>
       <c r="C1439"/>
-      <c r="D1439" s="1"/>
+      <c r="D1439"/>
+      <c r="G1439"/>
     </row>
     <row r="1440" ht="12.75">
       <c r="A1440"/>
       <c r="B1440"/>
       <c r="C1440"/>
-      <c r="D1440"/>
-      <c r="G1440"/>
+      <c r="D1440" s="1"/>
     </row>
     <row r="1441" ht="12.75">
       <c r="A1441"/>
       <c r="B1441"/>
       <c r="C1441"/>
-      <c r="D1441" s="1"/>
+      <c r="D1441"/>
+      <c r="G1441"/>
     </row>
     <row r="1442" ht="12.75">
       <c r="A1442"/>
       <c r="B1442"/>
       <c r="C1442"/>
-      <c r="D1442"/>
-      <c r="G1442"/>
+      <c r="D1442" s="1"/>
     </row>
     <row r="1443" ht="12.75">
       <c r="A1443"/>
       <c r="B1443"/>
       <c r="C1443"/>
-      <c r="D1443" s="1"/>
+      <c r="D1443"/>
+      <c r="G1443"/>
     </row>
     <row r="1444" ht="12.75">
       <c r="A1444"/>
       <c r="B1444"/>
       <c r="C1444"/>
-      <c r="D1444"/>
-      <c r="G1444"/>
+      <c r="D1444" s="1"/>
     </row>
     <row r="1445" ht="12.75">
       <c r="A1445"/>
       <c r="B1445"/>
       <c r="C1445"/>
-      <c r="D1445" s="1"/>
+      <c r="D1445"/>
+      <c r="G1445"/>
     </row>
     <row r="1446" ht="12.75">
       <c r="A1446"/>
       <c r="B1446"/>
       <c r="C1446"/>
-      <c r="D1446"/>
-      <c r="G1446"/>
+      <c r="D1446" s="1"/>
     </row>
     <row r="1447" ht="12.75">
       <c r="A1447"/>
       <c r="B1447"/>
       <c r="C1447"/>
-      <c r="D1447" s="1"/>
+      <c r="D1447"/>
+      <c r="G1447"/>
     </row>
     <row r="1448" ht="12.75">
       <c r="A1448"/>
       <c r="B1448"/>
       <c r="C1448"/>
-      <c r="D1448"/>
-      <c r="G1448"/>
+      <c r="D1448" s="1"/>
     </row>
     <row r="1449" ht="12.75">
       <c r="A1449"/>
       <c r="B1449"/>
       <c r="C1449"/>
-      <c r="D1449" s="1"/>
+      <c r="D1449"/>
+      <c r="G1449"/>
     </row>
     <row r="1450" ht="12.75">
       <c r="A1450"/>
       <c r="B1450"/>
       <c r="C1450"/>
-      <c r="D1450"/>
-      <c r="G1450"/>
+      <c r="D1450" s="1"/>
     </row>
     <row r="1451" ht="12.75">
       <c r="A1451"/>
       <c r="B1451"/>
       <c r="C1451"/>
-      <c r="D1451" s="1"/>
+      <c r="D1451"/>
+      <c r="G1451"/>
     </row>
     <row r="1452" ht="12.75">
       <c r="A1452"/>
       <c r="B1452"/>
       <c r="C1452"/>
-      <c r="D1452"/>
-      <c r="G1452"/>
+      <c r="D1452" s="1"/>
     </row>
     <row r="1453" ht="12.75">
       <c r="A1453"/>
       <c r="B1453"/>
       <c r="C1453"/>
-      <c r="D1453" s="1"/>
+      <c r="D1453"/>
+      <c r="G1453"/>
     </row>
     <row r="1454" ht="12.75">
       <c r="A1454"/>
       <c r="B1454"/>
       <c r="C1454"/>
-      <c r="D1454"/>
-      <c r="G1454"/>
+      <c r="D1454" s="1"/>
     </row>
     <row r="1455" ht="12.75">
       <c r="A1455"/>
       <c r="B1455"/>
       <c r="C1455"/>
-      <c r="D1455" s="1"/>
+      <c r="D1455"/>
+      <c r="G1455"/>
     </row>
     <row r="1456" ht="12.75">
       <c r="A1456"/>
       <c r="B1456"/>
       <c r="C1456"/>
-      <c r="D1456"/>
-      <c r="G1456"/>
+      <c r="D1456" s="1"/>
     </row>
     <row r="1457" ht="12.75">
       <c r="A1457"/>
       <c r="B1457"/>
       <c r="C1457"/>
-      <c r="D1457" s="1"/>
+      <c r="D1457"/>
+      <c r="G1457"/>
     </row>
     <row r="1458" ht="12.75">
       <c r="A1458"/>
       <c r="B1458"/>
       <c r="C1458"/>
-      <c r="D1458"/>
-      <c r="G1458"/>
+      <c r="D1458" s="1"/>
     </row>
     <row r="1459" ht="12.75">
       <c r="A1459"/>
       <c r="B1459"/>
       <c r="C1459"/>
-      <c r="D1459" s="1"/>
+      <c r="D1459"/>
+      <c r="G1459"/>
     </row>
     <row r="1460" ht="12.75">
       <c r="A1460"/>
       <c r="B1460"/>
       <c r="C1460"/>
-      <c r="D1460"/>
-      <c r="G1460"/>
+      <c r="D1460" s="1"/>
     </row>
     <row r="1461" ht="12.75">
       <c r="A1461"/>
       <c r="B1461"/>
       <c r="C1461"/>
-      <c r="D1461" s="1"/>
+      <c r="D1461"/>
+      <c r="G1461"/>
     </row>
     <row r="1462" ht="12.75">
       <c r="A1462"/>
       <c r="B1462"/>
       <c r="C1462"/>
-      <c r="D1462"/>
-      <c r="G1462"/>
+      <c r="D1462" s="1"/>
     </row>
     <row r="1463" ht="12.75">
       <c r="A1463"/>
       <c r="B1463"/>
       <c r="C1463"/>
-      <c r="D1463" s="1"/>
+      <c r="D1463"/>
+      <c r="G1463"/>
     </row>
     <row r="1464" ht="12.75">
       <c r="A1464"/>
       <c r="B1464"/>
       <c r="C1464"/>
-      <c r="D1464"/>
-      <c r="G1464"/>
+      <c r="D1464" s="1"/>
     </row>
     <row r="1465" ht="12.75">
       <c r="A1465"/>
       <c r="B1465"/>
       <c r="C1465"/>
-      <c r="D1465" s="1"/>
+      <c r="D1465"/>
+      <c r="G1465"/>
     </row>
     <row r="1466" ht="12.75">
       <c r="A1466"/>
       <c r="B1466"/>
       <c r="C1466"/>
-      <c r="D1466"/>
-      <c r="G1466"/>
+      <c r="D1466" s="1"/>
     </row>
     <row r="1467" ht="12.75">
       <c r="A1467"/>
       <c r="B1467"/>
       <c r="C1467"/>
-      <c r="D1467" s="1"/>
+      <c r="D1467"/>
+      <c r="G1467"/>
     </row>
     <row r="1468" ht="12.75">
       <c r="A1468"/>
       <c r="B1468"/>
       <c r="C1468"/>
-      <c r="D1468"/>
-      <c r="G1468"/>
+      <c r="D1468" s="1"/>
     </row>
     <row r="1469" ht="12.75">
       <c r="A1469"/>
       <c r="B1469"/>
       <c r="C1469"/>
-      <c r="D1469" s="1"/>
+      <c r="D1469"/>
+      <c r="G1469"/>
     </row>
     <row r="1470" ht="12.75">
       <c r="A1470"/>
       <c r="B1470"/>
       <c r="C1470"/>
-      <c r="D1470"/>
-      <c r="G1470"/>
+      <c r="D1470" s="1"/>
     </row>
     <row r="1471" ht="12.75">
       <c r="A1471"/>
       <c r="B1471"/>
       <c r="C1471"/>
-      <c r="D1471" s="1"/>
+      <c r="D1471"/>
+      <c r="G1471"/>
     </row>
     <row r="1472" ht="12.75">
       <c r="A1472"/>
       <c r="B1472"/>
       <c r="C1472"/>
-      <c r="D1472"/>
-      <c r="G1472"/>
+      <c r="D1472" s="1"/>
     </row>
     <row r="1473" ht="12.75">
       <c r="A1473"/>
       <c r="B1473"/>
       <c r="C1473"/>
-      <c r="D1473" s="1"/>
+      <c r="D1473"/>
+      <c r="G1473"/>
     </row>
     <row r="1474" ht="12.75">
       <c r="A1474"/>
       <c r="B1474"/>
       <c r="C1474"/>
-      <c r="D1474"/>
-      <c r="G1474"/>
+      <c r="D1474" s="1"/>
     </row>
     <row r="1475" ht="12.75">
       <c r="A1475"/>
       <c r="B1475"/>
       <c r="C1475"/>
-      <c r="D1475" s="1"/>
+      <c r="D1475"/>
+      <c r="G1475"/>
     </row>
     <row r="1476" ht="12.75">
       <c r="A1476"/>
       <c r="B1476"/>
       <c r="C1476"/>
-      <c r="D1476"/>
-      <c r="G1476"/>
+      <c r="D1476" s="1"/>
     </row>
     <row r="1477" ht="12.75">
       <c r="A1477"/>
       <c r="B1477"/>
       <c r="C1477"/>
-      <c r="D1477" s="1"/>
+      <c r="D1477"/>
+      <c r="G1477"/>
     </row>
     <row r="1478" ht="12.75">
       <c r="A1478"/>
       <c r="B1478"/>
       <c r="C1478"/>
-      <c r="D1478"/>
-      <c r="G1478"/>
+      <c r="D1478" s="1"/>
     </row>
     <row r="1479" ht="12.75">
       <c r="A1479"/>
       <c r="B1479"/>
       <c r="C1479"/>
-      <c r="D1479" s="1"/>
+      <c r="D1479"/>
+      <c r="G1479"/>
     </row>
     <row r="1480" ht="12.75">
       <c r="A1480"/>
       <c r="B1480"/>
       <c r="C1480"/>
-      <c r="D1480"/>
-      <c r="G1480"/>
+      <c r="D1480" s="1"/>
     </row>
     <row r="1481" ht="12.75">
       <c r="A1481"/>
       <c r="B1481"/>
       <c r="C1481"/>
-      <c r="D1481" s="1"/>
+      <c r="D1481"/>
+      <c r="G1481"/>
     </row>
     <row r="1482" ht="12.75">
       <c r="A1482"/>
       <c r="B1482"/>
       <c r="C1482"/>
-      <c r="D1482"/>
-      <c r="G1482"/>
+      <c r="D1482" s="1"/>
     </row>
     <row r="1483" ht="12.75">
       <c r="A1483"/>
       <c r="B1483"/>
       <c r="C1483"/>
-      <c r="D1483" s="1"/>
+      <c r="D1483"/>
+      <c r="G1483"/>
     </row>
     <row r="1484" ht="12.75">
       <c r="A1484"/>
       <c r="B1484"/>
       <c r="C1484"/>
-      <c r="D1484"/>
-      <c r="G1484"/>
+      <c r="D1484" s="1"/>
     </row>
     <row r="1485" ht="12.75">
       <c r="A1485"/>
       <c r="B1485"/>
       <c r="C1485"/>
-      <c r="D1485" s="1"/>
+      <c r="D1485"/>
+      <c r="G1485"/>
     </row>
     <row r="1486" ht="12.75">
       <c r="A1486"/>
       <c r="B1486"/>
       <c r="C1486"/>
-      <c r="D1486"/>
-      <c r="G1486"/>
+      <c r="D1486" s="1"/>
     </row>
     <row r="1487" ht="12.75">
       <c r="A1487"/>
       <c r="B1487"/>
       <c r="C1487"/>
-      <c r="D1487" s="1"/>
+      <c r="D1487"/>
+      <c r="G1487"/>
     </row>
     <row r="1488" ht="12.75">
       <c r="A1488"/>
       <c r="B1488"/>
       <c r="C1488"/>
-      <c r="D1488"/>
-      <c r="G1488"/>
+      <c r="D1488" s="1"/>
     </row>
     <row r="1489" ht="12.75">
       <c r="A1489"/>
       <c r="B1489"/>
       <c r="C1489"/>
-      <c r="D1489" s="1"/>
+      <c r="D1489"/>
+      <c r="G1489"/>
     </row>
     <row r="1490" ht="12.75">
       <c r="A1490"/>
       <c r="B1490"/>
       <c r="C1490"/>
-      <c r="D1490"/>
-      <c r="G1490"/>
+      <c r="D1490" s="1"/>
     </row>
     <row r="1491" ht="12.75">
       <c r="A1491"/>
       <c r="B1491"/>
       <c r="C1491"/>
-      <c r="D1491" s="1"/>
+      <c r="D1491"/>
+      <c r="G1491"/>
     </row>
     <row r="1492" ht="12.75">
       <c r="A1492"/>
       <c r="B1492"/>
       <c r="C1492"/>
-      <c r="D1492"/>
-      <c r="G1492"/>
+      <c r="D1492" s="1"/>
     </row>
     <row r="1493" ht="12.75">
       <c r="A1493"/>
       <c r="B1493"/>
       <c r="C1493"/>
-      <c r="D1493" s="1"/>
+      <c r="D1493"/>
+      <c r="G1493"/>
     </row>
     <row r="1494" ht="12.75">
       <c r="A1494"/>
       <c r="B1494"/>
       <c r="C1494"/>
-      <c r="D1494"/>
-      <c r="G1494"/>
+      <c r="D1494" s="1"/>
     </row>
     <row r="1495" ht="12.75">
       <c r="A1495"/>
       <c r="B1495"/>
       <c r="C1495"/>
-      <c r="D1495" s="1"/>
+      <c r="D1495"/>
+      <c r="G1495"/>
     </row>
     <row r="1496" ht="12.75">
       <c r="A1496"/>
       <c r="B1496"/>
       <c r="C1496"/>
-      <c r="D1496"/>
-      <c r="G1496"/>
+      <c r="D1496" s="1"/>
     </row>
     <row r="1497" ht="12.75">
       <c r="A1497"/>
       <c r="B1497"/>
       <c r="C1497"/>
-      <c r="D1497" s="1"/>
+      <c r="D1497"/>
+      <c r="G1497"/>
     </row>
     <row r="1498" ht="12.75">
       <c r="A1498"/>
       <c r="B1498"/>
       <c r="C1498"/>
-      <c r="D1498"/>
-      <c r="G1498"/>
+      <c r="D1498" s="1"/>
     </row>
     <row r="1499" ht="12.75">
       <c r="A1499"/>
       <c r="B1499"/>
       <c r="C1499"/>
-      <c r="D1499" s="1"/>
+      <c r="D1499"/>
+      <c r="G1499"/>
     </row>
     <row r="1500" ht="12.75">
       <c r="A1500"/>
       <c r="B1500"/>
       <c r="C1500"/>
-      <c r="D1500"/>
-      <c r="G1500"/>
+      <c r="D1500" s="1"/>
     </row>
     <row r="1501" ht="12.75">
       <c r="A1501"/>
       <c r="B1501"/>
       <c r="C1501"/>
-      <c r="D1501" s="1"/>
+      <c r="D1501"/>
+      <c r="G1501"/>
     </row>
     <row r="1502" ht="12.75">
       <c r="A1502"/>
       <c r="B1502"/>
       <c r="C1502"/>
-      <c r="D1502"/>
-      <c r="G1502"/>
+      <c r="D1502" s="1"/>
     </row>
     <row r="1503" ht="12.75">
       <c r="A1503"/>
       <c r="B1503"/>
       <c r="C1503"/>
-      <c r="D1503" s="1"/>
+      <c r="D1503"/>
+      <c r="G1503"/>
     </row>
     <row r="1504" ht="12.75">
       <c r="A1504"/>
       <c r="B1504"/>
       <c r="C1504"/>
-      <c r="D1504"/>
-      <c r="G1504"/>
+      <c r="D1504" s="1"/>
     </row>
     <row r="1505" ht="12.75">
       <c r="A1505"/>
-      <c r="D1505" s="1"/>
+      <c r="B1505"/>
+      <c r="C1505"/>
+      <c r="D1505"/>
+      <c r="G1505"/>
     </row>
     <row r="1506" ht="12.75">
       <c r="A1506"/>
@@ -23747,6 +23893,7 @@
     </row>
     <row r="1528" ht="12.75">
       <c r="A1528"/>
+      <c r="D1528" s="1"/>
     </row>
     <row r="1529" ht="12.75">
       <c r="A1529"/>
@@ -23757,79 +23904,78 @@
     <row r="1531" ht="12.75">
       <c r="A1531"/>
     </row>
-    <row r="1802" ht="12.75">
-      <c r="A1802"/>
-      <c r="B1802"/>
-      <c r="C1802"/>
-      <c r="D1802" s="1"/>
+    <row r="1532" ht="12.75">
+      <c r="A1532"/>
     </row>
     <row r="1803" ht="12.75">
       <c r="A1803"/>
       <c r="B1803"/>
       <c r="C1803"/>
-      <c r="D1803"/>
-      <c r="G1803"/>
+      <c r="D1803" s="1"/>
     </row>
     <row r="1804" ht="12.75">
       <c r="A1804"/>
       <c r="B1804"/>
       <c r="C1804"/>
-      <c r="D1804" s="1"/>
+      <c r="D1804"/>
+      <c r="G1804"/>
     </row>
     <row r="1805" ht="12.75">
       <c r="A1805"/>
       <c r="B1805"/>
       <c r="C1805"/>
-      <c r="D1805"/>
-      <c r="G1805"/>
+      <c r="D1805" s="1"/>
     </row>
     <row r="1806" ht="12.75">
       <c r="A1806"/>
       <c r="B1806"/>
       <c r="C1806"/>
-      <c r="D1806" s="1"/>
+      <c r="D1806"/>
+      <c r="G1806"/>
     </row>
     <row r="1807" ht="12.75">
       <c r="A1807"/>
       <c r="B1807"/>
       <c r="C1807"/>
-      <c r="D1807"/>
-      <c r="G1807"/>
+      <c r="D1807" s="1"/>
     </row>
     <row r="1808" ht="12.75">
       <c r="A1808"/>
       <c r="B1808"/>
       <c r="C1808"/>
-      <c r="D1808" s="1"/>
+      <c r="D1808"/>
+      <c r="G1808"/>
     </row>
     <row r="1809" ht="12.75">
       <c r="A1809"/>
       <c r="B1809"/>
       <c r="C1809"/>
-      <c r="D1809"/>
-      <c r="G1809"/>
+      <c r="D1809" s="1"/>
     </row>
     <row r="1810" ht="12.75">
       <c r="A1810"/>
       <c r="B1810"/>
       <c r="C1810"/>
-      <c r="D1810" s="1"/>
+      <c r="D1810"/>
+      <c r="G1810"/>
     </row>
     <row r="1811" ht="12.75">
       <c r="A1811"/>
       <c r="B1811"/>
       <c r="C1811"/>
-      <c r="D1811"/>
-      <c r="G1811"/>
-    </row>
-    <row r="1825" ht="12.75">
-      <c r="D1825" s="1"/>
+      <c r="D1811" s="1"/>
+    </row>
+    <row r="1812" ht="12.75">
+      <c r="A1812"/>
+      <c r="B1812"/>
+      <c r="C1812"/>
+      <c r="D1812"/>
+      <c r="G1812"/>
     </row>
     <row r="1826" ht="12.75">
       <c r="D1826" s="1"/>
     </row>
     <row r="1827" ht="12.75">
-      <c r="A1827"/>
       <c r="D1827" s="1"/>
     </row>
     <row r="1828" ht="12.75">
@@ -23850,23 +23996,24 @@
     </row>
     <row r="1832" ht="12.75">
       <c r="A1832"/>
-      <c r="B1832"/>
-      <c r="C1832"/>
       <c r="D1832" s="1"/>
     </row>
     <row r="1833" ht="12.75">
       <c r="A1833"/>
       <c r="B1833"/>
       <c r="C1833"/>
-      <c r="D1833"/>
-      <c r="G1833"/>
+      <c r="D1833" s="1"/>
     </row>
     <row r="1834" ht="12.75">
       <c r="A1834"/>
-      <c r="D1834" s="1"/>
+      <c r="B1834"/>
+      <c r="C1834"/>
+      <c r="D1834"/>
+      <c r="G1834"/>
     </row>
     <row r="1835" ht="12.75">
       <c r="A1835"/>
+      <c r="D1835" s="1"/>
     </row>
     <row r="1836" ht="12.75">
       <c r="A1836"/>
@@ -23912,12 +24059,12 @@
     </row>
     <row r="1850" ht="12.75">
       <c r="A1850"/>
-      <c r="B1850"/>
-      <c r="C1850"/>
-      <c r="D1850" s="1"/>
     </row>
     <row r="1851" ht="12.75">
       <c r="A1851"/>
+      <c r="B1851"/>
+      <c r="C1851"/>
+      <c r="D1851" s="1"/>
     </row>
     <row r="1852" ht="12.75">
       <c r="A1852"/>
@@ -23927,45 +24074,45 @@
     </row>
     <row r="1854" ht="12.75">
       <c r="A1854"/>
-      <c r="B1854"/>
-      <c r="C1854"/>
-      <c r="D1854" s="1"/>
     </row>
     <row r="1855" ht="12.75">
       <c r="A1855"/>
       <c r="B1855"/>
       <c r="C1855"/>
-      <c r="D1855"/>
-      <c r="G1855"/>
+      <c r="D1855" s="1"/>
     </row>
     <row r="1856" ht="12.75">
       <c r="A1856"/>
       <c r="B1856"/>
       <c r="C1856"/>
-      <c r="D1856" s="1"/>
+      <c r="D1856"/>
+      <c r="G1856"/>
     </row>
     <row r="1857" ht="12.75">
       <c r="A1857"/>
       <c r="B1857"/>
       <c r="C1857"/>
-      <c r="D1857"/>
-      <c r="G1857"/>
+      <c r="D1857" s="1"/>
     </row>
     <row r="1858" ht="12.75">
       <c r="A1858"/>
       <c r="B1858"/>
       <c r="C1858"/>
-      <c r="D1858" s="1"/>
+      <c r="D1858"/>
+      <c r="G1858"/>
     </row>
     <row r="1859" ht="12.75">
       <c r="A1859"/>
       <c r="B1859"/>
       <c r="C1859"/>
-      <c r="D1859"/>
-      <c r="G1859"/>
+      <c r="D1859" s="1"/>
     </row>
     <row r="1860" ht="12.75">
       <c r="A1860"/>
+      <c r="B1860"/>
+      <c r="C1860"/>
+      <c r="D1860"/>
+      <c r="G1860"/>
     </row>
     <row r="1861" ht="12.75">
       <c r="A1861"/>
@@ -23984,142 +24131,142 @@
     </row>
     <row r="1866" ht="12.75">
       <c r="A1866"/>
-      <c r="B1866"/>
-      <c r="C1866"/>
-      <c r="D1866" s="1"/>
     </row>
     <row r="1867" ht="12.75">
       <c r="A1867"/>
       <c r="B1867"/>
       <c r="C1867"/>
-      <c r="D1867"/>
-      <c r="G1867"/>
+      <c r="D1867" s="1"/>
     </row>
     <row r="1868" ht="12.75">
       <c r="A1868"/>
       <c r="B1868"/>
       <c r="C1868"/>
-      <c r="D1868" s="1"/>
+      <c r="D1868"/>
+      <c r="G1868"/>
     </row>
     <row r="1869" ht="12.75">
       <c r="A1869"/>
       <c r="B1869"/>
       <c r="C1869"/>
-      <c r="D1869"/>
-      <c r="G1869"/>
+      <c r="D1869" s="1"/>
     </row>
     <row r="1870" ht="12.75">
       <c r="A1870"/>
       <c r="B1870"/>
       <c r="C1870"/>
-      <c r="D1870" s="1"/>
+      <c r="D1870"/>
+      <c r="G1870"/>
     </row>
     <row r="1871" ht="12.75">
       <c r="A1871"/>
       <c r="B1871"/>
       <c r="C1871"/>
-      <c r="D1871"/>
-      <c r="G1871"/>
+      <c r="D1871" s="1"/>
     </row>
     <row r="1872" ht="12.75">
       <c r="A1872"/>
       <c r="B1872"/>
       <c r="C1872"/>
-      <c r="D1872" s="1"/>
+      <c r="D1872"/>
+      <c r="G1872"/>
     </row>
     <row r="1873" ht="12.75">
       <c r="A1873"/>
       <c r="B1873"/>
       <c r="C1873"/>
-      <c r="D1873"/>
-      <c r="G1873"/>
+      <c r="D1873" s="1"/>
     </row>
     <row r="1874" ht="12.75">
       <c r="A1874"/>
       <c r="B1874"/>
       <c r="C1874"/>
-      <c r="D1874" s="1"/>
+      <c r="D1874"/>
+      <c r="G1874"/>
     </row>
     <row r="1875" ht="12.75">
       <c r="A1875"/>
       <c r="B1875"/>
       <c r="C1875"/>
-      <c r="D1875"/>
-      <c r="G1875"/>
+      <c r="D1875" s="1"/>
     </row>
     <row r="1876" ht="12.75">
       <c r="A1876"/>
       <c r="B1876"/>
       <c r="C1876"/>
-      <c r="D1876" s="1"/>
+      <c r="D1876"/>
+      <c r="G1876"/>
     </row>
     <row r="1877" ht="12.75">
       <c r="A1877"/>
       <c r="B1877"/>
       <c r="C1877"/>
-      <c r="D1877"/>
-      <c r="G1877"/>
+      <c r="D1877" s="1"/>
     </row>
     <row r="1878" ht="12.75">
       <c r="A1878"/>
       <c r="B1878"/>
       <c r="C1878"/>
-      <c r="D1878" s="1"/>
+      <c r="D1878"/>
+      <c r="G1878"/>
     </row>
     <row r="1879" ht="12.75">
       <c r="A1879"/>
       <c r="B1879"/>
       <c r="C1879"/>
-      <c r="D1879"/>
-      <c r="G1879"/>
+      <c r="D1879" s="1"/>
     </row>
     <row r="1880" ht="12.75">
       <c r="A1880"/>
       <c r="B1880"/>
       <c r="C1880"/>
-      <c r="D1880" s="1"/>
+      <c r="D1880"/>
+      <c r="G1880"/>
     </row>
     <row r="1881" ht="12.75">
       <c r="A1881"/>
       <c r="B1881"/>
       <c r="C1881"/>
-      <c r="D1881"/>
-      <c r="G1881"/>
+      <c r="D1881" s="1"/>
     </row>
     <row r="1882" ht="12.75">
       <c r="A1882"/>
       <c r="B1882"/>
       <c r="C1882"/>
-      <c r="D1882" s="1"/>
+      <c r="D1882"/>
+      <c r="G1882"/>
     </row>
     <row r="1883" ht="12.75">
       <c r="A1883"/>
       <c r="B1883"/>
       <c r="C1883"/>
-      <c r="D1883"/>
-      <c r="G1883"/>
+      <c r="D1883" s="1"/>
     </row>
     <row r="1884" ht="12.75">
       <c r="A1884"/>
       <c r="B1884"/>
       <c r="C1884"/>
-      <c r="D1884" s="1"/>
+      <c r="D1884"/>
+      <c r="G1884"/>
     </row>
     <row r="1885" ht="12.75">
       <c r="A1885"/>
       <c r="B1885"/>
       <c r="C1885"/>
-      <c r="D1885"/>
-      <c r="G1885"/>
+      <c r="D1885" s="1"/>
     </row>
     <row r="1886" ht="12.75">
       <c r="A1886"/>
       <c r="B1886"/>
       <c r="C1886"/>
-      <c r="D1886" s="1"/>
-    </row>
-    <row r="1889" ht="12.75">
-      <c r="D1889" s="1"/>
+      <c r="D1886"/>
+      <c r="G1886"/>
+    </row>
+    <row r="1887" ht="12.75">
+      <c r="A1887"/>
+      <c r="B1887"/>
+      <c r="C1887"/>
+      <c r="D1887" s="1"/>
     </row>
     <row r="1890" ht="12.75">
       <c r="D1890" s="1"/>
@@ -24181,8 +24328,8 @@
     <row r="1909" ht="12.75">
       <c r="D1909" s="1"/>
     </row>
-    <row r="1933" ht="12.75">
-      <c r="A1933"/>
+    <row r="1910" ht="12.75">
+      <c r="D1910" s="1"/>
     </row>
     <row r="1934" ht="12.75">
       <c r="A1934"/>
@@ -24307,67 +24454,67 @@
     <row r="1974" ht="12.75">
       <c r="A1974"/>
     </row>
-    <row r="2067" ht="12.75">
-      <c r="A2067"/>
-      <c r="B2067"/>
-      <c r="C2067"/>
-      <c r="D2067"/>
-      <c r="G2067"/>
+    <row r="1975" ht="12.75">
+      <c r="A1975"/>
     </row>
     <row r="2068" ht="12.75">
       <c r="A2068"/>
       <c r="B2068"/>
       <c r="C2068"/>
-      <c r="D2068" s="1"/>
+      <c r="D2068"/>
+      <c r="G2068"/>
     </row>
     <row r="2069" ht="12.75">
       <c r="A2069"/>
       <c r="B2069"/>
       <c r="C2069"/>
-      <c r="D2069"/>
-      <c r="G2069"/>
+      <c r="D2069" s="1"/>
     </row>
     <row r="2070" ht="12.75">
       <c r="A2070"/>
       <c r="B2070"/>
       <c r="C2070"/>
-      <c r="D2070" s="1"/>
+      <c r="D2070"/>
+      <c r="G2070"/>
     </row>
     <row r="2071" ht="12.75">
       <c r="A2071"/>
       <c r="B2071"/>
       <c r="C2071"/>
-      <c r="D2071"/>
-      <c r="G2071"/>
+      <c r="D2071" s="1"/>
     </row>
     <row r="2072" ht="12.75">
       <c r="A2072"/>
       <c r="B2072"/>
       <c r="C2072"/>
-      <c r="D2072" s="1"/>
+      <c r="D2072"/>
+      <c r="G2072"/>
     </row>
     <row r="2073" ht="12.75">
       <c r="A2073"/>
       <c r="B2073"/>
       <c r="C2073"/>
-      <c r="D2073"/>
-      <c r="G2073"/>
+      <c r="D2073" s="1"/>
     </row>
     <row r="2074" ht="12.75">
       <c r="A2074"/>
       <c r="B2074"/>
       <c r="C2074"/>
-      <c r="D2074" s="1"/>
+      <c r="D2074"/>
+      <c r="G2074"/>
     </row>
     <row r="2075" ht="12.75">
       <c r="A2075"/>
       <c r="B2075"/>
       <c r="C2075"/>
-      <c r="D2075"/>
-      <c r="G2075"/>
-    </row>
-    <row r="2090" ht="12.75">
-      <c r="D2090" s="1"/>
+      <c r="D2075" s="1"/>
+    </row>
+    <row r="2076" ht="12.75">
+      <c r="A2076"/>
+      <c r="B2076"/>
+      <c r="C2076"/>
+      <c r="D2076"/>
+      <c r="G2076"/>
     </row>
     <row r="2091" ht="12.75">
       <c r="D2091" s="1"/>
@@ -24391,11 +24538,11 @@
       <c r="D2097" s="1"/>
     </row>
     <row r="2098" ht="12.75">
-      <c r="A2098"/>
       <c r="D2098" s="1"/>
     </row>
     <row r="2099" ht="12.75">
       <c r="A2099"/>
+      <c r="D2099" s="1"/>
     </row>
     <row r="2100" ht="12.75">
       <c r="A2100"/>
@@ -24439,8 +24586,8 @@
     <row r="2113" ht="12.75">
       <c r="A2113"/>
     </row>
-    <row r="2384" ht="12.75">
-      <c r="A2384"/>
+    <row r="2114" ht="12.75">
+      <c r="A2114"/>
     </row>
     <row r="2385" ht="12.75">
       <c r="A2385"/>
@@ -24457,8 +24604,8 @@
     <row r="2389" ht="12.75">
       <c r="A2389"/>
     </row>
-    <row r="2442" ht="12.75">
-      <c r="A2442"/>
+    <row r="2390" ht="12.75">
+      <c r="A2390"/>
     </row>
     <row r="2443" ht="12.75">
       <c r="A2443"/>
@@ -24487,8 +24634,8 @@
     <row r="2451" ht="12.75">
       <c r="A2451"/>
     </row>
-    <row r="2579" ht="12.75">
-      <c r="A2579"/>
+    <row r="2452" ht="12.75">
+      <c r="A2452"/>
     </row>
     <row r="2580" ht="12.75">
       <c r="A2580"/>
@@ -24580,24 +24727,22 @@
     <row r="2609" ht="12.75">
       <c r="A2609"/>
     </row>
-    <row r="2611" ht="12.75">
-      <c r="A2611"/>
+    <row r="2610" ht="12.75">
+      <c r="A2610"/>
     </row>
     <row r="2612" ht="12.75">
       <c r="A2612"/>
-      <c r="B2612"/>
-      <c r="C2612"/>
     </row>
     <row r="2613" ht="12.75">
       <c r="A2613"/>
+      <c r="B2613"/>
+      <c r="C2613"/>
     </row>
     <row r="2614" ht="12.75">
       <c r="A2614"/>
     </row>
     <row r="2615" ht="12.75">
       <c r="A2615"/>
-      <c r="B2615"/>
-      <c r="C2615"/>
     </row>
     <row r="2616" ht="12.75">
       <c r="A2616"/>
@@ -24652,6 +24797,7 @@
     <row r="2626" ht="12.75">
       <c r="A2626"/>
       <c r="B2626"/>
+      <c r="C2626"/>
     </row>
     <row r="2627" ht="12.75">
       <c r="A2627"/>
@@ -24664,17 +24810,27 @@
     <row r="2629" ht="12.75">
       <c r="A2629"/>
       <c r="B2629"/>
-      <c r="C2629"/>
     </row>
     <row r="2630" ht="12.75">
-      <c r="C2630" s="10"/>
+      <c r="A2630"/>
+      <c r="B2630"/>
+      <c r="C2630"/>
+    </row>
+    <row r="2631" ht="12.75">
+      <c r="A2631" s="1"/>
+      <c r="C2631" s="10"/>
+    </row>
+    <row r="2632" ht="12.75">
+      <c r="A2632"/>
+    </row>
+    <row r="2633" ht="12.75">
+      <c r="A2633" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1225">
+  <autoFilter ref="A1:C1256">
     <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="(Genre) CityPop"/>
-        <filter val="City Pop Maybe"/>
+      <filters>
+        <filter val="(Themed) Exoteric"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1252</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1256</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1263</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1806">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -1327,7 +1327,7 @@
     <t xml:space="preserve">Epitaph - Including "March for No Reason" and "Tomorrow and Tomorrow"</t>
   </si>
   <si>
-    <t xml:space="preserve">The Court Of The Crimson King - Including "The Return of the Fire Witch" and "The Dance of the Puppets"</t>
+    <t xml:space="preserve">The Court Of The Crimson King</t>
   </si>
   <si>
     <t xml:space="preserve">Roland the Headless Thompson Gunner</t>
@@ -2206,7 +2206,7 @@
     <t xml:space="preserve">Love Will Find a Way</t>
   </si>
   <si>
-    <t xml:space="preserve">I've Seen All Good People: a. Your Move, b. All Good People - 2003 Remaster</t>
+    <t xml:space="preserve">I've Seen All Good People</t>
   </si>
   <si>
     <t xml:space="preserve">Land Of Confusion - Remastered 2007</t>
@@ -2392,7 +2392,7 @@
     <t xml:space="preserve">White Rabbit</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarius/Let The Sunshine In (The Flesh Failures) - From the Musical "Hair"</t>
+    <t xml:space="preserve">Aquarius/Let The Sunshine In</t>
   </si>
   <si>
     <t xml:space="preserve">The 5th Dimension</t>
@@ -2431,7 +2431,7 @@
     <t xml:space="preserve">Jimi Hendrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn! Turn! Turn! (To Everything There Is a Season)</t>
+    <t xml:space="preserve">Turn! Turn! Turn!</t>
   </si>
   <si>
     <t xml:space="preserve">The Byrds</t>
@@ -2803,7 +2803,7 @@
     <t xml:space="preserve">Yesterday - Remastered</t>
   </si>
   <si>
-    <t xml:space="preserve">Tears in Heaven - Acoustic; Live at MTV Unplugged, Bray Film Studios, Windsor, England, UK, 1/16/1992; 2013 Remaster</t>
+    <t xml:space="preserve">Tears in Heaven</t>
   </si>
   <si>
     <t xml:space="preserve">Eric Clapton</t>
@@ -5411,6 +5411,33 @@
   </si>
   <si>
     <t xml:space="preserve">Jorge Da Capadócia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Ouvir No Rádio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) FutureFunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCE VAI X 150BPM [[DJ RAMEMES &amp; MAFFALDA &amp; VHOOR]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Themed) Música Proletária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Que É O Que É?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admirável Gado Novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zé Ramalho</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish Cow Vem Jogando A Xerequinha</t>
   </si>
 </sst>
 </file>
@@ -6036,16 +6063,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1226" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1141" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="28.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="45.8515625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="65.00390625"/>
     <col customWidth="1" min="3" max="3" style="1" width="43.285714285714299"/>
-    <col min="4" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="28.8515625"/>
+    <col min="5" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -20545,7 +20573,7 @@
       </c>
       <c r="D1124" s="1"/>
     </row>
-    <row r="1125" ht="12.75" hidden="1">
+    <row r="1125" ht="12.75">
       <c r="A1125" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20558,7 +20586,7 @@
       <c r="D1125"/>
       <c r="G1125"/>
     </row>
-    <row r="1126" ht="12.75" hidden="1">
+    <row r="1126" ht="12.75">
       <c r="A1126" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20570,7 +20598,7 @@
       </c>
       <c r="D1126" s="1"/>
     </row>
-    <row r="1127" ht="12.75" hidden="1">
+    <row r="1127" ht="12.75">
       <c r="A1127" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20583,7 +20611,7 @@
       <c r="D1127"/>
       <c r="G1127"/>
     </row>
-    <row r="1128" ht="12.75" hidden="1">
+    <row r="1128" ht="12.75">
       <c r="A1128" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20595,7 +20623,7 @@
       </c>
       <c r="D1128" s="1"/>
     </row>
-    <row r="1129" ht="12.75" hidden="1">
+    <row r="1129" ht="12.75">
       <c r="A1129" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20608,7 +20636,7 @@
       <c r="D1129"/>
       <c r="G1129"/>
     </row>
-    <row r="1130" ht="12.75" hidden="1">
+    <row r="1130" ht="12.75">
       <c r="A1130" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20620,7 +20648,7 @@
       </c>
       <c r="D1130" s="1"/>
     </row>
-    <row r="1131" ht="12.75" hidden="1">
+    <row r="1131" ht="12.75">
       <c r="A1131" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20633,7 +20661,7 @@
       <c r="D1131"/>
       <c r="G1131"/>
     </row>
-    <row r="1132" ht="12.75" hidden="1">
+    <row r="1132" ht="12.75">
       <c r="A1132" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20645,7 +20673,7 @@
       </c>
       <c r="D1132" s="1"/>
     </row>
-    <row r="1133" ht="12.75" hidden="1">
+    <row r="1133" ht="12.75">
       <c r="A1133" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20658,7 +20686,7 @@
       <c r="D1133"/>
       <c r="G1133"/>
     </row>
-    <row r="1134" ht="12.75" hidden="1">
+    <row r="1134" ht="12.75">
       <c r="A1134" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20670,7 +20698,7 @@
       </c>
       <c r="D1134" s="1"/>
     </row>
-    <row r="1135" ht="12.75" hidden="1">
+    <row r="1135" ht="12.75">
       <c r="A1135" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20683,7 +20711,7 @@
       <c r="D1135"/>
       <c r="G1135"/>
     </row>
-    <row r="1136" ht="12.75" hidden="1">
+    <row r="1136" ht="12.75">
       <c r="A1136" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20695,7 +20723,7 @@
       </c>
       <c r="D1136" s="1"/>
     </row>
-    <row r="1137" ht="12.75" hidden="1">
+    <row r="1137" ht="12.75">
       <c r="A1137" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20708,7 +20736,7 @@
       <c r="D1137"/>
       <c r="G1137"/>
     </row>
-    <row r="1138" ht="12.75" hidden="1">
+    <row r="1138" ht="12.75">
       <c r="A1138" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20720,7 +20748,7 @@
       </c>
       <c r="D1138" s="1"/>
     </row>
-    <row r="1139" ht="12.75" hidden="1">
+    <row r="1139" ht="12.75">
       <c r="A1139" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20733,7 +20761,7 @@
       <c r="D1139"/>
       <c r="G1139"/>
     </row>
-    <row r="1140" ht="12.75" hidden="1">
+    <row r="1140" ht="12.75">
       <c r="A1140" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20745,7 +20773,7 @@
       </c>
       <c r="D1140" s="1"/>
     </row>
-    <row r="1141" ht="12.75" hidden="1">
+    <row r="1141" ht="12.75">
       <c r="A1141" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20758,7 +20786,7 @@
       <c r="D1141"/>
       <c r="G1141"/>
     </row>
-    <row r="1142" ht="12.75" hidden="1">
+    <row r="1142" ht="12.75">
       <c r="A1142" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20770,7 +20798,7 @@
       </c>
       <c r="D1142" s="1"/>
     </row>
-    <row r="1143" ht="12.75" hidden="1">
+    <row r="1143" ht="12.75">
       <c r="A1143" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20783,7 +20811,7 @@
       <c r="D1143"/>
       <c r="G1143"/>
     </row>
-    <row r="1144" ht="12.75" hidden="1">
+    <row r="1144" ht="12.75">
       <c r="A1144" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20795,7 +20823,7 @@
       </c>
       <c r="D1144" s="1"/>
     </row>
-    <row r="1145" ht="12.75" hidden="1">
+    <row r="1145" ht="12.75">
       <c r="A1145" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20808,7 +20836,7 @@
       <c r="D1145"/>
       <c r="G1145"/>
     </row>
-    <row r="1146" ht="12.75" hidden="1">
+    <row r="1146" ht="12.75">
       <c r="A1146" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20820,7 +20848,7 @@
       </c>
       <c r="D1146" s="1"/>
     </row>
-    <row r="1147" ht="12.75" hidden="1">
+    <row r="1147" ht="12.75">
       <c r="A1147" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20833,7 +20861,7 @@
       <c r="D1147"/>
       <c r="G1147"/>
     </row>
-    <row r="1148" ht="12.75" hidden="1">
+    <row r="1148" ht="12.75">
       <c r="A1148" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20845,7 +20873,7 @@
       </c>
       <c r="D1148" s="1"/>
     </row>
-    <row r="1149" ht="12.75" hidden="1">
+    <row r="1149" ht="12.75">
       <c r="A1149" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20858,7 +20886,7 @@
       <c r="D1149"/>
       <c r="G1149"/>
     </row>
-    <row r="1150" ht="12.75" hidden="1">
+    <row r="1150" ht="12.75">
       <c r="A1150" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20870,7 +20898,7 @@
       </c>
       <c r="D1150" s="1"/>
     </row>
-    <row r="1151" ht="12.75" hidden="1">
+    <row r="1151" ht="12.75">
       <c r="A1151" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20883,7 +20911,7 @@
       <c r="D1151"/>
       <c r="G1151"/>
     </row>
-    <row r="1152" ht="12.75" hidden="1">
+    <row r="1152" ht="12.75">
       <c r="A1152" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20895,7 +20923,7 @@
       </c>
       <c r="D1152" s="1"/>
     </row>
-    <row r="1153" ht="12.75" hidden="1">
+    <row r="1153" ht="12.75">
       <c r="A1153" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20908,7 +20936,7 @@
       <c r="D1153"/>
       <c r="G1153"/>
     </row>
-    <row r="1154" ht="12.75" hidden="1">
+    <row r="1154" ht="12.75">
       <c r="A1154" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20920,7 +20948,7 @@
       </c>
       <c r="D1154" s="1"/>
     </row>
-    <row r="1155" ht="12.75" hidden="1">
+    <row r="1155" ht="12.75">
       <c r="A1155" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20933,7 +20961,7 @@
       <c r="D1155"/>
       <c r="G1155"/>
     </row>
-    <row r="1156" ht="12.75" hidden="1">
+    <row r="1156" ht="12.75">
       <c r="A1156" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20945,7 +20973,7 @@
       </c>
       <c r="D1156" s="1"/>
     </row>
-    <row r="1157" ht="12.75" hidden="1">
+    <row r="1157" ht="12.75">
       <c r="A1157" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20958,7 +20986,7 @@
       <c r="D1157"/>
       <c r="G1157"/>
     </row>
-    <row r="1158" ht="12.75" hidden="1">
+    <row r="1158" ht="12.75">
       <c r="A1158" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20970,7 +20998,7 @@
       </c>
       <c r="D1158" s="1"/>
     </row>
-    <row r="1159" ht="12.75" hidden="1">
+    <row r="1159" ht="12.75">
       <c r="A1159" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20983,7 +21011,7 @@
       <c r="D1159"/>
       <c r="G1159"/>
     </row>
-    <row r="1160" ht="12.75" hidden="1">
+    <row r="1160" ht="12.75">
       <c r="A1160" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20995,7 +21023,7 @@
       </c>
       <c r="D1160" s="1"/>
     </row>
-    <row r="1161" ht="12.75" hidden="1">
+    <row r="1161" ht="12.75">
       <c r="A1161" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21008,7 +21036,7 @@
       <c r="D1161"/>
       <c r="G1161"/>
     </row>
-    <row r="1162" ht="12.75" hidden="1">
+    <row r="1162" ht="12.75">
       <c r="A1162" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21020,7 +21048,7 @@
       </c>
       <c r="D1162" s="1"/>
     </row>
-    <row r="1163" ht="12.75" hidden="1">
+    <row r="1163" ht="12.75">
       <c r="A1163" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21033,7 +21061,7 @@
       <c r="D1163"/>
       <c r="G1163"/>
     </row>
-    <row r="1164" ht="12.75" hidden="1">
+    <row r="1164" ht="12.75">
       <c r="A1164" s="6" t="s">
         <v>1638</v>
       </c>
@@ -22007,7 +22035,7 @@
       </c>
       <c r="D1241" s="1"/>
     </row>
-    <row r="1242" ht="12.75">
+    <row r="1242" ht="12.75" hidden="1">
       <c r="A1242" t="s">
         <v>1782</v>
       </c>
@@ -22028,7 +22056,7 @@
       </c>
       <c r="D1243" s="1"/>
     </row>
-    <row r="1244" ht="12.75">
+    <row r="1244" ht="12.75" hidden="1">
       <c r="A1244" t="s">
         <v>1782</v>
       </c>
@@ -22041,7 +22069,7 @@
       <c r="D1244"/>
       <c r="G1244"/>
     </row>
-    <row r="1245" ht="12.75">
+    <row r="1245" ht="12.75" hidden="1">
       <c r="A1245" t="s">
         <v>1782</v>
       </c>
@@ -22053,7 +22081,7 @@
       </c>
       <c r="D1245" s="1"/>
     </row>
-    <row r="1246" ht="12.75">
+    <row r="1246" ht="12.75" hidden="1">
       <c r="A1246" t="s">
         <v>1782</v>
       </c>
@@ -22065,7 +22093,7 @@
       </c>
       <c r="D1246" s="1"/>
     </row>
-    <row r="1247" ht="12.75">
+    <row r="1247" ht="12.75" hidden="1">
       <c r="A1247" s="6" t="s">
         <v>1782</v>
       </c>
@@ -22078,7 +22106,7 @@
       <c r="D1247"/>
       <c r="G1247"/>
     </row>
-    <row r="1248" ht="12.75">
+    <row r="1248" ht="12.75" hidden="1">
       <c r="A1248" t="s">
         <v>1782</v>
       </c>
@@ -22091,7 +22119,7 @@
       <c r="D1248"/>
       <c r="G1248"/>
     </row>
-    <row r="1249" ht="12.75">
+    <row r="1249" ht="12.75" hidden="1">
       <c r="A1249" t="s">
         <v>1782</v>
       </c>
@@ -22103,7 +22131,7 @@
       </c>
       <c r="D1249" s="1"/>
     </row>
-    <row r="1250" ht="12.75">
+    <row r="1250" ht="12.75" hidden="1">
       <c r="A1250" t="s">
         <v>1782</v>
       </c>
@@ -22115,7 +22143,7 @@
       </c>
       <c r="D1250" s="1"/>
     </row>
-    <row r="1251" ht="12.75">
+    <row r="1251" ht="12.75" hidden="1">
       <c r="A1251" s="6" t="s">
         <v>1782</v>
       </c>
@@ -22128,7 +22156,7 @@
       <c r="D1251"/>
       <c r="G1251"/>
     </row>
-    <row r="1252" ht="12.75">
+    <row r="1252" ht="12.75" hidden="1">
       <c r="A1252" t="s">
         <v>1782</v>
       </c>
@@ -22140,7 +22168,7 @@
       </c>
       <c r="D1252" s="1"/>
     </row>
-    <row r="1253" ht="12.75">
+    <row r="1253" ht="12.75" hidden="1">
       <c r="A1253" t="s">
         <v>1782</v>
       </c>
@@ -22153,7 +22181,7 @@
       <c r="D1253"/>
       <c r="G1253"/>
     </row>
-    <row r="1254" ht="12.75">
+    <row r="1254" ht="12.75" hidden="1">
       <c r="A1254" t="s">
         <v>1782</v>
       </c>
@@ -22165,7 +22193,7 @@
       </c>
       <c r="D1254" s="1"/>
     </row>
-    <row r="1255" ht="12.75">
+    <row r="1255" ht="12.75" hidden="1">
       <c r="A1255" s="6" t="s">
         <v>1782</v>
       </c>
@@ -22177,7 +22205,7 @@
       </c>
       <c r="D1255" s="1"/>
     </row>
-    <row r="1256" ht="12.75">
+    <row r="1256" ht="12.75" hidden="1">
       <c r="A1256" t="s">
         <v>1782</v>
       </c>
@@ -22190,50 +22218,96 @@
       <c r="D1256" s="1"/>
       <c r="G1256" s="1"/>
     </row>
-    <row r="1257" ht="12.75">
+    <row r="1257" ht="12.75" hidden="1">
+      <c r="A1257" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1257" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="D1257"/>
       <c r="G1257"/>
     </row>
-    <row r="1258" ht="12.75">
-      <c r="A1258"/>
+    <row r="1258" ht="12.75" hidden="1">
+      <c r="A1258" s="10" t="s">
+        <v>1798</v>
+      </c>
       <c r="B1258"/>
       <c r="C1258"/>
       <c r="D1258" s="1"/>
     </row>
     <row r="1259" ht="12.75">
+      <c r="A1259" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>1640</v>
+      </c>
       <c r="D1259"/>
       <c r="G1259"/>
     </row>
-    <row r="1260" ht="12.75">
-      <c r="A1260"/>
-      <c r="B1260"/>
-      <c r="C1260"/>
+    <row r="1260" ht="12.75" hidden="1">
+      <c r="A1260" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1515</v>
+      </c>
       <c r="D1260" s="1"/>
     </row>
-    <row r="1261" ht="12.75">
-      <c r="A1261"/>
-      <c r="B1261"/>
-      <c r="C1261"/>
+    <row r="1261" ht="12.75" hidden="1">
+      <c r="A1261" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1803</v>
+      </c>
       <c r="D1261"/>
       <c r="G1261"/>
     </row>
-    <row r="1262" ht="12.75">
-      <c r="A1262"/>
+    <row r="1262" ht="12.75" hidden="1">
+      <c r="A1262" t="s">
+        <v>1800</v>
+      </c>
       <c r="B1262"/>
       <c r="C1262"/>
       <c r="D1262" s="1"/>
     </row>
-    <row r="1263" ht="12.75">
-      <c r="A1263"/>
-      <c r="B1263"/>
-      <c r="C1263"/>
+    <row r="1263" ht="12.75" hidden="1">
+      <c r="A1263" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>432</v>
+      </c>
       <c r="D1263"/>
       <c r="G1263"/>
     </row>
     <row r="1264" ht="12.75">
-      <c r="A1264"/>
-      <c r="B1264"/>
-      <c r="C1264"/>
+      <c r="A1264" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>1640</v>
+      </c>
       <c r="D1264" s="1"/>
     </row>
     <row r="1265" ht="12.75">
@@ -24827,10 +24901,10 @@
       <c r="A2633" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1256">
+  <autoFilter ref="A1:C1263">
     <filterColumn colId="0">
       <filters>
-        <filter val="(Themed) Exoteric"/>
+        <filter val="(This is ...) Ramemes"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,7 +9,7 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1263</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1824">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -5438,6 +5438,60 @@
   </si>
   <si>
     <t xml:space="preserve">Polish Cow Vem Jogando A Xerequinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) Sama &amp; Pagode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Subida do Morro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Originais do Samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feijoada Completa</t>
+  </si>
+  <si>
+    <t>Maneiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Vamos a Luta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu ébano</t>
+  </si>
+  <si>
+    <t>Alcione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corra E Olhe O Céu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Carol Bela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mais que Nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Mendes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada Lugar na Sua Coisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Sampaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Ticoas - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba de Minha Terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Gilberto</t>
   </si>
 </sst>
 </file>
@@ -5519,7 +5573,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5551,6 +5605,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6063,7 +6118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1141" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1160" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -22311,87 +22366,163 @@
       <c r="D1264" s="1"/>
     </row>
     <row r="1265" ht="12.75">
-      <c r="A1265"/>
-      <c r="B1265"/>
-      <c r="C1265"/>
+      <c r="A1265" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1808</v>
+      </c>
       <c r="D1265"/>
       <c r="G1265"/>
     </row>
     <row r="1266" ht="12.75">
-      <c r="A1266"/>
-      <c r="B1266"/>
-      <c r="C1266"/>
+      <c r="A1266" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1266" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>432</v>
+      </c>
       <c r="D1266" s="1"/>
     </row>
     <row r="1267" ht="12.75">
-      <c r="A1267"/>
-      <c r="B1267"/>
-      <c r="C1267"/>
+      <c r="A1267" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1267" s="13" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1087</v>
+      </c>
       <c r="D1267"/>
       <c r="G1267"/>
     </row>
     <row r="1268" ht="12.75">
-      <c r="A1268"/>
-      <c r="B1268"/>
-      <c r="C1268"/>
+      <c r="A1268" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1268" s="13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>497</v>
+      </c>
       <c r="D1268" s="1"/>
     </row>
     <row r="1269" ht="12.75">
-      <c r="A1269"/>
-      <c r="B1269"/>
-      <c r="C1269"/>
+      <c r="A1269" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1269" s="13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1813</v>
+      </c>
       <c r="D1269"/>
       <c r="G1269"/>
     </row>
     <row r="1270" ht="12.75">
-      <c r="A1270"/>
-      <c r="B1270"/>
-      <c r="C1270"/>
+      <c r="A1270" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1270" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1098</v>
+      </c>
       <c r="D1270" s="1"/>
     </row>
     <row r="1271" ht="12.75">
-      <c r="A1271"/>
-      <c r="B1271"/>
-      <c r="C1271"/>
+      <c r="A1271" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1271" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>126</v>
+      </c>
       <c r="D1271"/>
       <c r="G1271"/>
     </row>
     <row r="1272" ht="12.75">
-      <c r="A1272"/>
-      <c r="B1272"/>
-      <c r="C1272"/>
+      <c r="A1272" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1272" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>1816</v>
+      </c>
       <c r="D1272" s="1"/>
     </row>
     <row r="1273" ht="12.75">
-      <c r="A1273"/>
-      <c r="B1273"/>
-      <c r="C1273"/>
+      <c r="A1273" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1273" s="13" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>1818</v>
+      </c>
       <c r="D1273"/>
       <c r="G1273"/>
     </row>
     <row r="1274" ht="12.75">
-      <c r="A1274"/>
-      <c r="B1274"/>
-      <c r="C1274"/>
+      <c r="A1274" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1274" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1820</v>
+      </c>
       <c r="D1274" s="1"/>
     </row>
     <row r="1275" ht="12.75">
-      <c r="A1275"/>
-      <c r="B1275"/>
+      <c r="A1275" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1821</v>
+      </c>
       <c r="C1275"/>
       <c r="D1275"/>
       <c r="G1275"/>
     </row>
     <row r="1276" ht="12.75">
-      <c r="A1276"/>
-      <c r="B1276"/>
-      <c r="C1276"/>
+      <c r="A1276" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1276" s="13" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1823</v>
+      </c>
       <c r="D1276" s="1"/>
     </row>
     <row r="1277" ht="12.75">
-      <c r="A1277"/>
-      <c r="B1277"/>
-      <c r="C1277"/>
+      <c r="A1277" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>423</v>
+      </c>
       <c r="D1277"/>
       <c r="G1277"/>
     </row>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1263</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1278</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1825">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -5440,7 +5440,7 @@
     <t xml:space="preserve">Polish Cow Vem Jogando A Xerequinha</t>
   </si>
   <si>
-    <t xml:space="preserve">(Genre) Sama &amp; Pagode</t>
+    <t xml:space="preserve">(Genre) Samba &amp; Pagode</t>
   </si>
   <si>
     <t xml:space="preserve">A Subida do Morro</t>
@@ -5492,6 +5492,9 @@
   </si>
   <si>
     <t xml:space="preserve">João Gilberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatsu Koi</t>
   </si>
 </sst>
 </file>
@@ -5573,7 +5576,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5605,7 +5608,6 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6118,7 +6120,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1160" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10087,7 +10089,44 @@
         <v>471</v>
       </c>
       <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
       <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+      <c r="L306"/>
+      <c r="M306"/>
+      <c r="N306"/>
+      <c r="O306"/>
+      <c r="P306"/>
+      <c r="Q306"/>
+      <c r="R306"/>
+      <c r="S306"/>
+      <c r="T306"/>
+      <c r="U306"/>
+      <c r="V306"/>
+      <c r="W306"/>
+      <c r="X306"/>
+      <c r="Y306"/>
+      <c r="Z306"/>
+      <c r="AA306"/>
+      <c r="AB306"/>
+      <c r="AC306"/>
+      <c r="AD306"/>
+      <c r="AE306"/>
+      <c r="AF306"/>
+      <c r="AG306"/>
+      <c r="AH306"/>
+      <c r="AI306"/>
+      <c r="AJ306"/>
+      <c r="AK306"/>
+      <c r="AL306"/>
+      <c r="AM306"/>
+      <c r="AN306"/>
+      <c r="AO306"/>
+      <c r="AP306"/>
     </row>
     <row r="307" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A307" t="s">
@@ -10113,7 +10152,44 @@
         <v>475</v>
       </c>
       <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
       <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="N308"/>
+      <c r="O308"/>
+      <c r="P308"/>
+      <c r="Q308"/>
+      <c r="R308"/>
+      <c r="S308"/>
+      <c r="T308"/>
+      <c r="U308"/>
+      <c r="V308"/>
+      <c r="W308"/>
+      <c r="X308"/>
+      <c r="Y308"/>
+      <c r="Z308"/>
+      <c r="AA308"/>
+      <c r="AB308"/>
+      <c r="AC308"/>
+      <c r="AD308"/>
+      <c r="AE308"/>
+      <c r="AF308"/>
+      <c r="AG308"/>
+      <c r="AH308"/>
+      <c r="AI308"/>
+      <c r="AJ308"/>
+      <c r="AK308"/>
+      <c r="AL308"/>
+      <c r="AM308"/>
+      <c r="AN308"/>
+      <c r="AO308"/>
+      <c r="AP308"/>
     </row>
     <row r="309" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A309" t="s">
@@ -10139,7 +10215,44 @@
         <v>479</v>
       </c>
       <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
       <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+      <c r="L310"/>
+      <c r="M310"/>
+      <c r="N310"/>
+      <c r="O310"/>
+      <c r="P310"/>
+      <c r="Q310"/>
+      <c r="R310"/>
+      <c r="S310"/>
+      <c r="T310"/>
+      <c r="U310"/>
+      <c r="V310"/>
+      <c r="W310"/>
+      <c r="X310"/>
+      <c r="Y310"/>
+      <c r="Z310"/>
+      <c r="AA310"/>
+      <c r="AB310"/>
+      <c r="AC310"/>
+      <c r="AD310"/>
+      <c r="AE310"/>
+      <c r="AF310"/>
+      <c r="AG310"/>
+      <c r="AH310"/>
+      <c r="AI310"/>
+      <c r="AJ310"/>
+      <c r="AK310"/>
+      <c r="AL310"/>
+      <c r="AM310"/>
+      <c r="AN310"/>
+      <c r="AO310"/>
+      <c r="AP310"/>
     </row>
     <row r="311" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A311" t="s">
@@ -10165,7 +10278,44 @@
         <v>471</v>
       </c>
       <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
       <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="N312"/>
+      <c r="O312"/>
+      <c r="P312"/>
+      <c r="Q312"/>
+      <c r="R312"/>
+      <c r="S312"/>
+      <c r="T312"/>
+      <c r="U312"/>
+      <c r="V312"/>
+      <c r="W312"/>
+      <c r="X312"/>
+      <c r="Y312"/>
+      <c r="Z312"/>
+      <c r="AA312"/>
+      <c r="AB312"/>
+      <c r="AC312"/>
+      <c r="AD312"/>
+      <c r="AE312"/>
+      <c r="AF312"/>
+      <c r="AG312"/>
+      <c r="AH312"/>
+      <c r="AI312"/>
+      <c r="AJ312"/>
+      <c r="AK312"/>
+      <c r="AL312"/>
+      <c r="AM312"/>
+      <c r="AN312"/>
+      <c r="AO312"/>
+      <c r="AP312"/>
     </row>
     <row r="313" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A313" t="s">
@@ -10191,7 +10341,44 @@
         <v>486</v>
       </c>
       <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
       <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+      <c r="L314"/>
+      <c r="M314"/>
+      <c r="N314"/>
+      <c r="O314"/>
+      <c r="P314"/>
+      <c r="Q314"/>
+      <c r="R314"/>
+      <c r="S314"/>
+      <c r="T314"/>
+      <c r="U314"/>
+      <c r="V314"/>
+      <c r="W314"/>
+      <c r="X314"/>
+      <c r="Y314"/>
+      <c r="Z314"/>
+      <c r="AA314"/>
+      <c r="AB314"/>
+      <c r="AC314"/>
+      <c r="AD314"/>
+      <c r="AE314"/>
+      <c r="AF314"/>
+      <c r="AG314"/>
+      <c r="AH314"/>
+      <c r="AI314"/>
+      <c r="AJ314"/>
+      <c r="AK314"/>
+      <c r="AL314"/>
+      <c r="AM314"/>
+      <c r="AN314"/>
+      <c r="AO314"/>
+      <c r="AP314"/>
     </row>
     <row r="315" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A315" t="s">
@@ -10217,7 +10404,44 @@
         <v>471</v>
       </c>
       <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
       <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+      <c r="L316"/>
+      <c r="M316"/>
+      <c r="N316"/>
+      <c r="O316"/>
+      <c r="P316"/>
+      <c r="Q316"/>
+      <c r="R316"/>
+      <c r="S316"/>
+      <c r="T316"/>
+      <c r="U316"/>
+      <c r="V316"/>
+      <c r="W316"/>
+      <c r="X316"/>
+      <c r="Y316"/>
+      <c r="Z316"/>
+      <c r="AA316"/>
+      <c r="AB316"/>
+      <c r="AC316"/>
+      <c r="AD316"/>
+      <c r="AE316"/>
+      <c r="AF316"/>
+      <c r="AG316"/>
+      <c r="AH316"/>
+      <c r="AI316"/>
+      <c r="AJ316"/>
+      <c r="AK316"/>
+      <c r="AL316"/>
+      <c r="AM316"/>
+      <c r="AN316"/>
+      <c r="AO316"/>
+      <c r="AP316"/>
     </row>
     <row r="317" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A317" t="s">
@@ -10243,7 +10467,44 @@
         <v>471</v>
       </c>
       <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
       <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+      <c r="L318"/>
+      <c r="M318"/>
+      <c r="N318"/>
+      <c r="O318"/>
+      <c r="P318"/>
+      <c r="Q318"/>
+      <c r="R318"/>
+      <c r="S318"/>
+      <c r="T318"/>
+      <c r="U318"/>
+      <c r="V318"/>
+      <c r="W318"/>
+      <c r="X318"/>
+      <c r="Y318"/>
+      <c r="Z318"/>
+      <c r="AA318"/>
+      <c r="AB318"/>
+      <c r="AC318"/>
+      <c r="AD318"/>
+      <c r="AE318"/>
+      <c r="AF318"/>
+      <c r="AG318"/>
+      <c r="AH318"/>
+      <c r="AI318"/>
+      <c r="AJ318"/>
+      <c r="AK318"/>
+      <c r="AL318"/>
+      <c r="AM318"/>
+      <c r="AN318"/>
+      <c r="AO318"/>
+      <c r="AP318"/>
     </row>
     <row r="319" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A319" t="s">
@@ -10269,7 +10530,44 @@
         <v>471</v>
       </c>
       <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
       <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+      <c r="L320"/>
+      <c r="M320"/>
+      <c r="N320"/>
+      <c r="O320"/>
+      <c r="P320"/>
+      <c r="Q320"/>
+      <c r="R320"/>
+      <c r="S320"/>
+      <c r="T320"/>
+      <c r="U320"/>
+      <c r="V320"/>
+      <c r="W320"/>
+      <c r="X320"/>
+      <c r="Y320"/>
+      <c r="Z320"/>
+      <c r="AA320"/>
+      <c r="AB320"/>
+      <c r="AC320"/>
+      <c r="AD320"/>
+      <c r="AE320"/>
+      <c r="AF320"/>
+      <c r="AG320"/>
+      <c r="AH320"/>
+      <c r="AI320"/>
+      <c r="AJ320"/>
+      <c r="AK320"/>
+      <c r="AL320"/>
+      <c r="AM320"/>
+      <c r="AN320"/>
+      <c r="AO320"/>
+      <c r="AP320"/>
     </row>
     <row r="321" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A321" t="s">
@@ -10295,7 +10593,44 @@
         <v>471</v>
       </c>
       <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
       <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+      <c r="L322"/>
+      <c r="M322"/>
+      <c r="N322"/>
+      <c r="O322"/>
+      <c r="P322"/>
+      <c r="Q322"/>
+      <c r="R322"/>
+      <c r="S322"/>
+      <c r="T322"/>
+      <c r="U322"/>
+      <c r="V322"/>
+      <c r="W322"/>
+      <c r="X322"/>
+      <c r="Y322"/>
+      <c r="Z322"/>
+      <c r="AA322"/>
+      <c r="AB322"/>
+      <c r="AC322"/>
+      <c r="AD322"/>
+      <c r="AE322"/>
+      <c r="AF322"/>
+      <c r="AG322"/>
+      <c r="AH322"/>
+      <c r="AI322"/>
+      <c r="AJ322"/>
+      <c r="AK322"/>
+      <c r="AL322"/>
+      <c r="AM322"/>
+      <c r="AN322"/>
+      <c r="AO322"/>
+      <c r="AP322"/>
     </row>
     <row r="323" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A323" t="s">
@@ -10321,7 +10656,44 @@
         <v>499</v>
       </c>
       <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
       <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+      <c r="L324"/>
+      <c r="M324"/>
+      <c r="N324"/>
+      <c r="O324"/>
+      <c r="P324"/>
+      <c r="Q324"/>
+      <c r="R324"/>
+      <c r="S324"/>
+      <c r="T324"/>
+      <c r="U324"/>
+      <c r="V324"/>
+      <c r="W324"/>
+      <c r="X324"/>
+      <c r="Y324"/>
+      <c r="Z324"/>
+      <c r="AA324"/>
+      <c r="AB324"/>
+      <c r="AC324"/>
+      <c r="AD324"/>
+      <c r="AE324"/>
+      <c r="AF324"/>
+      <c r="AG324"/>
+      <c r="AH324"/>
+      <c r="AI324"/>
+      <c r="AJ324"/>
+      <c r="AK324"/>
+      <c r="AL324"/>
+      <c r="AM324"/>
+      <c r="AN324"/>
+      <c r="AO324"/>
+      <c r="AP324"/>
     </row>
     <row r="325" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A325" t="s">
@@ -10347,7 +10719,44 @@
         <v>503</v>
       </c>
       <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
       <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+      <c r="L326"/>
+      <c r="M326"/>
+      <c r="N326"/>
+      <c r="O326"/>
+      <c r="P326"/>
+      <c r="Q326"/>
+      <c r="R326"/>
+      <c r="S326"/>
+      <c r="T326"/>
+      <c r="U326"/>
+      <c r="V326"/>
+      <c r="W326"/>
+      <c r="X326"/>
+      <c r="Y326"/>
+      <c r="Z326"/>
+      <c r="AA326"/>
+      <c r="AB326"/>
+      <c r="AC326"/>
+      <c r="AD326"/>
+      <c r="AE326"/>
+      <c r="AF326"/>
+      <c r="AG326"/>
+      <c r="AH326"/>
+      <c r="AI326"/>
+      <c r="AJ326"/>
+      <c r="AK326"/>
+      <c r="AL326"/>
+      <c r="AM326"/>
+      <c r="AN326"/>
+      <c r="AO326"/>
+      <c r="AP326"/>
     </row>
     <row r="327" s="5" customFormat="1" ht="12.75" hidden="1">
       <c r="A327" t="s">
@@ -10360,7 +10769,44 @@
         <v>505</v>
       </c>
       <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
       <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+      <c r="L327"/>
+      <c r="M327"/>
+      <c r="N327"/>
+      <c r="O327"/>
+      <c r="P327"/>
+      <c r="Q327"/>
+      <c r="R327"/>
+      <c r="S327"/>
+      <c r="T327"/>
+      <c r="U327"/>
+      <c r="V327"/>
+      <c r="W327"/>
+      <c r="X327"/>
+      <c r="Y327"/>
+      <c r="Z327"/>
+      <c r="AA327"/>
+      <c r="AB327"/>
+      <c r="AC327"/>
+      <c r="AD327"/>
+      <c r="AE327"/>
+      <c r="AF327"/>
+      <c r="AG327"/>
+      <c r="AH327"/>
+      <c r="AI327"/>
+      <c r="AJ327"/>
+      <c r="AK327"/>
+      <c r="AL327"/>
+      <c r="AM327"/>
+      <c r="AN327"/>
+      <c r="AO327"/>
+      <c r="AP327"/>
     </row>
     <row r="328" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A328" t="s">
@@ -10385,7 +10831,44 @@
         <v>423</v>
       </c>
       <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
       <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+      <c r="L329"/>
+      <c r="M329"/>
+      <c r="N329"/>
+      <c r="O329"/>
+      <c r="P329"/>
+      <c r="Q329"/>
+      <c r="R329"/>
+      <c r="S329"/>
+      <c r="T329"/>
+      <c r="U329"/>
+      <c r="V329"/>
+      <c r="W329"/>
+      <c r="X329"/>
+      <c r="Y329"/>
+      <c r="Z329"/>
+      <c r="AA329"/>
+      <c r="AB329"/>
+      <c r="AC329"/>
+      <c r="AD329"/>
+      <c r="AE329"/>
+      <c r="AF329"/>
+      <c r="AG329"/>
+      <c r="AH329"/>
+      <c r="AI329"/>
+      <c r="AJ329"/>
+      <c r="AK329"/>
+      <c r="AL329"/>
+      <c r="AM329"/>
+      <c r="AN329"/>
+      <c r="AO329"/>
+      <c r="AP329"/>
     </row>
     <row r="330" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A330" t="s">
@@ -19878,7 +20361,7 @@
       </c>
       <c r="D1064" s="1"/>
     </row>
-    <row r="1065" ht="12.75" hidden="1">
+    <row r="1065" ht="12.75">
       <c r="A1065" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19891,7 +20374,7 @@
       <c r="D1065"/>
       <c r="G1065"/>
     </row>
-    <row r="1066" ht="12.75" hidden="1">
+    <row r="1066" ht="12.75">
       <c r="A1066" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19903,7 +20386,7 @@
       </c>
       <c r="D1066" s="1"/>
     </row>
-    <row r="1067" ht="12.75" hidden="1">
+    <row r="1067" ht="12.75">
       <c r="A1067" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19916,7 +20399,7 @@
       <c r="D1067"/>
       <c r="G1067"/>
     </row>
-    <row r="1068" ht="12.75" hidden="1">
+    <row r="1068" ht="12.75">
       <c r="A1068" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19928,7 +20411,7 @@
       </c>
       <c r="D1068" s="1"/>
     </row>
-    <row r="1069" ht="12.75" hidden="1">
+    <row r="1069" ht="12.75">
       <c r="A1069" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19941,7 +20424,7 @@
       <c r="D1069"/>
       <c r="G1069"/>
     </row>
-    <row r="1070" ht="12.75" hidden="1">
+    <row r="1070" ht="12.75">
       <c r="A1070" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19953,7 +20436,7 @@
       </c>
       <c r="D1070" s="1"/>
     </row>
-    <row r="1071" ht="12.75" hidden="1">
+    <row r="1071" ht="12.75">
       <c r="A1071" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19966,7 +20449,7 @@
       <c r="D1071"/>
       <c r="G1071"/>
     </row>
-    <row r="1072" ht="12.75" hidden="1">
+    <row r="1072" ht="12.75">
       <c r="A1072" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19978,7 +20461,7 @@
       </c>
       <c r="D1072" s="1"/>
     </row>
-    <row r="1073" ht="12.75" hidden="1">
+    <row r="1073" ht="12.75">
       <c r="A1073" s="6" t="s">
         <v>1571</v>
       </c>
@@ -19991,7 +20474,7 @@
       <c r="D1073"/>
       <c r="G1073"/>
     </row>
-    <row r="1074" ht="12.75" hidden="1">
+    <row r="1074" ht="12.75">
       <c r="A1074" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20003,7 +20486,7 @@
       </c>
       <c r="D1074" s="1"/>
     </row>
-    <row r="1075" ht="12.75" hidden="1">
+    <row r="1075" ht="12.75">
       <c r="A1075" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20016,7 +20499,7 @@
       <c r="D1075"/>
       <c r="G1075"/>
     </row>
-    <row r="1076" ht="12.75" hidden="1">
+    <row r="1076" ht="12.75">
       <c r="A1076" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20028,7 +20511,7 @@
       </c>
       <c r="D1076" s="1"/>
     </row>
-    <row r="1077" ht="12.75" hidden="1">
+    <row r="1077" ht="12.75">
       <c r="A1077" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20041,7 +20524,7 @@
       <c r="D1077"/>
       <c r="G1077"/>
     </row>
-    <row r="1078" ht="12.75" hidden="1">
+    <row r="1078" ht="12.75">
       <c r="A1078" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20053,7 +20536,7 @@
       </c>
       <c r="D1078" s="1"/>
     </row>
-    <row r="1079" ht="12.75" hidden="1">
+    <row r="1079" ht="12.75">
       <c r="A1079" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20066,7 +20549,7 @@
       <c r="D1079"/>
       <c r="G1079"/>
     </row>
-    <row r="1080" ht="12.75" hidden="1">
+    <row r="1080" ht="12.75">
       <c r="A1080" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20078,7 +20561,7 @@
       </c>
       <c r="D1080" s="1"/>
     </row>
-    <row r="1081" ht="12.75" hidden="1">
+    <row r="1081" ht="12.75">
       <c r="A1081" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20091,7 +20574,7 @@
       <c r="D1081"/>
       <c r="G1081"/>
     </row>
-    <row r="1082" ht="12.75" hidden="1">
+    <row r="1082" ht="12.75">
       <c r="A1082" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20103,7 +20586,7 @@
       </c>
       <c r="D1082" s="1"/>
     </row>
-    <row r="1083" ht="12.75" hidden="1">
+    <row r="1083" ht="12.75">
       <c r="A1083" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20116,7 +20599,7 @@
       <c r="D1083"/>
       <c r="G1083"/>
     </row>
-    <row r="1084" ht="12.75" hidden="1">
+    <row r="1084" ht="12.75">
       <c r="A1084" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20128,7 +20611,7 @@
       </c>
       <c r="D1084" s="1"/>
     </row>
-    <row r="1085" ht="12.75" hidden="1">
+    <row r="1085" ht="12.75">
       <c r="A1085" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20141,7 +20624,7 @@
       <c r="D1085"/>
       <c r="G1085"/>
     </row>
-    <row r="1086" ht="12.75" hidden="1">
+    <row r="1086" ht="12.75">
       <c r="A1086" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20153,7 +20636,7 @@
       </c>
       <c r="D1086" s="1"/>
     </row>
-    <row r="1087" ht="12.75" hidden="1">
+    <row r="1087" ht="12.75">
       <c r="A1087" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20628,7 +21111,7 @@
       </c>
       <c r="D1124" s="1"/>
     </row>
-    <row r="1125" ht="12.75">
+    <row r="1125" ht="12.75" hidden="1">
       <c r="A1125" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20641,7 +21124,7 @@
       <c r="D1125"/>
       <c r="G1125"/>
     </row>
-    <row r="1126" ht="12.75">
+    <row r="1126" ht="12.75" hidden="1">
       <c r="A1126" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20653,7 +21136,7 @@
       </c>
       <c r="D1126" s="1"/>
     </row>
-    <row r="1127" ht="12.75">
+    <row r="1127" ht="12.75" hidden="1">
       <c r="A1127" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20666,7 +21149,7 @@
       <c r="D1127"/>
       <c r="G1127"/>
     </row>
-    <row r="1128" ht="12.75">
+    <row r="1128" ht="12.75" hidden="1">
       <c r="A1128" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20678,7 +21161,7 @@
       </c>
       <c r="D1128" s="1"/>
     </row>
-    <row r="1129" ht="12.75">
+    <row r="1129" ht="12.75" hidden="1">
       <c r="A1129" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20691,7 +21174,7 @@
       <c r="D1129"/>
       <c r="G1129"/>
     </row>
-    <row r="1130" ht="12.75">
+    <row r="1130" ht="12.75" hidden="1">
       <c r="A1130" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20703,7 +21186,7 @@
       </c>
       <c r="D1130" s="1"/>
     </row>
-    <row r="1131" ht="12.75">
+    <row r="1131" ht="12.75" hidden="1">
       <c r="A1131" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20716,7 +21199,7 @@
       <c r="D1131"/>
       <c r="G1131"/>
     </row>
-    <row r="1132" ht="12.75">
+    <row r="1132" ht="12.75" hidden="1">
       <c r="A1132" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20728,7 +21211,7 @@
       </c>
       <c r="D1132" s="1"/>
     </row>
-    <row r="1133" ht="12.75">
+    <row r="1133" ht="12.75" hidden="1">
       <c r="A1133" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20741,7 +21224,7 @@
       <c r="D1133"/>
       <c r="G1133"/>
     </row>
-    <row r="1134" ht="12.75">
+    <row r="1134" ht="12.75" hidden="1">
       <c r="A1134" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20753,7 +21236,7 @@
       </c>
       <c r="D1134" s="1"/>
     </row>
-    <row r="1135" ht="12.75">
+    <row r="1135" ht="12.75" hidden="1">
       <c r="A1135" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20766,7 +21249,7 @@
       <c r="D1135"/>
       <c r="G1135"/>
     </row>
-    <row r="1136" ht="12.75">
+    <row r="1136" ht="12.75" hidden="1">
       <c r="A1136" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20778,7 +21261,7 @@
       </c>
       <c r="D1136" s="1"/>
     </row>
-    <row r="1137" ht="12.75">
+    <row r="1137" ht="12.75" hidden="1">
       <c r="A1137" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20791,7 +21274,7 @@
       <c r="D1137"/>
       <c r="G1137"/>
     </row>
-    <row r="1138" ht="12.75">
+    <row r="1138" ht="12.75" hidden="1">
       <c r="A1138" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20803,7 +21286,7 @@
       </c>
       <c r="D1138" s="1"/>
     </row>
-    <row r="1139" ht="12.75">
+    <row r="1139" ht="12.75" hidden="1">
       <c r="A1139" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20816,7 +21299,7 @@
       <c r="D1139"/>
       <c r="G1139"/>
     </row>
-    <row r="1140" ht="12.75">
+    <row r="1140" ht="12.75" hidden="1">
       <c r="A1140" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20828,7 +21311,7 @@
       </c>
       <c r="D1140" s="1"/>
     </row>
-    <row r="1141" ht="12.75">
+    <row r="1141" ht="12.75" hidden="1">
       <c r="A1141" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20841,7 +21324,7 @@
       <c r="D1141"/>
       <c r="G1141"/>
     </row>
-    <row r="1142" ht="12.75">
+    <row r="1142" ht="12.75" hidden="1">
       <c r="A1142" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20853,7 +21336,7 @@
       </c>
       <c r="D1142" s="1"/>
     </row>
-    <row r="1143" ht="12.75">
+    <row r="1143" ht="12.75" hidden="1">
       <c r="A1143" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20866,7 +21349,7 @@
       <c r="D1143"/>
       <c r="G1143"/>
     </row>
-    <row r="1144" ht="12.75">
+    <row r="1144" ht="12.75" hidden="1">
       <c r="A1144" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20878,7 +21361,7 @@
       </c>
       <c r="D1144" s="1"/>
     </row>
-    <row r="1145" ht="12.75">
+    <row r="1145" ht="12.75" hidden="1">
       <c r="A1145" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20891,7 +21374,7 @@
       <c r="D1145"/>
       <c r="G1145"/>
     </row>
-    <row r="1146" ht="12.75">
+    <row r="1146" ht="12.75" hidden="1">
       <c r="A1146" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20903,7 +21386,7 @@
       </c>
       <c r="D1146" s="1"/>
     </row>
-    <row r="1147" ht="12.75">
+    <row r="1147" ht="12.75" hidden="1">
       <c r="A1147" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20916,7 +21399,7 @@
       <c r="D1147"/>
       <c r="G1147"/>
     </row>
-    <row r="1148" ht="12.75">
+    <row r="1148" ht="12.75" hidden="1">
       <c r="A1148" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20928,7 +21411,7 @@
       </c>
       <c r="D1148" s="1"/>
     </row>
-    <row r="1149" ht="12.75">
+    <row r="1149" ht="12.75" hidden="1">
       <c r="A1149" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20941,7 +21424,7 @@
       <c r="D1149"/>
       <c r="G1149"/>
     </row>
-    <row r="1150" ht="12.75">
+    <row r="1150" ht="12.75" hidden="1">
       <c r="A1150" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20953,7 +21436,7 @@
       </c>
       <c r="D1150" s="1"/>
     </row>
-    <row r="1151" ht="12.75">
+    <row r="1151" ht="12.75" hidden="1">
       <c r="A1151" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20966,7 +21449,7 @@
       <c r="D1151"/>
       <c r="G1151"/>
     </row>
-    <row r="1152" ht="12.75">
+    <row r="1152" ht="12.75" hidden="1">
       <c r="A1152" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20978,7 +21461,7 @@
       </c>
       <c r="D1152" s="1"/>
     </row>
-    <row r="1153" ht="12.75">
+    <row r="1153" ht="12.75" hidden="1">
       <c r="A1153" s="6" t="s">
         <v>1638</v>
       </c>
@@ -20991,7 +21474,7 @@
       <c r="D1153"/>
       <c r="G1153"/>
     </row>
-    <row r="1154" ht="12.75">
+    <row r="1154" ht="12.75" hidden="1">
       <c r="A1154" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21003,7 +21486,7 @@
       </c>
       <c r="D1154" s="1"/>
     </row>
-    <row r="1155" ht="12.75">
+    <row r="1155" ht="12.75" hidden="1">
       <c r="A1155" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21016,7 +21499,7 @@
       <c r="D1155"/>
       <c r="G1155"/>
     </row>
-    <row r="1156" ht="12.75">
+    <row r="1156" ht="12.75" hidden="1">
       <c r="A1156" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21028,7 +21511,7 @@
       </c>
       <c r="D1156" s="1"/>
     </row>
-    <row r="1157" ht="12.75">
+    <row r="1157" ht="12.75" hidden="1">
       <c r="A1157" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21041,7 +21524,7 @@
       <c r="D1157"/>
       <c r="G1157"/>
     </row>
-    <row r="1158" ht="12.75">
+    <row r="1158" ht="12.75" hidden="1">
       <c r="A1158" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21053,7 +21536,7 @@
       </c>
       <c r="D1158" s="1"/>
     </row>
-    <row r="1159" ht="12.75">
+    <row r="1159" ht="12.75" hidden="1">
       <c r="A1159" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21066,7 +21549,7 @@
       <c r="D1159"/>
       <c r="G1159"/>
     </row>
-    <row r="1160" ht="12.75">
+    <row r="1160" ht="12.75" hidden="1">
       <c r="A1160" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21078,7 +21561,7 @@
       </c>
       <c r="D1160" s="1"/>
     </row>
-    <row r="1161" ht="12.75">
+    <row r="1161" ht="12.75" hidden="1">
       <c r="A1161" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21091,7 +21574,7 @@
       <c r="D1161"/>
       <c r="G1161"/>
     </row>
-    <row r="1162" ht="12.75">
+    <row r="1162" ht="12.75" hidden="1">
       <c r="A1162" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21103,7 +21586,7 @@
       </c>
       <c r="D1162" s="1"/>
     </row>
-    <row r="1163" ht="12.75">
+    <row r="1163" ht="12.75" hidden="1">
       <c r="A1163" s="6" t="s">
         <v>1638</v>
       </c>
@@ -21116,7 +21599,7 @@
       <c r="D1163"/>
       <c r="G1163"/>
     </row>
-    <row r="1164" ht="12.75">
+    <row r="1164" ht="12.75" hidden="1">
       <c r="A1164" s="6" t="s">
         <v>1638</v>
       </c>
@@ -22273,7 +22756,7 @@
       <c r="D1256" s="1"/>
       <c r="G1256" s="1"/>
     </row>
-    <row r="1257" ht="12.75" hidden="1">
+    <row r="1257" ht="12.75">
       <c r="A1257" s="6" t="s">
         <v>1571</v>
       </c>
@@ -22294,7 +22777,7 @@
       <c r="C1258"/>
       <c r="D1258" s="1"/>
     </row>
-    <row r="1259" ht="12.75">
+    <row r="1259" ht="12.75" hidden="1">
       <c r="A1259" s="6" t="s">
         <v>1638</v>
       </c>
@@ -22353,7 +22836,7 @@
       <c r="D1263"/>
       <c r="G1263"/>
     </row>
-    <row r="1264" ht="12.75">
+    <row r="1264" ht="12.75" hidden="1">
       <c r="A1264" s="6" t="s">
         <v>1638</v>
       </c>
@@ -22365,8 +22848,8 @@
       </c>
       <c r="D1264" s="1"/>
     </row>
-    <row r="1265" ht="12.75">
-      <c r="A1265" s="13" t="s">
+    <row r="1265" ht="12.75" hidden="1">
+      <c r="A1265" s="7" t="s">
         <v>1806</v>
       </c>
       <c r="B1265" t="s">
@@ -22378,11 +22861,11 @@
       <c r="D1265"/>
       <c r="G1265"/>
     </row>
-    <row r="1266" ht="12.75">
-      <c r="A1266" s="13" t="s">
+    <row r="1266" ht="12.75" hidden="1">
+      <c r="A1266" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1266" s="13" t="s">
+      <c r="B1266" s="7" t="s">
         <v>1809</v>
       </c>
       <c r="C1266" t="s">
@@ -22390,11 +22873,11 @@
       </c>
       <c r="D1266" s="1"/>
     </row>
-    <row r="1267" ht="12.75">
-      <c r="A1267" s="13" t="s">
+    <row r="1267" ht="12.75" hidden="1">
+      <c r="A1267" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1267" s="13" t="s">
+      <c r="B1267" s="7" t="s">
         <v>1810</v>
       </c>
       <c r="C1267" t="s">
@@ -22403,11 +22886,11 @@
       <c r="D1267"/>
       <c r="G1267"/>
     </row>
-    <row r="1268" ht="12.75">
-      <c r="A1268" s="13" t="s">
+    <row r="1268" ht="12.75" hidden="1">
+      <c r="A1268" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1268" s="13" t="s">
+      <c r="B1268" s="7" t="s">
         <v>1811</v>
       </c>
       <c r="C1268" t="s">
@@ -22415,11 +22898,11 @@
       </c>
       <c r="D1268" s="1"/>
     </row>
-    <row r="1269" ht="12.75">
-      <c r="A1269" s="13" t="s">
+    <row r="1269" ht="12.75" hidden="1">
+      <c r="A1269" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1269" s="13" t="s">
+      <c r="B1269" s="7" t="s">
         <v>1812</v>
       </c>
       <c r="C1269" t="s">
@@ -22428,11 +22911,11 @@
       <c r="D1269"/>
       <c r="G1269"/>
     </row>
-    <row r="1270" ht="12.75">
-      <c r="A1270" s="13" t="s">
+    <row r="1270" ht="12.75" hidden="1">
+      <c r="A1270" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1270" s="13" t="s">
+      <c r="B1270" s="7" t="s">
         <v>1097</v>
       </c>
       <c r="C1270" t="s">
@@ -22440,11 +22923,11 @@
       </c>
       <c r="D1270" s="1"/>
     </row>
-    <row r="1271" ht="12.75">
-      <c r="A1271" s="13" t="s">
+    <row r="1271" ht="12.75" hidden="1">
+      <c r="A1271" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1271" s="13" t="s">
+      <c r="B1271" s="7" t="s">
         <v>1814</v>
       </c>
       <c r="C1271" t="s">
@@ -22453,11 +22936,11 @@
       <c r="D1271"/>
       <c r="G1271"/>
     </row>
-    <row r="1272" ht="12.75">
-      <c r="A1272" s="13" t="s">
+    <row r="1272" ht="12.75" hidden="1">
+      <c r="A1272" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1272" s="13" t="s">
+      <c r="B1272" s="7" t="s">
         <v>1815</v>
       </c>
       <c r="C1272" t="s">
@@ -22465,11 +22948,11 @@
       </c>
       <c r="D1272" s="1"/>
     </row>
-    <row r="1273" ht="12.75">
-      <c r="A1273" s="13" t="s">
+    <row r="1273" ht="12.75" hidden="1">
+      <c r="A1273" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1273" s="13" t="s">
+      <c r="B1273" s="7" t="s">
         <v>1817</v>
       </c>
       <c r="C1273" t="s">
@@ -22478,11 +22961,11 @@
       <c r="D1273"/>
       <c r="G1273"/>
     </row>
-    <row r="1274" ht="12.75">
-      <c r="A1274" s="13" t="s">
+    <row r="1274" ht="12.75" hidden="1">
+      <c r="A1274" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1274" s="13" t="s">
+      <c r="B1274" s="7" t="s">
         <v>1819</v>
       </c>
       <c r="C1274" t="s">
@@ -22490,8 +22973,8 @@
       </c>
       <c r="D1274" s="1"/>
     </row>
-    <row r="1275" ht="12.75">
-      <c r="A1275" s="13" t="s">
+    <row r="1275" ht="12.75" hidden="1">
+      <c r="A1275" s="7" t="s">
         <v>1806</v>
       </c>
       <c r="B1275" t="s">
@@ -22501,11 +22984,11 @@
       <c r="D1275"/>
       <c r="G1275"/>
     </row>
-    <row r="1276" ht="12.75">
-      <c r="A1276" s="13" t="s">
+    <row r="1276" ht="12.75" hidden="1">
+      <c r="A1276" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="B1276" s="13" t="s">
+      <c r="B1276" s="7" t="s">
         <v>1822</v>
       </c>
       <c r="C1276" t="s">
@@ -22513,7 +22996,7 @@
       </c>
       <c r="D1276" s="1"/>
     </row>
-    <row r="1277" ht="12.75">
+    <row r="1277" ht="12.75" hidden="1">
       <c r="A1277" t="s">
         <v>1806</v>
       </c>
@@ -22526,10 +23009,16 @@
       <c r="D1277"/>
       <c r="G1277"/>
     </row>
-    <row r="1278" ht="12.75">
-      <c r="A1278"/>
-      <c r="B1278"/>
-      <c r="C1278"/>
+    <row r="1278" ht="12.75" hidden="1">
+      <c r="A1278" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>1738</v>
+      </c>
       <c r="D1278" s="1"/>
     </row>
     <row r="1279" ht="12.75">
@@ -25032,10 +25521,10 @@
       <c r="A2633" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1263">
+  <autoFilter ref="A1:C1278">
     <filterColumn colId="0">
       <filters>
-        <filter val="(This is ...) Ramemes"/>
+        <filter val="(This is ...) Jorge Ben"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -20361,7 +20361,7 @@
       </c>
       <c r="D1064" s="1"/>
     </row>
-    <row r="1065" ht="12.75">
+    <row r="1065" ht="12.75" hidden="1">
       <c r="A1065" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="D1065"/>
       <c r="G1065"/>
     </row>
-    <row r="1066" ht="12.75">
+    <row r="1066" ht="12.75" hidden="1">
       <c r="A1066" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20386,7 +20386,7 @@
       </c>
       <c r="D1066" s="1"/>
     </row>
-    <row r="1067" ht="12.75">
+    <row r="1067" ht="12.75" hidden="1">
       <c r="A1067" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20399,7 +20399,7 @@
       <c r="D1067"/>
       <c r="G1067"/>
     </row>
-    <row r="1068" ht="12.75">
+    <row r="1068" ht="12.75" hidden="1">
       <c r="A1068" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="D1068" s="1"/>
     </row>
-    <row r="1069" ht="12.75">
+    <row r="1069" ht="12.75" hidden="1">
       <c r="A1069" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20424,7 +20424,7 @@
       <c r="D1069"/>
       <c r="G1069"/>
     </row>
-    <row r="1070" ht="12.75">
+    <row r="1070" ht="12.75" hidden="1">
       <c r="A1070" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="D1070" s="1"/>
     </row>
-    <row r="1071" ht="12.75">
+    <row r="1071" ht="12.75" hidden="1">
       <c r="A1071" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20449,7 +20449,7 @@
       <c r="D1071"/>
       <c r="G1071"/>
     </row>
-    <row r="1072" ht="12.75">
+    <row r="1072" ht="12.75" hidden="1">
       <c r="A1072" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20461,7 +20461,7 @@
       </c>
       <c r="D1072" s="1"/>
     </row>
-    <row r="1073" ht="12.75">
+    <row r="1073" ht="12.75" hidden="1">
       <c r="A1073" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20474,7 +20474,7 @@
       <c r="D1073"/>
       <c r="G1073"/>
     </row>
-    <row r="1074" ht="12.75">
+    <row r="1074" ht="12.75" hidden="1">
       <c r="A1074" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="D1074" s="1"/>
     </row>
-    <row r="1075" ht="12.75">
+    <row r="1075" ht="12.75" hidden="1">
       <c r="A1075" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20499,7 +20499,7 @@
       <c r="D1075"/>
       <c r="G1075"/>
     </row>
-    <row r="1076" ht="12.75">
+    <row r="1076" ht="12.75" hidden="1">
       <c r="A1076" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="D1076" s="1"/>
     </row>
-    <row r="1077" ht="12.75">
+    <row r="1077" ht="12.75" hidden="1">
       <c r="A1077" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20524,7 +20524,7 @@
       <c r="D1077"/>
       <c r="G1077"/>
     </row>
-    <row r="1078" ht="12.75">
+    <row r="1078" ht="12.75" hidden="1">
       <c r="A1078" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="D1078" s="1"/>
     </row>
-    <row r="1079" ht="12.75">
+    <row r="1079" ht="12.75" hidden="1">
       <c r="A1079" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20549,7 +20549,7 @@
       <c r="D1079"/>
       <c r="G1079"/>
     </row>
-    <row r="1080" ht="12.75">
+    <row r="1080" ht="12.75" hidden="1">
       <c r="A1080" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="D1080" s="1"/>
     </row>
-    <row r="1081" ht="12.75">
+    <row r="1081" ht="12.75" hidden="1">
       <c r="A1081" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20574,7 +20574,7 @@
       <c r="D1081"/>
       <c r="G1081"/>
     </row>
-    <row r="1082" ht="12.75">
+    <row r="1082" ht="12.75" hidden="1">
       <c r="A1082" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20586,7 +20586,7 @@
       </c>
       <c r="D1082" s="1"/>
     </row>
-    <row r="1083" ht="12.75">
+    <row r="1083" ht="12.75" hidden="1">
       <c r="A1083" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20599,7 +20599,7 @@
       <c r="D1083"/>
       <c r="G1083"/>
     </row>
-    <row r="1084" ht="12.75">
+    <row r="1084" ht="12.75" hidden="1">
       <c r="A1084" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="D1084" s="1"/>
     </row>
-    <row r="1085" ht="12.75">
+    <row r="1085" ht="12.75" hidden="1">
       <c r="A1085" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20624,7 +20624,7 @@
       <c r="D1085"/>
       <c r="G1085"/>
     </row>
-    <row r="1086" ht="12.75">
+    <row r="1086" ht="12.75" hidden="1">
       <c r="A1086" s="6" t="s">
         <v>1571</v>
       </c>
@@ -20636,7 +20636,7 @@
       </c>
       <c r="D1086" s="1"/>
     </row>
-    <row r="1087" ht="12.75">
+    <row r="1087" ht="12.75" hidden="1">
       <c r="A1087" s="6" t="s">
         <v>1571</v>
       </c>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="D1164" s="1"/>
     </row>
-    <row r="1165" ht="12.75" hidden="1">
+    <row r="1165" ht="12.75">
       <c r="A1165" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21624,7 +21624,7 @@
       <c r="D1165"/>
       <c r="G1165"/>
     </row>
-    <row r="1166" ht="12.75" hidden="1">
+    <row r="1166" ht="12.75">
       <c r="A1166" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21636,7 +21636,7 @@
       </c>
       <c r="D1166" s="1"/>
     </row>
-    <row r="1167" ht="12.75" hidden="1">
+    <row r="1167" ht="12.75">
       <c r="A1167" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21649,7 +21649,7 @@
       <c r="D1167"/>
       <c r="G1167"/>
     </row>
-    <row r="1168" ht="12.75" hidden="1">
+    <row r="1168" ht="12.75">
       <c r="A1168" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21661,7 +21661,7 @@
       </c>
       <c r="D1168" s="1"/>
     </row>
-    <row r="1169" ht="12.75" hidden="1">
+    <row r="1169" ht="12.75">
       <c r="A1169" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21674,7 +21674,7 @@
       <c r="D1169"/>
       <c r="G1169"/>
     </row>
-    <row r="1170" ht="12.75" hidden="1">
+    <row r="1170" ht="12.75">
       <c r="A1170" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="D1170" s="1"/>
     </row>
-    <row r="1171" ht="12.75" hidden="1">
+    <row r="1171" ht="12.75">
       <c r="A1171" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21699,7 +21699,7 @@
       <c r="D1171"/>
       <c r="G1171"/>
     </row>
-    <row r="1172" ht="12.75" hidden="1">
+    <row r="1172" ht="12.75">
       <c r="A1172" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21711,7 +21711,7 @@
       </c>
       <c r="D1172" s="1"/>
     </row>
-    <row r="1173" ht="12.75" hidden="1">
+    <row r="1173" ht="12.75">
       <c r="A1173" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21724,7 +21724,7 @@
       <c r="D1173"/>
       <c r="G1173"/>
     </row>
-    <row r="1174" ht="12.75" hidden="1">
+    <row r="1174" ht="12.75">
       <c r="A1174" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21736,7 +21736,7 @@
       </c>
       <c r="D1174" s="1"/>
     </row>
-    <row r="1175" ht="12.75" hidden="1">
+    <row r="1175" ht="12.75">
       <c r="A1175" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21749,7 +21749,7 @@
       <c r="D1175"/>
       <c r="G1175"/>
     </row>
-    <row r="1176" ht="12.75" hidden="1">
+    <row r="1176" ht="12.75">
       <c r="A1176" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="D1176" s="1"/>
     </row>
-    <row r="1177" ht="12.75" hidden="1">
+    <row r="1177" ht="12.75">
       <c r="A1177" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21774,7 +21774,7 @@
       <c r="D1177"/>
       <c r="G1177"/>
     </row>
-    <row r="1178" ht="12.75" hidden="1">
+    <row r="1178" ht="12.75">
       <c r="A1178" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="D1178" s="1"/>
     </row>
-    <row r="1179" ht="12.75" hidden="1">
+    <row r="1179" ht="12.75">
       <c r="A1179" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21799,7 +21799,7 @@
       <c r="D1179"/>
       <c r="G1179"/>
     </row>
-    <row r="1180" ht="12.75" hidden="1">
+    <row r="1180" ht="12.75">
       <c r="A1180" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="D1180" s="1"/>
     </row>
-    <row r="1181" ht="12.75" hidden="1">
+    <row r="1181" ht="12.75">
       <c r="A1181" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21824,7 +21824,7 @@
       <c r="D1181"/>
       <c r="G1181"/>
     </row>
-    <row r="1182" ht="12.75" hidden="1">
+    <row r="1182" ht="12.75">
       <c r="A1182" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="D1182" s="1"/>
     </row>
-    <row r="1183" ht="12.75" hidden="1">
+    <row r="1183" ht="12.75">
       <c r="A1183" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21849,7 +21849,7 @@
       <c r="D1183"/>
       <c r="G1183"/>
     </row>
-    <row r="1184" ht="12.75" hidden="1">
+    <row r="1184" ht="12.75">
       <c r="A1184" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21861,7 +21861,7 @@
       </c>
       <c r="D1184" s="1"/>
     </row>
-    <row r="1185" ht="12.75" hidden="1">
+    <row r="1185" ht="12.75">
       <c r="A1185" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21874,7 +21874,7 @@
       <c r="D1185"/>
       <c r="G1185"/>
     </row>
-    <row r="1186" ht="12.75" hidden="1">
+    <row r="1186" ht="12.75">
       <c r="A1186" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D1186" s="1"/>
     </row>
-    <row r="1187" ht="12.75" hidden="1">
+    <row r="1187" ht="12.75">
       <c r="A1187" s="6" t="s">
         <v>1680</v>
       </c>
@@ -22756,7 +22756,7 @@
       <c r="D1256" s="1"/>
       <c r="G1256" s="1"/>
     </row>
-    <row r="1257" ht="12.75">
+    <row r="1257" ht="12.75" hidden="1">
       <c r="A1257" s="6" t="s">
         <v>1571</v>
       </c>
@@ -25524,7 +25524,7 @@
   <autoFilter ref="A1:C1278">
     <filterColumn colId="0">
       <filters>
-        <filter val="(This is ...) Jorge Ben"/>
+        <filter val="(This is ...) Kanye West / Ye"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -6127,8 +6127,8 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="28.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="65.00390625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="43.285714285714299"/>
+    <col customWidth="1" min="2" max="2" style="1" width="27.7109375"/>
+    <col customWidth="1" min="3" max="3" style="1" width="25.8515625"/>
     <col customWidth="1" min="4" max="4" style="1" width="28.8515625"/>
     <col min="5" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="D1164" s="1"/>
     </row>
-    <row r="1165" ht="12.75">
+    <row r="1165" ht="12.75" hidden="1">
       <c r="A1165" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21624,7 +21624,7 @@
       <c r="D1165"/>
       <c r="G1165"/>
     </row>
-    <row r="1166" ht="12.75">
+    <row r="1166" ht="12.75" hidden="1">
       <c r="A1166" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21636,7 +21636,7 @@
       </c>
       <c r="D1166" s="1"/>
     </row>
-    <row r="1167" ht="12.75">
+    <row r="1167" ht="12.75" hidden="1">
       <c r="A1167" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21649,7 +21649,7 @@
       <c r="D1167"/>
       <c r="G1167"/>
     </row>
-    <row r="1168" ht="12.75">
+    <row r="1168" ht="12.75" hidden="1">
       <c r="A1168" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21661,7 +21661,7 @@
       </c>
       <c r="D1168" s="1"/>
     </row>
-    <row r="1169" ht="12.75">
+    <row r="1169" ht="12.75" hidden="1">
       <c r="A1169" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21674,7 +21674,7 @@
       <c r="D1169"/>
       <c r="G1169"/>
     </row>
-    <row r="1170" ht="12.75">
+    <row r="1170" ht="12.75" hidden="1">
       <c r="A1170" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="D1170" s="1"/>
     </row>
-    <row r="1171" ht="12.75">
+    <row r="1171" ht="12.75" hidden="1">
       <c r="A1171" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21699,7 +21699,7 @@
       <c r="D1171"/>
       <c r="G1171"/>
     </row>
-    <row r="1172" ht="12.75">
+    <row r="1172" ht="12.75" hidden="1">
       <c r="A1172" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21711,7 +21711,7 @@
       </c>
       <c r="D1172" s="1"/>
     </row>
-    <row r="1173" ht="12.75">
+    <row r="1173" ht="12.75" hidden="1">
       <c r="A1173" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21724,7 +21724,7 @@
       <c r="D1173"/>
       <c r="G1173"/>
     </row>
-    <row r="1174" ht="12.75">
+    <row r="1174" ht="12.75" hidden="1">
       <c r="A1174" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21736,7 +21736,7 @@
       </c>
       <c r="D1174" s="1"/>
     </row>
-    <row r="1175" ht="12.75">
+    <row r="1175" ht="12.75" hidden="1">
       <c r="A1175" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21749,7 +21749,7 @@
       <c r="D1175"/>
       <c r="G1175"/>
     </row>
-    <row r="1176" ht="12.75">
+    <row r="1176" ht="12.75" hidden="1">
       <c r="A1176" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="D1176" s="1"/>
     </row>
-    <row r="1177" ht="12.75">
+    <row r="1177" ht="12.75" hidden="1">
       <c r="A1177" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21774,7 +21774,7 @@
       <c r="D1177"/>
       <c r="G1177"/>
     </row>
-    <row r="1178" ht="12.75">
+    <row r="1178" ht="12.75" hidden="1">
       <c r="A1178" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="D1178" s="1"/>
     </row>
-    <row r="1179" ht="12.75">
+    <row r="1179" ht="12.75" hidden="1">
       <c r="A1179" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21799,7 +21799,7 @@
       <c r="D1179"/>
       <c r="G1179"/>
     </row>
-    <row r="1180" ht="12.75">
+    <row r="1180" ht="12.75" hidden="1">
       <c r="A1180" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="D1180" s="1"/>
     </row>
-    <row r="1181" ht="12.75">
+    <row r="1181" ht="12.75" hidden="1">
       <c r="A1181" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21824,7 +21824,7 @@
       <c r="D1181"/>
       <c r="G1181"/>
     </row>
-    <row r="1182" ht="12.75">
+    <row r="1182" ht="12.75" hidden="1">
       <c r="A1182" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="D1182" s="1"/>
     </row>
-    <row r="1183" ht="12.75">
+    <row r="1183" ht="12.75" hidden="1">
       <c r="A1183" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21849,7 +21849,7 @@
       <c r="D1183"/>
       <c r="G1183"/>
     </row>
-    <row r="1184" ht="12.75">
+    <row r="1184" ht="12.75" hidden="1">
       <c r="A1184" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21861,7 +21861,7 @@
       </c>
       <c r="D1184" s="1"/>
     </row>
-    <row r="1185" ht="12.75">
+    <row r="1185" ht="12.75" hidden="1">
       <c r="A1185" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21874,7 +21874,7 @@
       <c r="D1185"/>
       <c r="G1185"/>
     </row>
-    <row r="1186" ht="12.75">
+    <row r="1186" ht="12.75" hidden="1">
       <c r="A1186" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D1186" s="1"/>
     </row>
-    <row r="1187" ht="12.75">
+    <row r="1187" ht="12.75" hidden="1">
       <c r="A1187" s="6" t="s">
         <v>1680</v>
       </c>
@@ -21949,7 +21949,7 @@
       <c r="D1191"/>
       <c r="G1191"/>
     </row>
-    <row r="1192" ht="12.75" hidden="1">
+    <row r="1192" ht="12.75">
       <c r="A1192" t="s">
         <v>1707</v>
       </c>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="D1192" s="1"/>
     </row>
-    <row r="1193" ht="12.75" hidden="1">
+    <row r="1193" ht="12.75">
       <c r="A1193" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21974,7 +21974,7 @@
       <c r="D1193" s="1"/>
       <c r="G1193" s="1"/>
     </row>
-    <row r="1194" ht="12.75" hidden="1">
+    <row r="1194" ht="12.75">
       <c r="A1194" s="10" t="s">
         <v>1707</v>
       </c>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="D1194" s="1"/>
     </row>
-    <row r="1195" ht="12.75" hidden="1">
+    <row r="1195" ht="12.75">
       <c r="A1195" s="1" t="s">
         <v>1707</v>
       </c>
@@ -21999,7 +21999,7 @@
       <c r="D1195"/>
       <c r="G1195"/>
     </row>
-    <row r="1196" ht="12.75" hidden="1">
+    <row r="1196" ht="12.75">
       <c r="A1196" s="7" t="s">
         <v>1707</v>
       </c>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="D1196" s="1"/>
     </row>
-    <row r="1197" ht="12.75" hidden="1">
+    <row r="1197" ht="12.75">
       <c r="A1197" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22024,7 +22024,7 @@
       <c r="D1197"/>
       <c r="G1197"/>
     </row>
-    <row r="1198" ht="12.75" hidden="1">
+    <row r="1198" ht="12.75">
       <c r="A1198" s="1" t="s">
         <v>1707</v>
       </c>
@@ -22036,7 +22036,7 @@
       </c>
       <c r="D1198" s="1"/>
     </row>
-    <row r="1199" ht="12.75" hidden="1">
+    <row r="1199" ht="12.75">
       <c r="A1199" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22049,7 +22049,7 @@
       <c r="D1199"/>
       <c r="G1199"/>
     </row>
-    <row r="1200" ht="12.75" hidden="1">
+    <row r="1200" ht="12.75">
       <c r="A1200" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22061,7 +22061,7 @@
       </c>
       <c r="D1200" s="1"/>
     </row>
-    <row r="1201" ht="12.75" hidden="1">
+    <row r="1201" ht="12.75">
       <c r="A1201" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22074,7 +22074,7 @@
       <c r="D1201"/>
       <c r="G1201"/>
     </row>
-    <row r="1202" ht="12.75" hidden="1">
+    <row r="1202" ht="12.75">
       <c r="A1202" s="1" t="s">
         <v>1707</v>
       </c>
@@ -22086,7 +22086,7 @@
       </c>
       <c r="D1202" s="1"/>
     </row>
-    <row r="1203" ht="12.75" hidden="1">
+    <row r="1203" ht="12.75">
       <c r="A1203" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22099,7 +22099,7 @@
       <c r="D1203"/>
       <c r="G1203"/>
     </row>
-    <row r="1204" ht="12.75" hidden="1">
+    <row r="1204" ht="12.75">
       <c r="A1204" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="D1204" s="1"/>
     </row>
-    <row r="1205" ht="12.75" hidden="1">
+    <row r="1205" ht="12.75">
       <c r="A1205" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22124,7 +22124,7 @@
       <c r="D1205"/>
       <c r="G1205"/>
     </row>
-    <row r="1206" ht="12.75" hidden="1">
+    <row r="1206" ht="12.75">
       <c r="A1206" s="1" t="s">
         <v>1707</v>
       </c>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="D1206" s="1"/>
     </row>
-    <row r="1207" ht="12.75" hidden="1">
+    <row r="1207" ht="12.75">
       <c r="A1207" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22149,7 +22149,7 @@
       <c r="D1207"/>
       <c r="G1207"/>
     </row>
-    <row r="1208" ht="12.75" hidden="1">
+    <row r="1208" ht="12.75">
       <c r="A1208" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="D1208" s="1"/>
     </row>
-    <row r="1209" ht="12.75" hidden="1">
+    <row r="1209" ht="12.75">
       <c r="A1209" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22174,7 +22174,7 @@
       <c r="D1209"/>
       <c r="G1209"/>
     </row>
-    <row r="1210" ht="12.75" hidden="1">
+    <row r="1210" ht="12.75">
       <c r="A1210" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="D1210" s="1"/>
     </row>
-    <row r="1211" ht="12.75" hidden="1">
+    <row r="1211" ht="12.75">
       <c r="A1211" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22199,7 +22199,7 @@
       <c r="D1211"/>
       <c r="G1211"/>
     </row>
-    <row r="1212" ht="12.75" hidden="1">
+    <row r="1212" ht="12.75">
       <c r="A1212" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="D1212" s="1"/>
     </row>
-    <row r="1213" ht="12.75" hidden="1">
+    <row r="1213" ht="12.75">
       <c r="A1213" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22224,7 +22224,7 @@
       <c r="D1213"/>
       <c r="G1213"/>
     </row>
-    <row r="1214" ht="12.75" hidden="1">
+    <row r="1214" ht="12.75">
       <c r="A1214" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="D1214" s="1"/>
     </row>
-    <row r="1215" ht="12.75" hidden="1">
+    <row r="1215" ht="12.75">
       <c r="A1215" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22249,7 +22249,7 @@
       <c r="D1215"/>
       <c r="G1215"/>
     </row>
-    <row r="1216" ht="12.75" hidden="1">
+    <row r="1216" ht="12.75">
       <c r="A1216" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="D1216" s="1"/>
     </row>
-    <row r="1217" ht="12.75" hidden="1">
+    <row r="1217" ht="12.75">
       <c r="A1217" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22274,7 +22274,7 @@
       <c r="D1217"/>
       <c r="G1217"/>
     </row>
-    <row r="1218" ht="12.75" hidden="1">
+    <row r="1218" ht="12.75">
       <c r="A1218" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22286,7 +22286,7 @@
       </c>
       <c r="D1218" s="1"/>
     </row>
-    <row r="1219" ht="12.75" hidden="1">
+    <row r="1219" ht="12.75">
       <c r="A1219" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22299,7 +22299,7 @@
       <c r="D1219"/>
       <c r="G1219"/>
     </row>
-    <row r="1220" ht="12.75" hidden="1">
+    <row r="1220" ht="12.75">
       <c r="A1220" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22311,7 +22311,7 @@
       </c>
       <c r="D1220" s="1"/>
     </row>
-    <row r="1221" ht="12.75" hidden="1">
+    <row r="1221" ht="12.75">
       <c r="A1221" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22324,7 +22324,7 @@
       <c r="D1221"/>
       <c r="G1221"/>
     </row>
-    <row r="1222" ht="12.75" hidden="1">
+    <row r="1222" ht="12.75">
       <c r="A1222" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22336,7 +22336,7 @@
       </c>
       <c r="D1222" s="1"/>
     </row>
-    <row r="1223" ht="12.75" hidden="1">
+    <row r="1223" ht="12.75">
       <c r="A1223" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22349,7 +22349,7 @@
       <c r="D1223"/>
       <c r="G1223"/>
     </row>
-    <row r="1224" ht="12.75" hidden="1">
+    <row r="1224" ht="12.75">
       <c r="A1224" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="D1224" s="1"/>
     </row>
-    <row r="1225" ht="12.75" hidden="1">
+    <row r="1225" ht="12.75">
       <c r="A1225" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22374,7 +22374,7 @@
       <c r="D1225"/>
       <c r="G1225"/>
     </row>
-    <row r="1226" ht="12.75" hidden="1">
+    <row r="1226" ht="12.75">
       <c r="A1226" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="D1226" s="1"/>
     </row>
-    <row r="1227" ht="12.75" hidden="1">
+    <row r="1227" ht="12.75">
       <c r="A1227" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22398,7 +22398,7 @@
       </c>
       <c r="D1227" s="1"/>
     </row>
-    <row r="1228" ht="12.75" hidden="1">
+    <row r="1228" ht="12.75">
       <c r="A1228" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22411,7 +22411,7 @@
       <c r="D1228"/>
       <c r="G1228"/>
     </row>
-    <row r="1229" ht="12.75" hidden="1">
+    <row r="1229" ht="12.75">
       <c r="A1229" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="D1229" s="1"/>
     </row>
-    <row r="1230" ht="12.75" hidden="1">
+    <row r="1230" ht="12.75">
       <c r="A1230" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22436,7 +22436,7 @@
       <c r="D1230"/>
       <c r="G1230"/>
     </row>
-    <row r="1231" ht="12.75" hidden="1">
+    <row r="1231" ht="12.75">
       <c r="A1231" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22448,7 +22448,7 @@
       </c>
       <c r="D1231" s="1"/>
     </row>
-    <row r="1232" ht="12.75" hidden="1">
+    <row r="1232" ht="12.75">
       <c r="A1232" s="6" t="s">
         <v>1707</v>
       </c>
@@ -22461,7 +22461,7 @@
       <c r="D1232"/>
       <c r="G1232"/>
     </row>
-    <row r="1233" ht="12.75" hidden="1">
+    <row r="1233" ht="12.75">
       <c r="A1233" s="6" t="s">
         <v>1707</v>
       </c>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="D1233" s="1"/>
     </row>
-    <row r="1234" ht="12.75" hidden="1">
+    <row r="1234" ht="12.75">
       <c r="A1234" s="6" t="s">
         <v>1707</v>
       </c>
@@ -22486,7 +22486,7 @@
       <c r="D1234"/>
       <c r="G1234"/>
     </row>
-    <row r="1235" ht="12.75" hidden="1">
+    <row r="1235" ht="12.75">
       <c r="A1235" s="6" t="s">
         <v>1707</v>
       </c>
@@ -22498,7 +22498,7 @@
       </c>
       <c r="D1235" s="1"/>
     </row>
-    <row r="1236" ht="12.75" hidden="1">
+    <row r="1236" ht="12.75">
       <c r="A1236" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22511,7 +22511,7 @@
       <c r="D1236"/>
       <c r="G1236"/>
     </row>
-    <row r="1237" ht="12.75" hidden="1">
+    <row r="1237" ht="12.75">
       <c r="A1237" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22523,7 +22523,7 @@
       </c>
       <c r="D1237" s="1"/>
     </row>
-    <row r="1238" ht="12.75" hidden="1">
+    <row r="1238" ht="12.75">
       <c r="A1238" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22536,7 +22536,7 @@
       <c r="D1238"/>
       <c r="G1238"/>
     </row>
-    <row r="1239" ht="12.75" hidden="1">
+    <row r="1239" ht="12.75">
       <c r="A1239" s="10" t="s">
         <v>1707</v>
       </c>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="D1239" s="1"/>
     </row>
-    <row r="1240" ht="12.75" hidden="1">
+    <row r="1240" ht="12.75">
       <c r="A1240" s="10" t="s">
         <v>1707</v>
       </c>
@@ -23009,7 +23009,7 @@
       <c r="D1277"/>
       <c r="G1277"/>
     </row>
-    <row r="1278" ht="12.75" hidden="1">
+    <row r="1278" ht="12.75">
       <c r="A1278" s="10" t="s">
         <v>1707</v>
       </c>
@@ -25524,7 +25524,7 @@
   <autoFilter ref="A1:C1278">
     <filterColumn colId="0">
       <filters>
-        <filter val="(This is ...) Kanye West / Ye"/>
+        <filter val="(Genre) CityPop"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1278</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1281</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="1831">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -5359,7 +5359,7 @@
     <t xml:space="preserve">Dear Breeze</t>
   </si>
   <si>
-    <t xml:space="preserve">(黒沢律子) HOT BOY</t>
+    <t xml:space="preserve">HOT BOY</t>
   </si>
   <si>
     <t xml:space="preserve">Ritsuko Kurosawa </t>
@@ -5495,6 +5495,24 @@
   </si>
   <si>
     <t xml:space="preserve">Hatsu Koi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread and Butter</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kool &amp; the Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itsuka Yurarete Toi Kuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mioko Yamaguchi</t>
   </si>
 </sst>
 </file>
@@ -5521,18 +5539,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -5588,13 +5600,15 @@
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6120,14 +6134,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1211" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="28.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="27.7109375"/>
+    <col customWidth="1" min="2" max="2" style="1" width="44.00390625"/>
     <col customWidth="1" min="3" max="3" style="1" width="25.8515625"/>
     <col customWidth="1" min="4" max="4" style="1" width="28.8515625"/>
     <col min="5" max="16384" style="1" width="9.140625"/>
@@ -6148,7 +6162,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="2" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6173,7 +6187,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="4" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6198,7 +6212,7 @@
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="6" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6237,7 @@
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="8" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6248,7 +6262,7 @@
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="10" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6273,7 +6287,7 @@
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="12" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -6298,7 +6312,7 @@
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="14" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6323,7 +6337,7 @@
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="16" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6348,7 +6362,7 @@
       </c>
       <c r="D17"/>
     </row>
-    <row r="18" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="18" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6373,7 +6387,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="20" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6398,7 +6412,7 @@
       </c>
       <c r="D21"/>
     </row>
-    <row r="22" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="22" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -6423,7 +6437,7 @@
       </c>
       <c r="D23"/>
     </row>
-    <row r="24" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="24" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -6448,7 +6462,7 @@
       </c>
       <c r="D25"/>
     </row>
-    <row r="26" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="26" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -6473,7 +6487,7 @@
       </c>
       <c r="D27"/>
     </row>
-    <row r="28" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="28" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -6498,7 +6512,7 @@
       </c>
       <c r="D29"/>
     </row>
-    <row r="30" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="30" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +6537,7 @@
       </c>
       <c r="D31"/>
     </row>
-    <row r="32" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="32" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -6549,7 +6563,7 @@
       <c r="D33"/>
       <c r="G33"/>
     </row>
-    <row r="34" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="34" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -6575,7 +6589,7 @@
       <c r="D35"/>
       <c r="G35"/>
     </row>
-    <row r="36" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="36" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -6601,7 +6615,7 @@
       <c r="D37"/>
       <c r="G37"/>
     </row>
-    <row r="38" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="38" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -6627,7 +6641,7 @@
       <c r="D39"/>
       <c r="G39"/>
     </row>
-    <row r="40" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="40" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -6653,7 +6667,7 @@
       <c r="D41"/>
       <c r="G41"/>
     </row>
-    <row r="42" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="42" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6679,7 +6693,7 @@
       <c r="D43"/>
       <c r="G43"/>
     </row>
-    <row r="44" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="44" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -6705,7 +6719,7 @@
       <c r="D45"/>
       <c r="G45"/>
     </row>
-    <row r="46" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="46" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -6731,7 +6745,7 @@
       <c r="D47"/>
       <c r="G47"/>
     </row>
-    <row r="48" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="48" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6757,7 +6771,7 @@
       <c r="D49"/>
       <c r="G49"/>
     </row>
-    <row r="50" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="50" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -6783,7 +6797,7 @@
       <c r="D51"/>
       <c r="G51"/>
     </row>
-    <row r="52" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="52" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -6809,7 +6823,7 @@
       <c r="D53"/>
       <c r="G53"/>
     </row>
-    <row r="54" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="54" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6835,7 +6849,7 @@
       <c r="D55"/>
       <c r="G55"/>
     </row>
-    <row r="56" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="56" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6861,7 +6875,7 @@
       <c r="D57"/>
       <c r="G57"/>
     </row>
-    <row r="58" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="58" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6887,7 +6901,7 @@
       <c r="D59"/>
       <c r="G59"/>
     </row>
-    <row r="60" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="60" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6913,7 +6927,7 @@
       <c r="D61"/>
       <c r="G61"/>
     </row>
-    <row r="62" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="62" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6939,7 +6953,7 @@
       <c r="D63"/>
       <c r="G63"/>
     </row>
-    <row r="64" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="64" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -6965,7 +6979,7 @@
       <c r="D65"/>
       <c r="G65"/>
     </row>
-    <row r="66" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="66" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -6991,7 +7005,7 @@
       <c r="D67"/>
       <c r="G67"/>
     </row>
-    <row r="68" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="68" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -7017,7 +7031,7 @@
       <c r="D69"/>
       <c r="G69"/>
     </row>
-    <row r="70" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="70" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -7043,7 +7057,7 @@
       <c r="D71"/>
       <c r="G71"/>
     </row>
-    <row r="72" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="72" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -7069,7 +7083,7 @@
       <c r="D73"/>
       <c r="G73"/>
     </row>
-    <row r="74" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="74" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -7095,7 +7109,7 @@
       <c r="D75"/>
       <c r="G75"/>
     </row>
-    <row r="76" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="76" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -7121,7 +7135,7 @@
       <c r="D77"/>
       <c r="G77"/>
     </row>
-    <row r="78" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="78" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -7147,7 +7161,7 @@
       <c r="D79"/>
       <c r="G79"/>
     </row>
-    <row r="80" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="80" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -7173,7 +7187,7 @@
       <c r="D81"/>
       <c r="G81"/>
     </row>
-    <row r="82" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="82" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -7199,7 +7213,7 @@
       <c r="D83"/>
       <c r="G83"/>
     </row>
-    <row r="84" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="84" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -7225,7 +7239,7 @@
       <c r="D85"/>
       <c r="G85"/>
     </row>
-    <row r="86" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="86" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -7251,7 +7265,7 @@
       <c r="D87"/>
       <c r="G87"/>
     </row>
-    <row r="88" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="88" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -7277,7 +7291,7 @@
       <c r="D89"/>
       <c r="G89"/>
     </row>
-    <row r="90" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="90" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -7303,7 +7317,7 @@
       <c r="D91"/>
       <c r="G91"/>
     </row>
-    <row r="92" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="92" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -7329,7 +7343,7 @@
       <c r="D93"/>
       <c r="G93"/>
     </row>
-    <row r="94" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="94" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -7355,7 +7369,7 @@
       <c r="D95"/>
       <c r="G95"/>
     </row>
-    <row r="96" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="96" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -7381,7 +7395,7 @@
       <c r="D97"/>
       <c r="G97"/>
     </row>
-    <row r="98" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="98" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -7407,7 +7421,7 @@
       <c r="D99"/>
       <c r="G99"/>
     </row>
-    <row r="100" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="100" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -7433,7 +7447,7 @@
       <c r="D101"/>
       <c r="G101"/>
     </row>
-    <row r="102" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="102" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -7459,7 +7473,7 @@
       <c r="D103"/>
       <c r="G103"/>
     </row>
-    <row r="104" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="104" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -7485,7 +7499,7 @@
       <c r="D105"/>
       <c r="G105"/>
     </row>
-    <row r="106" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="106" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -7511,7 +7525,7 @@
       <c r="D107"/>
       <c r="G107"/>
     </row>
-    <row r="108" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="108" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -7537,7 +7551,7 @@
       <c r="D109"/>
       <c r="G109"/>
     </row>
-    <row r="110" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="110" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -7563,7 +7577,7 @@
       <c r="D111"/>
       <c r="G111"/>
     </row>
-    <row r="112" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="112" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -7589,7 +7603,7 @@
       <c r="D113"/>
       <c r="G113"/>
     </row>
-    <row r="114" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="114" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -7615,7 +7629,7 @@
       <c r="D115"/>
       <c r="G115"/>
     </row>
-    <row r="116" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="116" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -7641,7 +7655,7 @@
       <c r="D117"/>
       <c r="G117"/>
     </row>
-    <row r="118" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="118" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -7667,7 +7681,7 @@
       <c r="D119"/>
       <c r="G119"/>
     </row>
-    <row r="120" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="120" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -7693,7 +7707,7 @@
       <c r="D121"/>
       <c r="G121"/>
     </row>
-    <row r="122" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="122" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -7719,7 +7733,7 @@
       <c r="D123"/>
       <c r="G123"/>
     </row>
-    <row r="124" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="124" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -7745,7 +7759,7 @@
       <c r="D125"/>
       <c r="G125"/>
     </row>
-    <row r="126" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="126" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -7771,7 +7785,7 @@
       <c r="D127"/>
       <c r="G127"/>
     </row>
-    <row r="128" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="128" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -7797,7 +7811,7 @@
       <c r="D129"/>
       <c r="G129"/>
     </row>
-    <row r="130" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="130" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -7823,7 +7837,7 @@
       <c r="D131"/>
       <c r="G131"/>
     </row>
-    <row r="132" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="132" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A132" t="s">
         <v>124</v>
       </c>
@@ -7849,7 +7863,7 @@
       <c r="D133"/>
       <c r="G133"/>
     </row>
-    <row r="134" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="134" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A134" t="s">
         <v>124</v>
       </c>
@@ -7875,7 +7889,7 @@
       <c r="D135"/>
       <c r="G135"/>
     </row>
-    <row r="136" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="136" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -7901,7 +7915,7 @@
       <c r="D137"/>
       <c r="G137"/>
     </row>
-    <row r="138" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="138" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -7927,7 +7941,7 @@
       <c r="D139"/>
       <c r="G139"/>
     </row>
-    <row r="140" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="140" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A140" t="s">
         <v>124</v>
       </c>
@@ -7953,7 +7967,7 @@
       <c r="D141"/>
       <c r="G141"/>
     </row>
-    <row r="142" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="142" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A142" t="s">
         <v>124</v>
       </c>
@@ -7979,7 +7993,7 @@
       <c r="D143"/>
       <c r="G143"/>
     </row>
-    <row r="144" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="144" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A144" t="s">
         <v>124</v>
       </c>
@@ -8005,7 +8019,7 @@
       <c r="D145"/>
       <c r="G145"/>
     </row>
-    <row r="146" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="146" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -8031,7 +8045,7 @@
       <c r="D147"/>
       <c r="G147"/>
     </row>
-    <row r="148" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="148" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A148" t="s">
         <v>124</v>
       </c>
@@ -8057,7 +8071,7 @@
       <c r="D149"/>
       <c r="G149"/>
     </row>
-    <row r="150" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="150" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A150" t="s">
         <v>124</v>
       </c>
@@ -8083,7 +8097,7 @@
       <c r="D151"/>
       <c r="G151"/>
     </row>
-    <row r="152" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="152" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A152" t="s">
         <v>124</v>
       </c>
@@ -8109,7 +8123,7 @@
       <c r="D153"/>
       <c r="G153"/>
     </row>
-    <row r="154" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="154" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A154" t="s">
         <v>124</v>
       </c>
@@ -8135,7 +8149,7 @@
       <c r="D155"/>
       <c r="G155"/>
     </row>
-    <row r="156" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="156" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A156" t="s">
         <v>124</v>
       </c>
@@ -8161,7 +8175,7 @@
       <c r="D157"/>
       <c r="G157"/>
     </row>
-    <row r="158" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="158" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A158" t="s">
         <v>124</v>
       </c>
@@ -8187,7 +8201,7 @@
       <c r="D159"/>
       <c r="G159"/>
     </row>
-    <row r="160" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="160" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A160" t="s">
         <v>124</v>
       </c>
@@ -8213,7 +8227,7 @@
       <c r="D161"/>
       <c r="G161"/>
     </row>
-    <row r="162" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="162" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A162" t="s">
         <v>124</v>
       </c>
@@ -8239,7 +8253,7 @@
       <c r="D163"/>
       <c r="G163"/>
     </row>
-    <row r="164" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="164" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A164" t="s">
         <v>124</v>
       </c>
@@ -8265,7 +8279,7 @@
       <c r="D165"/>
       <c r="G165"/>
     </row>
-    <row r="166" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="166" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A166" t="s">
         <v>124</v>
       </c>
@@ -8291,7 +8305,7 @@
       <c r="D167"/>
       <c r="G167"/>
     </row>
-    <row r="168" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="168" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A168" t="s">
         <v>124</v>
       </c>
@@ -8317,7 +8331,7 @@
       <c r="D169"/>
       <c r="G169"/>
     </row>
-    <row r="170" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="170" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A170" t="s">
         <v>124</v>
       </c>
@@ -8343,7 +8357,7 @@
       <c r="D171"/>
       <c r="G171"/>
     </row>
-    <row r="172" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="172" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A172" t="s">
         <v>124</v>
       </c>
@@ -8369,7 +8383,7 @@
       <c r="D173"/>
       <c r="G173"/>
     </row>
-    <row r="174" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="174" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A174" t="s">
         <v>124</v>
       </c>
@@ -8395,7 +8409,7 @@
       <c r="D175"/>
       <c r="G175"/>
     </row>
-    <row r="176" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="176" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -8421,7 +8435,7 @@
       <c r="D177"/>
       <c r="G177"/>
     </row>
-    <row r="178" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="178" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A178" t="s">
         <v>124</v>
       </c>
@@ -8447,7 +8461,7 @@
       <c r="D179"/>
       <c r="G179"/>
     </row>
-    <row r="180" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="180" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A180" t="s">
         <v>124</v>
       </c>
@@ -8473,7 +8487,7 @@
       <c r="D181"/>
       <c r="G181"/>
     </row>
-    <row r="182" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="182" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A182" t="s">
         <v>124</v>
       </c>
@@ -8499,7 +8513,7 @@
       <c r="D183"/>
       <c r="G183"/>
     </row>
-    <row r="184" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="184" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A184" t="s">
         <v>124</v>
       </c>
@@ -8525,7 +8539,7 @@
       <c r="D185"/>
       <c r="G185"/>
     </row>
-    <row r="186" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="186" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A186" t="s">
         <v>124</v>
       </c>
@@ -8551,7 +8565,7 @@
       <c r="D187"/>
       <c r="G187"/>
     </row>
-    <row r="188" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="188" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A188" t="s">
         <v>124</v>
       </c>
@@ -8577,7 +8591,7 @@
       <c r="D189"/>
       <c r="G189"/>
     </row>
-    <row r="190" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="190" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A190" t="s">
         <v>124</v>
       </c>
@@ -8603,7 +8617,7 @@
       <c r="D191"/>
       <c r="G191"/>
     </row>
-    <row r="192" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="192" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A192" t="s">
         <v>124</v>
       </c>
@@ -8629,7 +8643,7 @@
       <c r="D193"/>
       <c r="G193"/>
     </row>
-    <row r="194" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="194" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A194" t="s">
         <v>124</v>
       </c>
@@ -8655,7 +8669,7 @@
       <c r="D195"/>
       <c r="G195"/>
     </row>
-    <row r="196" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="196" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A196" t="s">
         <v>124</v>
       </c>
@@ -8681,7 +8695,7 @@
       <c r="D197"/>
       <c r="G197"/>
     </row>
-    <row r="198" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="198" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A198" t="s">
         <v>124</v>
       </c>
@@ -8707,7 +8721,7 @@
       <c r="D199"/>
       <c r="G199"/>
     </row>
-    <row r="200" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="200" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -8733,7 +8747,7 @@
       <c r="D201"/>
       <c r="G201"/>
     </row>
-    <row r="202" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="202" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -8759,7 +8773,7 @@
       <c r="D203"/>
       <c r="G203"/>
     </row>
-    <row r="204" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="204" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -8785,7 +8799,7 @@
       <c r="D205"/>
       <c r="G205"/>
     </row>
-    <row r="206" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="206" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A206" t="s">
         <v>124</v>
       </c>
@@ -8811,7 +8825,7 @@
       <c r="D207"/>
       <c r="G207"/>
     </row>
-    <row r="208" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="208" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A208" t="s">
         <v>124</v>
       </c>
@@ -8837,7 +8851,7 @@
       <c r="D209"/>
       <c r="G209"/>
     </row>
-    <row r="210" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="210" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -8863,7 +8877,7 @@
       <c r="D211"/>
       <c r="G211"/>
     </row>
-    <row r="212" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="212" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A212" t="s">
         <v>124</v>
       </c>
@@ -8889,7 +8903,7 @@
       <c r="D213"/>
       <c r="G213"/>
     </row>
-    <row r="214" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="214" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A214" t="s">
         <v>124</v>
       </c>
@@ -8915,7 +8929,7 @@
       <c r="D215"/>
       <c r="G215"/>
     </row>
-    <row r="216" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="216" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A216" t="s">
         <v>124</v>
       </c>
@@ -8941,7 +8955,7 @@
       <c r="D217"/>
       <c r="G217"/>
     </row>
-    <row r="218" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="218" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A218" t="s">
         <v>124</v>
       </c>
@@ -8967,7 +8981,7 @@
       <c r="D219"/>
       <c r="G219"/>
     </row>
-    <row r="220" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="220" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A220" t="s">
         <v>124</v>
       </c>
@@ -8993,7 +9007,7 @@
       <c r="D221"/>
       <c r="G221"/>
     </row>
-    <row r="222" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="222" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A222" t="s">
         <v>124</v>
       </c>
@@ -9019,7 +9033,7 @@
       <c r="D223"/>
       <c r="G223"/>
     </row>
-    <row r="224" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="224" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -9045,7 +9059,7 @@
       <c r="D225"/>
       <c r="G225"/>
     </row>
-    <row r="226" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="226" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A226" t="s">
         <v>124</v>
       </c>
@@ -9071,7 +9085,7 @@
       <c r="D227"/>
       <c r="G227"/>
     </row>
-    <row r="228" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="228" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A228" t="s">
         <v>124</v>
       </c>
@@ -9097,7 +9111,7 @@
       <c r="D229"/>
       <c r="G229"/>
     </row>
-    <row r="230" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="230" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A230" t="s">
         <v>124</v>
       </c>
@@ -9123,7 +9137,7 @@
       <c r="D231"/>
       <c r="G231"/>
     </row>
-    <row r="232" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="232" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A232" t="s">
         <v>124</v>
       </c>
@@ -9149,7 +9163,7 @@
       <c r="D233"/>
       <c r="G233"/>
     </row>
-    <row r="234" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="234" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -9175,7 +9189,7 @@
       <c r="D235"/>
       <c r="G235"/>
     </row>
-    <row r="236" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="236" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A236" t="s">
         <v>124</v>
       </c>
@@ -9201,7 +9215,7 @@
       <c r="D237"/>
       <c r="G237"/>
     </row>
-    <row r="238" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="238" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A238" t="s">
         <v>124</v>
       </c>
@@ -9227,7 +9241,7 @@
       <c r="D239"/>
       <c r="G239"/>
     </row>
-    <row r="240" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="240" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A240" t="s">
         <v>124</v>
       </c>
@@ -9253,7 +9267,7 @@
       <c r="D241"/>
       <c r="G241"/>
     </row>
-    <row r="242" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="242" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A242" t="s">
         <v>124</v>
       </c>
@@ -9279,7 +9293,7 @@
       <c r="D243"/>
       <c r="G243"/>
     </row>
-    <row r="244" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="244" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A244" t="s">
         <v>124</v>
       </c>
@@ -9305,7 +9319,7 @@
       <c r="D245"/>
       <c r="G245"/>
     </row>
-    <row r="246" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="246" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A246" t="s">
         <v>124</v>
       </c>
@@ -9331,7 +9345,7 @@
       <c r="D247"/>
       <c r="G247"/>
     </row>
-    <row r="248" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="248" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A248" t="s">
         <v>124</v>
       </c>
@@ -9357,7 +9371,7 @@
       <c r="D249"/>
       <c r="G249"/>
     </row>
-    <row r="250" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="250" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A250" t="s">
         <v>124</v>
       </c>
@@ -9383,7 +9397,7 @@
       <c r="D251"/>
       <c r="G251"/>
     </row>
-    <row r="252" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="252" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A252" t="s">
         <v>124</v>
       </c>
@@ -9409,7 +9423,7 @@
       <c r="D253"/>
       <c r="G253"/>
     </row>
-    <row r="254" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="254" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A254" t="s">
         <v>124</v>
       </c>
@@ -9435,7 +9449,7 @@
       <c r="D255"/>
       <c r="G255"/>
     </row>
-    <row r="256" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="256" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A256" t="s">
         <v>124</v>
       </c>
@@ -9461,7 +9475,7 @@
       <c r="D257"/>
       <c r="G257"/>
     </row>
-    <row r="258" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="258" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A258" t="s">
         <v>124</v>
       </c>
@@ -9487,7 +9501,7 @@
       <c r="D259"/>
       <c r="G259"/>
     </row>
-    <row r="260" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="260" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A260" t="s">
         <v>124</v>
       </c>
@@ -9513,7 +9527,7 @@
       <c r="D261"/>
       <c r="G261"/>
     </row>
-    <row r="262" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="262" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A262" t="s">
         <v>124</v>
       </c>
@@ -9539,7 +9553,7 @@
       <c r="D263"/>
       <c r="G263"/>
     </row>
-    <row r="264" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="264" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A264" t="s">
         <v>124</v>
       </c>
@@ -9565,7 +9579,7 @@
       <c r="D265"/>
       <c r="G265"/>
     </row>
-    <row r="266" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="266" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A266" t="s">
         <v>124</v>
       </c>
@@ -9591,7 +9605,7 @@
       <c r="D267"/>
       <c r="G267"/>
     </row>
-    <row r="268" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="268" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A268" t="s">
         <v>124</v>
       </c>
@@ -9617,7 +9631,7 @@
       <c r="D269"/>
       <c r="G269"/>
     </row>
-    <row r="270" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="270" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A270" t="s">
         <v>124</v>
       </c>
@@ -9643,7 +9657,7 @@
       <c r="D271"/>
       <c r="G271"/>
     </row>
-    <row r="272" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="272" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A272" t="s">
         <v>124</v>
       </c>
@@ -9669,7 +9683,7 @@
       <c r="D273"/>
       <c r="G273"/>
     </row>
-    <row r="274" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="274" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A274" t="s">
         <v>124</v>
       </c>
@@ -9695,7 +9709,7 @@
       <c r="D275"/>
       <c r="G275"/>
     </row>
-    <row r="276" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="276" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A276" t="s">
         <v>124</v>
       </c>
@@ -9721,7 +9735,7 @@
       <c r="D277"/>
       <c r="G277"/>
     </row>
-    <row r="278" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="278" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A278" t="s">
         <v>124</v>
       </c>
@@ -9747,7 +9761,7 @@
       <c r="D279"/>
       <c r="G279"/>
     </row>
-    <row r="280" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="280" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A280" t="s">
         <v>124</v>
       </c>
@@ -9773,7 +9787,7 @@
       <c r="D281"/>
       <c r="G281"/>
     </row>
-    <row r="282" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="282" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A282" t="s">
         <v>124</v>
       </c>
@@ -9799,7 +9813,7 @@
       <c r="D283"/>
       <c r="G283"/>
     </row>
-    <row r="284" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="284" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A284" t="s">
         <v>124</v>
       </c>
@@ -9825,7 +9839,7 @@
       <c r="D285"/>
       <c r="G285"/>
     </row>
-    <row r="286" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="286" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A286" t="s">
         <v>124</v>
       </c>
@@ -9851,7 +9865,7 @@
       <c r="D287"/>
       <c r="G287"/>
     </row>
-    <row r="288" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="288" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A288" t="s">
         <v>124</v>
       </c>
@@ -9877,7 +9891,7 @@
       <c r="D289"/>
       <c r="G289"/>
     </row>
-    <row r="290" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="290" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A290" t="s">
         <v>124</v>
       </c>
@@ -9890,7 +9904,7 @@
       <c r="D290"/>
       <c r="G290"/>
     </row>
-    <row r="291" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="291" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A291" t="s">
         <v>453</v>
       </c>
@@ -9915,7 +9929,7 @@
       </c>
       <c r="D292"/>
     </row>
-    <row r="293" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="293" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A293" t="s">
         <v>453</v>
       </c>
@@ -9940,7 +9954,7 @@
       </c>
       <c r="D294"/>
     </row>
-    <row r="295" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="295" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A295" t="s">
         <v>453</v>
       </c>
@@ -9965,7 +9979,7 @@
       </c>
       <c r="D296"/>
     </row>
-    <row r="297" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="297" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A297" t="s">
         <v>453</v>
       </c>
@@ -9990,7 +10004,7 @@
       </c>
       <c r="D298"/>
     </row>
-    <row r="299" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="299" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A299" t="s">
         <v>453</v>
       </c>
@@ -10015,7 +10029,7 @@
       </c>
       <c r="D300"/>
     </row>
-    <row r="301" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="301" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A301" t="s">
         <v>453</v>
       </c>
@@ -10040,7 +10054,7 @@
       </c>
       <c r="D302"/>
     </row>
-    <row r="303" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="303" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A303" t="s">
         <v>453</v>
       </c>
@@ -10065,7 +10079,7 @@
       </c>
       <c r="D304"/>
     </row>
-    <row r="305" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="305" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A305" t="s">
         <v>453</v>
       </c>
@@ -10078,7 +10092,7 @@
       <c r="D305"/>
       <c r="G305"/>
     </row>
-    <row r="306" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="306" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A306" t="s">
         <v>469</v>
       </c>
@@ -10141,7 +10155,7 @@
       <c r="D307"/>
       <c r="G307"/>
     </row>
-    <row r="308" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="308" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A308" t="s">
         <v>469</v>
       </c>
@@ -10204,7 +10218,7 @@
       <c r="D309"/>
       <c r="G309"/>
     </row>
-    <row r="310" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="310" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A310" t="s">
         <v>469</v>
       </c>
@@ -10267,7 +10281,7 @@
       <c r="D311"/>
       <c r="G311"/>
     </row>
-    <row r="312" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="312" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A312" t="s">
         <v>469</v>
       </c>
@@ -10330,7 +10344,7 @@
       <c r="D313"/>
       <c r="G313"/>
     </row>
-    <row r="314" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="314" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A314" t="s">
         <v>469</v>
       </c>
@@ -10393,7 +10407,7 @@
       <c r="D315"/>
       <c r="G315"/>
     </row>
-    <row r="316" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="316" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A316" t="s">
         <v>469</v>
       </c>
@@ -10456,7 +10470,7 @@
       <c r="D317"/>
       <c r="G317"/>
     </row>
-    <row r="318" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="318" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A318" t="s">
         <v>469</v>
       </c>
@@ -10519,7 +10533,7 @@
       <c r="D319"/>
       <c r="G319"/>
     </row>
-    <row r="320" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="320" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A320" t="s">
         <v>469</v>
       </c>
@@ -10582,7 +10596,7 @@
       <c r="D321"/>
       <c r="G321"/>
     </row>
-    <row r="322" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="322" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A322" t="s">
         <v>469</v>
       </c>
@@ -10645,7 +10659,7 @@
       <c r="D323"/>
       <c r="G323"/>
     </row>
-    <row r="324" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="324" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A324" t="s">
         <v>469</v>
       </c>
@@ -10708,7 +10722,7 @@
       <c r="D325"/>
       <c r="G325"/>
     </row>
-    <row r="326" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="326" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A326" t="s">
         <v>469</v>
       </c>
@@ -10758,7 +10772,7 @@
       <c r="AO326"/>
       <c r="AP326"/>
     </row>
-    <row r="327" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="327" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A327" t="s">
         <v>469</v>
       </c>
@@ -10820,7 +10834,7 @@
       </c>
       <c r="D328"/>
     </row>
-    <row r="329" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="329" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A329" t="s">
         <v>469</v>
       </c>
@@ -10882,7 +10896,7 @@
       </c>
       <c r="D330"/>
     </row>
-    <row r="331" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="331" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -10907,7 +10921,7 @@
       </c>
       <c r="D332"/>
     </row>
-    <row r="333" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="333" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -10932,7 +10946,7 @@
       </c>
       <c r="D334"/>
     </row>
-    <row r="335" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="335" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -10957,7 +10971,7 @@
       </c>
       <c r="D336"/>
     </row>
-    <row r="337" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="337" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -10982,7 +10996,7 @@
       </c>
       <c r="D338"/>
     </row>
-    <row r="339" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="339" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -11020,7 +11034,7 @@
       <c r="D341"/>
       <c r="G341"/>
     </row>
-    <row r="342" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="342" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -11046,7 +11060,7 @@
       <c r="D343"/>
       <c r="G343"/>
     </row>
-    <row r="344" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="344" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -11059,7 +11073,7 @@
       <c r="D344"/>
       <c r="G344"/>
     </row>
-    <row r="345" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="345" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A345" t="s">
         <v>532</v>
       </c>
@@ -11084,7 +11098,7 @@
       </c>
       <c r="D346"/>
     </row>
-    <row r="347" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="347" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A347" t="s">
         <v>532</v>
       </c>
@@ -11109,7 +11123,7 @@
       </c>
       <c r="D348"/>
     </row>
-    <row r="349" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="349" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A349" t="s">
         <v>539</v>
       </c>
@@ -11134,7 +11148,7 @@
       </c>
       <c r="D350"/>
     </row>
-    <row r="351" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="351" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A351" t="s">
         <v>539</v>
       </c>
@@ -11159,7 +11173,7 @@
       </c>
       <c r="D352"/>
     </row>
-    <row r="353" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="353" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A353" t="s">
         <v>539</v>
       </c>
@@ -11184,7 +11198,7 @@
       </c>
       <c r="D354"/>
     </row>
-    <row r="355" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="355" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A355" t="s">
         <v>539</v>
       </c>
@@ -11209,7 +11223,7 @@
       </c>
       <c r="D356"/>
     </row>
-    <row r="357" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="357" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A357" t="s">
         <v>539</v>
       </c>
@@ -11234,7 +11248,7 @@
       </c>
       <c r="D358"/>
     </row>
-    <row r="359" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="359" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A359" t="s">
         <v>539</v>
       </c>
@@ -11259,7 +11273,7 @@
       </c>
       <c r="D360"/>
     </row>
-    <row r="361" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="361" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A361" t="s">
         <v>539</v>
       </c>
@@ -11272,7 +11286,7 @@
       <c r="D361"/>
       <c r="G361"/>
     </row>
-    <row r="362" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="362" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A362" t="s">
         <v>554</v>
       </c>
@@ -11310,7 +11324,7 @@
       </c>
       <c r="D364"/>
     </row>
-    <row r="365" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="365" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A365" t="s">
         <v>559</v>
       </c>
@@ -11335,7 +11349,7 @@
       </c>
       <c r="D366"/>
     </row>
-    <row r="367" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="367" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A367" t="s">
         <v>559</v>
       </c>
@@ -11360,7 +11374,7 @@
       </c>
       <c r="D368"/>
     </row>
-    <row r="369" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="369" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A369" t="s">
         <v>559</v>
       </c>
@@ -11385,7 +11399,7 @@
       </c>
       <c r="D370"/>
     </row>
-    <row r="371" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="371" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A371" t="s">
         <v>559</v>
       </c>
@@ -11398,7 +11412,7 @@
       <c r="D371"/>
       <c r="G371"/>
     </row>
-    <row r="372" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="372" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A372" t="s">
         <v>559</v>
       </c>
@@ -11424,7 +11438,7 @@
       <c r="D373"/>
       <c r="G373"/>
     </row>
-    <row r="374" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="374" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A374" t="s">
         <v>559</v>
       </c>
@@ -11450,7 +11464,7 @@
       <c r="D375"/>
       <c r="G375"/>
     </row>
-    <row r="376" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="376" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -11476,7 +11490,7 @@
       <c r="D377"/>
       <c r="G377"/>
     </row>
-    <row r="378" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="378" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A378" t="s">
         <v>583</v>
       </c>
@@ -11502,7 +11516,7 @@
       <c r="D379"/>
       <c r="G379"/>
     </row>
-    <row r="380" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="380" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A380" t="s">
         <v>583</v>
       </c>
@@ -11528,7 +11542,7 @@
       <c r="D381"/>
       <c r="G381"/>
     </row>
-    <row r="382" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="382" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A382" t="s">
         <v>583</v>
       </c>
@@ -11554,7 +11568,7 @@
       <c r="D383"/>
       <c r="G383"/>
     </row>
-    <row r="384" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="384" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A384" t="s">
         <v>583</v>
       </c>
@@ -11580,7 +11594,7 @@
       <c r="D385"/>
       <c r="G385"/>
     </row>
-    <row r="386" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="386" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A386" t="s">
         <v>597</v>
       </c>
@@ -11606,7 +11620,7 @@
       <c r="D387"/>
       <c r="G387"/>
     </row>
-    <row r="388" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="388" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A388" t="s">
         <v>597</v>
       </c>
@@ -11632,7 +11646,7 @@
       <c r="D389"/>
       <c r="G389"/>
     </row>
-    <row r="390" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="390" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A390" t="s">
         <v>597</v>
       </c>
@@ -11658,7 +11672,7 @@
       <c r="D391"/>
       <c r="G391"/>
     </row>
-    <row r="392" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="392" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A392" t="s">
         <v>597</v>
       </c>
@@ -11684,7 +11698,7 @@
       <c r="D393"/>
       <c r="G393"/>
     </row>
-    <row r="394" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="394" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A394" t="s">
         <v>597</v>
       </c>
@@ -11710,7 +11724,7 @@
       <c r="D395"/>
       <c r="G395"/>
     </row>
-    <row r="396" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="396" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A396" t="s">
         <v>597</v>
       </c>
@@ -11736,7 +11750,7 @@
       <c r="D397"/>
       <c r="G397"/>
     </row>
-    <row r="398" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="398" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A398" t="s">
         <v>597</v>
       </c>
@@ -11762,7 +11776,7 @@
       <c r="D399"/>
       <c r="G399"/>
     </row>
-    <row r="400" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="400" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A400" t="s">
         <v>621</v>
       </c>
@@ -11788,7 +11802,7 @@
       <c r="D401"/>
       <c r="G401"/>
     </row>
-    <row r="402" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="402" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A402" t="s">
         <v>621</v>
       </c>
@@ -11814,7 +11828,7 @@
       <c r="D403"/>
       <c r="G403"/>
     </row>
-    <row r="404" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="404" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A404" t="s">
         <v>621</v>
       </c>
@@ -11840,7 +11854,7 @@
       <c r="D405"/>
       <c r="G405"/>
     </row>
-    <row r="406" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="406" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A406" t="s">
         <v>621</v>
       </c>
@@ -11866,7 +11880,7 @@
       <c r="D407"/>
       <c r="G407"/>
     </row>
-    <row r="408" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="408" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A408" t="s">
         <v>621</v>
       </c>
@@ -11892,7 +11906,7 @@
       <c r="D409"/>
       <c r="G409"/>
     </row>
-    <row r="410" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="410" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A410" t="s">
         <v>621</v>
       </c>
@@ -11918,7 +11932,7 @@
       <c r="D411"/>
       <c r="G411"/>
     </row>
-    <row r="412" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="412" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A412" t="s">
         <v>621</v>
       </c>
@@ -11944,7 +11958,7 @@
       <c r="D413"/>
       <c r="G413"/>
     </row>
-    <row r="414" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="414" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A414" t="s">
         <v>621</v>
       </c>
@@ -11970,7 +11984,7 @@
       <c r="D415"/>
       <c r="G415"/>
     </row>
-    <row r="416" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="416" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A416" t="s">
         <v>646</v>
       </c>
@@ -11996,7 +12010,7 @@
       <c r="D417"/>
       <c r="G417"/>
     </row>
-    <row r="418" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="418" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A418" t="s">
         <v>646</v>
       </c>
@@ -12022,7 +12036,7 @@
       <c r="D419"/>
       <c r="G419"/>
     </row>
-    <row r="420" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="420" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A420" t="s">
         <v>646</v>
       </c>
@@ -12048,7 +12062,7 @@
       <c r="D421"/>
       <c r="G421"/>
     </row>
-    <row r="422" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="422" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A422" t="s">
         <v>646</v>
       </c>
@@ -12074,7 +12088,7 @@
       <c r="D423"/>
       <c r="G423"/>
     </row>
-    <row r="424" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="424" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A424" t="s">
         <v>646</v>
       </c>
@@ -12100,7 +12114,7 @@
       <c r="D425"/>
       <c r="G425"/>
     </row>
-    <row r="426" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="426" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A426" t="s">
         <v>646</v>
       </c>
@@ -12126,7 +12140,7 @@
       <c r="D427"/>
       <c r="G427"/>
     </row>
-    <row r="428" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="428" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A428" t="s">
         <v>664</v>
       </c>
@@ -12152,7 +12166,7 @@
       <c r="D429"/>
       <c r="G429"/>
     </row>
-    <row r="430" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="430" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A430" t="s">
         <v>664</v>
       </c>
@@ -12178,7 +12192,7 @@
       <c r="D431"/>
       <c r="G431"/>
     </row>
-    <row r="432" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="432" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A432" t="s">
         <v>664</v>
       </c>
@@ -12204,7 +12218,7 @@
       <c r="D433"/>
       <c r="G433"/>
     </row>
-    <row r="434" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="434" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A434" t="s">
         <v>664</v>
       </c>
@@ -12230,7 +12244,7 @@
       <c r="D435"/>
       <c r="G435"/>
     </row>
-    <row r="436" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="436" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A436" t="s">
         <v>664</v>
       </c>
@@ -12256,7 +12270,7 @@
       <c r="D437"/>
       <c r="G437"/>
     </row>
-    <row r="438" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="438" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A438" t="s">
         <v>664</v>
       </c>
@@ -12282,7 +12296,7 @@
       <c r="D439"/>
       <c r="G439"/>
     </row>
-    <row r="440" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="440" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A440" t="s">
         <v>664</v>
       </c>
@@ -12308,7 +12322,7 @@
       <c r="D441"/>
       <c r="G441"/>
     </row>
-    <row r="442" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="442" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A442" t="s">
         <v>664</v>
       </c>
@@ -12334,7 +12348,7 @@
       <c r="D443"/>
       <c r="G443"/>
     </row>
-    <row r="444" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="444" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A444" t="s">
         <v>664</v>
       </c>
@@ -12360,7 +12374,7 @@
       <c r="D445"/>
       <c r="G445"/>
     </row>
-    <row r="446" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="446" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A446" t="s">
         <v>664</v>
       </c>
@@ -12386,7 +12400,7 @@
       <c r="D447"/>
       <c r="G447"/>
     </row>
-    <row r="448" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="448" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A448" t="s">
         <v>664</v>
       </c>
@@ -12412,7 +12426,7 @@
       <c r="D449"/>
       <c r="G449"/>
     </row>
-    <row r="450" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="450" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A450" t="s">
         <v>664</v>
       </c>
@@ -12438,7 +12452,7 @@
       <c r="D451"/>
       <c r="G451"/>
     </row>
-    <row r="452" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="452" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A452" t="s">
         <v>664</v>
       </c>
@@ -12464,7 +12478,7 @@
       <c r="D453"/>
       <c r="G453"/>
     </row>
-    <row r="454" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="454" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A454" t="s">
         <v>664</v>
       </c>
@@ -12490,7 +12504,7 @@
       <c r="D455"/>
       <c r="G455"/>
     </row>
-    <row r="456" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="456" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A456" t="s">
         <v>664</v>
       </c>
@@ -12516,7 +12530,7 @@
       <c r="D457"/>
       <c r="G457"/>
     </row>
-    <row r="458" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="458" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A458" t="s">
         <v>664</v>
       </c>
@@ -12542,7 +12556,7 @@
       <c r="D459"/>
       <c r="G459"/>
     </row>
-    <row r="460" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="460" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A460" t="s">
         <v>696</v>
       </c>
@@ -12568,7 +12582,7 @@
       <c r="D461"/>
       <c r="G461"/>
     </row>
-    <row r="462" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="462" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A462" t="s">
         <v>696</v>
       </c>
@@ -12594,7 +12608,7 @@
       <c r="D463"/>
       <c r="G463"/>
     </row>
-    <row r="464" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="464" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A464" t="s">
         <v>696</v>
       </c>
@@ -12620,7 +12634,7 @@
       <c r="D465"/>
       <c r="G465"/>
     </row>
-    <row r="466" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="466" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A466" t="s">
         <v>696</v>
       </c>
@@ -12646,7 +12660,7 @@
       <c r="D467"/>
       <c r="G467"/>
     </row>
-    <row r="468" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="468" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A468" t="s">
         <v>696</v>
       </c>
@@ -12672,7 +12686,7 @@
       <c r="D469"/>
       <c r="G469"/>
     </row>
-    <row r="470" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="470" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A470" t="s">
         <v>706</v>
       </c>
@@ -12698,7 +12712,7 @@
       <c r="D471"/>
       <c r="G471"/>
     </row>
-    <row r="472" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="472" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A472" t="s">
         <v>706</v>
       </c>
@@ -12724,7 +12738,7 @@
       <c r="D473"/>
       <c r="G473"/>
     </row>
-    <row r="474" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="474" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A474" t="s">
         <v>706</v>
       </c>
@@ -12750,7 +12764,7 @@
       <c r="D475"/>
       <c r="G475"/>
     </row>
-    <row r="476" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="476" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A476" t="s">
         <v>706</v>
       </c>
@@ -12776,7 +12790,7 @@
       <c r="D477"/>
       <c r="G477"/>
     </row>
-    <row r="478" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="478" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A478" t="s">
         <v>706</v>
       </c>
@@ -12815,7 +12829,7 @@
       <c r="D480"/>
       <c r="G480"/>
     </row>
-    <row r="481" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="481" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A481" t="s">
         <v>721</v>
       </c>
@@ -12840,7 +12854,7 @@
       </c>
       <c r="D482"/>
     </row>
-    <row r="483" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="483" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A483" t="s">
         <v>721</v>
       </c>
@@ -12865,7 +12879,7 @@
       </c>
       <c r="D484"/>
     </row>
-    <row r="485" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="485" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A485" t="s">
         <v>721</v>
       </c>
@@ -12890,7 +12904,7 @@
       </c>
       <c r="D486"/>
     </row>
-    <row r="487" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="487" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A487" t="s">
         <v>721</v>
       </c>
@@ -12915,7 +12929,7 @@
       </c>
       <c r="D488"/>
     </row>
-    <row r="489" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="489" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A489" t="s">
         <v>721</v>
       </c>
@@ -12940,7 +12954,7 @@
       </c>
       <c r="D490"/>
     </row>
-    <row r="491" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="491" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A491" t="s">
         <v>721</v>
       </c>
@@ -12965,7 +12979,7 @@
       </c>
       <c r="D492"/>
     </row>
-    <row r="493" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="493" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A493" t="s">
         <v>721</v>
       </c>
@@ -12990,7 +13004,7 @@
       </c>
       <c r="D494"/>
     </row>
-    <row r="495" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="495" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A495" t="s">
         <v>730</v>
       </c>
@@ -13015,7 +13029,7 @@
       </c>
       <c r="D496"/>
     </row>
-    <row r="497" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="497" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A497" t="s">
         <v>730</v>
       </c>
@@ -13040,7 +13054,7 @@
       </c>
       <c r="D498"/>
     </row>
-    <row r="499" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="499" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A499" t="s">
         <v>730</v>
       </c>
@@ -13065,7 +13079,7 @@
       </c>
       <c r="D500"/>
     </row>
-    <row r="501" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="501" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A501" t="s">
         <v>730</v>
       </c>
@@ -13090,7 +13104,7 @@
       </c>
       <c r="D502"/>
     </row>
-    <row r="503" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="503" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A503" t="s">
         <v>730</v>
       </c>
@@ -13115,7 +13129,7 @@
       </c>
       <c r="D504"/>
     </row>
-    <row r="505" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="505" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A505" t="s">
         <v>730</v>
       </c>
@@ -13140,7 +13154,7 @@
       </c>
       <c r="D506"/>
     </row>
-    <row r="507" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="507" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A507" t="s">
         <v>749</v>
       </c>
@@ -13165,7 +13179,7 @@
       </c>
       <c r="D508"/>
     </row>
-    <row r="509" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="509" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A509" t="s">
         <v>749</v>
       </c>
@@ -13190,7 +13204,7 @@
       </c>
       <c r="D510"/>
     </row>
-    <row r="511" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="511" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A511" t="s">
         <v>749</v>
       </c>
@@ -13215,7 +13229,7 @@
       </c>
       <c r="D512"/>
     </row>
-    <row r="513" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="513" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A513" t="s">
         <v>749</v>
       </c>
@@ -13240,7 +13254,7 @@
       </c>
       <c r="D514"/>
     </row>
-    <row r="515" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="515" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A515" t="s">
         <v>749</v>
       </c>
@@ -13265,8 +13279,8 @@
       </c>
       <c r="D516"/>
     </row>
-    <row r="517" s="5" customFormat="1" ht="12.75" hidden="1">
-      <c r="A517" s="6" t="s">
+    <row r="517" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A517" s="5" t="s">
         <v>749</v>
       </c>
       <c r="B517" t="s">
@@ -13290,7 +13304,7 @@
       </c>
       <c r="D518"/>
     </row>
-    <row r="519" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="519" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A519" t="s">
         <v>774</v>
       </c>
@@ -13315,7 +13329,7 @@
       </c>
       <c r="D520"/>
     </row>
-    <row r="521" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="521" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A521" t="s">
         <v>774</v>
       </c>
@@ -13340,7 +13354,7 @@
       </c>
       <c r="D522"/>
     </row>
-    <row r="523" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="523" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A523" t="s">
         <v>774</v>
       </c>
@@ -13365,7 +13379,7 @@
       </c>
       <c r="D524"/>
     </row>
-    <row r="525" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="525" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A525" t="s">
         <v>774</v>
       </c>
@@ -13390,7 +13404,7 @@
       </c>
       <c r="D526"/>
     </row>
-    <row r="527" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="527" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A527" t="s">
         <v>774</v>
       </c>
@@ -13415,7 +13429,7 @@
       </c>
       <c r="D528"/>
     </row>
-    <row r="529" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="529" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A529" t="s">
         <v>788</v>
       </c>
@@ -13440,7 +13454,7 @@
       </c>
       <c r="D530"/>
     </row>
-    <row r="531" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="531" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A531" t="s">
         <v>788</v>
       </c>
@@ -13465,7 +13479,7 @@
       </c>
       <c r="D532"/>
     </row>
-    <row r="533" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="533" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A533" t="s">
         <v>788</v>
       </c>
@@ -13490,7 +13504,7 @@
       </c>
       <c r="D534"/>
     </row>
-    <row r="535" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="535" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A535" t="s">
         <v>788</v>
       </c>
@@ -13515,7 +13529,7 @@
       </c>
       <c r="D536"/>
     </row>
-    <row r="537" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="537" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A537" t="s">
         <v>788</v>
       </c>
@@ -13540,7 +13554,7 @@
       </c>
       <c r="D538"/>
     </row>
-    <row r="539" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="539" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A539" t="s">
         <v>788</v>
       </c>
@@ -13565,7 +13579,7 @@
       </c>
       <c r="D540"/>
     </row>
-    <row r="541" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="541" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A541" t="s">
         <v>788</v>
       </c>
@@ -13590,7 +13604,7 @@
       </c>
       <c r="D542"/>
     </row>
-    <row r="543" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="543" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A543" t="s">
         <v>788</v>
       </c>
@@ -13616,7 +13630,7 @@
       <c r="D544"/>
       <c r="G544"/>
     </row>
-    <row r="545" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="545" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A545" t="s">
         <v>808</v>
       </c>
@@ -13655,7 +13669,7 @@
       <c r="D547"/>
       <c r="G547"/>
     </row>
-    <row r="548" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="548" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A548" t="s">
         <v>808</v>
       </c>
@@ -13681,7 +13695,7 @@
       <c r="D549"/>
       <c r="G549"/>
     </row>
-    <row r="550" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="550" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A550" t="s">
         <v>808</v>
       </c>
@@ -13707,8 +13721,8 @@
       <c r="D551"/>
       <c r="G551"/>
     </row>
-    <row r="552" s="5" customFormat="1" ht="12.75" hidden="1">
-      <c r="A552" s="7" t="s">
+    <row r="552" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A552" s="6" t="s">
         <v>823</v>
       </c>
       <c r="B552" t="s">
@@ -13733,7 +13747,7 @@
       <c r="D553"/>
       <c r="G553"/>
     </row>
-    <row r="554" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="554" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A554" t="s">
         <v>823</v>
       </c>
@@ -13759,7 +13773,7 @@
       <c r="D555"/>
       <c r="G555"/>
     </row>
-    <row r="556" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="556" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A556" t="s">
         <v>823</v>
       </c>
@@ -13785,7 +13799,7 @@
       <c r="D557"/>
       <c r="G557"/>
     </row>
-    <row r="558" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="558" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A558" t="s">
         <v>823</v>
       </c>
@@ -13811,7 +13825,7 @@
       <c r="D559"/>
       <c r="G559"/>
     </row>
-    <row r="560" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="560" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A560" t="s">
         <v>823</v>
       </c>
@@ -13837,7 +13851,7 @@
       <c r="D561"/>
       <c r="G561"/>
     </row>
-    <row r="562" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="562" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A562" t="s">
         <v>823</v>
       </c>
@@ -13863,7 +13877,7 @@
       <c r="D563"/>
       <c r="G563"/>
     </row>
-    <row r="564" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="564" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A564" t="s">
         <v>823</v>
       </c>
@@ -13889,7 +13903,7 @@
       <c r="D565"/>
       <c r="G565"/>
     </row>
-    <row r="566" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="566" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A566" t="s">
         <v>847</v>
       </c>
@@ -13915,7 +13929,7 @@
       <c r="D567"/>
       <c r="G567"/>
     </row>
-    <row r="568" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="568" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A568" t="s">
         <v>847</v>
       </c>
@@ -13941,7 +13955,7 @@
       <c r="D569"/>
       <c r="G569"/>
     </row>
-    <row r="570" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="570" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A570" t="s">
         <v>847</v>
       </c>
@@ -13967,7 +13981,7 @@
       <c r="D571"/>
       <c r="G571"/>
     </row>
-    <row r="572" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="572" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A572" t="s">
         <v>847</v>
       </c>
@@ -13993,7 +14007,7 @@
       <c r="D573"/>
       <c r="G573"/>
     </row>
-    <row r="574" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="574" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A574" t="s">
         <v>847</v>
       </c>
@@ -14019,7 +14033,7 @@
       <c r="D575"/>
       <c r="G575"/>
     </row>
-    <row r="576" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="576" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A576" t="s">
         <v>847</v>
       </c>
@@ -14045,7 +14059,7 @@
       <c r="D577"/>
       <c r="G577"/>
     </row>
-    <row r="578" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="578" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A578" t="s">
         <v>847</v>
       </c>
@@ -14071,7 +14085,7 @@
       <c r="D579"/>
       <c r="G579"/>
     </row>
-    <row r="580" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="580" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A580" t="s">
         <v>847</v>
       </c>
@@ -14097,7 +14111,7 @@
       <c r="D581"/>
       <c r="G581"/>
     </row>
-    <row r="582" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="582" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A582" t="s">
         <v>847</v>
       </c>
@@ -14123,7 +14137,7 @@
       <c r="D583"/>
       <c r="G583"/>
     </row>
-    <row r="584" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="584" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A584" t="s">
         <v>847</v>
       </c>
@@ -14149,7 +14163,7 @@
       <c r="D585"/>
       <c r="G585"/>
     </row>
-    <row r="586" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="586" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A586" t="s">
         <v>847</v>
       </c>
@@ -14175,7 +14189,7 @@
       <c r="D587"/>
       <c r="G587"/>
     </row>
-    <row r="588" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="588" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A588" t="s">
         <v>881</v>
       </c>
@@ -14201,7 +14215,7 @@
       <c r="D589"/>
       <c r="G589"/>
     </row>
-    <row r="590" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="590" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A590" t="s">
         <v>881</v>
       </c>
@@ -14227,7 +14241,7 @@
       <c r="D591"/>
       <c r="G591"/>
     </row>
-    <row r="592" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="592" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A592" t="s">
         <v>881</v>
       </c>
@@ -14253,7 +14267,7 @@
       <c r="D593"/>
       <c r="G593"/>
     </row>
-    <row r="594" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="594" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A594" t="s">
         <v>881</v>
       </c>
@@ -14279,7 +14293,7 @@
       <c r="D595"/>
       <c r="G595"/>
     </row>
-    <row r="596" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="596" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A596" t="s">
         <v>881</v>
       </c>
@@ -14305,7 +14319,7 @@
       <c r="D597"/>
       <c r="G597"/>
     </row>
-    <row r="598" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="598" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A598" t="s">
         <v>881</v>
       </c>
@@ -14331,7 +14345,7 @@
       <c r="D599"/>
       <c r="G599"/>
     </row>
-    <row r="600" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="600" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A600" t="s">
         <v>881</v>
       </c>
@@ -14357,7 +14371,7 @@
       <c r="D601"/>
       <c r="G601"/>
     </row>
-    <row r="602" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="602" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A602" t="s">
         <v>881</v>
       </c>
@@ -14383,7 +14397,7 @@
       <c r="D603"/>
       <c r="G603"/>
     </row>
-    <row r="604" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="604" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A604" t="s">
         <v>881</v>
       </c>
@@ -14409,7 +14423,7 @@
       <c r="D605"/>
       <c r="G605"/>
     </row>
-    <row r="606" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="606" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A606" t="s">
         <v>910</v>
       </c>
@@ -14435,7 +14449,7 @@
       <c r="D607"/>
       <c r="G607"/>
     </row>
-    <row r="608" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="608" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A608" t="s">
         <v>910</v>
       </c>
@@ -14461,7 +14475,7 @@
       <c r="D609"/>
       <c r="G609"/>
     </row>
-    <row r="610" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="610" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A610" t="s">
         <v>910</v>
       </c>
@@ -14487,7 +14501,7 @@
       <c r="D611"/>
       <c r="G611"/>
     </row>
-    <row r="612" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="612" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A612" t="s">
         <v>910</v>
       </c>
@@ -14513,7 +14527,7 @@
       <c r="D613"/>
       <c r="G613"/>
     </row>
-    <row r="614" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="614" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A614" t="s">
         <v>910</v>
       </c>
@@ -14539,7 +14553,7 @@
       <c r="D615"/>
       <c r="G615"/>
     </row>
-    <row r="616" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="616" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A616" t="s">
         <v>910</v>
       </c>
@@ -14565,7 +14579,7 @@
       <c r="D617"/>
       <c r="G617"/>
     </row>
-    <row r="618" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="618" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A618" t="s">
         <v>910</v>
       </c>
@@ -14591,7 +14605,7 @@
       <c r="D619"/>
       <c r="G619"/>
     </row>
-    <row r="620" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="620" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A620" t="s">
         <v>910</v>
       </c>
@@ -14617,7 +14631,7 @@
       <c r="D621"/>
       <c r="G621"/>
     </row>
-    <row r="622" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="622" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A622" t="s">
         <v>910</v>
       </c>
@@ -14655,7 +14669,7 @@
       </c>
       <c r="D624"/>
     </row>
-    <row r="625" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="625" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A625" t="s">
         <v>941</v>
       </c>
@@ -14680,7 +14694,7 @@
       </c>
       <c r="D626"/>
     </row>
-    <row r="627" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="627" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A627" t="s">
         <v>941</v>
       </c>
@@ -14705,7 +14719,7 @@
       </c>
       <c r="D628"/>
     </row>
-    <row r="629" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="629" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A629" t="s">
         <v>941</v>
       </c>
@@ -14730,7 +14744,7 @@
       </c>
       <c r="D630"/>
     </row>
-    <row r="631" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="631" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A631" t="s">
         <v>941</v>
       </c>
@@ -14755,7 +14769,7 @@
       </c>
       <c r="D632"/>
     </row>
-    <row r="633" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="633" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A633" t="s">
         <v>941</v>
       </c>
@@ -14780,7 +14794,7 @@
       </c>
       <c r="D634"/>
     </row>
-    <row r="635" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="635" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A635" t="s">
         <v>941</v>
       </c>
@@ -14805,7 +14819,7 @@
       </c>
       <c r="D636"/>
     </row>
-    <row r="637" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="637" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A637" t="s">
         <v>941</v>
       </c>
@@ -14830,7 +14844,7 @@
       </c>
       <c r="D638"/>
     </row>
-    <row r="639" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="639" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A639" t="s">
         <v>941</v>
       </c>
@@ -14855,7 +14869,7 @@
       </c>
       <c r="D640"/>
     </row>
-    <row r="641" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="641" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A641" t="s">
         <v>941</v>
       </c>
@@ -14880,7 +14894,7 @@
       </c>
       <c r="D642"/>
     </row>
-    <row r="643" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="643" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A643" t="s">
         <v>941</v>
       </c>
@@ -14905,7 +14919,7 @@
       </c>
       <c r="D644"/>
     </row>
-    <row r="645" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="645" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A645" t="s">
         <v>941</v>
       </c>
@@ -14930,7 +14944,7 @@
       </c>
       <c r="D646"/>
     </row>
-    <row r="647" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="647" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A647" t="s">
         <v>941</v>
       </c>
@@ -14955,7 +14969,7 @@
       </c>
       <c r="D648"/>
     </row>
-    <row r="649" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="649" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A649" t="s">
         <v>941</v>
       </c>
@@ -14980,7 +14994,7 @@
       </c>
       <c r="D650"/>
     </row>
-    <row r="651" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="651" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A651" t="s">
         <v>941</v>
       </c>
@@ -15005,7 +15019,7 @@
       </c>
       <c r="D652"/>
     </row>
-    <row r="653" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="653" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A653" t="s">
         <v>941</v>
       </c>
@@ -15030,7 +15044,7 @@
       </c>
       <c r="D654"/>
     </row>
-    <row r="655" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="655" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A655" t="s">
         <v>941</v>
       </c>
@@ -15055,7 +15069,7 @@
       </c>
       <c r="D656"/>
     </row>
-    <row r="657" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="657" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A657" t="s">
         <v>941</v>
       </c>
@@ -15080,7 +15094,7 @@
       </c>
       <c r="D658"/>
     </row>
-    <row r="659" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="659" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A659" t="s">
         <v>941</v>
       </c>
@@ -15105,7 +15119,7 @@
       </c>
       <c r="D660"/>
     </row>
-    <row r="661" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="661" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A661" t="s">
         <v>941</v>
       </c>
@@ -15130,7 +15144,7 @@
       </c>
       <c r="D662"/>
     </row>
-    <row r="663" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="663" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A663" t="s">
         <v>941</v>
       </c>
@@ -15155,7 +15169,7 @@
       </c>
       <c r="D664"/>
     </row>
-    <row r="665" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="665" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A665" t="s">
         <v>941</v>
       </c>
@@ -15180,7 +15194,7 @@
       </c>
       <c r="D666"/>
     </row>
-    <row r="667" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="667" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A667" t="s">
         <v>941</v>
       </c>
@@ -15205,7 +15219,7 @@
       </c>
       <c r="D668"/>
     </row>
-    <row r="669" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="669" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A669" t="s">
         <v>941</v>
       </c>
@@ -15230,7 +15244,7 @@
       </c>
       <c r="D670"/>
     </row>
-    <row r="671" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="671" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A671" t="s">
         <v>941</v>
       </c>
@@ -15268,7 +15282,7 @@
       <c r="D673"/>
       <c r="G673"/>
     </row>
-    <row r="674" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="674" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A674" t="s">
         <v>1013</v>
       </c>
@@ -15294,7 +15308,7 @@
       <c r="D675"/>
       <c r="G675"/>
     </row>
-    <row r="676" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="676" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A676" t="s">
         <v>1013</v>
       </c>
@@ -15320,7 +15334,7 @@
       <c r="D677"/>
       <c r="G677"/>
     </row>
-    <row r="678" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="678" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A678" t="s">
         <v>1013</v>
       </c>
@@ -15346,7 +15360,7 @@
       <c r="D679"/>
       <c r="G679"/>
     </row>
-    <row r="680" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="680" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A680" t="s">
         <v>1013</v>
       </c>
@@ -15372,7 +15386,7 @@
       <c r="D681"/>
       <c r="G681"/>
     </row>
-    <row r="682" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="682" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A682" t="s">
         <v>1013</v>
       </c>
@@ -15398,7 +15412,7 @@
       <c r="D683"/>
       <c r="G683"/>
     </row>
-    <row r="684" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="684" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A684" t="s">
         <v>1013</v>
       </c>
@@ -15424,7 +15438,7 @@
       <c r="D685"/>
       <c r="G685"/>
     </row>
-    <row r="686" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="686" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A686" t="s">
         <v>1013</v>
       </c>
@@ -15450,7 +15464,7 @@
       <c r="D687"/>
       <c r="G687"/>
     </row>
-    <row r="688" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="688" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A688" t="s">
         <v>1013</v>
       </c>
@@ -15476,7 +15490,7 @@
       <c r="D689"/>
       <c r="G689"/>
     </row>
-    <row r="690" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="690" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A690" t="s">
         <v>1013</v>
       </c>
@@ -15502,7 +15516,7 @@
       <c r="D691"/>
       <c r="G691"/>
     </row>
-    <row r="692" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="692" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A692" t="s">
         <v>1013</v>
       </c>
@@ -15528,7 +15542,7 @@
       <c r="D693"/>
       <c r="G693"/>
     </row>
-    <row r="694" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="694" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A694" t="s">
         <v>1013</v>
       </c>
@@ -15554,7 +15568,7 @@
       <c r="D695"/>
       <c r="G695"/>
     </row>
-    <row r="696" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="696" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A696" t="s">
         <v>1013</v>
       </c>
@@ -15580,7 +15594,7 @@
       <c r="D697"/>
       <c r="G697"/>
     </row>
-    <row r="698" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="698" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A698" t="s">
         <v>1013</v>
       </c>
@@ -15606,7 +15620,7 @@
       <c r="D699"/>
       <c r="G699"/>
     </row>
-    <row r="700" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="700" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A700" t="s">
         <v>1013</v>
       </c>
@@ -15632,7 +15646,7 @@
       <c r="D701"/>
       <c r="G701"/>
     </row>
-    <row r="702" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="702" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A702" t="s">
         <v>1013</v>
       </c>
@@ -15658,7 +15672,7 @@
       <c r="D703"/>
       <c r="G703"/>
     </row>
-    <row r="704" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="704" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A704" t="s">
         <v>1013</v>
       </c>
@@ -15684,7 +15698,7 @@
       <c r="D705"/>
       <c r="G705"/>
     </row>
-    <row r="706" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="706" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A706" t="s">
         <v>1013</v>
       </c>
@@ -15710,7 +15724,7 @@
       <c r="D707"/>
       <c r="G707"/>
     </row>
-    <row r="708" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="708" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A708" t="s">
         <v>1013</v>
       </c>
@@ -15736,7 +15750,7 @@
       <c r="D709"/>
       <c r="G709"/>
     </row>
-    <row r="710" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="710" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A710" t="s">
         <v>1013</v>
       </c>
@@ -15762,7 +15776,7 @@
       <c r="D711"/>
       <c r="G711"/>
     </row>
-    <row r="712" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="712" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A712" t="s">
         <v>1013</v>
       </c>
@@ -15788,7 +15802,7 @@
       <c r="D713"/>
       <c r="G713"/>
     </row>
-    <row r="714" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="714" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A714" t="s">
         <v>1013</v>
       </c>
@@ -15814,7 +15828,7 @@
       <c r="D715"/>
       <c r="G715"/>
     </row>
-    <row r="716" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="716" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A716" t="s">
         <v>1013</v>
       </c>
@@ -15840,7 +15854,7 @@
       <c r="D717"/>
       <c r="G717"/>
     </row>
-    <row r="718" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="718" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A718" t="s">
         <v>1013</v>
       </c>
@@ -15866,7 +15880,7 @@
       <c r="D719"/>
       <c r="G719"/>
     </row>
-    <row r="720" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="720" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A720" t="s">
         <v>1085</v>
       </c>
@@ -15892,7 +15906,7 @@
       <c r="D721"/>
       <c r="G721"/>
     </row>
-    <row r="722" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="722" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A722" t="s">
         <v>1085</v>
       </c>
@@ -15918,7 +15932,7 @@
       <c r="D723"/>
       <c r="G723"/>
     </row>
-    <row r="724" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="724" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A724" t="s">
         <v>1085</v>
       </c>
@@ -15944,7 +15958,7 @@
       <c r="D725"/>
       <c r="G725"/>
     </row>
-    <row r="726" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="726" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A726" t="s">
         <v>1085</v>
       </c>
@@ -15970,7 +15984,7 @@
       <c r="D727"/>
       <c r="G727"/>
     </row>
-    <row r="728" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="728" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A728" t="s">
         <v>1085</v>
       </c>
@@ -15996,7 +16010,7 @@
       <c r="D729"/>
       <c r="G729"/>
     </row>
-    <row r="730" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="730" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A730" t="s">
         <v>1085</v>
       </c>
@@ -16022,7 +16036,7 @@
       <c r="D731"/>
       <c r="G731"/>
     </row>
-    <row r="732" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="732" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A732" t="s">
         <v>1085</v>
       </c>
@@ -16048,7 +16062,7 @@
       <c r="D733"/>
       <c r="G733"/>
     </row>
-    <row r="734" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="734" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A734" t="s">
         <v>1085</v>
       </c>
@@ -16074,7 +16088,7 @@
       <c r="D735"/>
       <c r="G735"/>
     </row>
-    <row r="736" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="736" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A736" t="s">
         <v>1085</v>
       </c>
@@ -16100,7 +16114,7 @@
       <c r="D737"/>
       <c r="G737"/>
     </row>
-    <row r="738" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="738" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A738" t="s">
         <v>1085</v>
       </c>
@@ -16126,7 +16140,7 @@
       <c r="D739"/>
       <c r="G739"/>
     </row>
-    <row r="740" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="740" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A740" t="s">
         <v>1122</v>
       </c>
@@ -16152,7 +16166,7 @@
       <c r="D741"/>
       <c r="G741"/>
     </row>
-    <row r="742" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="742" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A742" t="s">
         <v>1122</v>
       </c>
@@ -16178,7 +16192,7 @@
       <c r="D743"/>
       <c r="G743"/>
     </row>
-    <row r="744" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="744" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A744" t="s">
         <v>1122</v>
       </c>
@@ -16204,7 +16218,7 @@
       <c r="D745"/>
       <c r="G745"/>
     </row>
-    <row r="746" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="746" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A746" t="s">
         <v>1122</v>
       </c>
@@ -16230,7 +16244,7 @@
       <c r="D747"/>
       <c r="G747"/>
     </row>
-    <row r="748" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="748" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A748" t="s">
         <v>1122</v>
       </c>
@@ -16256,7 +16270,7 @@
       <c r="D749"/>
       <c r="G749"/>
     </row>
-    <row r="750" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="750" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A750" t="s">
         <v>1122</v>
       </c>
@@ -16282,7 +16296,7 @@
       <c r="D751"/>
       <c r="G751"/>
     </row>
-    <row r="752" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="752" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A752" t="s">
         <v>1122</v>
       </c>
@@ -16308,7 +16322,7 @@
       <c r="D753"/>
       <c r="G753"/>
     </row>
-    <row r="754" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="754" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A754" t="s">
         <v>1145</v>
       </c>
@@ -16334,7 +16348,7 @@
       <c r="D755"/>
       <c r="G755"/>
     </row>
-    <row r="756" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="756" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A756" t="s">
         <v>1145</v>
       </c>
@@ -16360,7 +16374,7 @@
       <c r="D757"/>
       <c r="G757"/>
     </row>
-    <row r="758" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="758" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A758" t="s">
         <v>1145</v>
       </c>
@@ -16386,7 +16400,7 @@
       <c r="D759"/>
       <c r="G759"/>
     </row>
-    <row r="760" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="760" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A760" t="s">
         <v>1145</v>
       </c>
@@ -16412,7 +16426,7 @@
       <c r="D761"/>
       <c r="G761"/>
     </row>
-    <row r="762" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="762" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A762" t="s">
         <v>1145</v>
       </c>
@@ -16438,7 +16452,7 @@
       <c r="D763"/>
       <c r="G763"/>
     </row>
-    <row r="764" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="764" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A764" t="s">
         <v>1145</v>
       </c>
@@ -16464,7 +16478,7 @@
       <c r="D765"/>
       <c r="G765"/>
     </row>
-    <row r="766" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="766" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A766" t="s">
         <v>1145</v>
       </c>
@@ -16490,7 +16504,7 @@
       <c r="D767"/>
       <c r="G767"/>
     </row>
-    <row r="768" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="768" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A768" t="s">
         <v>1145</v>
       </c>
@@ -16516,7 +16530,7 @@
       <c r="D769"/>
       <c r="G769"/>
     </row>
-    <row r="770" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="770" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A770" t="s">
         <v>1145</v>
       </c>
@@ -16542,7 +16556,7 @@
       <c r="D771"/>
       <c r="G771"/>
     </row>
-    <row r="772" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="772" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A772" t="s">
         <v>1145</v>
       </c>
@@ -16568,7 +16582,7 @@
       <c r="D773"/>
       <c r="G773"/>
     </row>
-    <row r="774" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="774" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A774" t="s">
         <v>1145</v>
       </c>
@@ -16594,7 +16608,7 @@
       <c r="D775"/>
       <c r="G775"/>
     </row>
-    <row r="776" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="776" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A776" t="s">
         <v>1145</v>
       </c>
@@ -16607,7 +16621,7 @@
       <c r="D776"/>
       <c r="G776"/>
     </row>
-    <row r="777" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="777" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A777" t="s">
         <v>1179</v>
       </c>
@@ -16632,7 +16646,7 @@
       </c>
       <c r="D778"/>
     </row>
-    <row r="779" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="779" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A779" t="s">
         <v>1179</v>
       </c>
@@ -16657,7 +16671,7 @@
       </c>
       <c r="D780"/>
     </row>
-    <row r="781" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="781" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A781" t="s">
         <v>1179</v>
       </c>
@@ -16682,7 +16696,7 @@
       </c>
       <c r="D782"/>
     </row>
-    <row r="783" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="783" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A783" t="s">
         <v>1179</v>
       </c>
@@ -16707,7 +16721,7 @@
       </c>
       <c r="D784"/>
     </row>
-    <row r="785" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="785" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A785" t="s">
         <v>1179</v>
       </c>
@@ -16732,7 +16746,7 @@
       </c>
       <c r="D786"/>
     </row>
-    <row r="787" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="787" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A787" t="s">
         <v>1179</v>
       </c>
@@ -16757,7 +16771,7 @@
       </c>
       <c r="D788"/>
     </row>
-    <row r="789" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="789" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A789" t="s">
         <v>1179</v>
       </c>
@@ -16782,7 +16796,7 @@
       </c>
       <c r="D790"/>
     </row>
-    <row r="791" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="791" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A791" t="s">
         <v>15</v>
       </c>
@@ -16807,7 +16821,7 @@
       </c>
       <c r="D792"/>
     </row>
-    <row r="793" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="793" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A793" t="s">
         <v>15</v>
       </c>
@@ -16832,7 +16846,7 @@
       </c>
       <c r="D794"/>
     </row>
-    <row r="795" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="795" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A795" t="s">
         <v>15</v>
       </c>
@@ -16845,7 +16859,7 @@
       <c r="D795"/>
       <c r="G795"/>
     </row>
-    <row r="796" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="796" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A796" t="s">
         <v>1208</v>
       </c>
@@ -16871,7 +16885,7 @@
       <c r="D797"/>
       <c r="G797"/>
     </row>
-    <row r="798" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="798" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A798" t="s">
         <v>1208</v>
       </c>
@@ -16897,7 +16911,7 @@
       <c r="D799"/>
       <c r="G799"/>
     </row>
-    <row r="800" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="800" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A800" t="s">
         <v>1208</v>
       </c>
@@ -16923,7 +16937,7 @@
       <c r="D801"/>
       <c r="G801"/>
     </row>
-    <row r="802" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="802" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A802" t="s">
         <v>1208</v>
       </c>
@@ -16949,7 +16963,7 @@
       <c r="D803"/>
       <c r="G803"/>
     </row>
-    <row r="804" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="804" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A804" t="s">
         <v>1208</v>
       </c>
@@ -16975,7 +16989,7 @@
       <c r="D805"/>
       <c r="G805"/>
     </row>
-    <row r="806" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="806" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A806" t="s">
         <v>1208</v>
       </c>
@@ -17001,7 +17015,7 @@
       <c r="D807"/>
       <c r="G807"/>
     </row>
-    <row r="808" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="808" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A808" t="s">
         <v>1208</v>
       </c>
@@ -17027,7 +17041,7 @@
       <c r="D809"/>
       <c r="G809"/>
     </row>
-    <row r="810" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="810" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A810" t="s">
         <v>1208</v>
       </c>
@@ -17053,7 +17067,7 @@
       <c r="D811"/>
       <c r="G811"/>
     </row>
-    <row r="812" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="812" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A812" t="s">
         <v>1208</v>
       </c>
@@ -17079,7 +17093,7 @@
       <c r="D813"/>
       <c r="G813"/>
     </row>
-    <row r="814" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="814" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A814" t="s">
         <v>1234</v>
       </c>
@@ -17105,7 +17119,7 @@
       <c r="D815"/>
       <c r="G815"/>
     </row>
-    <row r="816" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="816" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A816" t="s">
         <v>1234</v>
       </c>
@@ -17131,7 +17145,7 @@
       <c r="D817"/>
       <c r="G817"/>
     </row>
-    <row r="818" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="818" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A818" t="s">
         <v>1234</v>
       </c>
@@ -17157,7 +17171,7 @@
       <c r="D819"/>
       <c r="G819"/>
     </row>
-    <row r="820" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="820" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A820" t="s">
         <v>1234</v>
       </c>
@@ -17183,7 +17197,7 @@
       <c r="D821"/>
       <c r="G821"/>
     </row>
-    <row r="822" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="822" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A822" t="s">
         <v>1234</v>
       </c>
@@ -17209,7 +17223,7 @@
       <c r="D823"/>
       <c r="G823"/>
     </row>
-    <row r="824" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="824" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A824" t="s">
         <v>1234</v>
       </c>
@@ -17235,7 +17249,7 @@
       <c r="D825"/>
       <c r="G825"/>
     </row>
-    <row r="826" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="826" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A826" t="s">
         <v>1234</v>
       </c>
@@ -17261,7 +17275,7 @@
       <c r="D827"/>
       <c r="G827"/>
     </row>
-    <row r="828" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="828" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A828" t="s">
         <v>1234</v>
       </c>
@@ -17287,7 +17301,7 @@
       <c r="D829"/>
       <c r="G829"/>
     </row>
-    <row r="830" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="830" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A830" t="s">
         <v>1234</v>
       </c>
@@ -17313,7 +17327,7 @@
       <c r="D831"/>
       <c r="G831"/>
     </row>
-    <row r="832" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="832" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A832" t="s">
         <v>1234</v>
       </c>
@@ -17339,7 +17353,7 @@
       <c r="D833"/>
       <c r="G833"/>
     </row>
-    <row r="834" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="834" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A834" t="s">
         <v>1234</v>
       </c>
@@ -17365,7 +17379,7 @@
       <c r="D835"/>
       <c r="G835"/>
     </row>
-    <row r="836" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="836" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A836" t="s">
         <v>1234</v>
       </c>
@@ -17391,7 +17405,7 @@
       <c r="D837"/>
       <c r="G837"/>
     </row>
-    <row r="838" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="838" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A838" t="s">
         <v>1234</v>
       </c>
@@ -17417,7 +17431,7 @@
       <c r="D839"/>
       <c r="G839"/>
     </row>
-    <row r="840" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="840" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A840" t="s">
         <v>1234</v>
       </c>
@@ -17443,7 +17457,7 @@
       <c r="D841"/>
       <c r="G841"/>
     </row>
-    <row r="842" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="842" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A842" t="s">
         <v>1234</v>
       </c>
@@ -17519,7 +17533,7 @@
       <c r="D847"/>
       <c r="G847"/>
     </row>
-    <row r="848" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="848" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A848" t="s">
         <v>1271</v>
       </c>
@@ -17545,7 +17559,7 @@
       <c r="D849"/>
       <c r="G849"/>
     </row>
-    <row r="850" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="850" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A850" t="s">
         <v>1271</v>
       </c>
@@ -17571,7 +17585,7 @@
       <c r="D851"/>
       <c r="G851"/>
     </row>
-    <row r="852" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="852" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A852" t="s">
         <v>1271</v>
       </c>
@@ -17597,7 +17611,7 @@
       <c r="D853"/>
       <c r="G853"/>
     </row>
-    <row r="854" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="854" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A854" t="s">
         <v>1271</v>
       </c>
@@ -17623,7 +17637,7 @@
       <c r="D855"/>
       <c r="G855"/>
     </row>
-    <row r="856" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="856" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A856" t="s">
         <v>1271</v>
       </c>
@@ -17649,7 +17663,7 @@
       <c r="D857"/>
       <c r="G857"/>
     </row>
-    <row r="858" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="858" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A858" t="s">
         <v>1290</v>
       </c>
@@ -17675,7 +17689,7 @@
       <c r="D859"/>
       <c r="G859"/>
     </row>
-    <row r="860" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="860" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A860" t="s">
         <v>1290</v>
       </c>
@@ -17701,7 +17715,7 @@
       <c r="D861"/>
       <c r="G861"/>
     </row>
-    <row r="862" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="862" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A862" t="s">
         <v>1290</v>
       </c>
@@ -17727,7 +17741,7 @@
       <c r="D863"/>
       <c r="G863"/>
     </row>
-    <row r="864" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="864" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A864" t="s">
         <v>1290</v>
       </c>
@@ -17753,7 +17767,7 @@
       <c r="D865"/>
       <c r="G865"/>
     </row>
-    <row r="866" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="866" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A866" t="s">
         <v>1290</v>
       </c>
@@ -17779,7 +17793,7 @@
       <c r="D867"/>
       <c r="G867"/>
     </row>
-    <row r="868" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="868" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A868" t="s">
         <v>1290</v>
       </c>
@@ -17805,7 +17819,7 @@
       <c r="D869"/>
       <c r="G869"/>
     </row>
-    <row r="870" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="870" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A870" t="s">
         <v>1290</v>
       </c>
@@ -17831,7 +17845,7 @@
       <c r="D871"/>
       <c r="G871"/>
     </row>
-    <row r="872" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="872" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A872" t="s">
         <v>1290</v>
       </c>
@@ -17857,7 +17871,7 @@
       <c r="D873"/>
       <c r="G873"/>
     </row>
-    <row r="874" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="874" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A874" t="s">
         <v>1290</v>
       </c>
@@ -17883,7 +17897,7 @@
       <c r="D875"/>
       <c r="G875"/>
     </row>
-    <row r="876" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="876" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A876" t="s">
         <v>1317</v>
       </c>
@@ -17909,7 +17923,7 @@
       <c r="D877"/>
       <c r="G877"/>
     </row>
-    <row r="878" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="878" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A878" t="s">
         <v>1317</v>
       </c>
@@ -17935,7 +17949,7 @@
       <c r="D879"/>
       <c r="G879"/>
     </row>
-    <row r="880" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="880" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A880" t="s">
         <v>1317</v>
       </c>
@@ -17961,7 +17975,7 @@
       <c r="D881"/>
       <c r="G881"/>
     </row>
-    <row r="882" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="882" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A882" t="s">
         <v>1317</v>
       </c>
@@ -17987,7 +18001,7 @@
       <c r="D883"/>
       <c r="G883"/>
     </row>
-    <row r="884" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="884" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A884" t="s">
         <v>1317</v>
       </c>
@@ -18013,7 +18027,7 @@
       <c r="D885"/>
       <c r="G885"/>
     </row>
-    <row r="886" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="886" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A886" t="s">
         <v>1317</v>
       </c>
@@ -18039,7 +18053,7 @@
       <c r="D887"/>
       <c r="G887"/>
     </row>
-    <row r="888" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="888" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A888" t="s">
         <v>1317</v>
       </c>
@@ -18065,7 +18079,7 @@
       <c r="D889"/>
       <c r="G889"/>
     </row>
-    <row r="890" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="890" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A890" t="s">
         <v>1317</v>
       </c>
@@ -18091,7 +18105,7 @@
       <c r="D891"/>
       <c r="G891"/>
     </row>
-    <row r="892" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="892" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A892" t="s">
         <v>1317</v>
       </c>
@@ -18117,7 +18131,7 @@
       <c r="D893"/>
       <c r="G893"/>
     </row>
-    <row r="894" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="894" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A894" t="s">
         <v>1317</v>
       </c>
@@ -18143,7 +18157,7 @@
       <c r="D895"/>
       <c r="G895"/>
     </row>
-    <row r="896" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="896" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A896" t="s">
         <v>1317</v>
       </c>
@@ -18169,7 +18183,7 @@
       <c r="D897"/>
       <c r="G897"/>
     </row>
-    <row r="898" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="898" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A898" t="s">
         <v>1317</v>
       </c>
@@ -18195,7 +18209,7 @@
       <c r="D899"/>
       <c r="G899"/>
     </row>
-    <row r="900" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="900" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A900" t="s">
         <v>1317</v>
       </c>
@@ -18221,7 +18235,7 @@
       <c r="D901"/>
       <c r="G901"/>
     </row>
-    <row r="902" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="902" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A902" t="s">
         <v>1317</v>
       </c>
@@ -18247,7 +18261,7 @@
       <c r="D903"/>
       <c r="G903"/>
     </row>
-    <row r="904" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="904" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A904" t="s">
         <v>1317</v>
       </c>
@@ -18273,7 +18287,7 @@
       <c r="D905"/>
       <c r="G905"/>
     </row>
-    <row r="906" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="906" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A906" t="s">
         <v>1317</v>
       </c>
@@ -18299,7 +18313,7 @@
       <c r="D907"/>
       <c r="G907"/>
     </row>
-    <row r="908" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="908" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A908" t="s">
         <v>1317</v>
       </c>
@@ -18325,7 +18339,7 @@
       <c r="D909"/>
       <c r="G909"/>
     </row>
-    <row r="910" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="910" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A910" t="s">
         <v>1317</v>
       </c>
@@ -18351,7 +18365,7 @@
       <c r="D911"/>
       <c r="G911"/>
     </row>
-    <row r="912" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="912" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A912" t="s">
         <v>1145</v>
       </c>
@@ -18377,7 +18391,7 @@
       <c r="D913"/>
       <c r="G913"/>
     </row>
-    <row r="914" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="914" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A914" t="s">
         <v>1145</v>
       </c>
@@ -18403,7 +18417,7 @@
       <c r="D915"/>
       <c r="G915"/>
     </row>
-    <row r="916" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="916" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A916" t="s">
         <v>1145</v>
       </c>
@@ -18429,7 +18443,7 @@
       <c r="D917"/>
       <c r="G917"/>
     </row>
-    <row r="918" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="918" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A918" t="s">
         <v>1145</v>
       </c>
@@ -18455,7 +18469,7 @@
       <c r="D919"/>
       <c r="G919"/>
     </row>
-    <row r="920" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="920" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A920" t="s">
         <v>1145</v>
       </c>
@@ -18481,7 +18495,7 @@
       <c r="D921"/>
       <c r="G921"/>
     </row>
-    <row r="922" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="922" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A922" t="s">
         <v>1145</v>
       </c>
@@ -18507,7 +18521,7 @@
       <c r="D923"/>
       <c r="G923"/>
     </row>
-    <row r="924" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="924" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A924" t="s">
         <v>554</v>
       </c>
@@ -18533,7 +18547,7 @@
       <c r="D925"/>
       <c r="G925"/>
     </row>
-    <row r="926" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="926" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A926" t="s">
         <v>554</v>
       </c>
@@ -18559,7 +18573,7 @@
       <c r="D927"/>
       <c r="G927"/>
     </row>
-    <row r="928" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="928" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A928" t="s">
         <v>554</v>
       </c>
@@ -18585,7 +18599,7 @@
       <c r="D929"/>
       <c r="G929"/>
     </row>
-    <row r="930" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="930" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A930" t="s">
         <v>554</v>
       </c>
@@ -18611,7 +18625,7 @@
       <c r="D931"/>
       <c r="G931"/>
     </row>
-    <row r="932" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="932" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A932" t="s">
         <v>554</v>
       </c>
@@ -18637,7 +18651,7 @@
       <c r="D933"/>
       <c r="G933"/>
     </row>
-    <row r="934" s="5" customFormat="1" ht="12.75" hidden="1">
+    <row r="934" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A934" t="s">
         <v>554</v>
       </c>
@@ -18651,19 +18665,19 @@
       <c r="G934"/>
     </row>
     <row r="935" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A935" s="6" t="s">
+      <c r="A935" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B935" s="6" t="s">
+      <c r="B935" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="C935" s="6" t="s">
+      <c r="C935" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D935" s="6"/>
-      <c r="E935" s="6"/>
-      <c r="F935" s="6"/>
-      <c r="G935" s="6"/>
+      <c r="D935" s="5"/>
+      <c r="E935" s="5"/>
+      <c r="F935" s="5"/>
+      <c r="G935" s="5"/>
     </row>
     <row r="936" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A936" t="s">
@@ -18681,19 +18695,19 @@
       <c r="G936"/>
     </row>
     <row r="937" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A937" s="6" t="s">
+      <c r="A937" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B937" s="6" t="s">
+      <c r="B937" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="C937" s="6" t="s">
+      <c r="C937" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="D937" s="6"/>
-      <c r="E937" s="6"/>
-      <c r="F937" s="6"/>
-      <c r="G937" s="6"/>
+      <c r="D937" s="5"/>
+      <c r="E937" s="5"/>
+      <c r="F937" s="5"/>
+      <c r="G937" s="5"/>
     </row>
     <row r="938" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A938" t="s">
@@ -18756,19 +18770,19 @@
       <c r="G941"/>
     </row>
     <row r="942" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A942" s="6" t="s">
+      <c r="A942" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B942" s="6" t="s">
+      <c r="B942" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="C942" s="6" t="s">
+      <c r="C942" s="5" t="s">
         <v>1409</v>
       </c>
-      <c r="D942" s="6"/>
-      <c r="E942" s="6"/>
-      <c r="F942" s="6"/>
-      <c r="G942" s="6"/>
+      <c r="D942" s="5"/>
+      <c r="E942" s="5"/>
+      <c r="F942" s="5"/>
+      <c r="G942" s="5"/>
     </row>
     <row r="943" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A943" t="s">
@@ -18789,16 +18803,16 @@
       <c r="A944" t="s">
         <v>1317</v>
       </c>
-      <c r="B944" s="6" t="s">
+      <c r="B944" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="C944" s="6" t="s">
+      <c r="C944" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="D944" s="6"/>
-      <c r="E944" s="6"/>
-      <c r="F944" s="6"/>
-      <c r="G944" s="6"/>
+      <c r="D944" s="5"/>
+      <c r="E944" s="5"/>
+      <c r="F944" s="5"/>
+      <c r="G944" s="5"/>
     </row>
     <row r="945" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A945" t="s">
@@ -18831,184 +18845,184 @@
       <c r="G946"/>
     </row>
     <row r="947" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A947" s="6" t="s">
+      <c r="A947" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B947" s="6" t="s">
+      <c r="B947" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="C947" s="6" t="s">
+      <c r="C947" s="5" t="s">
         <v>1409</v>
       </c>
-      <c r="D947" s="6"/>
-      <c r="E947" s="6"/>
-      <c r="F947" s="6"/>
-      <c r="G947" s="6"/>
+      <c r="D947" s="5"/>
+      <c r="E947" s="5"/>
+      <c r="F947" s="5"/>
+      <c r="G947" s="5"/>
     </row>
     <row r="948" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A948" s="6" t="s">
+      <c r="A948" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B948" s="6" t="s">
+      <c r="B948" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C948" s="6" t="s">
+      <c r="C948" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="D948" s="6"/>
-      <c r="E948" s="6"/>
-      <c r="F948" s="6"/>
-      <c r="G948" s="6"/>
+      <c r="D948" s="5"/>
+      <c r="E948" s="5"/>
+      <c r="F948" s="5"/>
+      <c r="G948" s="5"/>
     </row>
     <row r="949" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A949" s="6" t="s">
+      <c r="A949" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B949" s="6" t="s">
+      <c r="B949" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="C949" s="6" t="s">
+      <c r="C949" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="D949" s="6"/>
-      <c r="E949" s="6"/>
-      <c r="F949" s="6"/>
-      <c r="G949" s="6"/>
+      <c r="D949" s="5"/>
+      <c r="E949" s="5"/>
+      <c r="F949" s="5"/>
+      <c r="G949" s="5"/>
     </row>
     <row r="950" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A950" s="6" t="s">
+      <c r="A950" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B950" s="6" t="s">
+      <c r="B950" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="C950" s="6" t="s">
+      <c r="C950" s="5" t="s">
         <v>1421</v>
       </c>
-      <c r="D950" s="6"/>
-      <c r="E950" s="6"/>
-      <c r="F950" s="6"/>
-      <c r="G950" s="6"/>
+      <c r="D950" s="5"/>
+      <c r="E950" s="5"/>
+      <c r="F950" s="5"/>
+      <c r="G950" s="5"/>
     </row>
     <row r="951" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A951" s="6" t="s">
+      <c r="A951" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B951" s="6" t="s">
+      <c r="B951" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="C951" s="6" t="s">
+      <c r="C951" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="D951" s="6"/>
-      <c r="E951" s="6"/>
-      <c r="F951" s="6"/>
-      <c r="G951" s="6"/>
+      <c r="D951" s="5"/>
+      <c r="E951" s="5"/>
+      <c r="F951" s="5"/>
+      <c r="G951" s="5"/>
     </row>
     <row r="952" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A952" s="6" t="s">
+      <c r="A952" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B952" s="6" t="s">
+      <c r="B952" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="C952" s="6" t="s">
+      <c r="C952" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="D952" s="6"/>
-      <c r="E952" s="6"/>
-      <c r="F952" s="6"/>
-      <c r="G952" s="6"/>
+      <c r="D952" s="5"/>
+      <c r="E952" s="5"/>
+      <c r="F952" s="5"/>
+      <c r="G952" s="5"/>
     </row>
     <row r="953" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A953" s="6" t="s">
+      <c r="A953" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B953" s="6" t="s">
+      <c r="B953" s="5" t="s">
         <v>1425</v>
       </c>
-      <c r="C953" s="6" t="s">
+      <c r="C953" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D953" s="6"/>
-      <c r="E953" s="6"/>
-      <c r="F953" s="6"/>
-      <c r="G953" s="6"/>
+      <c r="D953" s="5"/>
+      <c r="E953" s="5"/>
+      <c r="F953" s="5"/>
+      <c r="G953" s="5"/>
     </row>
     <row r="954" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A954" s="6" t="s">
+      <c r="A954" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B954" s="6" t="s">
+      <c r="B954" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="C954" s="6" t="s">
+      <c r="C954" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="D954" s="6"/>
-      <c r="E954" s="6"/>
-      <c r="F954" s="6"/>
-      <c r="G954" s="6"/>
+      <c r="D954" s="5"/>
+      <c r="E954" s="5"/>
+      <c r="F954" s="5"/>
+      <c r="G954" s="5"/>
     </row>
     <row r="955" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A955" s="6" t="s">
+      <c r="A955" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B955" s="6" t="s">
+      <c r="B955" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="C955" s="6" t="s">
+      <c r="C955" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D955" s="6"/>
-      <c r="E955" s="6"/>
-      <c r="F955" s="6"/>
-      <c r="G955" s="6"/>
+      <c r="D955" s="5"/>
+      <c r="E955" s="5"/>
+      <c r="F955" s="5"/>
+      <c r="G955" s="5"/>
     </row>
     <row r="956" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A956" s="6" t="s">
+      <c r="A956" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B956" s="6" t="s">
+      <c r="B956" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C956" s="6" t="s">
+      <c r="C956" s="5" t="s">
         <v>1429</v>
       </c>
-      <c r="D956" s="6"/>
-      <c r="E956" s="6"/>
-      <c r="F956" s="6"/>
-      <c r="G956" s="6"/>
+      <c r="D956" s="5"/>
+      <c r="E956" s="5"/>
+      <c r="F956" s="5"/>
+      <c r="G956" s="5"/>
     </row>
     <row r="957" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A957" s="6" t="s">
+      <c r="A957" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B957" s="6" t="s">
+      <c r="B957" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="C957" s="6" t="s">
+      <c r="C957" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="D957" s="6"/>
-      <c r="E957" s="6"/>
-      <c r="F957" s="6"/>
-      <c r="G957" s="6"/>
+      <c r="D957" s="5"/>
+      <c r="E957" s="5"/>
+      <c r="F957" s="5"/>
+      <c r="G957" s="5"/>
     </row>
     <row r="958" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A958" s="6" t="s">
+      <c r="A958" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B958" s="6" t="s">
+      <c r="B958" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="C958" s="6" t="s">
+      <c r="C958" s="5" t="s">
         <v>1433</v>
       </c>
-      <c r="D958" s="6"/>
-      <c r="E958" s="6"/>
-      <c r="F958" s="6"/>
-      <c r="G958" s="6"/>
+      <c r="D958" s="5"/>
+      <c r="E958" s="5"/>
+      <c r="F958" s="5"/>
+      <c r="G958" s="5"/>
     </row>
     <row r="959" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A959" t="s">
@@ -19026,49 +19040,49 @@
       <c r="G959"/>
     </row>
     <row r="960" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A960" s="6" t="s">
+      <c r="A960" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B960" s="6" t="s">
+      <c r="B960" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="C960" s="6" t="s">
+      <c r="C960" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="D960" s="6"/>
-      <c r="E960" s="6"/>
-      <c r="F960" s="6"/>
-      <c r="G960" s="6"/>
+      <c r="D960" s="5"/>
+      <c r="E960" s="5"/>
+      <c r="F960" s="5"/>
+      <c r="G960" s="5"/>
     </row>
     <row r="961" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A961" t="s">
         <v>1431</v>
       </c>
-      <c r="B961" s="6" t="s">
+      <c r="B961" s="5" t="s">
         <v>1438</v>
       </c>
       <c r="C961" t="s">
         <v>1435</v>
       </c>
-      <c r="D961" s="6"/>
-      <c r="E961" s="6"/>
-      <c r="F961" s="6"/>
-      <c r="G961" s="6"/>
+      <c r="D961" s="5"/>
+      <c r="E961" s="5"/>
+      <c r="F961" s="5"/>
+      <c r="G961" s="5"/>
     </row>
     <row r="962" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A962" s="6" t="s">
+      <c r="A962" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B962" s="6" t="s">
+      <c r="B962" s="5" t="s">
         <v>1439</v>
       </c>
       <c r="C962" t="s">
         <v>1440</v>
       </c>
-      <c r="D962" s="6"/>
-      <c r="E962" s="6"/>
-      <c r="F962" s="6"/>
-      <c r="G962" s="6"/>
+      <c r="D962" s="5"/>
+      <c r="E962" s="5"/>
+      <c r="F962" s="5"/>
+      <c r="G962" s="5"/>
     </row>
     <row r="963" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A963" t="s">
@@ -19086,19 +19100,19 @@
       <c r="G963"/>
     </row>
     <row r="964" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A964" s="6" t="s">
+      <c r="A964" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B964" s="6" t="s">
+      <c r="B964" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="C964" s="6" t="s">
+      <c r="C964" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="D964" s="6"/>
-      <c r="E964" s="6"/>
-      <c r="F964" s="6"/>
-      <c r="G964" s="6"/>
+      <c r="D964" s="5"/>
+      <c r="E964" s="5"/>
+      <c r="F964" s="5"/>
+      <c r="G964" s="5"/>
     </row>
     <row r="965" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A965" t="s">
@@ -19116,13 +19130,13 @@
       <c r="G965"/>
     </row>
     <row r="966" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A966" s="6" t="s">
+      <c r="A966" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B966" t="s">
         <v>1446</v>
       </c>
-      <c r="C966" s="6" t="s">
+      <c r="C966" s="5" t="s">
         <v>1433</v>
       </c>
       <c r="D966"/>
@@ -19131,7 +19145,7 @@
       <c r="G966"/>
     </row>
     <row r="967" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A967" s="6" t="s">
+      <c r="A967" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B967" t="s">
@@ -19161,7 +19175,7 @@
       <c r="G968"/>
     </row>
     <row r="969" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A969" s="6" t="s">
+      <c r="A969" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B969" t="s">
@@ -19179,7 +19193,7 @@
       <c r="A970" t="s">
         <v>3</v>
       </c>
-      <c r="B970" s="8" t="s">
+      <c r="B970" s="7" t="s">
         <v>1453</v>
       </c>
       <c r="C970" t="s">
@@ -19191,7 +19205,7 @@
       <c r="G970"/>
     </row>
     <row r="971" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A971" s="6" t="s">
+      <c r="A971" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B971" t="s">
@@ -19216,10 +19230,10 @@
       <c r="D972"/>
     </row>
     <row r="973" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A973" s="6" t="s">
+      <c r="A973" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B973" s="9" t="s">
+      <c r="B973" s="8" t="s">
         <v>1457</v>
       </c>
       <c r="C973" t="s">
@@ -19232,7 +19246,7 @@
       <c r="A974" t="s">
         <v>3</v>
       </c>
-      <c r="B974" s="9" t="s">
+      <c r="B974" s="8" t="s">
         <v>1459</v>
       </c>
       <c r="C974" t="s">
@@ -19241,10 +19255,10 @@
       <c r="D974"/>
     </row>
     <row r="975" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A975" s="6" t="s">
+      <c r="A975" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B975" s="9" t="s">
+      <c r="B975" s="8" t="s">
         <v>1461</v>
       </c>
       <c r="C975" t="s">
@@ -19257,7 +19271,7 @@
       <c r="A976" t="s">
         <v>3</v>
       </c>
-      <c r="B976" s="9" t="s">
+      <c r="B976" s="8" t="s">
         <v>1462</v>
       </c>
       <c r="C976" t="s">
@@ -19266,10 +19280,10 @@
       <c r="D976"/>
     </row>
     <row r="977" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A977" s="6" t="s">
+      <c r="A977" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B977" s="9" t="s">
+      <c r="B977" s="8" t="s">
         <v>1464</v>
       </c>
       <c r="C977" t="s">
@@ -19282,7 +19296,7 @@
       <c r="A978" t="s">
         <v>3</v>
       </c>
-      <c r="B978" s="9" t="s">
+      <c r="B978" s="8" t="s">
         <v>1465</v>
       </c>
       <c r="C978" t="s">
@@ -19291,10 +19305,10 @@
       <c r="D978"/>
     </row>
     <row r="979" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A979" s="6" t="s">
+      <c r="A979" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B979" s="9" t="s">
+      <c r="B979" s="8" t="s">
         <v>1466</v>
       </c>
       <c r="C979" t="s">
@@ -19316,10 +19330,10 @@
       <c r="D980"/>
     </row>
     <row r="981" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A981" s="6" t="s">
+      <c r="A981" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B981" s="9" t="s">
+      <c r="B981" s="8" t="s">
         <v>1469</v>
       </c>
       <c r="C981" t="s">
@@ -19332,7 +19346,7 @@
       <c r="A982" t="s">
         <v>3</v>
       </c>
-      <c r="B982" s="9" t="s">
+      <c r="B982" s="8" t="s">
         <v>1470</v>
       </c>
       <c r="C982" t="s">
@@ -19344,7 +19358,7 @@
       <c r="A983" t="s">
         <v>3</v>
       </c>
-      <c r="B983" s="9" t="s">
+      <c r="B983" s="8" t="s">
         <v>1471</v>
       </c>
       <c r="C983" t="s">
@@ -19354,10 +19368,10 @@
       <c r="G983"/>
     </row>
     <row r="984" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A984" s="6" t="s">
+      <c r="A984" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B984" s="9" t="s">
+      <c r="B984" s="8" t="s">
         <v>1472</v>
       </c>
       <c r="C984" t="s">
@@ -19369,7 +19383,7 @@
       <c r="A985" t="s">
         <v>3</v>
       </c>
-      <c r="B985" s="9" t="s">
+      <c r="B985" s="8" t="s">
         <v>1473</v>
       </c>
       <c r="C985" t="s">
@@ -19379,10 +19393,10 @@
       <c r="G985"/>
     </row>
     <row r="986" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A986" s="6" t="s">
+      <c r="A986" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B986" s="9" t="s">
+      <c r="B986" s="8" t="s">
         <v>1474</v>
       </c>
       <c r="C986" t="s">
@@ -19394,7 +19408,7 @@
       <c r="A987" t="s">
         <v>3</v>
       </c>
-      <c r="B987" s="9" t="s">
+      <c r="B987" s="8" t="s">
         <v>1476</v>
       </c>
       <c r="C987" t="s">
@@ -19404,10 +19418,10 @@
       <c r="G987"/>
     </row>
     <row r="988" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A988" s="6" t="s">
+      <c r="A988" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B988" s="9" t="s">
+      <c r="B988" s="8" t="s">
         <v>1477</v>
       </c>
       <c r="C988" t="s">
@@ -19419,7 +19433,7 @@
       <c r="A989" t="s">
         <v>3</v>
       </c>
-      <c r="B989" s="9" t="s">
+      <c r="B989" s="8" t="s">
         <v>1478</v>
       </c>
       <c r="C989" t="s">
@@ -19429,10 +19443,10 @@
       <c r="G989"/>
     </row>
     <row r="990" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A990" s="6" t="s">
+      <c r="A990" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B990" s="9" t="s">
+      <c r="B990" s="8" t="s">
         <v>1479</v>
       </c>
       <c r="C990" t="s">
@@ -19441,13 +19455,13 @@
       <c r="D990"/>
     </row>
     <row r="991" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A991" s="6" t="s">
+      <c r="A991" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B991" s="9" t="s">
+      <c r="B991" s="8" t="s">
         <v>1480</v>
       </c>
-      <c r="C991" s="6" t="s">
+      <c r="C991" s="5" t="s">
         <v>1475</v>
       </c>
       <c r="D991"/>
@@ -19457,7 +19471,7 @@
       <c r="A992" t="s">
         <v>3</v>
       </c>
-      <c r="B992" s="9" t="s">
+      <c r="B992" s="8" t="s">
         <v>1481</v>
       </c>
       <c r="C992" t="s">
@@ -19466,10 +19480,10 @@
       <c r="D992"/>
     </row>
     <row r="993" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A993" s="6" t="s">
+      <c r="A993" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B993" s="9" t="s">
+      <c r="B993" s="8" t="s">
         <v>1482</v>
       </c>
       <c r="C993" t="s">
@@ -19482,7 +19496,7 @@
       <c r="A994" t="s">
         <v>3</v>
       </c>
-      <c r="B994" s="9" t="s">
+      <c r="B994" s="8" t="s">
         <v>1394</v>
       </c>
       <c r="C994" t="s">
@@ -19491,10 +19505,10 @@
       <c r="D994"/>
     </row>
     <row r="995" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A995" s="6" t="s">
+      <c r="A995" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B995" s="9" t="s">
+      <c r="B995" s="8" t="s">
         <v>1484</v>
       </c>
       <c r="C995" t="s">
@@ -19507,7 +19521,7 @@
       <c r="A996" t="s">
         <v>3</v>
       </c>
-      <c r="B996" s="9" t="s">
+      <c r="B996" s="8" t="s">
         <v>1485</v>
       </c>
       <c r="C996" t="s">
@@ -19516,10 +19530,10 @@
       <c r="D996"/>
     </row>
     <row r="997" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A997" s="6" t="s">
+      <c r="A997" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B997" s="9" t="s">
+      <c r="B997" s="8" t="s">
         <v>1486</v>
       </c>
       <c r="C997" t="s">
@@ -19547,20 +19561,20 @@
       <c r="B999" t="s">
         <v>1490</v>
       </c>
-      <c r="C999" s="7" t="s">
+      <c r="C999" s="6" t="s">
         <v>255</v>
       </c>
       <c r="D999"/>
       <c r="G999"/>
     </row>
     <row r="1000" ht="12.75" hidden="1">
-      <c r="A1000" s="7" t="s">
+      <c r="A1000" s="6" t="s">
         <v>1489</v>
       </c>
       <c r="B1000" t="s">
         <v>1491</v>
       </c>
-      <c r="C1000" s="7" t="s">
+      <c r="C1000" s="6" t="s">
         <v>1445</v>
       </c>
       <c r="D1000" s="1"/>
@@ -19572,39 +19586,39 @@
       <c r="B1001" t="s">
         <v>1492</v>
       </c>
-      <c r="C1001" s="7" t="s">
+      <c r="C1001" s="6" t="s">
         <v>1493</v>
       </c>
       <c r="D1001"/>
       <c r="G1001"/>
     </row>
     <row r="1002" ht="12.75" hidden="1">
-      <c r="A1002" s="6" t="s">
+      <c r="A1002" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="B1002" t="s">
         <v>780</v>
       </c>
-      <c r="C1002" s="7" t="s">
+      <c r="C1002" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D1002" s="1"/>
     </row>
     <row r="1003" ht="12.75" hidden="1">
-      <c r="A1003" s="6" t="s">
+      <c r="A1003" s="5" t="s">
         <v>1489</v>
       </c>
       <c r="B1003" t="s">
         <v>1494</v>
       </c>
-      <c r="C1003" s="7" t="s">
+      <c r="C1003" s="6" t="s">
         <v>1495</v>
       </c>
       <c r="D1003"/>
       <c r="G1003"/>
     </row>
     <row r="1004" ht="12.75" hidden="1">
-      <c r="A1004" s="6" t="s">
+      <c r="A1004" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B1004" t="s">
@@ -19616,13 +19630,13 @@
       <c r="D1004" s="1"/>
     </row>
     <row r="1005" ht="12.75" hidden="1">
-      <c r="A1005" s="6" t="s">
+      <c r="A1005" s="5" t="s">
         <v>1395</v>
       </c>
       <c r="B1005" t="s">
         <v>1498</v>
       </c>
-      <c r="C1005" s="7" t="s">
+      <c r="C1005" s="6" t="s">
         <v>1499</v>
       </c>
       <c r="D1005"/>
@@ -19632,10 +19646,10 @@
       <c r="A1006" t="s">
         <v>469</v>
       </c>
-      <c r="B1006" s="7" t="s">
+      <c r="B1006" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="C1006" s="7" t="s">
+      <c r="C1006" s="6" t="s">
         <v>1120</v>
       </c>
       <c r="D1006" s="1"/>
@@ -19644,10 +19658,10 @@
       <c r="A1007" t="s">
         <v>469</v>
       </c>
-      <c r="B1007" s="7" t="s">
+      <c r="B1007" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="C1007" s="7" t="s">
+      <c r="C1007" s="6" t="s">
         <v>1502</v>
       </c>
       <c r="D1007"/>
@@ -19657,7 +19671,7 @@
       <c r="A1008" t="s">
         <v>469</v>
       </c>
-      <c r="B1008" s="7" t="s">
+      <c r="B1008" s="6" t="s">
         <v>1503</v>
       </c>
       <c r="C1008" t="s">
@@ -19669,7 +19683,7 @@
       <c r="A1009" t="s">
         <v>469</v>
       </c>
-      <c r="B1009" s="7" t="s">
+      <c r="B1009" s="6" t="s">
         <v>485</v>
       </c>
       <c r="C1009" t="s">
@@ -19682,7 +19696,7 @@
       <c r="A1010" t="s">
         <v>469</v>
       </c>
-      <c r="B1010" s="7" t="s">
+      <c r="B1010" s="6" t="s">
         <v>476</v>
       </c>
       <c r="C1010" t="s">
@@ -19694,7 +19708,7 @@
       <c r="A1011" t="s">
         <v>469</v>
       </c>
-      <c r="B1011" s="7" t="s">
+      <c r="B1011" s="6" t="s">
         <v>1507</v>
       </c>
       <c r="C1011" t="s">
@@ -19707,7 +19721,7 @@
       <c r="A1012" t="s">
         <v>469</v>
       </c>
-      <c r="B1012" s="7" t="s">
+      <c r="B1012" s="6" t="s">
         <v>1509</v>
       </c>
       <c r="C1012" t="s">
@@ -19719,7 +19733,7 @@
       <c r="A1013" t="s">
         <v>469</v>
       </c>
-      <c r="B1013" s="7" t="s">
+      <c r="B1013" s="6" t="s">
         <v>1511</v>
       </c>
       <c r="C1013" t="s">
@@ -19732,7 +19746,7 @@
       <c r="A1014" t="s">
         <v>469</v>
       </c>
-      <c r="B1014" s="7" t="s">
+      <c r="B1014" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="C1014" t="s">
@@ -19744,7 +19758,7 @@
       <c r="A1015" t="s">
         <v>469</v>
       </c>
-      <c r="B1015" s="7" t="s">
+      <c r="B1015" s="6" t="s">
         <v>1514</v>
       </c>
       <c r="C1015" t="s">
@@ -19757,7 +19771,7 @@
       <c r="A1016" t="s">
         <v>469</v>
       </c>
-      <c r="B1016" s="7" t="s">
+      <c r="B1016" s="6" t="s">
         <v>1516</v>
       </c>
       <c r="C1016" t="s">
@@ -19769,7 +19783,7 @@
       <c r="A1017" t="s">
         <v>469</v>
       </c>
-      <c r="B1017" s="7" t="s">
+      <c r="B1017" s="6" t="s">
         <v>1517</v>
       </c>
       <c r="C1017" t="s">
@@ -19782,7 +19796,7 @@
       <c r="A1018" t="s">
         <v>469</v>
       </c>
-      <c r="B1018" s="7" t="s">
+      <c r="B1018" s="6" t="s">
         <v>1519</v>
       </c>
       <c r="C1018" t="s">
@@ -19794,7 +19808,7 @@
       <c r="A1019" t="s">
         <v>469</v>
       </c>
-      <c r="B1019" s="7" t="s">
+      <c r="B1019" s="6" t="s">
         <v>1520</v>
       </c>
       <c r="C1019" t="s">
@@ -19816,23 +19830,23 @@
       <c r="D1020" s="1"/>
     </row>
     <row r="1021" ht="12.75" hidden="1">
-      <c r="A1021" s="6" t="s">
+      <c r="A1021" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B1021" s="7" t="s">
+      <c r="B1021" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="C1021" s="7" t="s">
+      <c r="C1021" s="6" t="s">
         <v>392</v>
       </c>
       <c r="D1021"/>
       <c r="G1021"/>
     </row>
     <row r="1022" ht="12.75" hidden="1">
-      <c r="A1022" s="6" t="s">
+      <c r="A1022" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B1022" s="7" t="s">
+      <c r="B1022" s="6" t="s">
         <v>1522</v>
       </c>
       <c r="C1022" t="s">
@@ -19841,13 +19855,13 @@
       <c r="D1022" s="1"/>
     </row>
     <row r="1023" ht="12.75" hidden="1">
-      <c r="A1023" s="7" t="s">
+      <c r="A1023" s="6" t="s">
         <v>1523</v>
       </c>
-      <c r="B1023" s="7" t="s">
+      <c r="B1023" s="6" t="s">
         <v>1524</v>
       </c>
-      <c r="C1023" s="7" t="s">
+      <c r="C1023" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D1023"/>
@@ -19857,7 +19871,7 @@
       <c r="A1024" t="s">
         <v>1523</v>
       </c>
-      <c r="B1024" s="7" t="s">
+      <c r="B1024" s="6" t="s">
         <v>1525</v>
       </c>
       <c r="C1024" t="s">
@@ -19869,7 +19883,7 @@
       <c r="A1025" t="s">
         <v>1523</v>
       </c>
-      <c r="B1025" s="7" t="s">
+      <c r="B1025" s="6" t="s">
         <v>1526</v>
       </c>
       <c r="C1025" t="s">
@@ -19882,7 +19896,7 @@
       <c r="A1026" t="s">
         <v>1523</v>
       </c>
-      <c r="B1026" s="7" t="s">
+      <c r="B1026" s="6" t="s">
         <v>1527</v>
       </c>
       <c r="C1026" t="s">
@@ -19894,7 +19908,7 @@
       <c r="A1027" t="s">
         <v>1523</v>
       </c>
-      <c r="B1027" s="7" t="s">
+      <c r="B1027" s="6" t="s">
         <v>1528</v>
       </c>
       <c r="C1027" t="s">
@@ -19907,7 +19921,7 @@
       <c r="A1028" t="s">
         <v>1523</v>
       </c>
-      <c r="B1028" s="7" t="s">
+      <c r="B1028" s="6" t="s">
         <v>1529</v>
       </c>
       <c r="C1028" t="s">
@@ -19919,7 +19933,7 @@
       <c r="A1029" t="s">
         <v>1523</v>
       </c>
-      <c r="B1029" s="7" t="s">
+      <c r="B1029" s="6" t="s">
         <v>1530</v>
       </c>
       <c r="C1029" t="s">
@@ -19932,7 +19946,7 @@
       <c r="A1030" t="s">
         <v>1523</v>
       </c>
-      <c r="B1030" s="7" t="s">
+      <c r="B1030" s="6" t="s">
         <v>397</v>
       </c>
       <c r="C1030" t="s">
@@ -19944,45 +19958,45 @@
       <c r="A1031" t="s">
         <v>1523</v>
       </c>
-      <c r="B1031" s="7" t="s">
+      <c r="B1031" s="6" t="s">
         <v>1531</v>
       </c>
-      <c r="C1031" s="7" t="s">
+      <c r="C1031" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D1031"/>
       <c r="G1031"/>
     </row>
     <row r="1032" ht="12.75" hidden="1">
-      <c r="A1032" s="6" t="s">
+      <c r="A1032" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1032" s="7" t="s">
+      <c r="B1032" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="C1032" s="7" t="s">
+      <c r="C1032" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D1032" s="1"/>
     </row>
     <row r="1033" ht="12.75" hidden="1">
-      <c r="A1033" s="6" t="s">
+      <c r="A1033" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1033" s="7" t="s">
+      <c r="B1033" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="C1033" s="7" t="s">
+      <c r="C1033" s="6" t="s">
         <v>1534</v>
       </c>
       <c r="D1033"/>
       <c r="G1033"/>
     </row>
     <row r="1034" ht="12.75" hidden="1">
-      <c r="A1034" s="6" t="s">
+      <c r="A1034" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1034" s="7" t="s">
+      <c r="B1034" s="6" t="s">
         <v>1535</v>
       </c>
       <c r="C1034" t="s">
@@ -19991,23 +20005,23 @@
       <c r="D1034" s="1"/>
     </row>
     <row r="1035" ht="12.75" hidden="1">
-      <c r="A1035" s="6" t="s">
+      <c r="A1035" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1035" s="7" t="s">
+      <c r="B1035" s="6" t="s">
         <v>1536</v>
       </c>
-      <c r="C1035" s="7" t="s">
+      <c r="C1035" s="6" t="s">
         <v>1534</v>
       </c>
       <c r="D1035"/>
       <c r="G1035"/>
     </row>
     <row r="1036" ht="12.75" hidden="1">
-      <c r="A1036" s="6" t="s">
+      <c r="A1036" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1036" s="7" t="s">
+      <c r="B1036" s="6" t="s">
         <v>1537</v>
       </c>
       <c r="C1036" t="s">
@@ -20016,45 +20030,45 @@
       <c r="D1036" s="1"/>
     </row>
     <row r="1037" ht="12.75" hidden="1">
-      <c r="A1037" s="6" t="s">
+      <c r="A1037" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1037" s="7" t="s">
+      <c r="B1037" s="6" t="s">
         <v>1538</v>
       </c>
-      <c r="C1037" s="7" t="s">
+      <c r="C1037" s="6" t="s">
         <v>1539</v>
       </c>
       <c r="D1037"/>
       <c r="G1037"/>
     </row>
     <row r="1038" ht="12.75" hidden="1">
-      <c r="A1038" s="6" t="s">
+      <c r="A1038" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B1038" s="7" t="s">
+      <c r="B1038" s="6" t="s">
         <v>1540</v>
       </c>
-      <c r="C1038" s="7" t="s">
+      <c r="C1038" s="6" t="s">
         <v>1541</v>
       </c>
       <c r="D1038" s="1"/>
     </row>
     <row r="1039" ht="12.75" hidden="1">
-      <c r="A1039" s="6" t="s">
+      <c r="A1039" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B1039" s="7" t="s">
+      <c r="B1039" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="C1039" s="6" t="s">
+      <c r="C1039" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D1039"/>
       <c r="G1039"/>
     </row>
     <row r="1040" ht="12.75" hidden="1">
-      <c r="A1040" s="6" t="s">
+      <c r="A1040" s="5" t="s">
         <v>1543</v>
       </c>
       <c r="B1040"/>
@@ -20087,7 +20101,7 @@
       <c r="D1042" s="1"/>
     </row>
     <row r="1043" ht="12.75" hidden="1">
-      <c r="A1043" s="6" t="s">
+      <c r="A1043" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1043" t="s">
@@ -20100,107 +20114,107 @@
       <c r="G1043"/>
     </row>
     <row r="1044" ht="12.75" hidden="1">
-      <c r="A1044" s="6" t="s">
+      <c r="A1044" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1044" t="s">
         <v>1549</v>
       </c>
-      <c r="C1044" s="6" t="s">
+      <c r="C1044" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1044" s="1"/>
     </row>
     <row r="1045" ht="12.75" hidden="1">
-      <c r="A1045" s="6" t="s">
+      <c r="A1045" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1045" t="s">
         <v>1550</v>
       </c>
-      <c r="C1045" s="6" t="s">
+      <c r="C1045" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1045"/>
       <c r="G1045"/>
     </row>
     <row r="1046" ht="12.75" hidden="1">
-      <c r="A1046" s="6" t="s">
+      <c r="A1046" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1046" t="s">
         <v>1551</v>
       </c>
-      <c r="C1046" s="6" t="s">
+      <c r="C1046" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1046" s="1"/>
     </row>
     <row r="1047" ht="12.75" hidden="1">
-      <c r="A1047" s="6" t="s">
+      <c r="A1047" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1047" t="s">
         <v>1552</v>
       </c>
-      <c r="C1047" s="6" t="s">
+      <c r="C1047" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1047"/>
       <c r="G1047"/>
     </row>
     <row r="1048" ht="12.75" hidden="1">
-      <c r="A1048" s="6" t="s">
+      <c r="A1048" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1048" t="s">
         <v>1553</v>
       </c>
-      <c r="C1048" s="6" t="s">
+      <c r="C1048" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1048" s="1"/>
     </row>
     <row r="1049" ht="12.75" hidden="1">
-      <c r="A1049" s="6" t="s">
+      <c r="A1049" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1049" t="s">
         <v>1554</v>
       </c>
-      <c r="C1049" s="6" t="s">
+      <c r="C1049" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1049"/>
       <c r="G1049"/>
     </row>
     <row r="1050" ht="12.75" hidden="1">
-      <c r="A1050" s="6" t="s">
+      <c r="A1050" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1050" t="s">
         <v>1555</v>
       </c>
-      <c r="C1050" s="6" t="s">
+      <c r="C1050" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1050" s="1"/>
     </row>
     <row r="1051" ht="12.75" hidden="1">
-      <c r="A1051" s="6" t="s">
+      <c r="A1051" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="B1051" t="s">
         <v>1556</v>
       </c>
-      <c r="C1051" s="6" t="s">
+      <c r="C1051" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="D1051"/>
       <c r="G1051"/>
     </row>
     <row r="1052" ht="12.75" hidden="1">
-      <c r="A1052" s="6" t="s">
+      <c r="A1052" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B1052" t="s">
@@ -20212,120 +20226,120 @@
       <c r="D1052" s="1"/>
     </row>
     <row r="1053" ht="12.75" hidden="1">
-      <c r="A1053" s="6" t="s">
+      <c r="A1053" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1053" t="s">
         <v>1560</v>
       </c>
-      <c r="C1053" s="6" t="s">
+      <c r="C1053" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1053"/>
       <c r="G1053"/>
     </row>
     <row r="1054" ht="12.75" hidden="1">
-      <c r="A1054" s="6" t="s">
+      <c r="A1054" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1054" t="s">
         <v>1503</v>
       </c>
-      <c r="C1054" s="6" t="s">
+      <c r="C1054" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1054" s="1"/>
     </row>
     <row r="1055" ht="12.75" hidden="1">
-      <c r="A1055" s="6" t="s">
+      <c r="A1055" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1055" t="s">
         <v>1561</v>
       </c>
-      <c r="C1055" s="6" t="s">
+      <c r="C1055" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1055"/>
       <c r="G1055"/>
     </row>
     <row r="1056" ht="12.75" hidden="1">
-      <c r="A1056" s="6" t="s">
+      <c r="A1056" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1056" t="s">
         <v>1511</v>
       </c>
-      <c r="C1056" s="6" t="s">
+      <c r="C1056" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1056" s="1"/>
     </row>
     <row r="1057" ht="12.75" hidden="1">
-      <c r="A1057" s="6" t="s">
+      <c r="A1057" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1057" t="s">
         <v>1516</v>
       </c>
-      <c r="C1057" s="6" t="s">
+      <c r="C1057" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1057"/>
       <c r="G1057"/>
     </row>
     <row r="1058" ht="12.75" hidden="1">
-      <c r="A1058" s="6" t="s">
+      <c r="A1058" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1058" t="s">
         <v>1562</v>
       </c>
-      <c r="C1058" s="6" t="s">
+      <c r="C1058" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1058" s="1"/>
     </row>
     <row r="1059" ht="12.75" hidden="1">
-      <c r="A1059" s="6" t="s">
+      <c r="A1059" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1059" t="s">
         <v>1563</v>
       </c>
-      <c r="C1059" s="6" t="s">
+      <c r="C1059" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1059"/>
       <c r="G1059"/>
     </row>
     <row r="1060" ht="12.75" hidden="1">
-      <c r="A1060" s="6" t="s">
+      <c r="A1060" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1060" t="s">
         <v>1564</v>
       </c>
-      <c r="C1060" s="6" t="s">
+      <c r="C1060" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1060" s="1"/>
     </row>
     <row r="1061" ht="12.75" hidden="1">
-      <c r="A1061" s="6" t="s">
+      <c r="A1061" s="5" t="s">
         <v>1559</v>
       </c>
       <c r="B1061" t="s">
         <v>1565</v>
       </c>
-      <c r="C1061" s="6" t="s">
+      <c r="C1061" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="D1061"/>
       <c r="G1061"/>
     </row>
     <row r="1062" ht="12.75" hidden="1">
-      <c r="A1062" s="6" t="s">
+      <c r="A1062" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="B1062" t="s">
@@ -20337,32 +20351,32 @@
       <c r="D1062" s="1"/>
     </row>
     <row r="1063" ht="12.75" hidden="1">
-      <c r="A1063" s="6" t="s">
+      <c r="A1063" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="B1063" t="s">
         <v>1569</v>
       </c>
-      <c r="C1063" s="7" t="s">
+      <c r="C1063" s="6" t="s">
         <v>1568</v>
       </c>
       <c r="D1063"/>
       <c r="G1063"/>
     </row>
     <row r="1064" ht="12.75" hidden="1">
-      <c r="A1064" s="6" t="s">
+      <c r="A1064" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="B1064" t="s">
         <v>1570</v>
       </c>
-      <c r="C1064" s="7" t="s">
+      <c r="C1064" s="6" t="s">
         <v>1568</v>
       </c>
       <c r="D1064" s="1"/>
     </row>
     <row r="1065" ht="12.75" hidden="1">
-      <c r="A1065" s="6" t="s">
+      <c r="A1065" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1065" t="s">
@@ -20375,7 +20389,7 @@
       <c r="G1065"/>
     </row>
     <row r="1066" ht="12.75" hidden="1">
-      <c r="A1066" s="6" t="s">
+      <c r="A1066" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1066" t="s">
@@ -20387,7 +20401,7 @@
       <c r="D1066" s="1"/>
     </row>
     <row r="1067" ht="12.75" hidden="1">
-      <c r="A1067" s="6" t="s">
+      <c r="A1067" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1067" t="s">
@@ -20400,7 +20414,7 @@
       <c r="G1067"/>
     </row>
     <row r="1068" ht="12.75" hidden="1">
-      <c r="A1068" s="6" t="s">
+      <c r="A1068" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1068" t="s">
@@ -20412,7 +20426,7 @@
       <c r="D1068" s="1"/>
     </row>
     <row r="1069" ht="12.75" hidden="1">
-      <c r="A1069" s="6" t="s">
+      <c r="A1069" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1069" t="s">
@@ -20425,7 +20439,7 @@
       <c r="G1069"/>
     </row>
     <row r="1070" ht="12.75" hidden="1">
-      <c r="A1070" s="6" t="s">
+      <c r="A1070" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1070" t="s">
@@ -20437,7 +20451,7 @@
       <c r="D1070" s="1"/>
     </row>
     <row r="1071" ht="12.75" hidden="1">
-      <c r="A1071" s="6" t="s">
+      <c r="A1071" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1071" t="s">
@@ -20450,7 +20464,7 @@
       <c r="G1071"/>
     </row>
     <row r="1072" ht="12.75" hidden="1">
-      <c r="A1072" s="6" t="s">
+      <c r="A1072" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1072" t="s">
@@ -20462,7 +20476,7 @@
       <c r="D1072" s="1"/>
     </row>
     <row r="1073" ht="12.75" hidden="1">
-      <c r="A1073" s="6" t="s">
+      <c r="A1073" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1073" t="s">
@@ -20475,7 +20489,7 @@
       <c r="G1073"/>
     </row>
     <row r="1074" ht="12.75" hidden="1">
-      <c r="A1074" s="6" t="s">
+      <c r="A1074" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1074" t="s">
@@ -20487,7 +20501,7 @@
       <c r="D1074" s="1"/>
     </row>
     <row r="1075" ht="12.75" hidden="1">
-      <c r="A1075" s="6" t="s">
+      <c r="A1075" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1075" t="s">
@@ -20500,7 +20514,7 @@
       <c r="G1075"/>
     </row>
     <row r="1076" ht="12.75" hidden="1">
-      <c r="A1076" s="6" t="s">
+      <c r="A1076" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1076" t="s">
@@ -20512,7 +20526,7 @@
       <c r="D1076" s="1"/>
     </row>
     <row r="1077" ht="12.75" hidden="1">
-      <c r="A1077" s="6" t="s">
+      <c r="A1077" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1077" t="s">
@@ -20525,7 +20539,7 @@
       <c r="G1077"/>
     </row>
     <row r="1078" ht="12.75" hidden="1">
-      <c r="A1078" s="6" t="s">
+      <c r="A1078" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1078" t="s">
@@ -20537,7 +20551,7 @@
       <c r="D1078" s="1"/>
     </row>
     <row r="1079" ht="12.75" hidden="1">
-      <c r="A1079" s="6" t="s">
+      <c r="A1079" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1079" t="s">
@@ -20550,7 +20564,7 @@
       <c r="G1079"/>
     </row>
     <row r="1080" ht="12.75" hidden="1">
-      <c r="A1080" s="6" t="s">
+      <c r="A1080" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1080" t="s">
@@ -20562,7 +20576,7 @@
       <c r="D1080" s="1"/>
     </row>
     <row r="1081" ht="12.75" hidden="1">
-      <c r="A1081" s="6" t="s">
+      <c r="A1081" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1081" t="s">
@@ -20575,7 +20589,7 @@
       <c r="G1081"/>
     </row>
     <row r="1082" ht="12.75" hidden="1">
-      <c r="A1082" s="6" t="s">
+      <c r="A1082" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1082" t="s">
@@ -20587,7 +20601,7 @@
       <c r="D1082" s="1"/>
     </row>
     <row r="1083" ht="12.75" hidden="1">
-      <c r="A1083" s="6" t="s">
+      <c r="A1083" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1083" t="s">
@@ -20600,7 +20614,7 @@
       <c r="G1083"/>
     </row>
     <row r="1084" ht="12.75" hidden="1">
-      <c r="A1084" s="6" t="s">
+      <c r="A1084" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1084" t="s">
@@ -20612,7 +20626,7 @@
       <c r="D1084" s="1"/>
     </row>
     <row r="1085" ht="12.75" hidden="1">
-      <c r="A1085" s="6" t="s">
+      <c r="A1085" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1085" t="s">
@@ -20625,7 +20639,7 @@
       <c r="G1085"/>
     </row>
     <row r="1086" ht="12.75" hidden="1">
-      <c r="A1086" s="6" t="s">
+      <c r="A1086" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1086" t="s">
@@ -20637,7 +20651,7 @@
       <c r="D1086" s="1"/>
     </row>
     <row r="1087" ht="12.75" hidden="1">
-      <c r="A1087" s="6" t="s">
+      <c r="A1087" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1087" t="s">
@@ -20650,7 +20664,7 @@
       <c r="G1087"/>
     </row>
     <row r="1088" ht="12.75" hidden="1">
-      <c r="A1088" s="6" t="s">
+      <c r="A1088" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1088" t="s">
@@ -20662,82 +20676,82 @@
       <c r="D1088" s="1"/>
     </row>
     <row r="1089" ht="12.75" hidden="1">
-      <c r="A1089" s="6" t="s">
+      <c r="A1089" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1089" t="s">
         <v>1597</v>
       </c>
-      <c r="C1089" s="7" t="s">
+      <c r="C1089" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1089"/>
       <c r="G1089"/>
     </row>
     <row r="1090" ht="12.75" hidden="1">
-      <c r="A1090" s="6" t="s">
+      <c r="A1090" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1090" t="s">
         <v>1598</v>
       </c>
-      <c r="C1090" s="7" t="s">
+      <c r="C1090" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1090" s="1"/>
     </row>
     <row r="1091" ht="12.75" hidden="1">
-      <c r="A1091" s="6" t="s">
+      <c r="A1091" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1091" t="s">
         <v>1599</v>
       </c>
-      <c r="C1091" s="7" t="s">
+      <c r="C1091" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1091"/>
       <c r="G1091"/>
     </row>
     <row r="1092" ht="12.75" hidden="1">
-      <c r="A1092" s="6" t="s">
+      <c r="A1092" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1092" t="s">
         <v>1600</v>
       </c>
-      <c r="C1092" s="7" t="s">
+      <c r="C1092" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1092" s="1"/>
     </row>
     <row r="1093" ht="12.75" hidden="1">
-      <c r="A1093" s="6" t="s">
+      <c r="A1093" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1093" t="s">
         <v>1601</v>
       </c>
-      <c r="C1093" s="7" t="s">
+      <c r="C1093" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1093"/>
       <c r="G1093"/>
     </row>
     <row r="1094" ht="12.75" hidden="1">
-      <c r="A1094" s="6" t="s">
+      <c r="A1094" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="B1094" t="s">
         <v>1602</v>
       </c>
-      <c r="C1094" s="7" t="s">
+      <c r="C1094" s="6" t="s">
         <v>1596</v>
       </c>
       <c r="D1094" s="1"/>
     </row>
     <row r="1095" ht="12.75" hidden="1">
-      <c r="A1095" s="6" t="s">
+      <c r="A1095" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1095" t="s">
@@ -20750,132 +20764,132 @@
       <c r="G1095"/>
     </row>
     <row r="1096" ht="12.75" hidden="1">
-      <c r="A1096" s="6" t="s">
+      <c r="A1096" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1096" t="s">
         <v>1606</v>
       </c>
-      <c r="C1096" s="7" t="s">
+      <c r="C1096" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1096" s="1"/>
     </row>
     <row r="1097" ht="12.75" hidden="1">
-      <c r="A1097" s="6" t="s">
+      <c r="A1097" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1097" t="s">
         <v>1607</v>
       </c>
-      <c r="C1097" s="7" t="s">
+      <c r="C1097" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1097"/>
       <c r="G1097"/>
     </row>
     <row r="1098" ht="12.75" hidden="1">
-      <c r="A1098" s="6" t="s">
+      <c r="A1098" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1098" t="s">
         <v>1608</v>
       </c>
-      <c r="C1098" s="7" t="s">
+      <c r="C1098" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1098" s="1"/>
     </row>
     <row r="1099" ht="12.75" hidden="1">
-      <c r="A1099" s="6" t="s">
+      <c r="A1099" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1099" t="s">
         <v>1609</v>
       </c>
-      <c r="C1099" s="7" t="s">
+      <c r="C1099" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1099"/>
       <c r="G1099"/>
     </row>
     <row r="1100" ht="12.75" hidden="1">
-      <c r="A1100" s="6" t="s">
+      <c r="A1100" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1100" t="s">
         <v>1610</v>
       </c>
-      <c r="C1100" s="7" t="s">
+      <c r="C1100" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1100" s="1"/>
     </row>
     <row r="1101" ht="12.75" hidden="1">
-      <c r="A1101" s="6" t="s">
+      <c r="A1101" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1101" t="s">
         <v>1611</v>
       </c>
-      <c r="C1101" s="7" t="s">
+      <c r="C1101" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1101"/>
       <c r="G1101"/>
     </row>
     <row r="1102" ht="12.75" hidden="1">
-      <c r="A1102" s="6" t="s">
+      <c r="A1102" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1102" t="s">
         <v>1612</v>
       </c>
-      <c r="C1102" s="7" t="s">
+      <c r="C1102" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1102" s="1"/>
     </row>
     <row r="1103" ht="12.75" hidden="1">
-      <c r="A1103" s="6" t="s">
+      <c r="A1103" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1103" t="s">
         <v>1613</v>
       </c>
-      <c r="C1103" s="7" t="s">
+      <c r="C1103" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1103"/>
       <c r="G1103"/>
     </row>
     <row r="1104" ht="12.75" hidden="1">
-      <c r="A1104" s="6" t="s">
+      <c r="A1104" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1104" t="s">
         <v>1614</v>
       </c>
-      <c r="C1104" s="7" t="s">
+      <c r="C1104" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1104" s="1"/>
     </row>
     <row r="1105" ht="12.75" hidden="1">
-      <c r="A1105" s="6" t="s">
+      <c r="A1105" s="5" t="s">
         <v>1603</v>
       </c>
       <c r="B1105" t="s">
         <v>1615</v>
       </c>
-      <c r="C1105" s="7" t="s">
+      <c r="C1105" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="D1105"/>
       <c r="G1105"/>
     </row>
     <row r="1106" ht="12.75" hidden="1">
-      <c r="A1106" s="6" t="s">
+      <c r="A1106" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1106" t="s">
@@ -20887,7 +20901,7 @@
       <c r="D1106" s="1"/>
     </row>
     <row r="1107" ht="12.75" hidden="1">
-      <c r="A1107" s="6" t="s">
+      <c r="A1107" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1107" t="s">
@@ -20900,7 +20914,7 @@
       <c r="G1107"/>
     </row>
     <row r="1108" ht="12.75" hidden="1">
-      <c r="A1108" s="6" t="s">
+      <c r="A1108" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1108" t="s">
@@ -20912,7 +20926,7 @@
       <c r="D1108" s="1"/>
     </row>
     <row r="1109" ht="12.75" hidden="1">
-      <c r="A1109" s="6" t="s">
+      <c r="A1109" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1109" t="s">
@@ -20925,7 +20939,7 @@
       <c r="G1109"/>
     </row>
     <row r="1110" ht="12.75" hidden="1">
-      <c r="A1110" s="6" t="s">
+      <c r="A1110" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1110" t="s">
@@ -20937,7 +20951,7 @@
       <c r="D1110" s="1"/>
     </row>
     <row r="1111" ht="12.75" hidden="1">
-      <c r="A1111" s="6" t="s">
+      <c r="A1111" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1111" t="s">
@@ -20950,7 +20964,7 @@
       <c r="G1111"/>
     </row>
     <row r="1112" ht="12.75" hidden="1">
-      <c r="A1112" s="6" t="s">
+      <c r="A1112" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1112" t="s">
@@ -20962,7 +20976,7 @@
       <c r="D1112" s="1"/>
     </row>
     <row r="1113" ht="12.75" hidden="1">
-      <c r="A1113" s="6" t="s">
+      <c r="A1113" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1113" t="s">
@@ -20975,7 +20989,7 @@
       <c r="G1113"/>
     </row>
     <row r="1114" ht="12.75" hidden="1">
-      <c r="A1114" s="6" t="s">
+      <c r="A1114" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1114" t="s">
@@ -20987,7 +21001,7 @@
       <c r="D1114" s="1"/>
     </row>
     <row r="1115" ht="12.75" hidden="1">
-      <c r="A1115" s="6" t="s">
+      <c r="A1115" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1115" t="s">
@@ -21000,7 +21014,7 @@
       <c r="G1115"/>
     </row>
     <row r="1116" ht="12.75" hidden="1">
-      <c r="A1116" s="6" t="s">
+      <c r="A1116" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1116" t="s">
@@ -21012,7 +21026,7 @@
       <c r="D1116" s="1"/>
     </row>
     <row r="1117" ht="12.75" hidden="1">
-      <c r="A1117" s="6" t="s">
+      <c r="A1117" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1117" t="s">
@@ -21025,7 +21039,7 @@
       <c r="G1117"/>
     </row>
     <row r="1118" ht="12.75" hidden="1">
-      <c r="A1118" s="6" t="s">
+      <c r="A1118" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1118" t="s">
@@ -21037,7 +21051,7 @@
       <c r="D1118" s="1"/>
     </row>
     <row r="1119" ht="12.75" hidden="1">
-      <c r="A1119" s="6" t="s">
+      <c r="A1119" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1119" t="s">
@@ -21050,7 +21064,7 @@
       <c r="G1119"/>
     </row>
     <row r="1120" ht="12.75" hidden="1">
-      <c r="A1120" s="6" t="s">
+      <c r="A1120" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1120" t="s">
@@ -21062,7 +21076,7 @@
       <c r="D1120" s="1"/>
     </row>
     <row r="1121" ht="12.75" hidden="1">
-      <c r="A1121" s="6" t="s">
+      <c r="A1121" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1121" t="s">
@@ -21075,7 +21089,7 @@
       <c r="G1121"/>
     </row>
     <row r="1122" ht="12.75" hidden="1">
-      <c r="A1122" s="6" t="s">
+      <c r="A1122" s="5" t="s">
         <v>1634</v>
       </c>
       <c r="B1122" t="s">
@@ -21087,7 +21101,7 @@
       <c r="D1122" s="1"/>
     </row>
     <row r="1123" ht="12.75" hidden="1">
-      <c r="A1123" s="6" t="s">
+      <c r="A1123" s="5" t="s">
         <v>1634</v>
       </c>
       <c r="B1123" t="s">
@@ -21100,7 +21114,7 @@
       <c r="G1123"/>
     </row>
     <row r="1124" ht="12.75" hidden="1">
-      <c r="A1124" s="6" t="s">
+      <c r="A1124" s="5" t="s">
         <v>1634</v>
       </c>
       <c r="B1124" t="s">
@@ -21112,7 +21126,7 @@
       <c r="D1124" s="1"/>
     </row>
     <row r="1125" ht="12.75" hidden="1">
-      <c r="A1125" s="6" t="s">
+      <c r="A1125" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1125" t="s">
@@ -21125,494 +21139,494 @@
       <c r="G1125"/>
     </row>
     <row r="1126" ht="12.75" hidden="1">
-      <c r="A1126" s="6" t="s">
+      <c r="A1126" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1126" t="s">
         <v>1641</v>
       </c>
-      <c r="C1126" s="7" t="s">
+      <c r="C1126" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1126" s="1"/>
     </row>
     <row r="1127" ht="12.75" hidden="1">
-      <c r="A1127" s="6" t="s">
+      <c r="A1127" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1127" t="s">
         <v>1642</v>
       </c>
-      <c r="C1127" s="7" t="s">
+      <c r="C1127" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1127"/>
       <c r="G1127"/>
     </row>
     <row r="1128" ht="12.75" hidden="1">
-      <c r="A1128" s="6" t="s">
+      <c r="A1128" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1128" t="s">
         <v>1643</v>
       </c>
-      <c r="C1128" s="7" t="s">
+      <c r="C1128" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1128" s="1"/>
     </row>
     <row r="1129" ht="12.75" hidden="1">
-      <c r="A1129" s="6" t="s">
+      <c r="A1129" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1129" t="s">
         <v>1644</v>
       </c>
-      <c r="C1129" s="7" t="s">
+      <c r="C1129" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1129"/>
       <c r="G1129"/>
     </row>
     <row r="1130" ht="12.75" hidden="1">
-      <c r="A1130" s="6" t="s">
+      <c r="A1130" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1130" t="s">
         <v>1645</v>
       </c>
-      <c r="C1130" s="7" t="s">
+      <c r="C1130" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1130" s="1"/>
     </row>
     <row r="1131" ht="12.75" hidden="1">
-      <c r="A1131" s="6" t="s">
+      <c r="A1131" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1131" t="s">
         <v>1646</v>
       </c>
-      <c r="C1131" s="7" t="s">
+      <c r="C1131" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1131"/>
       <c r="G1131"/>
     </row>
     <row r="1132" ht="12.75" hidden="1">
-      <c r="A1132" s="6" t="s">
+      <c r="A1132" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1132" t="s">
         <v>1647</v>
       </c>
-      <c r="C1132" s="7" t="s">
+      <c r="C1132" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1132" s="1"/>
     </row>
     <row r="1133" ht="12.75" hidden="1">
-      <c r="A1133" s="6" t="s">
+      <c r="A1133" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1133" t="s">
         <v>1648</v>
       </c>
-      <c r="C1133" s="7" t="s">
+      <c r="C1133" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1133"/>
       <c r="G1133"/>
     </row>
     <row r="1134" ht="12.75" hidden="1">
-      <c r="A1134" s="6" t="s">
+      <c r="A1134" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1134" t="s">
         <v>1649</v>
       </c>
-      <c r="C1134" s="7" t="s">
+      <c r="C1134" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1134" s="1"/>
     </row>
     <row r="1135" ht="12.75" hidden="1">
-      <c r="A1135" s="6" t="s">
+      <c r="A1135" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1135" t="s">
         <v>1650</v>
       </c>
-      <c r="C1135" s="7" t="s">
+      <c r="C1135" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1135"/>
       <c r="G1135"/>
     </row>
     <row r="1136" ht="12.75" hidden="1">
-      <c r="A1136" s="6" t="s">
+      <c r="A1136" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1136" t="s">
         <v>1651</v>
       </c>
-      <c r="C1136" s="7" t="s">
+      <c r="C1136" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1136" s="1"/>
     </row>
     <row r="1137" ht="12.75" hidden="1">
-      <c r="A1137" s="6" t="s">
+      <c r="A1137" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1137" t="s">
         <v>1652</v>
       </c>
-      <c r="C1137" s="7" t="s">
+      <c r="C1137" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1137"/>
       <c r="G1137"/>
     </row>
     <row r="1138" ht="12.75" hidden="1">
-      <c r="A1138" s="6" t="s">
+      <c r="A1138" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1138" t="s">
         <v>1653</v>
       </c>
-      <c r="C1138" s="7" t="s">
+      <c r="C1138" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1138" s="1"/>
     </row>
     <row r="1139" ht="12.75" hidden="1">
-      <c r="A1139" s="6" t="s">
+      <c r="A1139" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1139" t="s">
         <v>1654</v>
       </c>
-      <c r="C1139" s="7" t="s">
+      <c r="C1139" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1139"/>
       <c r="G1139"/>
     </row>
     <row r="1140" ht="12.75" hidden="1">
-      <c r="A1140" s="6" t="s">
+      <c r="A1140" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1140" t="s">
         <v>1655</v>
       </c>
-      <c r="C1140" s="7" t="s">
+      <c r="C1140" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1140" s="1"/>
     </row>
     <row r="1141" ht="12.75" hidden="1">
-      <c r="A1141" s="6" t="s">
+      <c r="A1141" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1141" t="s">
         <v>1656</v>
       </c>
-      <c r="C1141" s="7" t="s">
+      <c r="C1141" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1141"/>
       <c r="G1141"/>
     </row>
     <row r="1142" ht="12.75" hidden="1">
-      <c r="A1142" s="6" t="s">
+      <c r="A1142" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1142" t="s">
         <v>1657</v>
       </c>
-      <c r="C1142" s="7" t="s">
+      <c r="C1142" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1142" s="1"/>
     </row>
     <row r="1143" ht="12.75" hidden="1">
-      <c r="A1143" s="6" t="s">
+      <c r="A1143" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1143" t="s">
         <v>1658</v>
       </c>
-      <c r="C1143" s="7" t="s">
+      <c r="C1143" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1143"/>
       <c r="G1143"/>
     </row>
     <row r="1144" ht="12.75" hidden="1">
-      <c r="A1144" s="6" t="s">
+      <c r="A1144" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1144" t="s">
         <v>1659</v>
       </c>
-      <c r="C1144" s="7" t="s">
+      <c r="C1144" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1144" s="1"/>
     </row>
     <row r="1145" ht="12.75" hidden="1">
-      <c r="A1145" s="6" t="s">
+      <c r="A1145" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1145" t="s">
         <v>1660</v>
       </c>
-      <c r="C1145" s="7" t="s">
+      <c r="C1145" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1145"/>
       <c r="G1145"/>
     </row>
     <row r="1146" ht="12.75" hidden="1">
-      <c r="A1146" s="6" t="s">
+      <c r="A1146" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1146" t="s">
         <v>1661</v>
       </c>
-      <c r="C1146" s="7" t="s">
+      <c r="C1146" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1146" s="1"/>
     </row>
     <row r="1147" ht="12.75" hidden="1">
-      <c r="A1147" s="6" t="s">
+      <c r="A1147" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1147" t="s">
         <v>1662</v>
       </c>
-      <c r="C1147" s="7" t="s">
+      <c r="C1147" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1147"/>
       <c r="G1147"/>
     </row>
     <row r="1148" ht="12.75" hidden="1">
-      <c r="A1148" s="6" t="s">
+      <c r="A1148" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1148" t="s">
         <v>1663</v>
       </c>
-      <c r="C1148" s="7" t="s">
+      <c r="C1148" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1148" s="1"/>
     </row>
     <row r="1149" ht="12.75" hidden="1">
-      <c r="A1149" s="6" t="s">
+      <c r="A1149" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1149" t="s">
         <v>1664</v>
       </c>
-      <c r="C1149" s="7" t="s">
+      <c r="C1149" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1149"/>
       <c r="G1149"/>
     </row>
     <row r="1150" ht="12.75" hidden="1">
-      <c r="A1150" s="6" t="s">
+      <c r="A1150" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1150" t="s">
         <v>1665</v>
       </c>
-      <c r="C1150" s="7" t="s">
+      <c r="C1150" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1150" s="1"/>
     </row>
     <row r="1151" ht="12.75" hidden="1">
-      <c r="A1151" s="6" t="s">
+      <c r="A1151" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1151" t="s">
         <v>1666</v>
       </c>
-      <c r="C1151" s="7" t="s">
+      <c r="C1151" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1151"/>
       <c r="G1151"/>
     </row>
     <row r="1152" ht="12.75" hidden="1">
-      <c r="A1152" s="6" t="s">
+      <c r="A1152" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1152" t="s">
         <v>1667</v>
       </c>
-      <c r="C1152" s="7" t="s">
+      <c r="C1152" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1152" s="1"/>
     </row>
     <row r="1153" ht="12.75" hidden="1">
-      <c r="A1153" s="6" t="s">
+      <c r="A1153" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1153" t="s">
         <v>1668</v>
       </c>
-      <c r="C1153" s="7" t="s">
+      <c r="C1153" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1153"/>
       <c r="G1153"/>
     </row>
     <row r="1154" ht="12.75" hidden="1">
-      <c r="A1154" s="6" t="s">
+      <c r="A1154" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1154" t="s">
         <v>1669</v>
       </c>
-      <c r="C1154" s="7" t="s">
+      <c r="C1154" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1154" s="1"/>
     </row>
     <row r="1155" ht="12.75" hidden="1">
-      <c r="A1155" s="6" t="s">
+      <c r="A1155" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1155" t="s">
         <v>1670</v>
       </c>
-      <c r="C1155" s="7" t="s">
+      <c r="C1155" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1155"/>
       <c r="G1155"/>
     </row>
     <row r="1156" ht="12.75" hidden="1">
-      <c r="A1156" s="6" t="s">
+      <c r="A1156" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1156" t="s">
         <v>1671</v>
       </c>
-      <c r="C1156" s="7" t="s">
+      <c r="C1156" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1156" s="1"/>
     </row>
     <row r="1157" ht="12.75" hidden="1">
-      <c r="A1157" s="6" t="s">
+      <c r="A1157" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1157" t="s">
         <v>1672</v>
       </c>
-      <c r="C1157" s="7" t="s">
+      <c r="C1157" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1157"/>
       <c r="G1157"/>
     </row>
     <row r="1158" ht="12.75" hidden="1">
-      <c r="A1158" s="6" t="s">
+      <c r="A1158" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1158" t="s">
         <v>1673</v>
       </c>
-      <c r="C1158" s="7" t="s">
+      <c r="C1158" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1158" s="1"/>
     </row>
     <row r="1159" ht="12.75" hidden="1">
-      <c r="A1159" s="6" t="s">
+      <c r="A1159" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1159" t="s">
         <v>1674</v>
       </c>
-      <c r="C1159" s="7" t="s">
+      <c r="C1159" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1159"/>
       <c r="G1159"/>
     </row>
     <row r="1160" ht="12.75" hidden="1">
-      <c r="A1160" s="6" t="s">
+      <c r="A1160" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1160" t="s">
         <v>1675</v>
       </c>
-      <c r="C1160" s="7" t="s">
+      <c r="C1160" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1160" s="1"/>
     </row>
     <row r="1161" ht="12.75" hidden="1">
-      <c r="A1161" s="6" t="s">
+      <c r="A1161" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1161" t="s">
         <v>1676</v>
       </c>
-      <c r="C1161" s="7" t="s">
+      <c r="C1161" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1161"/>
       <c r="G1161"/>
     </row>
     <row r="1162" ht="12.75" hidden="1">
-      <c r="A1162" s="6" t="s">
+      <c r="A1162" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1162" t="s">
         <v>1677</v>
       </c>
-      <c r="C1162" s="7" t="s">
+      <c r="C1162" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1162" s="1"/>
     </row>
     <row r="1163" ht="12.75" hidden="1">
-      <c r="A1163" s="6" t="s">
+      <c r="A1163" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1163" t="s">
         <v>1678</v>
       </c>
-      <c r="C1163" s="7" t="s">
+      <c r="C1163" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1163"/>
       <c r="G1163"/>
     </row>
     <row r="1164" ht="12.75" hidden="1">
-      <c r="A1164" s="6" t="s">
+      <c r="A1164" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1164" t="s">
         <v>1679</v>
       </c>
-      <c r="C1164" s="7" t="s">
+      <c r="C1164" s="6" t="s">
         <v>1640</v>
       </c>
       <c r="D1164" s="1"/>
     </row>
     <row r="1165" ht="12.75" hidden="1">
-      <c r="A1165" s="6" t="s">
+      <c r="A1165" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1165" t="s">
@@ -21625,294 +21639,294 @@
       <c r="G1165"/>
     </row>
     <row r="1166" ht="12.75" hidden="1">
-      <c r="A1166" s="6" t="s">
+      <c r="A1166" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1166" t="s">
         <v>1683</v>
       </c>
-      <c r="C1166" s="7" t="s">
+      <c r="C1166" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1166" s="1"/>
     </row>
     <row r="1167" ht="12.75" hidden="1">
-      <c r="A1167" s="6" t="s">
+      <c r="A1167" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1167" t="s">
         <v>1684</v>
       </c>
-      <c r="C1167" s="7" t="s">
+      <c r="C1167" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1167"/>
       <c r="G1167"/>
     </row>
     <row r="1168" ht="12.75" hidden="1">
-      <c r="A1168" s="6" t="s">
+      <c r="A1168" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1168" t="s">
         <v>1685</v>
       </c>
-      <c r="C1168" s="7" t="s">
+      <c r="C1168" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1168" s="1"/>
     </row>
     <row r="1169" ht="12.75" hidden="1">
-      <c r="A1169" s="6" t="s">
+      <c r="A1169" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1169" t="s">
         <v>1686</v>
       </c>
-      <c r="C1169" s="7" t="s">
+      <c r="C1169" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1169"/>
       <c r="G1169"/>
     </row>
     <row r="1170" ht="12.75" hidden="1">
-      <c r="A1170" s="6" t="s">
+      <c r="A1170" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1170" t="s">
         <v>1687</v>
       </c>
-      <c r="C1170" s="7" t="s">
+      <c r="C1170" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1170" s="1"/>
     </row>
     <row r="1171" ht="12.75" hidden="1">
-      <c r="A1171" s="6" t="s">
+      <c r="A1171" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1171" t="s">
         <v>1688</v>
       </c>
-      <c r="C1171" s="7" t="s">
+      <c r="C1171" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1171"/>
       <c r="G1171"/>
     </row>
     <row r="1172" ht="12.75" hidden="1">
-      <c r="A1172" s="6" t="s">
+      <c r="A1172" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1172" t="s">
         <v>1689</v>
       </c>
-      <c r="C1172" s="7" t="s">
+      <c r="C1172" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1172" s="1"/>
     </row>
     <row r="1173" ht="12.75" hidden="1">
-      <c r="A1173" s="6" t="s">
+      <c r="A1173" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="B1173" s="8">
+      <c r="B1173" s="7">
         <v>530</v>
       </c>
-      <c r="C1173" s="7" t="s">
+      <c r="C1173" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1173"/>
       <c r="G1173"/>
     </row>
     <row r="1174" ht="12.75" hidden="1">
-      <c r="A1174" s="6" t="s">
+      <c r="A1174" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1174" t="s">
         <v>1690</v>
       </c>
-      <c r="C1174" s="7" t="s">
+      <c r="C1174" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1174" s="1"/>
     </row>
     <row r="1175" ht="12.75" hidden="1">
-      <c r="A1175" s="6" t="s">
+      <c r="A1175" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1175" t="s">
         <v>1691</v>
       </c>
-      <c r="C1175" s="7" t="s">
+      <c r="C1175" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1175"/>
       <c r="G1175"/>
     </row>
     <row r="1176" ht="12.75" hidden="1">
-      <c r="A1176" s="6" t="s">
+      <c r="A1176" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1176" t="s">
         <v>1692</v>
       </c>
-      <c r="C1176" s="7" t="s">
+      <c r="C1176" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1176" s="1"/>
     </row>
     <row r="1177" ht="12.75" hidden="1">
-      <c r="A1177" s="6" t="s">
+      <c r="A1177" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1177" t="s">
         <v>1693</v>
       </c>
-      <c r="C1177" s="7" t="s">
+      <c r="C1177" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1177"/>
       <c r="G1177"/>
     </row>
     <row r="1178" ht="12.75" hidden="1">
-      <c r="A1178" s="6" t="s">
+      <c r="A1178" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1178" t="s">
         <v>1683</v>
       </c>
-      <c r="C1178" s="7" t="s">
+      <c r="C1178" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1178" s="1"/>
     </row>
     <row r="1179" ht="12.75" hidden="1">
-      <c r="A1179" s="6" t="s">
+      <c r="A1179" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1179" t="s">
         <v>1694</v>
       </c>
-      <c r="C1179" s="7" t="s">
+      <c r="C1179" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1179"/>
       <c r="G1179"/>
     </row>
     <row r="1180" ht="12.75" hidden="1">
-      <c r="A1180" s="6" t="s">
+      <c r="A1180" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1180" t="s">
         <v>1695</v>
       </c>
-      <c r="C1180" s="7" t="s">
+      <c r="C1180" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1180" s="1"/>
     </row>
     <row r="1181" ht="12.75" hidden="1">
-      <c r="A1181" s="6" t="s">
+      <c r="A1181" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1181" t="s">
         <v>1687</v>
       </c>
-      <c r="C1181" s="7" t="s">
+      <c r="C1181" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1181"/>
       <c r="G1181"/>
     </row>
     <row r="1182" ht="12.75" hidden="1">
-      <c r="A1182" s="6" t="s">
+      <c r="A1182" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1182" t="s">
         <v>1696</v>
       </c>
-      <c r="C1182" s="7" t="s">
+      <c r="C1182" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1182" s="1"/>
     </row>
     <row r="1183" ht="12.75" hidden="1">
-      <c r="A1183" s="6" t="s">
+      <c r="A1183" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1183" t="s">
         <v>1697</v>
       </c>
-      <c r="C1183" s="7" t="s">
+      <c r="C1183" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1183"/>
       <c r="G1183"/>
     </row>
     <row r="1184" ht="12.75" hidden="1">
-      <c r="A1184" s="6" t="s">
+      <c r="A1184" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1184" t="s">
         <v>1698</v>
       </c>
-      <c r="C1184" s="7" t="s">
+      <c r="C1184" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1184" s="1"/>
     </row>
     <row r="1185" ht="12.75" hidden="1">
-      <c r="A1185" s="6" t="s">
+      <c r="A1185" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1185" t="s">
         <v>1699</v>
       </c>
-      <c r="C1185" s="7" t="s">
+      <c r="C1185" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1185"/>
       <c r="G1185"/>
     </row>
     <row r="1186" ht="12.75" hidden="1">
-      <c r="A1186" s="6" t="s">
+      <c r="A1186" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1186" t="s">
         <v>1700</v>
       </c>
-      <c r="C1186" s="7" t="s">
+      <c r="C1186" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1186" s="1"/>
     </row>
     <row r="1187" ht="12.75" hidden="1">
-      <c r="A1187" s="6" t="s">
+      <c r="A1187" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="B1187" t="s">
         <v>1701</v>
       </c>
-      <c r="C1187" s="7" t="s">
+      <c r="C1187" s="6" t="s">
         <v>1682</v>
       </c>
       <c r="D1187"/>
       <c r="G1187"/>
     </row>
     <row r="1188" ht="12.75" hidden="1">
-      <c r="A1188" s="6" t="s">
+      <c r="A1188" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B1188" t="s">
         <v>1702</v>
       </c>
-      <c r="C1188" s="7" t="s">
+      <c r="C1188" s="6" t="s">
         <v>1703</v>
       </c>
       <c r="D1188" s="1"/>
     </row>
     <row r="1189" ht="12.75" hidden="1">
-      <c r="A1189" s="6" t="s">
+      <c r="A1189" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B1189" t="s">
@@ -21925,19 +21939,19 @@
       <c r="G1189"/>
     </row>
     <row r="1190" ht="12.75" hidden="1">
-      <c r="A1190" s="6" t="s">
+      <c r="A1190" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B1190" t="s">
         <v>1705</v>
       </c>
-      <c r="C1190" s="6" t="s">
+      <c r="C1190" s="5" t="s">
         <v>1703</v>
       </c>
       <c r="D1190" s="1"/>
     </row>
     <row r="1191" ht="12.75" hidden="1">
-      <c r="A1191" s="6" t="s">
+      <c r="A1191" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="B1191" t="s">
@@ -22000,7 +22014,7 @@
       <c r="G1195"/>
     </row>
     <row r="1196" ht="12.75">
-      <c r="A1196" s="7" t="s">
+      <c r="A1196" s="6" t="s">
         <v>1707</v>
       </c>
       <c r="B1196" t="s">
@@ -22303,10 +22317,10 @@
       <c r="A1220" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="B1220" s="7" t="s">
+      <c r="B1220" s="6" t="s">
         <v>1756</v>
       </c>
-      <c r="C1220" s="7" t="s">
+      <c r="C1220" s="6" t="s">
         <v>1738</v>
       </c>
       <c r="D1220" s="1"/>
@@ -22415,10 +22429,10 @@
       <c r="A1229" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="B1229" s="7" t="s">
+      <c r="B1229" s="6" t="s">
         <v>1764</v>
       </c>
-      <c r="C1229" s="7" t="s">
+      <c r="C1229" s="6" t="s">
         <v>1765</v>
       </c>
       <c r="D1229" s="1"/>
@@ -22449,7 +22463,7 @@
       <c r="D1231" s="1"/>
     </row>
     <row r="1232" ht="12.75">
-      <c r="A1232" s="6" t="s">
+      <c r="A1232" s="5" t="s">
         <v>1707</v>
       </c>
       <c r="B1232" t="s">
@@ -22462,7 +22476,7 @@
       <c r="G1232"/>
     </row>
     <row r="1233" ht="12.75">
-      <c r="A1233" s="6" t="s">
+      <c r="A1233" s="5" t="s">
         <v>1707</v>
       </c>
       <c r="B1233" t="s">
@@ -22474,7 +22488,7 @@
       <c r="D1233" s="1"/>
     </row>
     <row r="1234" ht="12.75">
-      <c r="A1234" s="6" t="s">
+      <c r="A1234" s="5" t="s">
         <v>1707</v>
       </c>
       <c r="B1234" t="s">
@@ -22487,7 +22501,7 @@
       <c r="G1234"/>
     </row>
     <row r="1235" ht="12.75">
-      <c r="A1235" s="6" t="s">
+      <c r="A1235" s="5" t="s">
         <v>1707</v>
       </c>
       <c r="B1235" t="s">
@@ -22598,7 +22612,7 @@
       <c r="A1244" t="s">
         <v>1782</v>
       </c>
-      <c r="B1244" s="6" t="s">
+      <c r="B1244" s="5" t="s">
         <v>1572</v>
       </c>
       <c r="C1244" t="s">
@@ -22632,7 +22646,7 @@
       <c r="D1246" s="1"/>
     </row>
     <row r="1247" ht="12.75" hidden="1">
-      <c r="A1247" s="6" t="s">
+      <c r="A1247" s="5" t="s">
         <v>1782</v>
       </c>
       <c r="B1247" s="1" t="s">
@@ -22648,7 +22662,7 @@
       <c r="A1248" t="s">
         <v>1782</v>
       </c>
-      <c r="B1248" s="6" t="s">
+      <c r="B1248" s="5" t="s">
         <v>1573</v>
       </c>
       <c r="C1248" t="s">
@@ -22682,7 +22696,7 @@
       <c r="D1250" s="1"/>
     </row>
     <row r="1251" ht="12.75" hidden="1">
-      <c r="A1251" s="6" t="s">
+      <c r="A1251" s="5" t="s">
         <v>1782</v>
       </c>
       <c r="B1251" t="s">
@@ -22698,7 +22712,7 @@
       <c r="A1252" t="s">
         <v>1782</v>
       </c>
-      <c r="B1252" s="6" t="s">
+      <c r="B1252" s="5" t="s">
         <v>1578</v>
       </c>
       <c r="C1252" t="s">
@@ -22726,13 +22740,13 @@
       <c r="B1254" t="s">
         <v>1793</v>
       </c>
-      <c r="C1254" s="6" t="s">
+      <c r="C1254" s="5" t="s">
         <v>423</v>
       </c>
       <c r="D1254" s="1"/>
     </row>
     <row r="1255" ht="12.75" hidden="1">
-      <c r="A1255" s="6" t="s">
+      <c r="A1255" s="5" t="s">
         <v>1782</v>
       </c>
       <c r="B1255" s="1" t="s">
@@ -22750,20 +22764,20 @@
       <c r="B1256" t="s">
         <v>1796</v>
       </c>
-      <c r="C1256" s="6" t="s">
+      <c r="C1256" s="5" t="s">
         <v>423</v>
       </c>
       <c r="D1256" s="1"/>
       <c r="G1256" s="1"/>
     </row>
     <row r="1257" ht="12.75" hidden="1">
-      <c r="A1257" s="6" t="s">
+      <c r="A1257" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="B1257" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="C1257" s="6" t="s">
+      <c r="C1257" s="5" t="s">
         <v>423</v>
       </c>
       <c r="D1257"/>
@@ -22778,7 +22792,7 @@
       <c r="D1258" s="1"/>
     </row>
     <row r="1259" ht="12.75" hidden="1">
-      <c r="A1259" s="6" t="s">
+      <c r="A1259" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1259" s="1" t="s">
@@ -22837,7 +22851,7 @@
       <c r="G1263"/>
     </row>
     <row r="1264" ht="12.75" hidden="1">
-      <c r="A1264" s="6" t="s">
+      <c r="A1264" s="5" t="s">
         <v>1638</v>
       </c>
       <c r="B1264" t="s">
@@ -22849,7 +22863,7 @@
       <c r="D1264" s="1"/>
     </row>
     <row r="1265" ht="12.75" hidden="1">
-      <c r="A1265" s="7" t="s">
+      <c r="A1265" s="6" t="s">
         <v>1806</v>
       </c>
       <c r="B1265" t="s">
@@ -22862,10 +22876,10 @@
       <c r="G1265"/>
     </row>
     <row r="1266" ht="12.75" hidden="1">
-      <c r="A1266" s="7" t="s">
+      <c r="A1266" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1266" s="7" t="s">
+      <c r="B1266" s="6" t="s">
         <v>1809</v>
       </c>
       <c r="C1266" t="s">
@@ -22874,10 +22888,10 @@
       <c r="D1266" s="1"/>
     </row>
     <row r="1267" ht="12.75" hidden="1">
-      <c r="A1267" s="7" t="s">
+      <c r="A1267" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1267" s="7" t="s">
+      <c r="B1267" s="6" t="s">
         <v>1810</v>
       </c>
       <c r="C1267" t="s">
@@ -22887,10 +22901,10 @@
       <c r="G1267"/>
     </row>
     <row r="1268" ht="12.75" hidden="1">
-      <c r="A1268" s="7" t="s">
+      <c r="A1268" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1268" s="7" t="s">
+      <c r="B1268" s="6" t="s">
         <v>1811</v>
       </c>
       <c r="C1268" t="s">
@@ -22899,10 +22913,10 @@
       <c r="D1268" s="1"/>
     </row>
     <row r="1269" ht="12.75" hidden="1">
-      <c r="A1269" s="7" t="s">
+      <c r="A1269" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1269" s="7" t="s">
+      <c r="B1269" s="6" t="s">
         <v>1812</v>
       </c>
       <c r="C1269" t="s">
@@ -22912,10 +22926,10 @@
       <c r="G1269"/>
     </row>
     <row r="1270" ht="12.75" hidden="1">
-      <c r="A1270" s="7" t="s">
+      <c r="A1270" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1270" s="7" t="s">
+      <c r="B1270" s="6" t="s">
         <v>1097</v>
       </c>
       <c r="C1270" t="s">
@@ -22924,10 +22938,10 @@
       <c r="D1270" s="1"/>
     </row>
     <row r="1271" ht="12.75" hidden="1">
-      <c r="A1271" s="7" t="s">
+      <c r="A1271" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1271" s="7" t="s">
+      <c r="B1271" s="6" t="s">
         <v>1814</v>
       </c>
       <c r="C1271" t="s">
@@ -22937,10 +22951,10 @@
       <c r="G1271"/>
     </row>
     <row r="1272" ht="12.75" hidden="1">
-      <c r="A1272" s="7" t="s">
+      <c r="A1272" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1272" s="7" t="s">
+      <c r="B1272" s="6" t="s">
         <v>1815</v>
       </c>
       <c r="C1272" t="s">
@@ -22949,10 +22963,10 @@
       <c r="D1272" s="1"/>
     </row>
     <row r="1273" ht="12.75" hidden="1">
-      <c r="A1273" s="7" t="s">
+      <c r="A1273" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1273" s="7" t="s">
+      <c r="B1273" s="6" t="s">
         <v>1817</v>
       </c>
       <c r="C1273" t="s">
@@ -22962,10 +22976,10 @@
       <c r="G1273"/>
     </row>
     <row r="1274" ht="12.75" hidden="1">
-      <c r="A1274" s="7" t="s">
+      <c r="A1274" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1274" s="7" t="s">
+      <c r="B1274" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C1274" t="s">
@@ -22974,7 +22988,7 @@
       <c r="D1274" s="1"/>
     </row>
     <row r="1275" ht="12.75" hidden="1">
-      <c r="A1275" s="7" t="s">
+      <c r="A1275" s="6" t="s">
         <v>1806</v>
       </c>
       <c r="B1275" t="s">
@@ -22985,10 +22999,10 @@
       <c r="G1275"/>
     </row>
     <row r="1276" ht="12.75" hidden="1">
-      <c r="A1276" s="7" t="s">
+      <c r="A1276" s="6" t="s">
         <v>1806</v>
       </c>
-      <c r="B1276" s="7" t="s">
+      <c r="B1276" s="6" t="s">
         <v>1822</v>
       </c>
       <c r="C1276" t="s">
@@ -23022,22 +23036,40 @@
       <c r="D1278" s="1"/>
     </row>
     <row r="1279" ht="12.75">
-      <c r="A1279"/>
-      <c r="B1279"/>
-      <c r="C1279"/>
+      <c r="A1279" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>1826</v>
+      </c>
       <c r="D1279"/>
       <c r="G1279"/>
     </row>
-    <row r="1280" ht="12.75">
-      <c r="A1280"/>
-      <c r="B1280"/>
-      <c r="C1280"/>
+    <row r="1280" ht="12.75" hidden="1">
+      <c r="A1280" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1828</v>
+      </c>
       <c r="D1280" s="1"/>
     </row>
     <row r="1281" ht="12.75">
-      <c r="A1281"/>
-      <c r="B1281"/>
-      <c r="C1281"/>
+      <c r="A1281" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>1830</v>
+      </c>
       <c r="D1281"/>
       <c r="G1281"/>
     </row>
@@ -25518,10 +25550,10 @@
       <c r="A2632"/>
     </row>
     <row r="2633" ht="12.75">
-      <c r="A2633" s="6"/>
+      <c r="A2633" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1278">
+  <autoFilter ref="A1:C1281">
     <filterColumn colId="0">
       <filters>
         <filter val="(Genre) CityPop"/>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1883">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -5666,6 +5666,9 @@
   </si>
   <si>
     <t xml:space="preserve">Big Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Book</t>
   </si>
 </sst>
 </file>
@@ -23939,7 +23942,9 @@
       <c r="A1338" s="15" t="s">
         <v>1875</v>
       </c>
-      <c r="B1338"/>
+      <c r="B1338" t="s">
+        <v>1882</v>
+      </c>
       <c r="C1338" t="s">
         <v>1765</v>
       </c>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -10,7 +10,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1381</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1966">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -5419,97 +5419,112 @@
     <t xml:space="preserve">(Genre) FutureFunk</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCE VAI X 150BPM [[DJ RAMEMES &amp; MAFFALDA &amp; VHOOR]]</t>
+    <t>Imperfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sui Usi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lordsun - 「手さぐりの b r e a k」</t>
   </si>
   <si>
     <t xml:space="preserve">(Themed) Música Proletária</t>
   </si>
   <si>
-    <t xml:space="preserve">O Que É O Que É?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admirável Gado Novo</t>
+    <t xml:space="preserve">コンピュータサイバー魂PC'86 - OPEN UP YOUR HEART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasuha - Flyday Chinatown (Night Tempo Edit)</t>
   </si>
   <si>
     <t xml:space="preserve">Zé Ramalho</t>
   </si>
   <si>
-    <t>Construção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish Cow Vem Jogando A Xerequinha</t>
+    <t xml:space="preserve">Alpha Centauri - C:/This Feelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Shop - Crush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desired - Never Fall In Love Again (ft. コンシャスTHOUGHTS)</t>
   </si>
   <si>
     <t xml:space="preserve">(Genre) Samba &amp; Pagode</t>
   </si>
   <si>
-    <t xml:space="preserve">A Subida do Morro</t>
+    <t xml:space="preserve">Tendencies - I Need You</t>
   </si>
   <si>
     <t xml:space="preserve">Os Originais do Samba</t>
   </si>
   <si>
-    <t xml:space="preserve">Feijoada Completa</t>
-  </si>
-  <si>
-    <t>Maneiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E Vamos a Luta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu ébano</t>
+    <t xml:space="preserve">ceruleancerise - Lightspeed Love (愛の光速)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカヅキBIGWAVE- Dance with Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ナニダトnanidato - SUPER RISER!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Tempo - しましょう! Do It! </t>
   </si>
   <si>
     <t>Alcione</t>
   </si>
   <si>
-    <t xml:space="preserve">Corra E Olhe O Céu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Carol Bela</t>
+    <t xml:space="preserve">マクロスMACROSS 82-99 - Fun Tonight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aritus - Keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Girlfriend 音楽 &amp; ミカヅキBIGWAVE - Magical Funk にキスを</t>
   </si>
   <si>
     <t xml:space="preserve">Jorge Ben</t>
   </si>
   <si>
-    <t xml:space="preserve">Mais que Nada</t>
+    <t xml:space="preserve">Skibblez - Sky Romance 空のロマンス (w/ Night Tempo)</t>
   </si>
   <si>
     <t xml:space="preserve">Sergio Mendes</t>
   </si>
   <si>
-    <t xml:space="preserve">Cada Lugar na Sua Coisa</t>
+    <t xml:space="preserve">ローマンRoman - Let's Boogie! (Get Up!)</t>
   </si>
   <si>
     <t xml:space="preserve">Sergio Sampaio</t>
   </si>
   <si>
-    <t xml:space="preserve">Os Ticoas - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samba de Minha Terra</t>
+    <t xml:space="preserve">Agrume - Ah! Ah!Ah! Ah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnTgry - DANCE!</t>
   </si>
   <si>
     <t xml:space="preserve">João Gilberto</t>
   </si>
   <si>
-    <t xml:space="preserve">Hatsu Koi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Blue </t>
+    <t xml:space="preserve">Testa Rossa - Midnight Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anri - Windy Summer (Night Tempo Edit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT PEPSI - SKYLAR SPENCE</t>
   </si>
   <si>
     <t xml:space="preserve">Bread and Butter</t>
   </si>
   <si>
-    <t>Fresh</t>
+    <t xml:space="preserve">TANUKI - BABYBABYの夢</t>
   </si>
   <si>
     <t xml:space="preserve">Kool &amp; the Gang</t>
   </si>
   <si>
-    <t xml:space="preserve">Itsuka Yurarete Toi Kuni</t>
+    <t xml:space="preserve">Sui Usi - Hide and Seek</t>
   </si>
   <si>
     <t xml:space="preserve">Mioko Yamaguchi</t>
@@ -5518,46 +5533,46 @@
     <t xml:space="preserve">(This is ...) Inti Illimani</t>
   </si>
   <si>
-    <t xml:space="preserve">La segunda independencia</t>
+    <t xml:space="preserve">SAINT PEPSI - Cherry Pepsi</t>
   </si>
   <si>
     <t xml:space="preserve">Inti Illimani</t>
   </si>
   <si>
-    <t xml:space="preserve">Lo Que Mas Quiero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Exiliada De Sur</t>
-  </si>
-  <si>
-    <t>Huajra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alturas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiesta de san Benito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rin del Angelito</t>
-  </si>
-  <si>
-    <t>Ramis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calambito Temucano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Partida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor de Sancayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensemaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bailando, bailando</t>
+    <t xml:space="preserve">悲しい ANDROID - APARTMENT¶ - リスニング「９４。２０ＡＭ」in The Night's Dream Highway feat. コンシャスTHOUGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Tempo - Give Me Up (100% Pure Remastered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANTAGE // - 50//50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sui Usi - Feel Me                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNG BAE - Don't Say Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUNG BAE - It's a Party!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Tempo - Takako Mamiya - Mayonaka No Joke (Night Tempo 100- Pure Remastered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoBKTA - Da Trooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Television - Summer of George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT PEPSI - Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカヅキBIGWAVE - Stardust Disco 星屑ディスコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNG BAE - Anibabe</t>
   </si>
   <si>
     <t xml:space="preserve">Señora chichera</t>
@@ -5669,6 +5684,240 @@
   </si>
   <si>
     <t xml:space="preserve">Music Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「手さぐりの b r e a k」</t>
+  </si>
+  <si>
+    <t>lordsun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN UP YOUR HEART</t>
+  </si>
+  <si>
+    <t>コンピュータサイバー魂PC'86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyday Chinatown (Night Tempo Edit)</t>
+  </si>
+  <si>
+    <t>Anibabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNG BAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Say Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:/This Feelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha Centauri</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never Fall In Love Again (ft. コンシャスTHOUGHTS)</t>
+  </si>
+  <si>
+    <t>Desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Need You</t>
+  </si>
+  <si>
+    <t>Tendencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightspeed Love (愛の光速)</t>
+  </si>
+  <si>
+    <t>ceruleancerise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance with Me</t>
+  </si>
+  <si>
+    <t>ミカヅキBIGWAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER RISER!</t>
+  </si>
+  <si>
+    <t>ナニダトnanidato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">しましょう! Do It! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マクロスMACROSS 82-99</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Aritus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Girlfriend 音楽 &amp; ミカヅキBIGWAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical Funk にキスを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Romance 空のロマンス (w/ Night Tempo)</t>
+  </si>
+  <si>
+    <t>Skibblez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's Boogie! (Get Up!)</t>
+  </si>
+  <si>
+    <t>ローマンRoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah! Ah!Ah! Ah!</t>
+  </si>
+  <si>
+    <t>Agrume</t>
+  </si>
+  <si>
+    <t>DANCE!</t>
+  </si>
+  <si>
+    <t>AnTgry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midnight Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testa Rossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windy Summer (Night Tempo Edit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKYLAR SPENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT PEPSI</t>
+  </si>
+  <si>
+    <t>BABYBABYの夢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANUKI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide and Seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry Pepsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「９４。２０ＡＭ」in The Night's Dream Highway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悲しい ANDROID - APARTMENT¶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give Me Up (100% Pure Remastered)</t>
+  </si>
+  <si>
+    <t>50//50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANTAGE //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a Party!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUNG BAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonaka No Joke (Night Tempo 100- Pure Remastered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Trooper</t>
+  </si>
+  <si>
+    <t>RoBKTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer of George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Television</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust Disco 星屑ディスコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Genre) R&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Like It</t>
+  </si>
+  <si>
+    <t>DeBarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Night Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Jeane Girls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mint Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Telephone Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Scrubs</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Say My Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destiny's Child</t>
+  </si>
+  <si>
+    <t>Merry-Go-Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Screamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning Glory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Talking</t>
   </si>
 </sst>
 </file>
@@ -5786,10 +6035,10 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -6313,7 +6562,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="28.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="36.8515625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="50.57421875"/>
     <col customWidth="1" min="3" max="3" style="1" width="40.8515625"/>
     <col customWidth="1" min="4" max="4" style="1" width="28.8515625"/>
     <col min="5" max="16384" style="1" width="9.140625"/>
@@ -22959,8 +23208,12 @@
       <c r="A1258" s="12" t="s">
         <v>1798</v>
       </c>
-      <c r="B1258"/>
-      <c r="C1258"/>
+      <c r="B1258" s="15" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1258" s="15" t="s">
+        <v>1800</v>
+      </c>
       <c r="D1258" s="1"/>
     </row>
     <row r="1259" ht="12.75" hidden="1">
@@ -22968,7 +23221,7 @@
         <v>1638</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="C1259" s="1" t="s">
         <v>1640</v>
@@ -22978,10 +23231,10 @@
     </row>
     <row r="1260" ht="12.75" hidden="1">
       <c r="A1260" s="6" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B1260" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="C1260" t="s">
         <v>1515</v>
@@ -22990,31 +23243,33 @@
     </row>
     <row r="1261" ht="12.75" hidden="1">
       <c r="A1261" s="6" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B1261" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C1261" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D1261"/>
       <c r="G1261"/>
     </row>
     <row r="1262" ht="12.75" hidden="1">
       <c r="A1262" s="6" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B1262"/>
+        <v>1802</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1806</v>
+      </c>
       <c r="C1262"/>
       <c r="D1262" s="1"/>
     </row>
     <row r="1263" ht="12.75" hidden="1">
       <c r="A1263" s="6" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B1263" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C1263" t="s">
         <v>432</v>
@@ -23027,7 +23282,7 @@
         <v>1638</v>
       </c>
       <c r="B1264" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="C1264" s="1" t="s">
         <v>1640</v>
@@ -23036,23 +23291,23 @@
     </row>
     <row r="1265" ht="12.75" hidden="1">
       <c r="A1265" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1265" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C1265" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D1265"/>
       <c r="G1265"/>
     </row>
     <row r="1266" ht="12.75" hidden="1">
       <c r="A1266" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1266" s="11" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="C1266" t="s">
         <v>432</v>
@@ -23061,10 +23316,10 @@
     </row>
     <row r="1267" ht="12.75" hidden="1">
       <c r="A1267" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1267" s="11" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C1267" t="s">
         <v>1087</v>
@@ -23074,10 +23329,10 @@
     </row>
     <row r="1268" ht="12.75" hidden="1">
       <c r="A1268" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1268" s="11" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="C1268" t="s">
         <v>497</v>
@@ -23086,23 +23341,23 @@
     </row>
     <row r="1269" ht="12.75" hidden="1">
       <c r="A1269" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1269" s="11" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="C1269" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D1269"/>
       <c r="G1269"/>
     </row>
     <row r="1270" ht="12.75" hidden="1">
       <c r="A1270" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1270" s="11" t="s">
-        <v>1097</v>
+        <v>1817</v>
       </c>
       <c r="C1270" t="s">
         <v>1098</v>
@@ -23111,10 +23366,10 @@
     </row>
     <row r="1271" ht="12.75" hidden="1">
       <c r="A1271" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1271" s="11" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="C1271" t="s">
         <v>126</v>
@@ -23124,47 +23379,47 @@
     </row>
     <row r="1272" ht="12.75" hidden="1">
       <c r="A1272" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1272" s="11" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="C1272" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="D1272" s="1"/>
     </row>
     <row r="1273" ht="12.75" hidden="1">
       <c r="A1273" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1273" s="11" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="C1273" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="D1273"/>
       <c r="G1273"/>
     </row>
     <row r="1274" ht="12.75" hidden="1">
       <c r="A1274" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1274" s="11" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="C1274" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="D1274" s="1"/>
     </row>
     <row r="1275" ht="12.75" hidden="1">
       <c r="A1275" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1275" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="C1275"/>
       <c r="D1275"/>
@@ -23172,22 +23427,22 @@
     </row>
     <row r="1276" ht="12.75" hidden="1">
       <c r="A1276" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1276" s="11" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="C1276" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D1276" s="1"/>
     </row>
     <row r="1277" ht="12.75" hidden="1">
       <c r="A1277" s="6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1277" t="s">
-        <v>1815</v>
+        <v>1828</v>
       </c>
       <c r="C1277" t="s">
         <v>423</v>
@@ -23200,7 +23455,7 @@
         <v>1707</v>
       </c>
       <c r="B1278" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="C1278" t="s">
         <v>1738</v>
@@ -23212,10 +23467,10 @@
         <v>1707</v>
       </c>
       <c r="B1279" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="C1279" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="D1279"/>
       <c r="G1279"/>
@@ -23225,10 +23480,10 @@
         <v>1317</v>
       </c>
       <c r="B1280" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="C1280" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="D1280" s="1"/>
     </row>
@@ -23237,252 +23492,252 @@
         <v>1707</v>
       </c>
       <c r="B1281" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="C1281" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="D1281"/>
       <c r="G1281"/>
     </row>
     <row r="1282" ht="12.75" hidden="1">
       <c r="A1282" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1282" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="C1282" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1282" s="11"/>
       <c r="G1282" s="11"/>
     </row>
     <row r="1283" ht="12.75" hidden="1">
-      <c r="A1283" s="15" t="s">
-        <v>1831</v>
+      <c r="A1283" s="16" t="s">
+        <v>1836</v>
       </c>
       <c r="B1283" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="C1283" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1283" s="1"/>
     </row>
     <row r="1284" ht="12.75" hidden="1">
       <c r="A1284" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1284" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="C1284" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1284"/>
       <c r="G1284"/>
     </row>
     <row r="1285" ht="12.75" hidden="1">
       <c r="A1285" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1285" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="C1285" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1285" s="1"/>
     </row>
     <row r="1286" ht="12.75" hidden="1">
       <c r="A1286" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
       <c r="C1286" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1286"/>
       <c r="G1286"/>
     </row>
     <row r="1287" ht="12.75" hidden="1">
       <c r="A1287" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1287" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1287" t="s">
         <v>1838</v>
-      </c>
-      <c r="C1287" t="s">
-        <v>1833</v>
       </c>
       <c r="D1287" s="1"/>
     </row>
     <row r="1288" ht="12.75" hidden="1">
       <c r="A1288" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1288" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="C1288" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1288"/>
       <c r="G1288"/>
     </row>
     <row r="1289" ht="12.75" hidden="1">
       <c r="A1289" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1289" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="C1289" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1289"/>
       <c r="G1289"/>
     </row>
     <row r="1290" ht="12.75" hidden="1">
       <c r="A1290" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1290" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
       <c r="C1290" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1290" s="1"/>
     </row>
     <row r="1291" ht="12.75" hidden="1">
       <c r="A1291" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1291" t="s">
-        <v>1842</v>
+        <v>1847</v>
       </c>
       <c r="C1291" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1291"/>
       <c r="G1291"/>
     </row>
     <row r="1292" ht="12.75" hidden="1">
       <c r="A1292" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1292" t="s">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="C1292" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1292" s="1"/>
     </row>
     <row r="1293" ht="12.75" hidden="1">
       <c r="A1293" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1293" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="C1293" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1293"/>
       <c r="G1293"/>
     </row>
     <row r="1294" ht="12.75" hidden="1">
       <c r="A1294" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1294" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="C1294" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1294" s="1"/>
     </row>
     <row r="1295" ht="12.75" hidden="1">
       <c r="A1295" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1295" s="11" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="C1295" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1295"/>
       <c r="G1295"/>
     </row>
     <row r="1296" ht="12.75" hidden="1">
       <c r="A1296" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1296" s="11" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C1296" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1296" s="1"/>
     </row>
     <row r="1297" ht="12.75" hidden="1">
       <c r="A1297" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1297" s="11" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="C1297" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1297"/>
       <c r="G1297"/>
     </row>
     <row r="1298" ht="12.75" hidden="1">
       <c r="A1298" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1298" s="11"/>
       <c r="C1298" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1298" s="1"/>
     </row>
     <row r="1299" ht="12.75" hidden="1">
       <c r="A1299" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1299" s="11"/>
       <c r="C1299" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1299"/>
       <c r="G1299"/>
     </row>
     <row r="1300" ht="12.75" hidden="1">
       <c r="A1300" s="6" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="B1300" s="11"/>
       <c r="C1300" s="8" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="D1300" s="1"/>
     </row>
     <row r="1301" ht="12.75" hidden="1">
       <c r="A1301" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1301" t="s">
-        <v>1850</v>
+        <v>1855</v>
       </c>
       <c r="C1301" t="s">
         <v>1201</v>
@@ -23492,10 +23747,10 @@
     </row>
     <row r="1302" ht="12.75" hidden="1">
       <c r="A1302" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1302" t="s">
-        <v>1851</v>
+        <v>1856</v>
       </c>
       <c r="C1302" t="s">
         <v>1201</v>
@@ -23505,10 +23760,10 @@
     </row>
     <row r="1303" ht="12.75" hidden="1">
       <c r="A1303" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1303" t="s">
-        <v>1852</v>
+        <v>1857</v>
       </c>
       <c r="C1303" s="8" t="s">
         <v>1201</v>
@@ -23517,10 +23772,10 @@
     </row>
     <row r="1304" ht="12.75" hidden="1">
       <c r="A1304" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1304" t="s">
-        <v>1853</v>
+        <v>1858</v>
       </c>
       <c r="C1304" s="8" t="s">
         <v>1201</v>
@@ -23530,10 +23785,10 @@
     </row>
     <row r="1305" ht="12.75" hidden="1">
       <c r="A1305" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1305" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="C1305" s="8" t="s">
         <v>1201</v>
@@ -23542,10 +23797,10 @@
     </row>
     <row r="1306" ht="12.75" hidden="1">
       <c r="A1306" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1306" t="s">
-        <v>1855</v>
+        <v>1860</v>
       </c>
       <c r="C1306" s="8" t="s">
         <v>1201</v>
@@ -23555,10 +23810,10 @@
     </row>
     <row r="1307" ht="12.75" hidden="1">
       <c r="A1307" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1307" t="s">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="C1307" s="8" t="s">
         <v>1201</v>
@@ -23567,10 +23822,10 @@
     </row>
     <row r="1308" ht="12.75" hidden="1">
       <c r="A1308" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1308" t="s">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="C1308" s="8" t="s">
         <v>1201</v>
@@ -23580,10 +23835,10 @@
     </row>
     <row r="1309" ht="12.75" hidden="1">
       <c r="A1309" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1309" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
       <c r="C1309" s="8" t="s">
         <v>1201</v>
@@ -23593,10 +23848,10 @@
     </row>
     <row r="1310" ht="12.75" hidden="1">
       <c r="A1310" s="6" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B1310" t="s">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="C1310" s="8" t="s">
         <v>1201</v>
@@ -23605,23 +23860,23 @@
     </row>
     <row r="1311" ht="12.75" hidden="1">
       <c r="A1311" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1311" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="C1311" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="D1311"/>
       <c r="G1311"/>
     </row>
     <row r="1312" ht="12.75" hidden="1">
       <c r="A1312" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1312" t="s">
-        <v>1850</v>
+        <v>1855</v>
       </c>
       <c r="C1312" t="s">
         <v>1201</v>
@@ -23631,23 +23886,23 @@
     </row>
     <row r="1313" ht="12.75" hidden="1">
       <c r="A1313" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1313" s="11" t="s">
         <v>521</v>
       </c>
       <c r="C1313" s="11" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="D1313" s="1"/>
       <c r="G1313" s="1"/>
     </row>
     <row r="1314" ht="12.75" hidden="1">
       <c r="A1314" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1314" t="s">
-        <v>1851</v>
+        <v>1856</v>
       </c>
       <c r="C1314" s="8" t="s">
         <v>1201</v>
@@ -23657,10 +23912,10 @@
     </row>
     <row r="1315" ht="12.75" hidden="1">
       <c r="A1315" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1315" s="11" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="C1315" s="8" t="s">
         <v>514</v>
@@ -23670,10 +23925,10 @@
     </row>
     <row r="1316" ht="12.75" hidden="1">
       <c r="A1316" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1316" t="s">
-        <v>1852</v>
+        <v>1857</v>
       </c>
       <c r="C1316" s="8" t="s">
         <v>1201</v>
@@ -23682,22 +23937,22 @@
     </row>
     <row r="1317" ht="12.75" hidden="1">
       <c r="A1317" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1317" s="11" t="s">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="C1317" s="8" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="D1317" s="1"/>
     </row>
     <row r="1318" ht="12.75" hidden="1">
       <c r="A1318" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1318" t="s">
-        <v>1853</v>
+        <v>1858</v>
       </c>
       <c r="C1318" s="8" t="s">
         <v>1201</v>
@@ -23707,23 +23962,23 @@
     </row>
     <row r="1319" ht="12.75" hidden="1">
       <c r="A1319" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1319" s="11" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="C1319" s="8" t="s">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="D1319" s="11"/>
       <c r="G1319" s="11"/>
     </row>
     <row r="1320" ht="12.75" hidden="1">
       <c r="A1320" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1320" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="C1320" s="8" t="s">
         <v>1201</v>
@@ -23732,22 +23987,22 @@
     </row>
     <row r="1321" ht="12.75" hidden="1">
       <c r="A1321" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1321" s="11" t="s">
-        <v>1868</v>
+        <v>1873</v>
       </c>
       <c r="C1321" s="8" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="D1321" s="1"/>
     </row>
     <row r="1322" ht="12.75" hidden="1">
       <c r="A1322" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1322" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>1855</v>
       </c>
       <c r="C1322" s="8" t="s">
         <v>1201</v>
@@ -23757,23 +24012,23 @@
     </row>
     <row r="1323" ht="12.75" hidden="1">
       <c r="A1323" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1323" s="11" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="C1323" s="8" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="D1323" s="11"/>
       <c r="G1323" s="11"/>
     </row>
     <row r="1324" ht="12.75" hidden="1">
       <c r="A1324" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1324" t="s">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="C1324" s="8" t="s">
         <v>1201</v>
@@ -23782,22 +24037,22 @@
     </row>
     <row r="1325" ht="12.75" hidden="1">
       <c r="A1325" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1325" s="11" t="s">
         <v>1116</v>
       </c>
       <c r="C1325" s="8" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="D1325" s="1"/>
     </row>
     <row r="1326" ht="12.75" hidden="1">
       <c r="A1326" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1326" t="s">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="C1326" s="8" t="s">
         <v>1201</v>
@@ -23807,23 +24062,23 @@
     </row>
     <row r="1327" ht="12.75" hidden="1">
       <c r="A1327" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1327" s="11" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="C1327" s="8" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="D1327" s="11"/>
       <c r="G1327" s="11"/>
     </row>
     <row r="1328" ht="12.75" hidden="1">
       <c r="A1328" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1328" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
       <c r="C1328" s="8" t="s">
         <v>1201</v>
@@ -23832,7 +24087,7 @@
     </row>
     <row r="1329" ht="12.75" hidden="1">
       <c r="A1329" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1329"/>
       <c r="C1329" s="8"/>
@@ -23840,10 +24095,10 @@
     </row>
     <row r="1330" ht="12.75" hidden="1">
       <c r="A1330" s="6" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B1330" t="s">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="C1330" s="8" t="s">
         <v>1201</v>
@@ -23853,10 +24108,10 @@
     </row>
     <row r="1331" ht="12.75" hidden="1">
       <c r="A1331" s="7" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1331" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="C1331" t="s">
         <v>1504</v>
@@ -23864,11 +24119,11 @@
       <c r="D1331" s="1"/>
     </row>
     <row r="1332" ht="12.75">
-      <c r="A1332" s="15" t="s">
-        <v>1875</v>
+      <c r="A1332" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1332" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="C1332" t="s">
         <v>1765</v>
@@ -23877,11 +24132,11 @@
       <c r="G1332"/>
     </row>
     <row r="1333" ht="12.75">
-      <c r="A1333" s="15" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1333" s="16" t="s">
-        <v>1877</v>
+      <c r="A1333" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1333" s="15" t="s">
+        <v>1882</v>
       </c>
       <c r="C1333" t="s">
         <v>1765</v>
@@ -23889,11 +24144,11 @@
       <c r="D1333" s="1"/>
     </row>
     <row r="1334" ht="12.75">
-      <c r="A1334" s="15" t="s">
-        <v>1875</v>
+      <c r="A1334" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1334" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="C1334" t="s">
         <v>1765</v>
@@ -23902,11 +24157,11 @@
       <c r="G1334"/>
     </row>
     <row r="1335" ht="12.75">
-      <c r="A1335" s="15" t="s">
-        <v>1875</v>
+      <c r="A1335" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1335" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="C1335" t="s">
         <v>1765</v>
@@ -23914,11 +24169,11 @@
       <c r="D1335" s="1"/>
     </row>
     <row r="1336" ht="12.75">
-      <c r="A1336" s="15" t="s">
-        <v>1875</v>
+      <c r="A1336" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1336" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C1336" t="s">
         <v>1765</v>
@@ -23927,11 +24182,11 @@
       <c r="G1336"/>
     </row>
     <row r="1337" ht="12.75">
-      <c r="A1337" s="15" t="s">
-        <v>1875</v>
+      <c r="A1337" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1337" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="C1337" t="s">
         <v>1765</v>
@@ -23939,11 +24194,11 @@
       <c r="D1337" s="1"/>
     </row>
     <row r="1338" ht="12.75">
-      <c r="A1338" s="15" t="s">
-        <v>1875</v>
+      <c r="A1338" s="16" t="s">
+        <v>1880</v>
       </c>
       <c r="B1338" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="C1338" t="s">
         <v>1765</v>
@@ -23951,1113 +24206,1373 @@
       <c r="D1338"/>
       <c r="G1338"/>
     </row>
-    <row r="1339" ht="12.75">
-      <c r="A1339" s="15" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1339"/>
-      <c r="C1339" t="s">
-        <v>1765</v>
+    <row r="1339" ht="12.75" hidden="1">
+      <c r="A1339" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1339" s="15" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1339" s="15" t="s">
+        <v>1889</v>
       </c>
       <c r="D1339" s="1"/>
     </row>
-    <row r="1340" ht="12.75">
-      <c r="A1340" s="15" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1340"/>
+    <row r="1340" ht="12.75" hidden="1">
+      <c r="A1340" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1340" s="15" t="s">
+        <v>1890</v>
+      </c>
       <c r="C1340" t="s">
-        <v>1765</v>
+        <v>1891</v>
       </c>
       <c r="D1340"/>
       <c r="G1340"/>
     </row>
-    <row r="1341" ht="12.75">
-      <c r="A1341" s="15" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1341"/>
+    <row r="1341" ht="12.75" hidden="1">
+      <c r="A1341" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1341" s="15" t="s">
+        <v>1892</v>
+      </c>
       <c r="C1341" t="s">
-        <v>1765</v>
+        <v>1727</v>
       </c>
       <c r="D1341" s="1"/>
     </row>
-    <row r="1342" ht="12.75">
-      <c r="A1342" s="15" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1342"/>
+    <row r="1342" ht="12.75" hidden="1">
+      <c r="A1342" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1342" s="15" t="s">
+        <v>1893</v>
+      </c>
       <c r="C1342" t="s">
-        <v>1765</v>
+        <v>1894</v>
       </c>
       <c r="D1342"/>
       <c r="G1342"/>
     </row>
-    <row r="1343" ht="12.75">
-      <c r="A1343" s="6"/>
-      <c r="B1343"/>
-      <c r="C1343"/>
+    <row r="1343" ht="12.75" hidden="1">
+      <c r="A1343" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1343" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>1894</v>
+      </c>
       <c r="D1343" s="1"/>
     </row>
-    <row r="1344" ht="12.75">
-      <c r="A1344" s="6"/>
-      <c r="B1344"/>
-      <c r="C1344"/>
+    <row r="1344" ht="12.75" hidden="1">
+      <c r="A1344" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1344" s="15" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>1897</v>
+      </c>
       <c r="D1344"/>
       <c r="G1344"/>
     </row>
-    <row r="1345" ht="12.75">
-      <c r="A1345" s="6"/>
-      <c r="B1345"/>
-      <c r="C1345"/>
+    <row r="1345" ht="12.75" hidden="1">
+      <c r="A1345" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>1899</v>
+      </c>
       <c r="D1345" s="1"/>
     </row>
-    <row r="1346" ht="12.75">
-      <c r="A1346" s="6"/>
-      <c r="B1346"/>
-      <c r="C1346"/>
+    <row r="1346" ht="12.75" hidden="1">
+      <c r="A1346" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1346" s="15" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>1901</v>
+      </c>
       <c r="D1346"/>
       <c r="G1346"/>
     </row>
-    <row r="1347" ht="12.75">
-      <c r="A1347" s="6"/>
-      <c r="B1347"/>
-      <c r="C1347"/>
+    <row r="1347" ht="12.75" hidden="1">
+      <c r="A1347" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1347" s="15" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>1903</v>
+      </c>
       <c r="D1347" s="1"/>
     </row>
-    <row r="1348" ht="12.75">
-      <c r="A1348" s="6"/>
-      <c r="B1348"/>
-      <c r="C1348"/>
+    <row r="1348" ht="12.75" hidden="1">
+      <c r="A1348" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1348" s="15" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>1905</v>
+      </c>
       <c r="D1348"/>
       <c r="G1348"/>
     </row>
-    <row r="1349" ht="12.75">
-      <c r="A1349" s="6"/>
-      <c r="B1349"/>
-      <c r="C1349"/>
+    <row r="1349" ht="12.75" hidden="1">
+      <c r="A1349" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1349" s="15" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>1907</v>
+      </c>
       <c r="D1349" s="1"/>
     </row>
-    <row r="1350" ht="12.75">
-      <c r="A1350" s="6"/>
-      <c r="B1350"/>
-      <c r="C1350"/>
+    <row r="1350" ht="12.75" hidden="1">
+      <c r="A1350" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1350" s="15" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C1350" s="15" t="s">
+        <v>1909</v>
+      </c>
       <c r="D1350"/>
       <c r="G1350"/>
     </row>
-    <row r="1351" ht="12.75">
-      <c r="A1351" s="6"/>
-      <c r="B1351"/>
-      <c r="C1351"/>
+    <row r="1351" ht="12.75" hidden="1">
+      <c r="A1351" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1351" s="15" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1351" s="15" t="s">
+        <v>1911</v>
+      </c>
       <c r="D1351" s="1"/>
     </row>
-    <row r="1352" ht="12.75">
-      <c r="A1352" s="6"/>
-      <c r="B1352"/>
-      <c r="C1352"/>
+    <row r="1352" ht="12.75" hidden="1">
+      <c r="A1352" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1352" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1352" s="15" t="s">
+        <v>1912</v>
+      </c>
       <c r="D1352"/>
       <c r="G1352"/>
     </row>
-    <row r="1353" ht="12.75">
-      <c r="A1353" s="6"/>
-      <c r="B1353"/>
-      <c r="C1353"/>
+    <row r="1353" ht="12.75" hidden="1">
+      <c r="A1353" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1353" s="15" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1353" s="15" t="s">
+        <v>1914</v>
+      </c>
       <c r="D1353" s="1"/>
     </row>
-    <row r="1354" ht="12.75">
-      <c r="A1354" s="6"/>
-      <c r="B1354"/>
-      <c r="C1354"/>
+    <row r="1354" ht="12.75" hidden="1">
+      <c r="A1354" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1354" s="15" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1354" s="15" t="s">
+        <v>1916</v>
+      </c>
       <c r="D1354"/>
       <c r="G1354"/>
     </row>
-    <row r="1355" ht="12.75">
-      <c r="A1355" s="6"/>
-      <c r="B1355"/>
-      <c r="C1355"/>
+    <row r="1355" ht="12.75" hidden="1">
+      <c r="A1355" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1355" s="15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1355" s="15" t="s">
+        <v>1918</v>
+      </c>
       <c r="D1355" s="1"/>
     </row>
-    <row r="1356" ht="12.75">
-      <c r="A1356" s="6"/>
-      <c r="B1356"/>
-      <c r="C1356"/>
+    <row r="1356" ht="12.75" hidden="1">
+      <c r="A1356" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1356" s="15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1356" s="15" t="s">
+        <v>1920</v>
+      </c>
       <c r="D1356"/>
       <c r="G1356"/>
     </row>
-    <row r="1357" ht="12.75">
-      <c r="A1357" s="6"/>
-      <c r="B1357"/>
-      <c r="C1357"/>
+    <row r="1357" ht="12.75" hidden="1">
+      <c r="A1357" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1357" s="15" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1357" s="15" t="s">
+        <v>1922</v>
+      </c>
       <c r="D1357" s="1"/>
     </row>
-    <row r="1358" ht="12.75">
-      <c r="A1358" s="6"/>
-      <c r="B1358"/>
-      <c r="C1358"/>
+    <row r="1358" ht="12.75" hidden="1">
+      <c r="A1358" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1358" s="15" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>1924</v>
+      </c>
       <c r="D1358"/>
       <c r="G1358"/>
     </row>
-    <row r="1359" ht="12.75">
-      <c r="A1359" s="6"/>
-      <c r="B1359"/>
-      <c r="C1359"/>
+    <row r="1359" ht="12.75" hidden="1">
+      <c r="A1359" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1359" s="15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1359" s="15" t="s">
+        <v>1926</v>
+      </c>
       <c r="D1359" s="1"/>
     </row>
-    <row r="1360" ht="12.75">
-      <c r="A1360" s="6"/>
-      <c r="B1360"/>
-      <c r="C1360"/>
+    <row r="1360" ht="12.75" hidden="1">
+      <c r="A1360" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1360" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>1751</v>
+      </c>
       <c r="D1360"/>
       <c r="G1360"/>
     </row>
-    <row r="1361" ht="12.75">
-      <c r="A1361" s="6"/>
-      <c r="B1361"/>
-      <c r="C1361"/>
+    <row r="1361" ht="12.75" hidden="1">
+      <c r="A1361" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1361" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1361" s="15" t="s">
+        <v>1929</v>
+      </c>
       <c r="D1361" s="1"/>
     </row>
-    <row r="1362" ht="12.75">
-      <c r="A1362" s="6"/>
-      <c r="B1362"/>
-      <c r="C1362"/>
+    <row r="1362" ht="12.75" hidden="1">
+      <c r="A1362" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1362" s="15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>1931</v>
+      </c>
       <c r="D1362"/>
       <c r="G1362"/>
     </row>
-    <row r="1363" ht="12.75">
-      <c r="A1363" s="6"/>
-      <c r="B1363"/>
-      <c r="C1363"/>
+    <row r="1363" ht="12.75" hidden="1">
+      <c r="A1363" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1363" s="15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>1800</v>
+      </c>
       <c r="D1363" s="1"/>
     </row>
-    <row r="1364" ht="12.75">
-      <c r="A1364" s="6"/>
-      <c r="B1364"/>
-      <c r="C1364"/>
+    <row r="1364" ht="12.75" hidden="1">
+      <c r="A1364" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1364" s="15" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1929</v>
+      </c>
       <c r="D1364"/>
       <c r="G1364"/>
     </row>
-    <row r="1365" ht="12.75">
-      <c r="A1365" s="6"/>
-      <c r="B1365"/>
-      <c r="C1365"/>
+    <row r="1365" ht="12.75" hidden="1">
+      <c r="A1365" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1365" s="15" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1935</v>
+      </c>
       <c r="D1365" s="1"/>
     </row>
-    <row r="1366" ht="12.75">
-      <c r="A1366" s="6"/>
-      <c r="B1366"/>
-      <c r="C1366"/>
+    <row r="1366" ht="12.75" hidden="1">
+      <c r="A1366" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1366" s="15" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1911</v>
+      </c>
       <c r="D1366"/>
       <c r="G1366"/>
     </row>
-    <row r="1367" ht="12.75">
-      <c r="A1367" s="6"/>
-      <c r="B1367"/>
-      <c r="C1367"/>
+    <row r="1367" ht="12.75" hidden="1">
+      <c r="A1367" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1367" s="15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>1938</v>
+      </c>
       <c r="D1367" s="1"/>
     </row>
-    <row r="1368" ht="12.75">
-      <c r="A1368" s="6"/>
-      <c r="B1368"/>
-      <c r="C1368"/>
+    <row r="1368" ht="12.75" hidden="1">
+      <c r="A1368" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1368" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1800</v>
+      </c>
       <c r="D1368"/>
       <c r="G1368"/>
     </row>
-    <row r="1369" ht="12.75">
-      <c r="A1369" s="6"/>
-      <c r="B1369"/>
-      <c r="C1369"/>
+    <row r="1369" ht="12.75" hidden="1">
+      <c r="A1369" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1369" s="15" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1941</v>
+      </c>
       <c r="D1369" s="1"/>
     </row>
-    <row r="1370" ht="12.75">
-      <c r="A1370" s="6"/>
-      <c r="B1370"/>
-      <c r="C1370"/>
+    <row r="1370" ht="12.75" hidden="1">
+      <c r="A1370" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1370" s="15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1758</v>
+      </c>
       <c r="D1370"/>
       <c r="G1370"/>
     </row>
-    <row r="1371" ht="12.75">
-      <c r="A1371" s="6"/>
-      <c r="B1371"/>
-      <c r="C1371"/>
+    <row r="1371" ht="12.75" hidden="1">
+      <c r="A1371" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1371" s="15" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1944</v>
+      </c>
       <c r="D1371" s="1"/>
     </row>
-    <row r="1372" ht="12.75">
-      <c r="A1372" s="6"/>
-      <c r="B1372"/>
-      <c r="C1372"/>
+    <row r="1372" ht="12.75" hidden="1">
+      <c r="A1372" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1372" s="15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1946</v>
+      </c>
       <c r="D1372"/>
       <c r="G1372"/>
     </row>
-    <row r="1373" ht="12.75">
-      <c r="A1373" s="6"/>
-      <c r="B1373"/>
-      <c r="C1373"/>
+    <row r="1373" ht="12.75" hidden="1">
+      <c r="A1373" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1373" s="15" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>1929</v>
+      </c>
       <c r="D1373" s="1"/>
     </row>
-    <row r="1374" ht="12.75">
-      <c r="A1374" s="6"/>
-      <c r="B1374"/>
-      <c r="C1374"/>
+    <row r="1374" ht="12.75" hidden="1">
+      <c r="A1374" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1374" s="15" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1374" s="15" t="s">
+        <v>1907</v>
+      </c>
       <c r="D1374"/>
       <c r="G1374"/>
     </row>
-    <row r="1375" ht="12.75">
-      <c r="A1375" s="6"/>
-      <c r="B1375"/>
-      <c r="C1375"/>
-      <c r="D1375" s="1"/>
-    </row>
-    <row r="1376" ht="12.75">
-      <c r="A1376" s="6"/>
-      <c r="B1376"/>
-      <c r="C1376"/>
-      <c r="D1376"/>
-      <c r="G1376"/>
-    </row>
-    <row r="1377" ht="12.75">
-      <c r="A1377" s="6"/>
-      <c r="B1377"/>
-      <c r="C1377"/>
-      <c r="D1377" s="1"/>
-    </row>
-    <row r="1378" ht="12.75">
-      <c r="A1378" s="6"/>
-      <c r="B1378"/>
-      <c r="C1378"/>
-      <c r="D1378"/>
-      <c r="G1378"/>
-    </row>
-    <row r="1379" ht="12.75">
-      <c r="A1379" s="6"/>
-      <c r="B1379"/>
-      <c r="C1379"/>
-      <c r="D1379" s="1"/>
-    </row>
-    <row r="1380" ht="12.75">
-      <c r="A1380" s="6"/>
-      <c r="B1380"/>
-      <c r="C1380"/>
-      <c r="D1380"/>
-      <c r="G1380"/>
-    </row>
-    <row r="1381" ht="12.75">
-      <c r="A1381" s="6"/>
-      <c r="B1381"/>
-      <c r="C1381"/>
-      <c r="D1381" s="1"/>
+    <row r="1375" ht="12.75" hidden="1">
+      <c r="A1375" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1375" s="15" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D1375"/>
+      <c r="G1375"/>
+    </row>
+    <row r="1376" ht="12.75" hidden="1">
+      <c r="A1376" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1376" s="15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1376" s="1"/>
+    </row>
+    <row r="1377" ht="12.75" hidden="1">
+      <c r="A1377" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1377" s="15" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1377" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D1377"/>
+      <c r="G1377"/>
+    </row>
+    <row r="1378" ht="12.75" hidden="1">
+      <c r="A1378" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1378" s="15" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1378" s="1"/>
+    </row>
+    <row r="1379" ht="12.75" hidden="1">
+      <c r="A1379" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1379" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1379"/>
+      <c r="G1379"/>
+    </row>
+    <row r="1380" ht="12.75" hidden="1">
+      <c r="A1380" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1380" s="15" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1380" s="1"/>
+    </row>
+    <row r="1381" ht="12.75" hidden="1">
+      <c r="A1381" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1381" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C1381" s="15" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D1381"/>
+      <c r="G1381"/>
     </row>
     <row r="1382" ht="12.75">
-      <c r="A1382" s="6"/>
-      <c r="B1382"/>
-      <c r="C1382"/>
-      <c r="D1382"/>
-      <c r="G1382"/>
+      <c r="A1382" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1382" s="1"/>
     </row>
     <row r="1383" ht="12.75">
-      <c r="A1383" s="6"/>
-      <c r="B1383"/>
-      <c r="C1383"/>
-      <c r="D1383" s="1"/>
+      <c r="A1383" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1383"/>
+      <c r="G1383"/>
     </row>
     <row r="1384" ht="12.75">
-      <c r="A1384" s="6"/>
-      <c r="B1384"/>
-      <c r="C1384"/>
-      <c r="D1384"/>
-      <c r="G1384"/>
+      <c r="A1384" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1384" s="1"/>
     </row>
     <row r="1385" ht="12.75">
-      <c r="A1385" s="6"/>
-      <c r="B1385"/>
-      <c r="C1385"/>
-      <c r="D1385" s="1"/>
+      <c r="A1385" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1385"/>
+      <c r="G1385"/>
     </row>
     <row r="1386" ht="12.75">
-      <c r="A1386" s="6"/>
-      <c r="B1386"/>
-      <c r="C1386"/>
-      <c r="D1386"/>
-      <c r="G1386"/>
+      <c r="A1386" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1386" s="1"/>
     </row>
     <row r="1387" ht="12.75">
       <c r="A1387" s="6"/>
       <c r="B1387"/>
       <c r="C1387"/>
-      <c r="D1387" s="1"/>
+      <c r="D1387"/>
+      <c r="G1387"/>
     </row>
     <row r="1388" ht="12.75">
       <c r="A1388" s="6"/>
       <c r="B1388"/>
       <c r="C1388"/>
-      <c r="D1388"/>
-      <c r="G1388"/>
+      <c r="D1388" s="1"/>
     </row>
     <row r="1389" ht="12.75">
       <c r="A1389" s="6"/>
       <c r="B1389"/>
       <c r="C1389"/>
-      <c r="D1389" s="1"/>
+      <c r="D1389"/>
+      <c r="G1389"/>
     </row>
     <row r="1390" ht="12.75">
       <c r="A1390" s="6"/>
       <c r="B1390"/>
       <c r="C1390"/>
-      <c r="D1390"/>
-      <c r="G1390"/>
+      <c r="D1390" s="1"/>
     </row>
     <row r="1391" ht="12.75">
       <c r="A1391" s="6"/>
       <c r="B1391"/>
       <c r="C1391"/>
-      <c r="D1391" s="1"/>
+      <c r="D1391"/>
+      <c r="G1391"/>
     </row>
     <row r="1392" ht="12.75">
       <c r="A1392" s="6"/>
       <c r="B1392"/>
       <c r="C1392"/>
-      <c r="D1392"/>
-      <c r="G1392"/>
+      <c r="D1392" s="1"/>
     </row>
     <row r="1393" ht="12.75">
       <c r="A1393" s="6"/>
       <c r="B1393"/>
       <c r="C1393"/>
-      <c r="D1393" s="1"/>
+      <c r="D1393"/>
+      <c r="G1393"/>
     </row>
     <row r="1394" ht="12.75">
       <c r="A1394" s="6"/>
       <c r="B1394"/>
       <c r="C1394"/>
-      <c r="D1394"/>
-      <c r="G1394"/>
+      <c r="D1394" s="1"/>
     </row>
     <row r="1395" ht="12.75">
       <c r="A1395" s="6"/>
       <c r="B1395"/>
       <c r="C1395"/>
-      <c r="D1395" s="1"/>
+      <c r="D1395"/>
+      <c r="G1395"/>
     </row>
     <row r="1396" ht="12.75">
       <c r="A1396" s="6"/>
       <c r="B1396"/>
       <c r="C1396"/>
-      <c r="D1396"/>
-      <c r="G1396"/>
+      <c r="D1396" s="1"/>
     </row>
     <row r="1397" ht="12.75">
       <c r="A1397" s="6"/>
       <c r="B1397"/>
       <c r="C1397"/>
-      <c r="D1397" s="1"/>
+      <c r="D1397"/>
+      <c r="G1397"/>
     </row>
     <row r="1398" ht="12.75">
       <c r="A1398" s="6"/>
       <c r="B1398"/>
       <c r="C1398"/>
-      <c r="D1398"/>
-      <c r="G1398"/>
+      <c r="D1398" s="1"/>
     </row>
     <row r="1399" ht="12.75">
       <c r="A1399" s="6"/>
       <c r="B1399"/>
       <c r="C1399"/>
-      <c r="D1399" s="1"/>
+      <c r="D1399"/>
+      <c r="G1399"/>
     </row>
     <row r="1400" ht="12.75">
       <c r="A1400" s="6"/>
       <c r="B1400"/>
       <c r="C1400"/>
-      <c r="D1400"/>
-      <c r="G1400"/>
+      <c r="D1400" s="1"/>
     </row>
     <row r="1401" ht="12.75">
       <c r="A1401" s="6"/>
       <c r="B1401"/>
       <c r="C1401"/>
-      <c r="D1401" s="1"/>
+      <c r="D1401"/>
+      <c r="G1401"/>
     </row>
     <row r="1402" ht="12.75">
       <c r="A1402" s="6"/>
       <c r="B1402"/>
       <c r="C1402"/>
-      <c r="D1402"/>
-      <c r="G1402"/>
+      <c r="D1402" s="1"/>
     </row>
     <row r="1403" ht="12.75">
       <c r="A1403" s="6"/>
       <c r="B1403"/>
       <c r="C1403"/>
-      <c r="D1403" s="1"/>
+      <c r="D1403"/>
+      <c r="G1403"/>
     </row>
     <row r="1404" ht="12.75">
       <c r="A1404" s="6"/>
       <c r="B1404"/>
       <c r="C1404"/>
-      <c r="D1404"/>
-      <c r="G1404"/>
+      <c r="D1404" s="1"/>
     </row>
     <row r="1405" ht="12.75">
       <c r="A1405" s="6"/>
       <c r="B1405"/>
       <c r="C1405"/>
-      <c r="D1405" s="1"/>
+      <c r="D1405"/>
+      <c r="G1405"/>
     </row>
     <row r="1406" ht="12.75">
       <c r="A1406" s="6"/>
       <c r="B1406"/>
       <c r="C1406"/>
-      <c r="D1406"/>
-      <c r="G1406"/>
+      <c r="D1406" s="1"/>
     </row>
     <row r="1407" ht="12.75">
       <c r="A1407" s="6"/>
       <c r="B1407"/>
       <c r="C1407"/>
-      <c r="D1407" s="1"/>
+      <c r="D1407"/>
+      <c r="G1407"/>
     </row>
     <row r="1408" ht="12.75">
       <c r="A1408" s="6"/>
       <c r="B1408"/>
       <c r="C1408"/>
-      <c r="D1408"/>
-      <c r="G1408"/>
+      <c r="D1408" s="1"/>
     </row>
     <row r="1409" ht="12.75">
       <c r="A1409" s="6"/>
       <c r="B1409"/>
       <c r="C1409"/>
-      <c r="D1409" s="1"/>
+      <c r="D1409"/>
+      <c r="G1409"/>
     </row>
     <row r="1410" ht="12.75">
       <c r="A1410" s="6"/>
       <c r="B1410"/>
       <c r="C1410"/>
-      <c r="D1410"/>
-      <c r="G1410"/>
+      <c r="D1410" s="1"/>
     </row>
     <row r="1411" ht="12.75">
       <c r="A1411" s="6"/>
       <c r="B1411"/>
       <c r="C1411"/>
-      <c r="D1411" s="1"/>
+      <c r="D1411"/>
+      <c r="G1411"/>
     </row>
     <row r="1412" ht="12.75">
       <c r="A1412" s="6"/>
       <c r="B1412"/>
       <c r="C1412"/>
-      <c r="D1412"/>
-      <c r="G1412"/>
+      <c r="D1412" s="1"/>
     </row>
     <row r="1413" ht="12.75">
       <c r="A1413" s="6"/>
       <c r="B1413"/>
       <c r="C1413"/>
-      <c r="D1413" s="1"/>
+      <c r="D1413"/>
+      <c r="G1413"/>
     </row>
     <row r="1414" ht="12.75">
       <c r="A1414" s="6"/>
       <c r="B1414"/>
       <c r="C1414"/>
-      <c r="D1414"/>
-      <c r="G1414"/>
+      <c r="D1414" s="1"/>
     </row>
     <row r="1415" ht="12.75">
       <c r="A1415" s="6"/>
       <c r="B1415"/>
       <c r="C1415"/>
-      <c r="D1415" s="1"/>
+      <c r="D1415"/>
+      <c r="G1415"/>
     </row>
     <row r="1416" ht="12.75">
       <c r="A1416" s="6"/>
       <c r="B1416"/>
       <c r="C1416"/>
-      <c r="D1416"/>
-      <c r="G1416"/>
+      <c r="D1416" s="1"/>
     </row>
     <row r="1417" ht="12.75">
       <c r="A1417" s="6"/>
       <c r="B1417"/>
       <c r="C1417"/>
-      <c r="D1417" s="1"/>
+      <c r="D1417"/>
+      <c r="G1417"/>
     </row>
     <row r="1418" ht="12.75">
       <c r="A1418" s="6"/>
       <c r="B1418"/>
       <c r="C1418"/>
-      <c r="D1418"/>
-      <c r="G1418"/>
+      <c r="D1418" s="1"/>
     </row>
     <row r="1419" ht="12.75">
       <c r="A1419" s="6"/>
       <c r="B1419"/>
       <c r="C1419"/>
-      <c r="D1419" s="1"/>
+      <c r="D1419"/>
+      <c r="G1419"/>
     </row>
     <row r="1420" ht="12.75">
       <c r="A1420" s="6"/>
       <c r="B1420"/>
       <c r="C1420"/>
-      <c r="D1420"/>
-      <c r="G1420"/>
+      <c r="D1420" s="1"/>
     </row>
     <row r="1421" ht="12.75">
       <c r="A1421" s="6"/>
       <c r="B1421"/>
       <c r="C1421"/>
-      <c r="D1421" s="1"/>
+      <c r="D1421"/>
+      <c r="G1421"/>
     </row>
     <row r="1422" ht="12.75">
       <c r="A1422" s="6"/>
       <c r="B1422"/>
       <c r="C1422"/>
-      <c r="D1422"/>
-      <c r="G1422"/>
+      <c r="D1422" s="1"/>
     </row>
     <row r="1423" ht="12.75">
       <c r="A1423" s="6"/>
       <c r="B1423"/>
       <c r="C1423"/>
-      <c r="D1423" s="1"/>
+      <c r="D1423"/>
+      <c r="G1423"/>
     </row>
     <row r="1424" ht="12.75">
       <c r="A1424" s="6"/>
       <c r="B1424"/>
       <c r="C1424"/>
-      <c r="D1424"/>
-      <c r="G1424"/>
+      <c r="D1424" s="1"/>
     </row>
     <row r="1425" ht="12.75">
       <c r="A1425" s="6"/>
       <c r="B1425"/>
       <c r="C1425"/>
-      <c r="D1425" s="1"/>
+      <c r="D1425"/>
+      <c r="G1425"/>
     </row>
     <row r="1426" ht="12.75">
       <c r="A1426" s="6"/>
       <c r="B1426"/>
       <c r="C1426"/>
-      <c r="D1426"/>
-      <c r="G1426"/>
+      <c r="D1426" s="1"/>
     </row>
     <row r="1427" ht="12.75">
       <c r="A1427" s="6"/>
       <c r="B1427"/>
       <c r="C1427"/>
-      <c r="D1427" s="1"/>
+      <c r="D1427"/>
+      <c r="G1427"/>
     </row>
     <row r="1428" ht="12.75">
       <c r="A1428" s="6"/>
       <c r="B1428"/>
       <c r="C1428"/>
-      <c r="D1428"/>
-      <c r="G1428"/>
+      <c r="D1428" s="1"/>
     </row>
     <row r="1429" ht="12.75">
       <c r="A1429" s="6"/>
       <c r="B1429"/>
       <c r="C1429"/>
-      <c r="D1429" s="1"/>
+      <c r="D1429"/>
+      <c r="G1429"/>
     </row>
     <row r="1430" ht="12.75">
       <c r="A1430" s="6"/>
       <c r="B1430"/>
       <c r="C1430"/>
-      <c r="D1430"/>
-      <c r="G1430"/>
+      <c r="D1430" s="1"/>
     </row>
     <row r="1431" ht="12.75">
       <c r="A1431" s="6"/>
       <c r="B1431"/>
       <c r="C1431"/>
-      <c r="D1431" s="1"/>
+      <c r="D1431"/>
+      <c r="G1431"/>
     </row>
     <row r="1432" ht="12.75">
       <c r="A1432" s="6"/>
       <c r="B1432"/>
       <c r="C1432"/>
-      <c r="D1432"/>
-      <c r="G1432"/>
+      <c r="D1432" s="1"/>
     </row>
     <row r="1433" ht="12.75">
       <c r="A1433" s="6"/>
       <c r="B1433"/>
       <c r="C1433"/>
-      <c r="D1433" s="1"/>
+      <c r="D1433"/>
+      <c r="G1433"/>
     </row>
     <row r="1434" ht="12.75">
       <c r="A1434" s="6"/>
       <c r="B1434"/>
       <c r="C1434"/>
-      <c r="D1434"/>
-      <c r="G1434"/>
+      <c r="D1434" s="1"/>
     </row>
     <row r="1435" ht="12.75">
       <c r="A1435" s="6"/>
       <c r="B1435"/>
       <c r="C1435"/>
-      <c r="D1435" s="1"/>
+      <c r="D1435"/>
+      <c r="G1435"/>
     </row>
     <row r="1436" ht="12.75">
       <c r="A1436" s="6"/>
       <c r="B1436"/>
       <c r="C1436"/>
-      <c r="D1436"/>
-      <c r="G1436"/>
+      <c r="D1436" s="1"/>
     </row>
     <row r="1437" ht="12.75">
       <c r="A1437" s="6"/>
       <c r="B1437"/>
       <c r="C1437"/>
-      <c r="D1437" s="1"/>
+      <c r="D1437"/>
+      <c r="G1437"/>
     </row>
     <row r="1438" ht="12.75">
       <c r="A1438" s="6"/>
       <c r="B1438"/>
       <c r="C1438"/>
-      <c r="D1438"/>
-      <c r="G1438"/>
+      <c r="D1438" s="1"/>
     </row>
     <row r="1439" ht="12.75">
       <c r="A1439" s="6"/>
       <c r="B1439"/>
       <c r="C1439"/>
-      <c r="D1439" s="1"/>
+      <c r="D1439"/>
+      <c r="G1439"/>
     </row>
     <row r="1440" ht="12.75">
       <c r="A1440" s="6"/>
       <c r="B1440"/>
       <c r="C1440"/>
-      <c r="D1440"/>
-      <c r="G1440"/>
+      <c r="D1440" s="1"/>
     </row>
     <row r="1441" ht="12.75">
       <c r="A1441" s="6"/>
       <c r="B1441"/>
       <c r="C1441"/>
-      <c r="D1441" s="1"/>
+      <c r="D1441"/>
+      <c r="G1441"/>
     </row>
     <row r="1442" ht="12.75">
       <c r="A1442" s="6"/>
       <c r="B1442"/>
       <c r="C1442"/>
-      <c r="D1442"/>
-      <c r="G1442"/>
+      <c r="D1442" s="1"/>
     </row>
     <row r="1443" ht="12.75">
       <c r="A1443" s="6"/>
       <c r="B1443"/>
       <c r="C1443"/>
-      <c r="D1443" s="1"/>
+      <c r="D1443"/>
+      <c r="G1443"/>
     </row>
     <row r="1444" ht="12.75">
       <c r="A1444" s="6"/>
       <c r="B1444"/>
       <c r="C1444"/>
-      <c r="D1444"/>
-      <c r="G1444"/>
+      <c r="D1444" s="1"/>
     </row>
     <row r="1445" ht="12.75">
       <c r="A1445" s="6"/>
       <c r="B1445"/>
       <c r="C1445"/>
-      <c r="D1445" s="1"/>
+      <c r="D1445"/>
+      <c r="G1445"/>
     </row>
     <row r="1446" ht="12.75">
       <c r="A1446" s="6"/>
       <c r="B1446"/>
       <c r="C1446"/>
-      <c r="D1446"/>
-      <c r="G1446"/>
+      <c r="D1446" s="1"/>
     </row>
     <row r="1447" ht="12.75">
       <c r="A1447" s="6"/>
       <c r="B1447"/>
       <c r="C1447"/>
-      <c r="D1447" s="1"/>
+      <c r="D1447"/>
+      <c r="G1447"/>
     </row>
     <row r="1448" ht="12.75">
       <c r="A1448" s="6"/>
       <c r="B1448"/>
       <c r="C1448"/>
-      <c r="D1448"/>
-      <c r="G1448"/>
+      <c r="D1448" s="1"/>
     </row>
     <row r="1449" ht="12.75">
       <c r="A1449" s="6"/>
       <c r="B1449"/>
       <c r="C1449"/>
-      <c r="D1449" s="1"/>
+      <c r="D1449"/>
+      <c r="G1449"/>
     </row>
     <row r="1450" ht="12.75">
       <c r="A1450" s="6"/>
       <c r="B1450"/>
       <c r="C1450"/>
-      <c r="D1450"/>
-      <c r="G1450"/>
+      <c r="D1450" s="1"/>
     </row>
     <row r="1451" ht="12.75">
       <c r="A1451" s="6"/>
       <c r="B1451"/>
       <c r="C1451"/>
-      <c r="D1451" s="1"/>
+      <c r="D1451"/>
+      <c r="G1451"/>
     </row>
     <row r="1452" ht="12.75">
       <c r="A1452" s="6"/>
       <c r="B1452"/>
       <c r="C1452"/>
-      <c r="D1452"/>
-      <c r="G1452"/>
+      <c r="D1452" s="1"/>
     </row>
     <row r="1453" ht="12.75">
       <c r="A1453" s="6"/>
       <c r="B1453"/>
       <c r="C1453"/>
-      <c r="D1453" s="1"/>
+      <c r="D1453"/>
+      <c r="G1453"/>
     </row>
     <row r="1454" ht="12.75">
       <c r="A1454" s="6"/>
       <c r="B1454"/>
       <c r="C1454"/>
-      <c r="D1454"/>
-      <c r="G1454"/>
+      <c r="D1454" s="1"/>
     </row>
     <row r="1455" ht="12.75">
       <c r="A1455" s="6"/>
       <c r="B1455"/>
       <c r="C1455"/>
-      <c r="D1455" s="1"/>
+      <c r="D1455"/>
+      <c r="G1455"/>
     </row>
     <row r="1456" ht="12.75">
       <c r="A1456" s="6"/>
       <c r="B1456"/>
       <c r="C1456"/>
-      <c r="D1456"/>
-      <c r="G1456"/>
+      <c r="D1456" s="1"/>
     </row>
     <row r="1457" ht="12.75">
       <c r="A1457" s="6"/>
       <c r="B1457"/>
       <c r="C1457"/>
-      <c r="D1457" s="1"/>
+      <c r="D1457"/>
+      <c r="G1457"/>
     </row>
     <row r="1458" ht="12.75">
       <c r="A1458" s="6"/>
       <c r="B1458"/>
       <c r="C1458"/>
-      <c r="D1458"/>
-      <c r="G1458"/>
+      <c r="D1458" s="1"/>
     </row>
     <row r="1459" ht="12.75">
       <c r="A1459" s="6"/>
       <c r="B1459"/>
       <c r="C1459"/>
-      <c r="D1459" s="1"/>
+      <c r="D1459"/>
+      <c r="G1459"/>
     </row>
     <row r="1460" ht="12.75">
       <c r="A1460" s="6"/>
       <c r="B1460"/>
       <c r="C1460"/>
-      <c r="D1460"/>
-      <c r="G1460"/>
+      <c r="D1460" s="1"/>
     </row>
     <row r="1461" ht="12.75">
       <c r="A1461" s="6"/>
       <c r="B1461"/>
       <c r="C1461"/>
-      <c r="D1461" s="1"/>
+      <c r="D1461"/>
+      <c r="G1461"/>
     </row>
     <row r="1462" ht="12.75">
       <c r="A1462" s="6"/>
       <c r="B1462"/>
       <c r="C1462"/>
-      <c r="D1462"/>
-      <c r="G1462"/>
+      <c r="D1462" s="1"/>
     </row>
     <row r="1463" ht="12.75">
       <c r="A1463" s="6"/>
       <c r="B1463"/>
       <c r="C1463"/>
-      <c r="D1463" s="1"/>
+      <c r="D1463"/>
+      <c r="G1463"/>
     </row>
     <row r="1464" ht="12.75">
       <c r="A1464" s="6"/>
       <c r="B1464"/>
       <c r="C1464"/>
-      <c r="D1464"/>
-      <c r="G1464"/>
+      <c r="D1464" s="1"/>
     </row>
     <row r="1465" ht="12.75">
       <c r="A1465" s="6"/>
       <c r="B1465"/>
       <c r="C1465"/>
-      <c r="D1465" s="1"/>
+      <c r="D1465"/>
+      <c r="G1465"/>
     </row>
     <row r="1466" ht="12.75">
       <c r="A1466" s="6"/>
       <c r="B1466"/>
       <c r="C1466"/>
-      <c r="D1466"/>
-      <c r="G1466"/>
+      <c r="D1466" s="1"/>
     </row>
     <row r="1467" ht="12.75">
       <c r="A1467" s="6"/>
       <c r="B1467"/>
       <c r="C1467"/>
-      <c r="D1467" s="1"/>
+      <c r="D1467"/>
+      <c r="G1467"/>
     </row>
     <row r="1468" ht="12.75">
       <c r="A1468" s="6"/>
       <c r="B1468"/>
       <c r="C1468"/>
-      <c r="D1468"/>
-      <c r="G1468"/>
+      <c r="D1468" s="1"/>
     </row>
     <row r="1469" ht="12.75">
       <c r="A1469" s="6"/>
       <c r="B1469"/>
       <c r="C1469"/>
-      <c r="D1469" s="1"/>
+      <c r="D1469"/>
+      <c r="G1469"/>
     </row>
     <row r="1470" ht="12.75">
       <c r="A1470" s="6"/>
       <c r="B1470"/>
       <c r="C1470"/>
-      <c r="D1470"/>
-      <c r="G1470"/>
+      <c r="D1470" s="1"/>
     </row>
     <row r="1471" ht="12.75">
       <c r="A1471" s="6"/>
       <c r="B1471"/>
       <c r="C1471"/>
-      <c r="D1471" s="1"/>
+      <c r="D1471"/>
+      <c r="G1471"/>
     </row>
     <row r="1472" ht="12.75">
       <c r="A1472" s="6"/>
       <c r="B1472"/>
       <c r="C1472"/>
-      <c r="D1472"/>
-      <c r="G1472"/>
+      <c r="D1472" s="1"/>
     </row>
     <row r="1473" ht="12.75">
       <c r="A1473" s="6"/>
       <c r="B1473"/>
       <c r="C1473"/>
-      <c r="D1473" s="1"/>
+      <c r="D1473"/>
+      <c r="G1473"/>
     </row>
     <row r="1474" ht="12.75">
       <c r="A1474" s="6"/>
       <c r="B1474"/>
       <c r="C1474"/>
-      <c r="D1474"/>
-      <c r="G1474"/>
+      <c r="D1474" s="1"/>
     </row>
     <row r="1475" ht="12.75">
       <c r="A1475" s="6"/>
       <c r="B1475"/>
       <c r="C1475"/>
-      <c r="D1475" s="1"/>
+      <c r="D1475"/>
+      <c r="G1475"/>
     </row>
     <row r="1476" ht="12.75">
       <c r="A1476" s="6"/>
       <c r="B1476"/>
       <c r="C1476"/>
-      <c r="D1476"/>
-      <c r="G1476"/>
+      <c r="D1476" s="1"/>
     </row>
     <row r="1477" ht="12.75">
       <c r="A1477" s="6"/>
       <c r="B1477"/>
       <c r="C1477"/>
-      <c r="D1477" s="1"/>
+      <c r="D1477"/>
+      <c r="G1477"/>
     </row>
     <row r="1478" ht="12.75">
       <c r="A1478" s="6"/>
       <c r="B1478"/>
       <c r="C1478"/>
-      <c r="D1478"/>
-      <c r="G1478"/>
+      <c r="D1478" s="1"/>
     </row>
     <row r="1479" ht="12.75">
       <c r="A1479" s="6"/>
       <c r="B1479"/>
       <c r="C1479"/>
-      <c r="D1479" s="1"/>
+      <c r="D1479"/>
+      <c r="G1479"/>
     </row>
     <row r="1480" ht="12.75">
       <c r="A1480" s="6"/>
       <c r="B1480"/>
       <c r="C1480"/>
-      <c r="D1480"/>
-      <c r="G1480"/>
+      <c r="D1480" s="1"/>
     </row>
     <row r="1481" ht="12.75">
       <c r="A1481" s="6"/>
       <c r="B1481"/>
       <c r="C1481"/>
-      <c r="D1481" s="1"/>
+      <c r="D1481"/>
+      <c r="G1481"/>
     </row>
     <row r="1482" ht="12.75">
       <c r="A1482" s="6"/>
       <c r="B1482"/>
       <c r="C1482"/>
-      <c r="D1482"/>
-      <c r="G1482"/>
+      <c r="D1482" s="1"/>
     </row>
     <row r="1483" ht="12.75">
       <c r="A1483" s="6"/>
       <c r="B1483"/>
       <c r="C1483"/>
-      <c r="D1483" s="1"/>
+      <c r="D1483"/>
+      <c r="G1483"/>
     </row>
     <row r="1484" ht="12.75">
       <c r="A1484" s="6"/>
       <c r="B1484"/>
       <c r="C1484"/>
-      <c r="D1484"/>
-      <c r="G1484"/>
+      <c r="D1484" s="1"/>
     </row>
     <row r="1485" ht="12.75">
       <c r="A1485" s="6"/>
       <c r="B1485"/>
       <c r="C1485"/>
-      <c r="D1485" s="1"/>
+      <c r="D1485"/>
+      <c r="G1485"/>
     </row>
     <row r="1486" ht="12.75">
       <c r="A1486" s="6"/>
       <c r="B1486"/>
       <c r="C1486"/>
-      <c r="D1486"/>
-      <c r="G1486"/>
+      <c r="D1486" s="1"/>
     </row>
     <row r="1487" ht="12.75">
       <c r="A1487" s="6"/>
       <c r="B1487"/>
       <c r="C1487"/>
-      <c r="D1487" s="1"/>
+      <c r="D1487"/>
+      <c r="G1487"/>
     </row>
     <row r="1488" ht="12.75">
       <c r="A1488" s="6"/>
       <c r="B1488"/>
       <c r="C1488"/>
-      <c r="D1488"/>
-      <c r="G1488"/>
+      <c r="D1488" s="1"/>
     </row>
     <row r="1489" ht="12.75">
       <c r="A1489" s="6"/>
       <c r="B1489"/>
       <c r="C1489"/>
-      <c r="D1489" s="1"/>
+      <c r="D1489"/>
+      <c r="G1489"/>
     </row>
     <row r="1490" ht="12.75">
       <c r="A1490" s="6"/>
       <c r="B1490"/>
       <c r="C1490"/>
-      <c r="D1490"/>
-      <c r="G1490"/>
+      <c r="D1490" s="1"/>
     </row>
     <row r="1491" ht="12.75">
       <c r="A1491" s="6"/>
       <c r="B1491"/>
       <c r="C1491"/>
-      <c r="D1491" s="1"/>
+      <c r="D1491"/>
+      <c r="G1491"/>
     </row>
     <row r="1492" ht="12.75">
       <c r="A1492" s="6"/>
       <c r="B1492"/>
       <c r="C1492"/>
-      <c r="D1492"/>
-      <c r="G1492"/>
+      <c r="D1492" s="1"/>
     </row>
     <row r="1493" ht="12.75">
       <c r="A1493" s="6"/>
       <c r="B1493"/>
       <c r="C1493"/>
-      <c r="D1493" s="1"/>
+      <c r="D1493"/>
+      <c r="G1493"/>
     </row>
     <row r="1494" ht="12.75">
       <c r="A1494" s="6"/>
       <c r="B1494"/>
       <c r="C1494"/>
-      <c r="D1494"/>
-      <c r="G1494"/>
+      <c r="D1494" s="1"/>
     </row>
     <row r="1495" ht="12.75">
       <c r="A1495" s="6"/>
       <c r="B1495"/>
       <c r="C1495"/>
-      <c r="D1495" s="1"/>
+      <c r="D1495"/>
+      <c r="G1495"/>
     </row>
     <row r="1496" ht="12.75">
       <c r="A1496" s="6"/>
       <c r="B1496"/>
       <c r="C1496"/>
-      <c r="D1496"/>
-      <c r="G1496"/>
+      <c r="D1496" s="1"/>
     </row>
     <row r="1497" ht="12.75">
       <c r="A1497" s="6"/>
       <c r="B1497"/>
       <c r="C1497"/>
-      <c r="D1497" s="1"/>
+      <c r="D1497"/>
+      <c r="G1497"/>
     </row>
     <row r="1498" ht="12.75">
       <c r="A1498" s="6"/>
       <c r="B1498"/>
       <c r="C1498"/>
-      <c r="D1498"/>
-      <c r="G1498"/>
+      <c r="D1498" s="1"/>
     </row>
     <row r="1499" ht="12.75">
       <c r="A1499" s="6"/>
       <c r="B1499"/>
       <c r="C1499"/>
-      <c r="D1499" s="1"/>
+      <c r="D1499"/>
+      <c r="G1499"/>
     </row>
     <row r="1500" ht="12.75">
       <c r="A1500" s="6"/>
       <c r="B1500"/>
       <c r="C1500"/>
-      <c r="D1500"/>
-      <c r="G1500"/>
+      <c r="D1500" s="1"/>
     </row>
     <row r="1501" ht="12.75">
       <c r="A1501" s="6"/>
       <c r="B1501"/>
       <c r="C1501"/>
-      <c r="D1501" s="1"/>
+      <c r="D1501"/>
+      <c r="G1501"/>
     </row>
     <row r="1502" ht="12.75">
       <c r="A1502" s="6"/>
-      <c r="B1502"/>
-      <c r="C1502"/>
-      <c r="D1502"/>
-      <c r="G1502"/>
+      <c r="D1502" s="1"/>
     </row>
     <row r="1503" ht="12.75">
       <c r="A1503" s="6"/>
-      <c r="B1503"/>
-      <c r="C1503"/>
       <c r="D1503" s="1"/>
     </row>
     <row r="1504" ht="12.75">
       <c r="A1504" s="6"/>
-      <c r="B1504"/>
-      <c r="C1504"/>
-      <c r="D1504"/>
-      <c r="G1504"/>
+      <c r="D1504" s="1"/>
     </row>
     <row r="1505" ht="12.75">
       <c r="A1505" s="6"/>
-      <c r="B1505"/>
-      <c r="C1505"/>
       <c r="D1505" s="1"/>
     </row>
     <row r="1506" ht="12.75">
       <c r="A1506" s="6"/>
-      <c r="B1506"/>
-      <c r="C1506"/>
-      <c r="D1506"/>
-      <c r="G1506"/>
+      <c r="D1506" s="1"/>
     </row>
     <row r="1507" ht="12.75">
       <c r="A1507" s="6"/>
@@ -25133,114 +25648,119 @@
     </row>
     <row r="1525" ht="12.75">
       <c r="A1525" s="6"/>
-      <c r="D1525" s="1"/>
     </row>
     <row r="1526" ht="12.75">
       <c r="A1526" s="6"/>
-      <c r="D1526" s="1"/>
     </row>
     <row r="1527" ht="12.75">
       <c r="A1527" s="6"/>
-      <c r="D1527" s="1"/>
     </row>
     <row r="1528" ht="12.75">
       <c r="A1528" s="6"/>
-      <c r="D1528" s="1"/>
-    </row>
-    <row r="1529" ht="12.75">
-      <c r="A1529" s="6"/>
-      <c r="D1529" s="1"/>
-    </row>
-    <row r="1530" ht="12.75">
-      <c r="A1530" s="6"/>
-    </row>
-    <row r="1531" ht="12.75">
-      <c r="A1531" s="6"/>
-    </row>
-    <row r="1532" ht="12.75">
-      <c r="A1532" s="6"/>
-    </row>
-    <row r="1533" ht="12.75">
-      <c r="A1533" s="6"/>
+    </row>
+    <row r="1799" ht="12.75">
+      <c r="A1799" s="6"/>
+      <c r="B1799"/>
+      <c r="C1799"/>
+      <c r="D1799" s="1"/>
+    </row>
+    <row r="1800" ht="12.75">
+      <c r="A1800" s="6"/>
+      <c r="B1800"/>
+      <c r="C1800"/>
+      <c r="D1800"/>
+      <c r="G1800"/>
+    </row>
+    <row r="1801" ht="12.75">
+      <c r="A1801" s="6"/>
+      <c r="B1801"/>
+      <c r="C1801"/>
+      <c r="D1801" s="1"/>
+    </row>
+    <row r="1802" ht="12.75">
+      <c r="A1802" s="6"/>
+      <c r="B1802"/>
+      <c r="C1802"/>
+      <c r="D1802"/>
+      <c r="G1802"/>
+    </row>
+    <row r="1803" ht="12.75">
+      <c r="A1803" s="6"/>
+      <c r="B1803"/>
+      <c r="C1803"/>
+      <c r="D1803" s="1"/>
     </row>
     <row r="1804" ht="12.75">
       <c r="A1804" s="6"/>
       <c r="B1804"/>
       <c r="C1804"/>
-      <c r="D1804" s="1"/>
+      <c r="D1804"/>
+      <c r="G1804"/>
     </row>
     <row r="1805" ht="12.75">
       <c r="A1805" s="6"/>
       <c r="B1805"/>
       <c r="C1805"/>
-      <c r="D1805"/>
-      <c r="G1805"/>
+      <c r="D1805" s="1"/>
     </row>
     <row r="1806" ht="12.75">
       <c r="A1806" s="6"/>
       <c r="B1806"/>
       <c r="C1806"/>
-      <c r="D1806" s="1"/>
+      <c r="D1806"/>
+      <c r="G1806"/>
     </row>
     <row r="1807" ht="12.75">
       <c r="A1807" s="6"/>
       <c r="B1807"/>
       <c r="C1807"/>
-      <c r="D1807"/>
-      <c r="G1807"/>
+      <c r="D1807" s="1"/>
     </row>
     <row r="1808" ht="12.75">
       <c r="A1808" s="6"/>
       <c r="B1808"/>
       <c r="C1808"/>
-      <c r="D1808" s="1"/>
-    </row>
-    <row r="1809" ht="12.75">
-      <c r="A1809" s="6"/>
-      <c r="B1809"/>
-      <c r="C1809"/>
-      <c r="D1809"/>
-      <c r="G1809"/>
-    </row>
-    <row r="1810" ht="12.75">
-      <c r="A1810" s="6"/>
-      <c r="B1810"/>
-      <c r="C1810"/>
-      <c r="D1810" s="1"/>
-    </row>
-    <row r="1811" ht="12.75">
-      <c r="A1811" s="6"/>
-      <c r="B1811"/>
-      <c r="C1811"/>
-      <c r="D1811"/>
-      <c r="G1811"/>
-    </row>
-    <row r="1812" ht="12.75">
-      <c r="A1812" s="6"/>
-      <c r="B1812"/>
-      <c r="C1812"/>
-      <c r="D1812" s="1"/>
-    </row>
-    <row r="1813" ht="12.75">
-      <c r="A1813" s="6"/>
-      <c r="B1813"/>
-      <c r="C1813"/>
-      <c r="D1813"/>
-      <c r="G1813"/>
+      <c r="D1808"/>
+      <c r="G1808"/>
+    </row>
+    <row r="1822" ht="12.75">
+      <c r="D1822" s="1"/>
+    </row>
+    <row r="1823" ht="12.75">
+      <c r="D1823" s="1"/>
+    </row>
+    <row r="1824" ht="12.75">
+      <c r="A1824" s="6"/>
+      <c r="D1824" s="1"/>
+    </row>
+    <row r="1825" ht="12.75">
+      <c r="A1825" s="6"/>
+      <c r="D1825" s="1"/>
+    </row>
+    <row r="1826" ht="12.75">
+      <c r="A1826" s="6"/>
+      <c r="D1826" s="1"/>
     </row>
     <row r="1827" ht="12.75">
+      <c r="A1827" s="6"/>
       <c r="D1827" s="1"/>
     </row>
     <row r="1828" ht="12.75">
+      <c r="A1828" s="6"/>
       <c r="D1828" s="1"/>
     </row>
     <row r="1829" ht="12.75">
       <c r="A1829" s="6"/>
+      <c r="B1829"/>
+      <c r="C1829"/>
       <c r="D1829" s="1"/>
     </row>
     <row r="1830" ht="12.75">
       <c r="A1830" s="6"/>
-      <c r="D1830" s="1"/>
+      <c r="B1830"/>
+      <c r="C1830"/>
+      <c r="D1830"/>
+      <c r="G1830"/>
     </row>
     <row r="1831" ht="12.75">
       <c r="A1831" s="6"/>
@@ -25248,28 +25768,18 @@
     </row>
     <row r="1832" ht="12.75">
       <c r="A1832" s="6"/>
-      <c r="D1832" s="1"/>
     </row>
     <row r="1833" ht="12.75">
       <c r="A1833" s="6"/>
-      <c r="D1833" s="1"/>
     </row>
     <row r="1834" ht="12.75">
       <c r="A1834" s="6"/>
-      <c r="B1834"/>
-      <c r="C1834"/>
-      <c r="D1834" s="1"/>
     </row>
     <row r="1835" ht="12.75">
       <c r="A1835" s="6"/>
-      <c r="B1835"/>
-      <c r="C1835"/>
-      <c r="D1835"/>
-      <c r="G1835"/>
     </row>
     <row r="1836" ht="12.75">
       <c r="A1836" s="6"/>
-      <c r="D1836" s="1"/>
     </row>
     <row r="1837" ht="12.75">
       <c r="A1837" s="6"/>
@@ -25303,6 +25813,9 @@
     </row>
     <row r="1847" ht="12.75">
       <c r="A1847" s="6"/>
+      <c r="B1847"/>
+      <c r="C1847"/>
+      <c r="D1847" s="1"/>
     </row>
     <row r="1848" ht="12.75">
       <c r="A1848" s="6"/>
@@ -25315,214 +25828,211 @@
     </row>
     <row r="1851" ht="12.75">
       <c r="A1851" s="6"/>
+      <c r="B1851"/>
+      <c r="C1851"/>
+      <c r="D1851" s="1"/>
     </row>
     <row r="1852" ht="12.75">
       <c r="A1852" s="6"/>
       <c r="B1852"/>
       <c r="C1852"/>
-      <c r="D1852" s="1"/>
+      <c r="D1852"/>
+      <c r="G1852"/>
     </row>
     <row r="1853" ht="12.75">
       <c r="A1853" s="6"/>
+      <c r="B1853"/>
+      <c r="C1853"/>
+      <c r="D1853" s="1"/>
     </row>
     <row r="1854" ht="12.75">
       <c r="A1854" s="6"/>
+      <c r="B1854"/>
+      <c r="C1854"/>
+      <c r="D1854"/>
+      <c r="G1854"/>
     </row>
     <row r="1855" ht="12.75">
       <c r="A1855" s="6"/>
+      <c r="B1855"/>
+      <c r="C1855"/>
+      <c r="D1855" s="1"/>
     </row>
     <row r="1856" ht="12.75">
       <c r="A1856" s="6"/>
       <c r="B1856"/>
       <c r="C1856"/>
-      <c r="D1856" s="1"/>
+      <c r="D1856"/>
+      <c r="G1856"/>
     </row>
     <row r="1857" ht="12.75">
       <c r="A1857" s="6"/>
-      <c r="B1857"/>
-      <c r="C1857"/>
-      <c r="D1857"/>
-      <c r="G1857"/>
     </row>
     <row r="1858" ht="12.75">
       <c r="A1858" s="6"/>
-      <c r="B1858"/>
-      <c r="C1858"/>
-      <c r="D1858" s="1"/>
     </row>
     <row r="1859" ht="12.75">
       <c r="A1859" s="6"/>
-      <c r="B1859"/>
-      <c r="C1859"/>
-      <c r="D1859"/>
-      <c r="G1859"/>
     </row>
     <row r="1860" ht="12.75">
       <c r="A1860" s="6"/>
-      <c r="B1860"/>
-      <c r="C1860"/>
-      <c r="D1860" s="1"/>
     </row>
     <row r="1861" ht="12.75">
       <c r="A1861" s="6"/>
-      <c r="B1861"/>
-      <c r="C1861"/>
-      <c r="D1861"/>
-      <c r="G1861"/>
     </row>
     <row r="1862" ht="12.75">
       <c r="A1862" s="6"/>
     </row>
     <row r="1863" ht="12.75">
       <c r="A1863" s="6"/>
+      <c r="B1863"/>
+      <c r="C1863"/>
+      <c r="D1863" s="1"/>
     </row>
     <row r="1864" ht="12.75">
       <c r="A1864" s="6"/>
+      <c r="B1864"/>
+      <c r="C1864"/>
+      <c r="D1864"/>
+      <c r="G1864"/>
     </row>
     <row r="1865" ht="12.75">
       <c r="A1865" s="6"/>
+      <c r="B1865"/>
+      <c r="C1865"/>
+      <c r="D1865" s="1"/>
     </row>
     <row r="1866" ht="12.75">
       <c r="A1866" s="6"/>
+      <c r="B1866"/>
+      <c r="C1866"/>
+      <c r="D1866"/>
+      <c r="G1866"/>
     </row>
     <row r="1867" ht="12.75">
       <c r="A1867" s="6"/>
+      <c r="B1867"/>
+      <c r="C1867"/>
+      <c r="D1867" s="1"/>
     </row>
     <row r="1868" ht="12.75">
       <c r="A1868" s="6"/>
       <c r="B1868"/>
       <c r="C1868"/>
-      <c r="D1868" s="1"/>
+      <c r="D1868"/>
+      <c r="G1868"/>
     </row>
     <row r="1869" ht="12.75">
       <c r="A1869" s="6"/>
       <c r="B1869"/>
       <c r="C1869"/>
-      <c r="D1869"/>
-      <c r="G1869"/>
+      <c r="D1869" s="1"/>
     </row>
     <row r="1870" ht="12.75">
       <c r="A1870" s="6"/>
       <c r="B1870"/>
       <c r="C1870"/>
-      <c r="D1870" s="1"/>
+      <c r="D1870"/>
+      <c r="G1870"/>
     </row>
     <row r="1871" ht="12.75">
       <c r="A1871" s="6"/>
       <c r="B1871"/>
       <c r="C1871"/>
-      <c r="D1871"/>
-      <c r="G1871"/>
+      <c r="D1871" s="1"/>
     </row>
     <row r="1872" ht="12.75">
       <c r="A1872" s="6"/>
       <c r="B1872"/>
       <c r="C1872"/>
-      <c r="D1872" s="1"/>
+      <c r="D1872"/>
+      <c r="G1872"/>
     </row>
     <row r="1873" ht="12.75">
       <c r="A1873" s="6"/>
       <c r="B1873"/>
       <c r="C1873"/>
-      <c r="D1873"/>
-      <c r="G1873"/>
+      <c r="D1873" s="1"/>
     </row>
     <row r="1874" ht="12.75">
       <c r="A1874" s="6"/>
       <c r="B1874"/>
       <c r="C1874"/>
-      <c r="D1874" s="1"/>
+      <c r="D1874"/>
+      <c r="G1874"/>
     </row>
     <row r="1875" ht="12.75">
       <c r="A1875" s="6"/>
       <c r="B1875"/>
       <c r="C1875"/>
-      <c r="D1875"/>
-      <c r="G1875"/>
+      <c r="D1875" s="1"/>
     </row>
     <row r="1876" ht="12.75">
       <c r="A1876" s="6"/>
       <c r="B1876"/>
       <c r="C1876"/>
-      <c r="D1876" s="1"/>
+      <c r="D1876"/>
+      <c r="G1876"/>
     </row>
     <row r="1877" ht="12.75">
       <c r="A1877" s="6"/>
       <c r="B1877"/>
       <c r="C1877"/>
-      <c r="D1877"/>
-      <c r="G1877"/>
+      <c r="D1877" s="1"/>
     </row>
     <row r="1878" ht="12.75">
       <c r="A1878" s="6"/>
       <c r="B1878"/>
       <c r="C1878"/>
-      <c r="D1878" s="1"/>
+      <c r="D1878"/>
+      <c r="G1878"/>
     </row>
     <row r="1879" ht="12.75">
       <c r="A1879" s="6"/>
       <c r="B1879"/>
       <c r="C1879"/>
-      <c r="D1879"/>
-      <c r="G1879"/>
+      <c r="D1879" s="1"/>
     </row>
     <row r="1880" ht="12.75">
       <c r="A1880" s="6"/>
       <c r="B1880"/>
       <c r="C1880"/>
-      <c r="D1880" s="1"/>
+      <c r="D1880"/>
+      <c r="G1880"/>
     </row>
     <row r="1881" ht="12.75">
       <c r="A1881" s="6"/>
       <c r="B1881"/>
       <c r="C1881"/>
-      <c r="D1881"/>
-      <c r="G1881"/>
+      <c r="D1881" s="1"/>
     </row>
     <row r="1882" ht="12.75">
       <c r="A1882" s="6"/>
       <c r="B1882"/>
       <c r="C1882"/>
-      <c r="D1882" s="1"/>
+      <c r="D1882"/>
+      <c r="G1882"/>
     </row>
     <row r="1883" ht="12.75">
       <c r="A1883" s="6"/>
       <c r="B1883"/>
       <c r="C1883"/>
-      <c r="D1883"/>
-      <c r="G1883"/>
-    </row>
-    <row r="1884" ht="12.75">
-      <c r="A1884" s="6"/>
-      <c r="B1884"/>
-      <c r="C1884"/>
-      <c r="D1884" s="1"/>
-    </row>
-    <row r="1885" ht="12.75">
-      <c r="A1885" s="6"/>
-      <c r="B1885"/>
-      <c r="C1885"/>
-      <c r="D1885"/>
-      <c r="G1885"/>
+      <c r="D1883" s="1"/>
     </row>
     <row r="1886" ht="12.75">
-      <c r="A1886" s="6"/>
-      <c r="B1886"/>
-      <c r="C1886"/>
       <c r="D1886" s="1"/>
     </row>
     <row r="1887" ht="12.75">
-      <c r="A1887" s="6"/>
-      <c r="B1887"/>
-      <c r="C1887"/>
-      <c r="D1887"/>
-      <c r="G1887"/>
+      <c r="D1887" s="1"/>
     </row>
     <row r="1888" ht="12.75">
-      <c r="A1888" s="6"/>
-      <c r="B1888"/>
-      <c r="C1888"/>
       <c r="D1888" s="1"/>
+    </row>
+    <row r="1889" ht="12.75">
+      <c r="D1889" s="1"/>
+    </row>
+    <row r="1890" ht="12.75">
+      <c r="D1890" s="1"/>
     </row>
     <row r="1891" ht="12.75">
       <c r="D1891" s="1"/>
@@ -25572,20 +26082,20 @@
     <row r="1906" ht="12.75">
       <c r="D1906" s="1"/>
     </row>
-    <row r="1907" ht="12.75">
-      <c r="D1907" s="1"/>
-    </row>
-    <row r="1908" ht="12.75">
-      <c r="D1908" s="1"/>
-    </row>
-    <row r="1909" ht="12.75">
-      <c r="D1909" s="1"/>
-    </row>
-    <row r="1910" ht="12.75">
-      <c r="D1910" s="1"/>
-    </row>
-    <row r="1911" ht="12.75">
-      <c r="D1911" s="1"/>
+    <row r="1930" ht="12.75">
+      <c r="A1930" s="6"/>
+    </row>
+    <row r="1931" ht="12.75">
+      <c r="A1931" s="6"/>
+    </row>
+    <row r="1932" ht="12.75">
+      <c r="A1932" s="6"/>
+    </row>
+    <row r="1933" ht="12.75">
+      <c r="A1933" s="6"/>
+    </row>
+    <row r="1934" ht="12.75">
+      <c r="A1934" s="6"/>
     </row>
     <row r="1935" ht="12.75">
       <c r="A1935" s="6"/>
@@ -25698,79 +26208,79 @@
     <row r="1971" ht="12.75">
       <c r="A1971" s="6"/>
     </row>
-    <row r="1972" ht="12.75">
-      <c r="A1972" s="6"/>
-    </row>
-    <row r="1973" ht="12.75">
-      <c r="A1973" s="6"/>
-    </row>
-    <row r="1974" ht="12.75">
-      <c r="A1974" s="6"/>
-    </row>
-    <row r="1975" ht="12.75">
-      <c r="A1975" s="6"/>
-    </row>
-    <row r="1976" ht="12.75">
-      <c r="A1976" s="6"/>
+    <row r="2064" ht="12.75">
+      <c r="A2064" s="6"/>
+      <c r="B2064"/>
+      <c r="C2064"/>
+      <c r="D2064"/>
+      <c r="G2064"/>
+    </row>
+    <row r="2065" ht="12.75">
+      <c r="A2065" s="6"/>
+      <c r="B2065"/>
+      <c r="C2065"/>
+      <c r="D2065" s="1"/>
+    </row>
+    <row r="2066" ht="12.75">
+      <c r="A2066" s="6"/>
+      <c r="B2066"/>
+      <c r="C2066"/>
+      <c r="D2066"/>
+      <c r="G2066"/>
+    </row>
+    <row r="2067" ht="12.75">
+      <c r="A2067" s="6"/>
+      <c r="B2067"/>
+      <c r="C2067"/>
+      <c r="D2067" s="1"/>
+    </row>
+    <row r="2068" ht="12.75">
+      <c r="A2068" s="6"/>
+      <c r="B2068"/>
+      <c r="C2068"/>
+      <c r="D2068"/>
+      <c r="G2068"/>
     </row>
     <row r="2069" ht="12.75">
       <c r="A2069" s="6"/>
       <c r="B2069"/>
       <c r="C2069"/>
-      <c r="D2069"/>
-      <c r="G2069"/>
+      <c r="D2069" s="1"/>
     </row>
     <row r="2070" ht="12.75">
       <c r="A2070" s="6"/>
       <c r="B2070"/>
       <c r="C2070"/>
-      <c r="D2070" s="1"/>
+      <c r="D2070"/>
+      <c r="G2070"/>
     </row>
     <row r="2071" ht="12.75">
       <c r="A2071" s="6"/>
       <c r="B2071"/>
       <c r="C2071"/>
-      <c r="D2071"/>
-      <c r="G2071"/>
+      <c r="D2071" s="1"/>
     </row>
     <row r="2072" ht="12.75">
       <c r="A2072" s="6"/>
       <c r="B2072"/>
       <c r="C2072"/>
-      <c r="D2072" s="1"/>
-    </row>
-    <row r="2073" ht="12.75">
-      <c r="A2073" s="6"/>
-      <c r="B2073"/>
-      <c r="C2073"/>
-      <c r="D2073"/>
-      <c r="G2073"/>
-    </row>
-    <row r="2074" ht="12.75">
-      <c r="A2074" s="6"/>
-      <c r="B2074"/>
-      <c r="C2074"/>
-      <c r="D2074" s="1"/>
-    </row>
-    <row r="2075" ht="12.75">
-      <c r="A2075" s="6"/>
-      <c r="B2075"/>
-      <c r="C2075"/>
-      <c r="D2075"/>
-      <c r="G2075"/>
-    </row>
-    <row r="2076" ht="12.75">
-      <c r="A2076" s="6"/>
-      <c r="B2076"/>
-      <c r="C2076"/>
-      <c r="D2076" s="1"/>
-    </row>
-    <row r="2077" ht="12.75">
-      <c r="A2077" s="6"/>
-      <c r="B2077"/>
-      <c r="C2077"/>
-      <c r="D2077"/>
-      <c r="G2077"/>
+      <c r="D2072"/>
+      <c r="G2072"/>
+    </row>
+    <row r="2087" ht="12.75">
+      <c r="D2087" s="1"/>
+    </row>
+    <row r="2088" ht="12.75">
+      <c r="D2088" s="1"/>
+    </row>
+    <row r="2089" ht="12.75">
+      <c r="D2089" s="1"/>
+    </row>
+    <row r="2090" ht="12.75">
+      <c r="D2090" s="1"/>
+    </row>
+    <row r="2091" ht="12.75">
+      <c r="D2091" s="1"/>
     </row>
     <row r="2092" ht="12.75">
       <c r="D2092" s="1"/>
@@ -25782,23 +26292,23 @@
       <c r="D2094" s="1"/>
     </row>
     <row r="2095" ht="12.75">
+      <c r="A2095" s="6"/>
       <c r="D2095" s="1"/>
     </row>
     <row r="2096" ht="12.75">
-      <c r="D2096" s="1"/>
+      <c r="A2096" s="6"/>
     </row>
     <row r="2097" ht="12.75">
-      <c r="D2097" s="1"/>
+      <c r="A2097" s="6"/>
     </row>
     <row r="2098" ht="12.75">
-      <c r="D2098" s="1"/>
+      <c r="A2098" s="6"/>
     </row>
     <row r="2099" ht="12.75">
-      <c r="D2099" s="1"/>
+      <c r="A2099" s="6"/>
     </row>
     <row r="2100" ht="12.75">
       <c r="A2100" s="6"/>
-      <c r="D2100" s="1"/>
     </row>
     <row r="2101" ht="12.75">
       <c r="A2101" s="6"/>
@@ -25830,38 +26340,38 @@
     <row r="2110" ht="12.75">
       <c r="A2110" s="6"/>
     </row>
-    <row r="2111" ht="12.75">
-      <c r="A2111" s="6"/>
-    </row>
-    <row r="2112" ht="12.75">
-      <c r="A2112" s="6"/>
-    </row>
-    <row r="2113" ht="12.75">
-      <c r="A2113" s="6"/>
-    </row>
-    <row r="2114" ht="12.75">
-      <c r="A2114" s="6"/>
-    </row>
-    <row r="2115" ht="12.75">
-      <c r="A2115" s="6"/>
+    <row r="2381" ht="12.75">
+      <c r="A2381" s="6"/>
+    </row>
+    <row r="2382" ht="12.75">
+      <c r="A2382" s="6"/>
+    </row>
+    <row r="2383" ht="12.75">
+      <c r="A2383" s="6"/>
+    </row>
+    <row r="2384" ht="12.75">
+      <c r="A2384" s="6"/>
+    </row>
+    <row r="2385" ht="12.75">
+      <c r="A2385" s="6"/>
     </row>
     <row r="2386" ht="12.75">
       <c r="A2386" s="6"/>
     </row>
-    <row r="2387" ht="12.75">
-      <c r="A2387" s="6"/>
-    </row>
-    <row r="2388" ht="12.75">
-      <c r="A2388" s="6"/>
-    </row>
-    <row r="2389" ht="12.75">
-      <c r="A2389" s="6"/>
-    </row>
-    <row r="2390" ht="12.75">
-      <c r="A2390" s="6"/>
-    </row>
-    <row r="2391" ht="12.75">
-      <c r="A2391" s="6"/>
+    <row r="2439" ht="12.75">
+      <c r="A2439" s="6"/>
+    </row>
+    <row r="2440" ht="12.75">
+      <c r="A2440" s="6"/>
+    </row>
+    <row r="2441" ht="12.75">
+      <c r="A2441" s="6"/>
+    </row>
+    <row r="2442" ht="12.75">
+      <c r="A2442" s="6"/>
+    </row>
+    <row r="2443" ht="12.75">
+      <c r="A2443" s="6"/>
     </row>
     <row r="2444" ht="12.75">
       <c r="A2444" s="6"/>
@@ -25878,20 +26388,20 @@
     <row r="2448" ht="12.75">
       <c r="A2448" s="6"/>
     </row>
-    <row r="2449" ht="12.75">
-      <c r="A2449" s="6"/>
-    </row>
-    <row r="2450" ht="12.75">
-      <c r="A2450" s="6"/>
-    </row>
-    <row r="2451" ht="12.75">
-      <c r="A2451" s="6"/>
-    </row>
-    <row r="2452" ht="12.75">
-      <c r="A2452" s="6"/>
-    </row>
-    <row r="2453" ht="12.75">
-      <c r="A2453" s="6"/>
+    <row r="2576" ht="12.75">
+      <c r="A2576" s="6"/>
+    </row>
+    <row r="2577" ht="12.75">
+      <c r="A2577" s="6"/>
+    </row>
+    <row r="2578" ht="12.75">
+      <c r="A2578" s="6"/>
+    </row>
+    <row r="2579" ht="12.75">
+      <c r="A2579" s="6"/>
+    </row>
+    <row r="2580" ht="12.75">
+      <c r="A2580" s="6"/>
     </row>
     <row r="2581" ht="12.75">
       <c r="A2581" s="6"/>
@@ -25971,14 +26481,13 @@
     <row r="2606" ht="12.75">
       <c r="A2606" s="6"/>
     </row>
-    <row r="2607" ht="12.75">
-      <c r="A2607" s="6"/>
-    </row>
     <row r="2608" ht="12.75">
       <c r="A2608" s="6"/>
     </row>
     <row r="2609" ht="12.75">
       <c r="A2609" s="6"/>
+      <c r="B2609"/>
+      <c r="C2609"/>
     </row>
     <row r="2610" ht="12.75">
       <c r="A2610" s="6"/>
@@ -25986,8 +26495,15 @@
     <row r="2611" ht="12.75">
       <c r="A2611" s="6"/>
     </row>
+    <row r="2612" ht="12.75">
+      <c r="A2612" s="6"/>
+      <c r="B2612"/>
+      <c r="C2612"/>
+    </row>
     <row r="2613" ht="12.75">
       <c r="A2613" s="6"/>
+      <c r="B2613"/>
+      <c r="C2613"/>
     </row>
     <row r="2614" ht="12.75">
       <c r="A2614" s="6"/>
@@ -25996,9 +26512,13 @@
     </row>
     <row r="2615" ht="12.75">
       <c r="A2615" s="6"/>
+      <c r="B2615"/>
+      <c r="C2615"/>
     </row>
     <row r="2616" ht="12.75">
       <c r="A2616" s="6"/>
+      <c r="B2616"/>
+      <c r="C2616"/>
     </row>
     <row r="2617" ht="12.75">
       <c r="A2617" s="6"/>
@@ -26033,17 +26553,14 @@
     <row r="2623" ht="12.75">
       <c r="A2623" s="6"/>
       <c r="B2623"/>
-      <c r="C2623"/>
     </row>
     <row r="2624" ht="12.75">
       <c r="A2624" s="6"/>
       <c r="B2624"/>
-      <c r="C2624"/>
     </row>
     <row r="2625" ht="12.75">
       <c r="A2625" s="6"/>
       <c r="B2625"/>
-      <c r="C2625"/>
     </row>
     <row r="2626" ht="12.75">
       <c r="A2626" s="6"/>
@@ -26051,39 +26568,17 @@
       <c r="C2626"/>
     </row>
     <row r="2627" ht="12.75">
-      <c r="A2627" s="6"/>
-      <c r="B2627"/>
-      <c r="C2627"/>
+      <c r="A2627" s="2"/>
+      <c r="C2627" s="17"/>
     </row>
     <row r="2628" ht="12.75">
       <c r="A2628" s="6"/>
-      <c r="B2628"/>
     </row>
     <row r="2629" ht="12.75">
-      <c r="A2629" s="6"/>
-      <c r="B2629"/>
-    </row>
-    <row r="2630" ht="12.75">
-      <c r="A2630" s="6"/>
-      <c r="B2630"/>
-    </row>
-    <row r="2631" ht="12.75">
-      <c r="A2631" s="6"/>
-      <c r="B2631"/>
-      <c r="C2631"/>
-    </row>
-    <row r="2632" ht="12.75">
-      <c r="A2632" s="2"/>
-      <c r="C2632" s="17"/>
-    </row>
-    <row r="2633" ht="12.75">
-      <c r="A2633" s="6"/>
-    </row>
-    <row r="2634" ht="12.75">
-      <c r="A2634" s="7"/>
+      <c r="A2629" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1342">
+  <autoFilter ref="A1:C1381">
     <filterColumn colId="0">
       <filters>
         <filter val="(This is ...) Tatsuro Yamashita"/>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,8 +9,8 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1388</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1390</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1971">
   <si>
     <t xml:space="preserve">Playlist Name</t>
   </si>
@@ -4213,6 +4213,9 @@
     <t xml:space="preserve">Dismal Day</t>
   </si>
   <si>
+    <t xml:space="preserve">Ventura Highway</t>
+  </si>
+  <si>
     <t xml:space="preserve">I Keep Forgettin'</t>
   </si>
   <si>
@@ -4243,6 +4246,9 @@
     <t>Player</t>
   </si>
   <si>
+    <t xml:space="preserve">Tin Man</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hey Nineteen</t>
   </si>
   <si>
@@ -5680,9 +5686,6 @@
     <t xml:space="preserve">Magic Ways</t>
   </si>
   <si>
-    <t xml:space="preserve">Big Wave</t>
-  </si>
-  <si>
     <t xml:space="preserve">Music Book</t>
   </si>
   <si>
@@ -5911,13 +5914,25 @@
     <t xml:space="preserve">Silent Screamer</t>
   </si>
   <si>
-    <t xml:space="preserve">For You</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morning Glory</t>
   </si>
   <si>
     <t xml:space="preserve">Love Talking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funky Flushin</t>
+  </si>
+  <si>
+    <t>Brandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come and Get Your Love</t>
+  </si>
+  <si>
+    <t>RedBone</t>
   </si>
 </sst>
 </file>
@@ -5993,7 +6008,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6018,13 +6033,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
@@ -6033,10 +6045,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
@@ -19101,59 +19109,59 @@
       <c r="G935" s="8"/>
     </row>
     <row r="936" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A936" s="6" t="s">
+      <c r="A936" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="B936" t="s">
+      <c r="B936" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="C936" t="s">
+      <c r="C936" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D936" s="8"/>
+      <c r="E936" s="8"/>
+      <c r="F936" s="8"/>
+      <c r="G936" s="8"/>
+    </row>
+    <row r="937" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A937" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B937" t="s">
         <v>1398</v>
       </c>
-      <c r="D936"/>
-      <c r="E936"/>
-      <c r="F936"/>
-      <c r="G936"/>
-    </row>
-    <row r="937" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A937" s="7" t="s">
+      <c r="C937" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D937"/>
+      <c r="E937"/>
+      <c r="F937"/>
+      <c r="G937"/>
+    </row>
+    <row r="938" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A938" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="B937" s="8" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C937" s="8" t="s">
+      <c r="B938" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="D937" s="8"/>
-      <c r="E937" s="8"/>
-      <c r="F937" s="8"/>
-      <c r="G937" s="8"/>
-    </row>
-    <row r="938" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A938" s="6" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B938" t="s">
+      <c r="C938" s="8" t="s">
         <v>1401</v>
       </c>
-      <c r="C938" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D938"/>
-      <c r="E938"/>
-      <c r="F938"/>
-      <c r="G938"/>
+      <c r="D938" s="8"/>
+      <c r="E938" s="8"/>
+      <c r="F938" s="8"/>
+      <c r="G938" s="8"/>
     </row>
     <row r="939" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A939" s="6" t="s">
         <v>1395</v>
       </c>
       <c r="B939" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C939" t="s">
         <v>1403</v>
-      </c>
-      <c r="C939" t="s">
-        <v>1404</v>
       </c>
       <c r="D939"/>
       <c r="E939"/>
@@ -19165,10 +19173,10 @@
         <v>1395</v>
       </c>
       <c r="B940" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C940" t="s">
         <v>1405</v>
-      </c>
-      <c r="C940" t="s">
-        <v>1406</v>
       </c>
       <c r="D940"/>
       <c r="E940"/>
@@ -19180,10 +19188,10 @@
         <v>1395</v>
       </c>
       <c r="B941" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C941" t="s">
         <v>1407</v>
-      </c>
-      <c r="C941" t="s">
-        <v>1400</v>
       </c>
       <c r="D941"/>
       <c r="E941"/>
@@ -19191,29 +19199,29 @@
       <c r="G941"/>
     </row>
     <row r="942" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A942" s="7" t="s">
+      <c r="A942" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="B942" s="8" t="s">
+      <c r="B942" s="9" t="s">
         <v>1408</v>
       </c>
-      <c r="C942" s="8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D942" s="8"/>
-      <c r="E942" s="8"/>
-      <c r="F942" s="8"/>
-      <c r="G942" s="8"/>
+      <c r="C942" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D942" s="9"/>
+      <c r="E942" s="9"/>
+      <c r="F942" s="9"/>
+      <c r="G942" s="9"/>
     </row>
     <row r="943" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A943" s="6" t="s">
         <v>1395</v>
       </c>
       <c r="B943" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C943" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D943"/>
       <c r="E943"/>
@@ -19221,14 +19229,14 @@
       <c r="G943"/>
     </row>
     <row r="944" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A944" s="6" t="s">
-        <v>1317</v>
+      <c r="A944" s="7" t="s">
+        <v>1395</v>
       </c>
       <c r="B944" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C944" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="C944" s="8" t="s">
-        <v>1412</v>
       </c>
       <c r="D944" s="8"/>
       <c r="E944" s="8"/>
@@ -19237,13 +19245,13 @@
     </row>
     <row r="945" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A945" s="6" t="s">
-        <v>1317</v>
+        <v>1395</v>
       </c>
       <c r="B945" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C945" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D945"/>
       <c r="E945"/>
@@ -19252,58 +19260,58 @@
     </row>
     <row r="946" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A946" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B946" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C946" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D946" s="8"/>
+      <c r="E946" s="8"/>
+      <c r="F946" s="8"/>
+      <c r="G946" s="8"/>
+    </row>
+    <row r="947" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A947" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D947"/>
+      <c r="E947"/>
+      <c r="F947"/>
+      <c r="G947"/>
+    </row>
+    <row r="948" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A948" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="B946" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C946" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D946"/>
-      <c r="E946"/>
-      <c r="F946"/>
-      <c r="G946"/>
-    </row>
-    <row r="947" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A947" s="7" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B947" s="8" t="s">
+      <c r="B948" t="s">
         <v>1417</v>
       </c>
-      <c r="C947" s="8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D947" s="8"/>
-      <c r="E947" s="8"/>
-      <c r="F947" s="8"/>
-      <c r="G947" s="8"/>
-    </row>
-    <row r="948" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A948" s="7" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B948" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C948" s="8" t="s">
+      <c r="C948" t="s">
         <v>1418</v>
       </c>
-      <c r="D948" s="8"/>
-      <c r="E948" s="8"/>
-      <c r="F948" s="8"/>
-      <c r="G948" s="8"/>
+      <c r="D948"/>
+      <c r="E948"/>
+      <c r="F948"/>
+      <c r="G948"/>
     </row>
     <row r="949" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A949" s="7" t="s">
-        <v>749</v>
+        <v>1395</v>
       </c>
       <c r="B949" s="8" t="s">
         <v>1419</v>
       </c>
       <c r="C949" s="8" t="s">
-        <v>759</v>
+        <v>1411</v>
       </c>
       <c r="D949" s="8"/>
       <c r="E949" s="8"/>
@@ -19312,13 +19320,13 @@
     </row>
     <row r="950" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A950" s="7" t="s">
-        <v>749</v>
+        <v>1395</v>
       </c>
       <c r="B950" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C950" s="8" t="s">
         <v>1420</v>
-      </c>
-      <c r="C950" s="8" t="s">
-        <v>1421</v>
       </c>
       <c r="D950" s="8"/>
       <c r="E950" s="8"/>
@@ -19330,10 +19338,10 @@
         <v>749</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C951" s="8" t="s">
-        <v>1423</v>
+        <v>759</v>
       </c>
       <c r="D951" s="8"/>
       <c r="E951" s="8"/>
@@ -19345,10 +19353,10 @@
         <v>749</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C952" s="8" t="s">
-        <v>769</v>
+        <v>1423</v>
       </c>
       <c r="D952" s="8"/>
       <c r="E952" s="8"/>
@@ -19360,10 +19368,10 @@
         <v>749</v>
       </c>
       <c r="B953" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C953" s="8" t="s">
         <v>1425</v>
-      </c>
-      <c r="C953" s="8" t="s">
-        <v>771</v>
       </c>
       <c r="D953" s="8"/>
       <c r="E953" s="8"/>
@@ -19393,7 +19401,7 @@
         <v>1427</v>
       </c>
       <c r="C955" s="8" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D955" s="8"/>
       <c r="E955" s="8"/>
@@ -19408,7 +19416,7 @@
         <v>1428</v>
       </c>
       <c r="C956" s="8" t="s">
-        <v>1429</v>
+        <v>769</v>
       </c>
       <c r="D956" s="8"/>
       <c r="E956" s="8"/>
@@ -19420,10 +19428,10 @@
         <v>749</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C957" s="8" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D957" s="8"/>
       <c r="E957" s="8"/>
@@ -19432,13 +19440,13 @@
     </row>
     <row r="958" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A958" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B958" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C958" s="8" t="s">
         <v>1431</v>
-      </c>
-      <c r="B958" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C958" s="8" t="s">
-        <v>1433</v>
       </c>
       <c r="D958" s="8"/>
       <c r="E958" s="8"/>
@@ -19446,29 +19454,29 @@
       <c r="G958" s="8"/>
     </row>
     <row r="959" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A959" s="6" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C959" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D959"/>
-      <c r="E959"/>
-      <c r="F959"/>
-      <c r="G959"/>
+      <c r="A959" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B959" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C959" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D959" s="8"/>
+      <c r="E959" s="8"/>
+      <c r="F959" s="8"/>
+      <c r="G959" s="8"/>
     </row>
     <row r="960" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A960" s="7" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C960" s="8" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D960" s="8"/>
       <c r="E960" s="8"/>
@@ -19477,28 +19485,28 @@
     </row>
     <row r="961" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A961" s="6" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B961" s="8" t="s">
-        <v>1438</v>
+        <v>1433</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1436</v>
       </c>
       <c r="C961" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D961" s="8"/>
-      <c r="E961" s="8"/>
-      <c r="F961" s="8"/>
-      <c r="G961" s="8"/>
+        <v>1437</v>
+      </c>
+      <c r="D961"/>
+      <c r="E961"/>
+      <c r="F961"/>
+      <c r="G961"/>
     </row>
     <row r="962" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A962" s="7" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B962" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C962" s="8" t="s">
         <v>1439</v>
-      </c>
-      <c r="C962" t="s">
-        <v>1440</v>
       </c>
       <c r="D962" s="8"/>
       <c r="E962" s="8"/>
@@ -19507,28 +19515,28 @@
     </row>
     <row r="963" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A963" s="6" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B963" t="s">
-        <v>1441</v>
+        <v>1433</v>
+      </c>
+      <c r="B963" s="8" t="s">
+        <v>1440</v>
       </c>
       <c r="C963" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D963"/>
-      <c r="E963"/>
-      <c r="F963"/>
-      <c r="G963"/>
+        <v>1437</v>
+      </c>
+      <c r="D963" s="8"/>
+      <c r="E963" s="8"/>
+      <c r="F963" s="8"/>
+      <c r="G963" s="8"/>
     </row>
     <row r="964" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A964" s="7" t="s">
-        <v>774</v>
+        <v>1433</v>
       </c>
       <c r="B964" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C964" t="s">
         <v>1442</v>
-      </c>
-      <c r="C964" s="8" t="s">
-        <v>1443</v>
       </c>
       <c r="D964" s="8"/>
       <c r="E964" s="8"/>
@@ -19537,13 +19545,13 @@
     </row>
     <row r="965" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A965" s="6" t="s">
-        <v>774</v>
+        <v>1433</v>
       </c>
       <c r="B965" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C965" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="D965"/>
       <c r="E965"/>
@@ -19552,28 +19560,28 @@
     </row>
     <row r="966" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A966" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B966" t="s">
+        <v>774</v>
+      </c>
+      <c r="B966" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C966" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D966" s="8"/>
+      <c r="E966" s="8"/>
+      <c r="F966" s="8"/>
+      <c r="G966" s="8"/>
+    </row>
+    <row r="967" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A967" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B967" t="s">
         <v>1446</v>
       </c>
-      <c r="C966" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D966"/>
-      <c r="E966"/>
-      <c r="F966"/>
-      <c r="G966"/>
-    </row>
-    <row r="967" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A967" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B967" t="s">
+      <c r="C967" t="s">
         <v>1447</v>
-      </c>
-      <c r="C967" t="s">
-        <v>1448</v>
       </c>
       <c r="D967"/>
       <c r="E967"/>
@@ -19581,14 +19589,14 @@
       <c r="G967"/>
     </row>
     <row r="968" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A968" s="6" t="s">
-        <v>3</v>
+      <c r="A968" s="7" t="s">
+        <v>1433</v>
       </c>
       <c r="B968" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C968" t="s">
-        <v>1450</v>
+        <v>1448</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>1435</v>
       </c>
       <c r="D968"/>
       <c r="E968"/>
@@ -19597,13 +19605,13 @@
     </row>
     <row r="969" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A969" s="7" t="s">
-        <v>3</v>
+        <v>1433</v>
       </c>
       <c r="B969" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C969" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D969"/>
       <c r="E969"/>
@@ -19614,11 +19622,11 @@
       <c r="A970" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B970" s="6" t="s">
-        <v>1453</v>
+      <c r="B970" t="s">
+        <v>1451</v>
       </c>
       <c r="C970" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D970"/>
       <c r="E970"/>
@@ -19630,35 +19638,40 @@
         <v>3</v>
       </c>
       <c r="B971" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C971" t="s">
-        <v>7</v>
+        <v>1454</v>
       </c>
       <c r="D971"/>
+      <c r="E971"/>
+      <c r="F971"/>
       <c r="G971"/>
     </row>
     <row r="972" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A972" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B972" t="s">
+      <c r="B972" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C972" t="s">
         <v>1456</v>
       </c>
-      <c r="C972" t="s">
-        <v>1450</v>
-      </c>
       <c r="D972"/>
+      <c r="E972"/>
+      <c r="F972"/>
+      <c r="G972"/>
     </row>
     <row r="973" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A973" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B973" s="9" t="s">
+      <c r="B973" t="s">
         <v>1457</v>
       </c>
       <c r="C973" t="s">
-        <v>1458</v>
+        <v>7</v>
       </c>
       <c r="D973"/>
       <c r="G973"/>
@@ -19667,11 +19680,11 @@
       <c r="A974" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B974" s="9" t="s">
-        <v>1459</v>
+      <c r="B974" t="s">
+        <v>1458</v>
       </c>
       <c r="C974" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="D974"/>
     </row>
@@ -19680,10 +19693,10 @@
         <v>3</v>
       </c>
       <c r="B975" s="10" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C975" t="s">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="D975"/>
       <c r="G975"/>
@@ -19693,10 +19706,10 @@
         <v>3</v>
       </c>
       <c r="B976" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C976" t="s">
         <v>1462</v>
-      </c>
-      <c r="C976" t="s">
-        <v>1463</v>
       </c>
       <c r="D976"/>
     </row>
@@ -19704,11 +19717,11 @@
       <c r="A977" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B977" s="9" t="s">
-        <v>1464</v>
+      <c r="B977" s="10" t="s">
+        <v>1463</v>
       </c>
       <c r="C977" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D977"/>
       <c r="G977"/>
@@ -19717,11 +19730,11 @@
       <c r="A978" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B978" s="9" t="s">
+      <c r="B978" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C978" t="s">
         <v>1465</v>
-      </c>
-      <c r="C978" t="s">
-        <v>1450</v>
       </c>
       <c r="D978"/>
     </row>
@@ -19729,11 +19742,11 @@
       <c r="A979" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B979" s="9" t="s">
+      <c r="B979" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="C979" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D979"/>
       <c r="G979"/>
@@ -19743,10 +19756,10 @@
         <v>3</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C980" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D980"/>
     </row>
@@ -19754,11 +19767,11 @@
       <c r="A981" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B981" s="9" t="s">
+      <c r="B981" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C981" t="s">
         <v>1469</v>
-      </c>
-      <c r="C981" t="s">
-        <v>1450</v>
       </c>
       <c r="D981"/>
       <c r="G981"/>
@@ -19767,36 +19780,36 @@
       <c r="A982" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B982" s="9" t="s">
+      <c r="B982" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="C982" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D982"/>
     </row>
     <row r="983" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A983" s="6" t="s">
+      <c r="A983" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B983" s="9" t="s">
+      <c r="B983" s="10" t="s">
         <v>1471</v>
       </c>
       <c r="C983" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D983"/>
       <c r="G983"/>
     </row>
     <row r="984" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A984" s="7" t="s">
+      <c r="A984" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B984" s="9" t="s">
+      <c r="B984" s="10" t="s">
         <v>1472</v>
       </c>
       <c r="C984" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D984"/>
     </row>
@@ -19804,11 +19817,11 @@
       <c r="A985" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B985" s="9" t="s">
+      <c r="B985" s="10" t="s">
         <v>1473</v>
       </c>
       <c r="C985" t="s">
-        <v>11</v>
+        <v>1452</v>
       </c>
       <c r="D985"/>
       <c r="G985"/>
@@ -19817,11 +19830,11 @@
       <c r="A986" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B986" s="9" t="s">
+      <c r="B986" s="10" t="s">
         <v>1474</v>
       </c>
       <c r="C986" t="s">
-        <v>1475</v>
+        <v>1452</v>
       </c>
       <c r="D986"/>
     </row>
@@ -19829,11 +19842,11 @@
       <c r="A987" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B987" s="9" t="s">
-        <v>1476</v>
+      <c r="B987" s="10" t="s">
+        <v>1475</v>
       </c>
       <c r="C987" t="s">
-        <v>1450</v>
+        <v>11</v>
       </c>
       <c r="D987"/>
       <c r="G987"/>
@@ -19842,11 +19855,11 @@
       <c r="A988" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B988" s="9" t="s">
+      <c r="B988" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C988" t="s">
         <v>1477</v>
-      </c>
-      <c r="C988" t="s">
-        <v>1450</v>
       </c>
       <c r="D988"/>
     </row>
@@ -19854,7 +19867,7 @@
       <c r="A989" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B989" s="9" t="s">
+      <c r="B989" s="10" t="s">
         <v>1478</v>
       </c>
       <c r="C989" t="s">
@@ -19867,36 +19880,36 @@
       <c r="A990" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B990" s="9" t="s">
+      <c r="B990" s="10" t="s">
         <v>1479</v>
       </c>
       <c r="C990" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D990"/>
     </row>
     <row r="991" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A991" s="7" t="s">
+      <c r="A991" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B991" s="9" t="s">
+      <c r="B991" s="10" t="s">
         <v>1480</v>
       </c>
-      <c r="C991" s="8" t="s">
-        <v>1475</v>
+      <c r="C991" t="s">
+        <v>1454</v>
       </c>
       <c r="D991"/>
       <c r="G991"/>
     </row>
     <row r="992" s="0" customFormat="1" ht="12.75" hidden="1">
-      <c r="A992" s="6" t="s">
+      <c r="A992" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B992" s="9" t="s">
+      <c r="B992" s="10" t="s">
         <v>1481</v>
       </c>
       <c r="C992" t="s">
-        <v>5</v>
+        <v>1452</v>
       </c>
       <c r="D992"/>
     </row>
@@ -19904,11 +19917,11 @@
       <c r="A993" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B993" s="9" t="s">
+      <c r="B993" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="C993" t="s">
-        <v>1483</v>
+      <c r="C993" s="8" t="s">
+        <v>1477</v>
       </c>
       <c r="D993"/>
       <c r="G993"/>
@@ -19917,11 +19930,11 @@
       <c r="A994" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B994" s="9" t="s">
-        <v>1394</v>
+      <c r="B994" s="10" t="s">
+        <v>1483</v>
       </c>
       <c r="C994" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D994"/>
     </row>
@@ -19929,11 +19942,11 @@
       <c r="A995" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B995" s="9" t="s">
+      <c r="B995" s="10" t="s">
         <v>1484</v>
       </c>
       <c r="C995" t="s">
-        <v>1450</v>
+        <v>1485</v>
       </c>
       <c r="D995"/>
       <c r="G995"/>
@@ -19942,11 +19955,11 @@
       <c r="A996" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B996" s="9" t="s">
-        <v>1485</v>
+      <c r="B996" s="10" t="s">
+        <v>1394</v>
       </c>
       <c r="C996" t="s">
-        <v>1450</v>
+        <v>11</v>
       </c>
       <c r="D996"/>
     </row>
@@ -19958,7 +19971,7 @@
         <v>1486</v>
       </c>
       <c r="C997" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D997"/>
       <c r="G997"/>
@@ -19967,72 +19980,72 @@
       <c r="A998" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B998" t="s">
+      <c r="B998" s="10" t="s">
         <v>1487</v>
       </c>
       <c r="C998" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D998"/>
+    </row>
+    <row r="999" s="0" customFormat="1" ht="12.75" hidden="1">
+      <c r="A999" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B999" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="D998"/>
-    </row>
-    <row r="999" ht="12.75" hidden="1">
-      <c r="A999" s="6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C999" s="11" t="s">
-        <v>255</v>
+      <c r="C999" t="s">
+        <v>1456</v>
       </c>
       <c r="D999"/>
       <c r="G999"/>
     </row>
-    <row r="1000" ht="12.75" hidden="1">
+    <row r="1000" s="0" customFormat="1" ht="12.75" hidden="1">
       <c r="A1000" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1000" t="s">
         <v>1489</v>
       </c>
-      <c r="B1000" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C1000" s="11" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D1000" s="1"/>
+      <c r="C1000" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D1000"/>
     </row>
     <row r="1001" ht="12.75" hidden="1">
       <c r="A1001" s="6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B1001" t="s">
         <v>1492</v>
       </c>
-      <c r="C1001" s="11" t="s">
-        <v>1493</v>
+      <c r="C1001" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="D1001"/>
       <c r="G1001"/>
     </row>
     <row r="1002" ht="12.75" hidden="1">
-      <c r="A1002" s="7" t="s">
-        <v>1489</v>
+      <c r="A1002" s="6" t="s">
+        <v>1491</v>
       </c>
       <c r="B1002" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1002" s="11" t="s">
-        <v>286</v>
+        <v>1493</v>
+      </c>
+      <c r="C1002" s="9" t="s">
+        <v>1447</v>
       </c>
       <c r="D1002" s="1"/>
     </row>
     <row r="1003" ht="12.75" hidden="1">
-      <c r="A1003" s="7" t="s">
-        <v>1489</v>
+      <c r="A1003" s="6" t="s">
+        <v>1491</v>
       </c>
       <c r="B1003" t="s">
         <v>1494</v>
       </c>
-      <c r="C1003" s="11" t="s">
+      <c r="C1003" s="9" t="s">
         <v>1495</v>
       </c>
       <c r="D1003"/>
@@ -20040,50 +20053,50 @@
     </row>
     <row r="1004" ht="12.75" hidden="1">
       <c r="A1004" s="7" t="s">
-        <v>1431</v>
+        <v>1491</v>
       </c>
       <c r="B1004" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>1497</v>
+        <v>780</v>
+      </c>
+      <c r="C1004" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="D1004" s="1"/>
     </row>
     <row r="1005" ht="12.75" hidden="1">
       <c r="A1005" s="7" t="s">
-        <v>1395</v>
+        <v>1491</v>
       </c>
       <c r="B1005" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C1005" s="11" t="s">
-        <v>1499</v>
+        <v>1496</v>
+      </c>
+      <c r="C1005" s="9" t="s">
+        <v>1497</v>
       </c>
       <c r="D1005"/>
       <c r="G1005"/>
     </row>
     <row r="1006" ht="12.75" hidden="1">
-      <c r="A1006" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1006" s="11" t="s">
+      <c r="A1006" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D1006" s="1"/>
+    </row>
+    <row r="1007" ht="12.75" hidden="1">
+      <c r="A1007" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1007" t="s">
         <v>1500</v>
       </c>
-      <c r="C1006" s="11" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D1006" s="1"/>
-    </row>
-    <row r="1007" ht="12.75" hidden="1">
-      <c r="A1007" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1007" s="11" t="s">
+      <c r="C1007" s="9" t="s">
         <v>1501</v>
-      </c>
-      <c r="C1007" s="11" t="s">
-        <v>1502</v>
       </c>
       <c r="D1007"/>
       <c r="G1007"/>
@@ -20092,11 +20105,11 @@
       <c r="A1008" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1008" s="11" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>1504</v>
+      <c r="B1008" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C1008" s="9" t="s">
+        <v>1120</v>
       </c>
       <c r="D1008" s="1"/>
     </row>
@@ -20104,11 +20117,11 @@
       <c r="A1009" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1009" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>1505</v>
+      <c r="B1009" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C1009" s="9" t="s">
+        <v>1504</v>
       </c>
       <c r="D1009"/>
       <c r="G1009"/>
@@ -20117,8 +20130,8 @@
       <c r="A1010" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1010" s="11" t="s">
-        <v>476</v>
+      <c r="B1010" s="9" t="s">
+        <v>1505</v>
       </c>
       <c r="C1010" t="s">
         <v>1506</v>
@@ -20129,11 +20142,11 @@
       <c r="A1011" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1011" s="11" t="s">
+      <c r="B1011" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1011" t="s">
         <v>1507</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>1508</v>
       </c>
       <c r="D1011"/>
       <c r="G1011"/>
@@ -20142,11 +20155,11 @@
       <c r="A1012" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1012" s="11" t="s">
-        <v>1509</v>
+      <c r="B1012" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="C1012" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D1012" s="1"/>
     </row>
@@ -20154,11 +20167,11 @@
       <c r="A1013" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1013" s="11" t="s">
-        <v>1511</v>
+      <c r="B1013" s="9" t="s">
+        <v>1509</v>
       </c>
       <c r="C1013" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="D1013"/>
       <c r="G1013"/>
@@ -20167,11 +20180,11 @@
       <c r="A1014" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1014" s="11" t="s">
+      <c r="B1014" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C1014" t="s">
         <v>1512</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>1513</v>
       </c>
       <c r="D1014" s="1"/>
     </row>
@@ -20179,11 +20192,11 @@
       <c r="A1015" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1015" s="11" t="s">
-        <v>1514</v>
+      <c r="B1015" s="9" t="s">
+        <v>1513</v>
       </c>
       <c r="C1015" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="D1015"/>
       <c r="G1015"/>
@@ -20192,11 +20205,11 @@
       <c r="A1016" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1016" s="11" t="s">
-        <v>1516</v>
+      <c r="B1016" s="9" t="s">
+        <v>1514</v>
       </c>
       <c r="C1016" t="s">
-        <v>1504</v>
+        <v>1515</v>
       </c>
       <c r="D1016" s="1"/>
     </row>
@@ -20204,11 +20217,11 @@
       <c r="A1017" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1017" s="11" t="s">
+      <c r="B1017" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1017" t="s">
         <v>1517</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1518</v>
       </c>
       <c r="D1017"/>
       <c r="G1017"/>
@@ -20217,11 +20230,11 @@
       <c r="A1018" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1018" s="11" t="s">
-        <v>1519</v>
+      <c r="B1018" s="9" t="s">
+        <v>1518</v>
       </c>
       <c r="C1018" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D1018" s="1"/>
     </row>
@@ -20229,11 +20242,11 @@
       <c r="A1019" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1019" s="11" t="s">
+      <c r="B1019" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C1019" t="s">
         <v>1520</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>1120</v>
       </c>
       <c r="D1019"/>
       <c r="G1019"/>
@@ -20242,72 +20255,72 @@
       <c r="A1020" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1020" t="s">
+      <c r="B1020" s="9" t="s">
         <v>1521</v>
       </c>
       <c r="C1020" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="D1020" s="1"/>
     </row>
     <row r="1021" ht="12.75" hidden="1">
-      <c r="A1021" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1021" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="C1021" s="11" t="s">
-        <v>392</v>
+      <c r="A1021" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1021" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1120</v>
       </c>
       <c r="D1021"/>
       <c r="G1021"/>
     </row>
     <row r="1022" ht="12.75" hidden="1">
-      <c r="A1022" s="7" t="s">
+      <c r="A1022" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1022" s="1"/>
+    </row>
+    <row r="1023" ht="12.75" hidden="1">
+      <c r="A1023" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B1022" s="11" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C1022" t="s">
+      <c r="B1023" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1023" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="D1022" s="1"/>
-    </row>
-    <row r="1023" ht="12.75" hidden="1">
-      <c r="A1023" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1023" s="11" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C1023" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="D1023"/>
       <c r="G1023"/>
     </row>
     <row r="1024" ht="12.75" hidden="1">
-      <c r="A1024" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1024" s="11" t="s">
-        <v>1525</v>
+      <c r="A1024" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1024" s="9" t="s">
+        <v>1524</v>
       </c>
       <c r="C1024" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D1024" s="1"/>
     </row>
     <row r="1025" ht="12.75" hidden="1">
       <c r="A1025" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1025" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1025" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="C1025" t="s">
+      <c r="C1025" s="9" t="s">
         <v>398</v>
       </c>
       <c r="D1025"/>
@@ -20315,9 +20328,9 @@
     </row>
     <row r="1026" ht="12.75" hidden="1">
       <c r="A1026" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1026" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1026" s="9" t="s">
         <v>1527</v>
       </c>
       <c r="C1026" t="s">
@@ -20327,9 +20340,9 @@
     </row>
     <row r="1027" ht="12.75" hidden="1">
       <c r="A1027" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1027" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1027" s="9" t="s">
         <v>1528</v>
       </c>
       <c r="C1027" t="s">
@@ -20340,9 +20353,9 @@
     </row>
     <row r="1028" ht="12.75" hidden="1">
       <c r="A1028" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1028" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1028" s="9" t="s">
         <v>1529</v>
       </c>
       <c r="C1028" t="s">
@@ -20352,9 +20365,9 @@
     </row>
     <row r="1029" ht="12.75" hidden="1">
       <c r="A1029" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1029" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1029" s="9" t="s">
         <v>1530</v>
       </c>
       <c r="C1029" t="s">
@@ -20365,10 +20378,10 @@
     </row>
     <row r="1030" ht="12.75" hidden="1">
       <c r="A1030" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1030" s="11" t="s">
-        <v>397</v>
+        <v>1525</v>
+      </c>
+      <c r="B1030" s="9" t="s">
+        <v>1531</v>
       </c>
       <c r="C1030" t="s">
         <v>398</v>
@@ -20377,453 +20390,453 @@
     </row>
     <row r="1031" ht="12.75" hidden="1">
       <c r="A1031" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1031" s="11" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C1031" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1031" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1031" t="s">
         <v>398</v>
       </c>
       <c r="D1031"/>
       <c r="G1031"/>
     </row>
     <row r="1032" ht="12.75" hidden="1">
-      <c r="A1032" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1032" s="11" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C1032" s="11" t="s">
+      <c r="A1032" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1032" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1032" t="s">
         <v>398</v>
       </c>
       <c r="D1032" s="1"/>
     </row>
     <row r="1033" ht="12.75" hidden="1">
-      <c r="A1033" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1033" s="11" t="s">
+      <c r="A1033" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1033" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="C1033" s="11" t="s">
-        <v>1534</v>
+      <c r="C1033" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="D1033"/>
       <c r="G1033"/>
     </row>
     <row r="1034" ht="12.75" hidden="1">
       <c r="A1034" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1034" s="11" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C1034" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1034" s="9" t="s">
         <v>1534</v>
+      </c>
+      <c r="C1034" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="D1034" s="1"/>
     </row>
     <row r="1035" ht="12.75" hidden="1">
       <c r="A1035" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1035" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1035" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C1035" s="9" t="s">
         <v>1536</v>
-      </c>
-      <c r="C1035" s="11" t="s">
-        <v>1534</v>
       </c>
       <c r="D1035"/>
       <c r="G1035"/>
     </row>
     <row r="1036" ht="12.75" hidden="1">
       <c r="A1036" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1036" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1036" s="9" t="s">
         <v>1537</v>
       </c>
       <c r="C1036" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D1036" s="1"/>
     </row>
     <row r="1037" ht="12.75" hidden="1">
       <c r="A1037" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1037" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1037" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="C1037" s="11" t="s">
-        <v>1539</v>
+      <c r="C1037" s="9" t="s">
+        <v>1536</v>
       </c>
       <c r="D1037"/>
       <c r="G1037"/>
     </row>
     <row r="1038" ht="12.75" hidden="1">
       <c r="A1038" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1038" s="11" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1038" s="11" t="s">
-        <v>1541</v>
+        <v>1525</v>
+      </c>
+      <c r="B1038" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1536</v>
       </c>
       <c r="D1038" s="1"/>
     </row>
     <row r="1039" ht="12.75" hidden="1">
       <c r="A1039" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1039" s="11" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C1039" s="8" t="s">
-        <v>364</v>
+        <v>1525</v>
+      </c>
+      <c r="B1039" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C1039" s="9" t="s">
+        <v>1541</v>
       </c>
       <c r="D1039"/>
       <c r="G1039"/>
     </row>
     <row r="1040" ht="12.75" hidden="1">
       <c r="A1040" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1040" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C1040" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="B1040"/>
-      <c r="C1040"/>
       <c r="D1040" s="1"/>
     </row>
     <row r="1041" ht="12.75" hidden="1">
-      <c r="A1041" s="6" t="s">
+      <c r="A1041" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1041" s="9" t="s">
         <v>1544</v>
       </c>
-      <c r="B1041" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1546</v>
+      <c r="C1041" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="D1041"/>
       <c r="G1041"/>
     </row>
     <row r="1042" ht="12.75" hidden="1">
-      <c r="A1042" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B1042" t="s">
+      <c r="A1042" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1042"/>
+      <c r="C1042"/>
+      <c r="D1042" s="1"/>
+    </row>
+    <row r="1043" ht="12.75" hidden="1">
+      <c r="A1043" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1547</v>
       </c>
-      <c r="C1042" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D1042" s="1"/>
-    </row>
-    <row r="1043" ht="12.75" hidden="1">
-      <c r="A1043" s="7" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B1043" t="s">
+      <c r="C1043" t="s">
         <v>1548</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>1546</v>
       </c>
       <c r="D1043"/>
       <c r="G1043"/>
     </row>
     <row r="1044" ht="12.75" hidden="1">
-      <c r="A1044" s="7" t="s">
-        <v>1544</v>
+      <c r="A1044" s="6" t="s">
+        <v>1546</v>
       </c>
       <c r="B1044" t="s">
         <v>1549</v>
       </c>
-      <c r="C1044" s="8" t="s">
-        <v>1546</v>
+      <c r="C1044" t="s">
+        <v>1548</v>
       </c>
       <c r="D1044" s="1"/>
     </row>
     <row r="1045" ht="12.75" hidden="1">
       <c r="A1045" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1045" t="s">
         <v>1550</v>
       </c>
-      <c r="C1045" s="8" t="s">
-        <v>1546</v>
+      <c r="C1045" t="s">
+        <v>1548</v>
       </c>
       <c r="D1045"/>
       <c r="G1045"/>
     </row>
     <row r="1046" ht="12.75" hidden="1">
       <c r="A1046" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1046" t="s">
         <v>1551</v>
       </c>
       <c r="C1046" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1046" s="1"/>
     </row>
     <row r="1047" ht="12.75" hidden="1">
       <c r="A1047" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1047" t="s">
         <v>1552</v>
       </c>
       <c r="C1047" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1047"/>
       <c r="G1047"/>
     </row>
     <row r="1048" ht="12.75" hidden="1">
       <c r="A1048" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1048" t="s">
         <v>1553</v>
       </c>
       <c r="C1048" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1048" s="1"/>
     </row>
     <row r="1049" ht="12.75" hidden="1">
       <c r="A1049" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1049" t="s">
         <v>1554</v>
       </c>
       <c r="C1049" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1049"/>
       <c r="G1049"/>
     </row>
     <row r="1050" ht="12.75" hidden="1">
       <c r="A1050" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1050" t="s">
         <v>1555</v>
       </c>
       <c r="C1050" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1050" s="1"/>
     </row>
     <row r="1051" ht="12.75" hidden="1">
       <c r="A1051" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1051" t="s">
         <v>1556</v>
       </c>
       <c r="C1051" s="8" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1051"/>
       <c r="G1051"/>
     </row>
     <row r="1052" ht="12.75" hidden="1">
       <c r="A1052" s="7" t="s">
-        <v>59</v>
+        <v>1546</v>
       </c>
       <c r="B1052" t="s">
         <v>1557</v>
       </c>
-      <c r="C1052" t="s">
-        <v>1558</v>
+      <c r="C1052" s="8" t="s">
+        <v>1548</v>
       </c>
       <c r="D1052" s="1"/>
     </row>
     <row r="1053" ht="12.75" hidden="1">
       <c r="A1053" s="7" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="B1053" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C1053" s="8" t="s">
-        <v>1504</v>
+        <v>1548</v>
       </c>
       <c r="D1053"/>
       <c r="G1053"/>
     </row>
     <row r="1054" ht="12.75" hidden="1">
       <c r="A1054" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1559</v>
       </c>
-      <c r="B1054" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C1054" s="8" t="s">
-        <v>1504</v>
+      <c r="C1054" t="s">
+        <v>1560</v>
       </c>
       <c r="D1054" s="1"/>
     </row>
     <row r="1055" ht="12.75" hidden="1">
       <c r="A1055" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1055" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C1055" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1055"/>
       <c r="G1055"/>
     </row>
     <row r="1056" ht="12.75" hidden="1">
       <c r="A1056" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1056" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="C1056" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1056" s="1"/>
     </row>
     <row r="1057" ht="12.75" hidden="1">
       <c r="A1057" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1057" t="s">
-        <v>1516</v>
+        <v>1563</v>
       </c>
       <c r="C1057" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1057"/>
       <c r="G1057"/>
     </row>
     <row r="1058" ht="12.75" hidden="1">
       <c r="A1058" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1058" t="s">
-        <v>1562</v>
+        <v>1513</v>
       </c>
       <c r="C1058" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1058" s="1"/>
     </row>
     <row r="1059" ht="12.75" hidden="1">
       <c r="A1059" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1059" t="s">
-        <v>1563</v>
+        <v>1518</v>
       </c>
       <c r="C1059" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1059"/>
       <c r="G1059"/>
     </row>
     <row r="1060" ht="12.75" hidden="1">
       <c r="A1060" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1060" t="s">
         <v>1564</v>
       </c>
       <c r="C1060" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1060" s="1"/>
     </row>
     <row r="1061" ht="12.75" hidden="1">
       <c r="A1061" s="7" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1061" t="s">
         <v>1565</v>
       </c>
       <c r="C1061" s="8" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D1061"/>
       <c r="G1061"/>
     </row>
     <row r="1062" ht="12.75" hidden="1">
       <c r="A1062" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1566</v>
       </c>
-      <c r="B1062" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>1568</v>
+      <c r="C1062" s="8" t="s">
+        <v>1506</v>
       </c>
       <c r="D1062" s="1"/>
     </row>
     <row r="1063" ht="12.75" hidden="1">
       <c r="A1063" s="7" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="B1063" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C1063" s="11" t="s">
-        <v>1568</v>
+        <v>1567</v>
+      </c>
+      <c r="C1063" s="8" t="s">
+        <v>1506</v>
       </c>
       <c r="D1063"/>
       <c r="G1063"/>
     </row>
     <row r="1064" ht="12.75" hidden="1">
       <c r="A1064" s="7" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B1064" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C1064" t="s">
         <v>1570</v>
-      </c>
-      <c r="C1064" s="11" t="s">
-        <v>1568</v>
       </c>
       <c r="D1064" s="1"/>
     </row>
     <row r="1065" ht="12.75" hidden="1">
       <c r="A1065" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1571</v>
       </c>
-      <c r="B1065" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>423</v>
+      <c r="C1065" s="9" t="s">
+        <v>1570</v>
       </c>
       <c r="D1065"/>
       <c r="G1065"/>
     </row>
     <row r="1066" ht="12.75" hidden="1">
       <c r="A1066" s="7" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B1066" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1066" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D1066" s="1"/>
+    </row>
+    <row r="1067" ht="12.75">
+      <c r="A1067" s="7" t="s">
         <v>1573</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1066" s="1"/>
-    </row>
-    <row r="1067" ht="12.75" hidden="1">
-      <c r="A1067" s="7" t="s">
-        <v>1571</v>
       </c>
       <c r="B1067" t="s">
         <v>1574</v>
@@ -20834,9 +20847,9 @@
       <c r="D1067"/>
       <c r="G1067"/>
     </row>
-    <row r="1068" ht="12.75" hidden="1">
+    <row r="1068" ht="12.75">
       <c r="A1068" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1068" t="s">
         <v>1575</v>
@@ -20846,9 +20859,9 @@
       </c>
       <c r="D1068" s="1"/>
     </row>
-    <row r="1069" ht="12.75" hidden="1">
+    <row r="1069" ht="12.75">
       <c r="A1069" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1069" t="s">
         <v>1576</v>
@@ -20859,9 +20872,9 @@
       <c r="D1069"/>
       <c r="G1069"/>
     </row>
-    <row r="1070" ht="12.75" hidden="1">
+    <row r="1070" ht="12.75">
       <c r="A1070" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1070" t="s">
         <v>1577</v>
@@ -20871,9 +20884,9 @@
       </c>
       <c r="D1070" s="1"/>
     </row>
-    <row r="1071" ht="12.75" hidden="1">
+    <row r="1071" ht="12.75">
       <c r="A1071" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1071" t="s">
         <v>1578</v>
@@ -20884,9 +20897,9 @@
       <c r="D1071"/>
       <c r="G1071"/>
     </row>
-    <row r="1072" ht="12.75" hidden="1">
+    <row r="1072" ht="12.75">
       <c r="A1072" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1072" t="s">
         <v>1579</v>
@@ -20896,9 +20909,9 @@
       </c>
       <c r="D1072" s="1"/>
     </row>
-    <row r="1073" ht="12.75" hidden="1">
+    <row r="1073" ht="12.75">
       <c r="A1073" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1073" t="s">
         <v>1580</v>
@@ -20909,9 +20922,9 @@
       <c r="D1073"/>
       <c r="G1073"/>
     </row>
-    <row r="1074" ht="12.75" hidden="1">
+    <row r="1074" ht="12.75">
       <c r="A1074" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1074" t="s">
         <v>1581</v>
@@ -20921,9 +20934,9 @@
       </c>
       <c r="D1074" s="1"/>
     </row>
-    <row r="1075" ht="12.75" hidden="1">
+    <row r="1075" ht="12.75">
       <c r="A1075" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1075" t="s">
         <v>1582</v>
@@ -20934,9 +20947,9 @@
       <c r="D1075"/>
       <c r="G1075"/>
     </row>
-    <row r="1076" ht="12.75" hidden="1">
+    <row r="1076" ht="12.75">
       <c r="A1076" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1076" t="s">
         <v>1583</v>
@@ -20946,9 +20959,9 @@
       </c>
       <c r="D1076" s="1"/>
     </row>
-    <row r="1077" ht="12.75" hidden="1">
+    <row r="1077" ht="12.75">
       <c r="A1077" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1077" t="s">
         <v>1584</v>
@@ -20959,9 +20972,9 @@
       <c r="D1077"/>
       <c r="G1077"/>
     </row>
-    <row r="1078" ht="12.75" hidden="1">
+    <row r="1078" ht="12.75">
       <c r="A1078" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1078" t="s">
         <v>1585</v>
@@ -20971,9 +20984,9 @@
       </c>
       <c r="D1078" s="1"/>
     </row>
-    <row r="1079" ht="12.75" hidden="1">
+    <row r="1079" ht="12.75">
       <c r="A1079" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1079" t="s">
         <v>1586</v>
@@ -20984,9 +20997,9 @@
       <c r="D1079"/>
       <c r="G1079"/>
     </row>
-    <row r="1080" ht="12.75" hidden="1">
+    <row r="1080" ht="12.75">
       <c r="A1080" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1080" t="s">
         <v>1587</v>
@@ -20996,9 +21009,9 @@
       </c>
       <c r="D1080" s="1"/>
     </row>
-    <row r="1081" ht="12.75" hidden="1">
+    <row r="1081" ht="12.75">
       <c r="A1081" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1081" t="s">
         <v>1588</v>
@@ -21009,9 +21022,9 @@
       <c r="D1081"/>
       <c r="G1081"/>
     </row>
-    <row r="1082" ht="12.75" hidden="1">
+    <row r="1082" ht="12.75">
       <c r="A1082" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1082" t="s">
         <v>1589</v>
@@ -21021,9 +21034,9 @@
       </c>
       <c r="D1082" s="1"/>
     </row>
-    <row r="1083" ht="12.75" hidden="1">
+    <row r="1083" ht="12.75">
       <c r="A1083" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1083" t="s">
         <v>1590</v>
@@ -21034,9 +21047,9 @@
       <c r="D1083"/>
       <c r="G1083"/>
     </row>
-    <row r="1084" ht="12.75" hidden="1">
+    <row r="1084" ht="12.75">
       <c r="A1084" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1084" t="s">
         <v>1591</v>
@@ -21046,9 +21059,9 @@
       </c>
       <c r="D1084" s="1"/>
     </row>
-    <row r="1085" ht="12.75" hidden="1">
+    <row r="1085" ht="12.75">
       <c r="A1085" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1085" t="s">
         <v>1592</v>
@@ -21059,24 +21072,24 @@
       <c r="D1085"/>
       <c r="G1085"/>
     </row>
-    <row r="1086" ht="12.75" hidden="1">
+    <row r="1086" ht="12.75">
       <c r="A1086" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1086" t="s">
-        <v>494</v>
+        <v>1593</v>
       </c>
       <c r="C1086" t="s">
         <v>423</v>
       </c>
       <c r="D1086" s="1"/>
     </row>
-    <row r="1087" ht="12.75" hidden="1">
+    <row r="1087" ht="12.75">
       <c r="A1087" s="7" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1087" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C1087" t="s">
         <v>423</v>
@@ -21084,459 +21097,459 @@
       <c r="D1087"/>
       <c r="G1087"/>
     </row>
-    <row r="1088" ht="12.75" hidden="1">
+    <row r="1088" ht="12.75">
       <c r="A1088" s="7" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="B1088" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1088" s="1"/>
+    </row>
+    <row r="1089" ht="12.75">
+      <c r="A1089" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1089" t="s">
         <v>1595</v>
       </c>
-      <c r="C1088" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D1088" s="1"/>
-    </row>
-    <row r="1089" ht="12.75" hidden="1">
-      <c r="A1089" s="7" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C1089" s="11" t="s">
-        <v>1596</v>
+      <c r="C1089" t="s">
+        <v>423</v>
       </c>
       <c r="D1089"/>
       <c r="G1089"/>
     </row>
     <row r="1090" ht="12.75" hidden="1">
       <c r="A1090" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1090" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C1090" t="s">
         <v>1598</v>
-      </c>
-      <c r="C1090" s="11" t="s">
-        <v>1596</v>
       </c>
       <c r="D1090" s="1"/>
     </row>
     <row r="1091" ht="12.75" hidden="1">
       <c r="A1091" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1091" t="s">
         <v>1599</v>
       </c>
-      <c r="C1091" s="11" t="s">
-        <v>1596</v>
+      <c r="C1091" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1091"/>
       <c r="G1091"/>
     </row>
     <row r="1092" ht="12.75" hidden="1">
       <c r="A1092" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1092" t="s">
         <v>1600</v>
       </c>
-      <c r="C1092" s="11" t="s">
-        <v>1596</v>
+      <c r="C1092" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1092" s="1"/>
     </row>
     <row r="1093" ht="12.75" hidden="1">
       <c r="A1093" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1093" t="s">
         <v>1601</v>
       </c>
-      <c r="C1093" s="11" t="s">
-        <v>1596</v>
+      <c r="C1093" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1093"/>
       <c r="G1093"/>
     </row>
     <row r="1094" ht="12.75" hidden="1">
       <c r="A1094" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1094" t="s">
         <v>1602</v>
       </c>
-      <c r="C1094" s="11" t="s">
-        <v>1596</v>
+      <c r="C1094" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1094" s="1"/>
     </row>
     <row r="1095" ht="12.75" hidden="1">
       <c r="A1095" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1095" t="s">
         <v>1603</v>
       </c>
-      <c r="B1095" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>1605</v>
+      <c r="C1095" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1095"/>
       <c r="G1095"/>
     </row>
     <row r="1096" ht="12.75" hidden="1">
       <c r="A1096" s="7" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="B1096" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C1096" s="11" t="s">
-        <v>1605</v>
+        <v>1604</v>
+      </c>
+      <c r="C1096" s="9" t="s">
+        <v>1598</v>
       </c>
       <c r="D1096" s="1"/>
     </row>
     <row r="1097" ht="12.75" hidden="1">
       <c r="A1097" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1097" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1097" t="s">
         <v>1607</v>
-      </c>
-      <c r="C1097" s="11" t="s">
-        <v>1605</v>
       </c>
       <c r="D1097"/>
       <c r="G1097"/>
     </row>
     <row r="1098" ht="12.75" hidden="1">
       <c r="A1098" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1098" t="s">
         <v>1608</v>
       </c>
-      <c r="C1098" s="11" t="s">
-        <v>1605</v>
+      <c r="C1098" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1098" s="1"/>
     </row>
     <row r="1099" ht="12.75" hidden="1">
       <c r="A1099" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1099" t="s">
         <v>1609</v>
       </c>
-      <c r="C1099" s="11" t="s">
-        <v>1605</v>
+      <c r="C1099" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1099"/>
       <c r="G1099"/>
     </row>
     <row r="1100" ht="12.75" hidden="1">
       <c r="A1100" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1100" t="s">
         <v>1610</v>
       </c>
-      <c r="C1100" s="11" t="s">
-        <v>1605</v>
+      <c r="C1100" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1100" s="1"/>
     </row>
     <row r="1101" ht="12.75" hidden="1">
       <c r="A1101" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1101" t="s">
         <v>1611</v>
       </c>
-      <c r="C1101" s="11" t="s">
-        <v>1605</v>
+      <c r="C1101" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1101"/>
       <c r="G1101"/>
     </row>
     <row r="1102" ht="12.75" hidden="1">
       <c r="A1102" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1102" t="s">
         <v>1612</v>
       </c>
-      <c r="C1102" s="11" t="s">
-        <v>1605</v>
+      <c r="C1102" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1102" s="1"/>
     </row>
     <row r="1103" ht="12.75" hidden="1">
       <c r="A1103" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1103" t="s">
         <v>1613</v>
       </c>
-      <c r="C1103" s="11" t="s">
-        <v>1605</v>
+      <c r="C1103" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1103"/>
       <c r="G1103"/>
     </row>
     <row r="1104" ht="12.75" hidden="1">
       <c r="A1104" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1104" t="s">
         <v>1614</v>
       </c>
-      <c r="C1104" s="11" t="s">
-        <v>1605</v>
+      <c r="C1104" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1104" s="1"/>
     </row>
     <row r="1105" ht="12.75" hidden="1">
       <c r="A1105" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1105" t="s">
         <v>1615</v>
       </c>
-      <c r="C1105" s="11" t="s">
-        <v>1605</v>
+      <c r="C1105" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1105"/>
       <c r="G1105"/>
     </row>
     <row r="1106" ht="12.75" hidden="1">
       <c r="A1106" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1616</v>
       </c>
-      <c r="B1106" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C1106" t="s">
-        <v>1618</v>
+      <c r="C1106" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1106" s="1"/>
     </row>
     <row r="1107" ht="12.75" hidden="1">
       <c r="A1107" s="7" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="B1107" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C1107" t="s">
-        <v>1618</v>
+        <v>1617</v>
+      </c>
+      <c r="C1107" s="9" t="s">
+        <v>1607</v>
       </c>
       <c r="D1107"/>
       <c r="G1107"/>
     </row>
     <row r="1108" ht="12.75" hidden="1">
       <c r="A1108" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1108" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1108" t="s">
         <v>1620</v>
-      </c>
-      <c r="C1108" t="s">
-        <v>1618</v>
       </c>
       <c r="D1108" s="1"/>
     </row>
     <row r="1109" ht="12.75" hidden="1">
       <c r="A1109" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1109" t="s">
         <v>1621</v>
       </c>
       <c r="C1109" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1109"/>
       <c r="G1109"/>
     </row>
     <row r="1110" ht="12.75" hidden="1">
       <c r="A1110" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1110" t="s">
         <v>1622</v>
       </c>
       <c r="C1110" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1110" s="1"/>
     </row>
     <row r="1111" ht="12.75" hidden="1">
       <c r="A1111" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1111" t="s">
         <v>1623</v>
       </c>
       <c r="C1111" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1111"/>
       <c r="G1111"/>
     </row>
     <row r="1112" ht="12.75" hidden="1">
       <c r="A1112" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1112" t="s">
         <v>1624</v>
       </c>
       <c r="C1112" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1112" s="1"/>
     </row>
     <row r="1113" ht="12.75" hidden="1">
       <c r="A1113" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1113" t="s">
         <v>1625</v>
       </c>
       <c r="C1113" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1113"/>
       <c r="G1113"/>
     </row>
     <row r="1114" ht="12.75" hidden="1">
       <c r="A1114" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1114" t="s">
         <v>1626</v>
       </c>
       <c r="C1114" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1114" s="1"/>
     </row>
     <row r="1115" ht="12.75" hidden="1">
       <c r="A1115" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1115" t="s">
         <v>1627</v>
       </c>
       <c r="C1115" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1115"/>
       <c r="G1115"/>
     </row>
     <row r="1116" ht="12.75" hidden="1">
       <c r="A1116" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1116" t="s">
         <v>1628</v>
       </c>
       <c r="C1116" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1116" s="1"/>
     </row>
     <row r="1117" ht="12.75" hidden="1">
       <c r="A1117" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1117" t="s">
         <v>1629</v>
       </c>
       <c r="C1117" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1117"/>
       <c r="G1117"/>
     </row>
     <row r="1118" ht="12.75" hidden="1">
       <c r="A1118" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1118" t="s">
         <v>1630</v>
       </c>
       <c r="C1118" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1118" s="1"/>
     </row>
     <row r="1119" ht="12.75" hidden="1">
       <c r="A1119" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1119" t="s">
         <v>1631</v>
       </c>
       <c r="C1119" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1119"/>
       <c r="G1119"/>
     </row>
     <row r="1120" ht="12.75" hidden="1">
       <c r="A1120" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1120" t="s">
         <v>1632</v>
       </c>
       <c r="C1120" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1120" s="1"/>
     </row>
     <row r="1121" ht="12.75" hidden="1">
       <c r="A1121" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1121" t="s">
         <v>1633</v>
       </c>
       <c r="C1121" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D1121"/>
       <c r="G1121"/>
     </row>
     <row r="1122" ht="12.75" hidden="1">
       <c r="A1122" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1634</v>
       </c>
-      <c r="B1122" t="s">
-        <v>1635</v>
-      </c>
       <c r="C1122" t="s">
-        <v>663</v>
+        <v>1620</v>
       </c>
       <c r="D1122" s="1"/>
     </row>
     <row r="1123" ht="12.75" hidden="1">
       <c r="A1123" s="7" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="B1123" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C1123" t="s">
-        <v>663</v>
+        <v>1620</v>
       </c>
       <c r="D1123"/>
       <c r="G1123"/>
     </row>
     <row r="1124" ht="12.75" hidden="1">
       <c r="A1124" s="7" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B1124" t="s">
         <v>1637</v>
@@ -21548,1407 +21561,1407 @@
     </row>
     <row r="1125" ht="12.75" hidden="1">
       <c r="A1125" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1638</v>
       </c>
-      <c r="B1125" t="s">
-        <v>1639</v>
-      </c>
       <c r="C1125" t="s">
-        <v>1640</v>
+        <v>663</v>
       </c>
       <c r="D1125"/>
       <c r="G1125"/>
     </row>
     <row r="1126" ht="12.75" hidden="1">
       <c r="A1126" s="7" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1126" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C1126" s="11" t="s">
-        <v>1640</v>
+        <v>1639</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>663</v>
       </c>
       <c r="D1126" s="1"/>
     </row>
     <row r="1127" ht="12.75" hidden="1">
       <c r="A1127" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1127" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1127" t="s">
         <v>1642</v>
-      </c>
-      <c r="C1127" s="11" t="s">
-        <v>1640</v>
       </c>
       <c r="D1127"/>
       <c r="G1127"/>
     </row>
     <row r="1128" ht="12.75" hidden="1">
       <c r="A1128" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1128" t="s">
         <v>1643</v>
       </c>
-      <c r="C1128" s="11" t="s">
-        <v>1640</v>
+      <c r="C1128" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1128" s="1"/>
     </row>
     <row r="1129" ht="12.75" hidden="1">
       <c r="A1129" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1129" t="s">
         <v>1644</v>
       </c>
-      <c r="C1129" s="11" t="s">
-        <v>1640</v>
+      <c r="C1129" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1129"/>
       <c r="G1129"/>
     </row>
     <row r="1130" ht="12.75" hidden="1">
       <c r="A1130" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1130" t="s">
         <v>1645</v>
       </c>
-      <c r="C1130" s="11" t="s">
-        <v>1640</v>
+      <c r="C1130" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1130" s="1"/>
     </row>
     <row r="1131" ht="12.75" hidden="1">
       <c r="A1131" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1131" t="s">
         <v>1646</v>
       </c>
-      <c r="C1131" s="11" t="s">
-        <v>1640</v>
+      <c r="C1131" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1131"/>
       <c r="G1131"/>
     </row>
     <row r="1132" ht="12.75" hidden="1">
       <c r="A1132" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1132" t="s">
         <v>1647</v>
       </c>
-      <c r="C1132" s="11" t="s">
-        <v>1640</v>
+      <c r="C1132" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1132" s="1"/>
     </row>
     <row r="1133" ht="12.75" hidden="1">
       <c r="A1133" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1133" t="s">
         <v>1648</v>
       </c>
-      <c r="C1133" s="11" t="s">
-        <v>1640</v>
+      <c r="C1133" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1133"/>
       <c r="G1133"/>
     </row>
     <row r="1134" ht="12.75" hidden="1">
       <c r="A1134" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1134" t="s">
         <v>1649</v>
       </c>
-      <c r="C1134" s="11" t="s">
-        <v>1640</v>
+      <c r="C1134" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1134" s="1"/>
     </row>
     <row r="1135" ht="12.75" hidden="1">
       <c r="A1135" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1135" t="s">
         <v>1650</v>
       </c>
-      <c r="C1135" s="11" t="s">
-        <v>1640</v>
+      <c r="C1135" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1135"/>
       <c r="G1135"/>
     </row>
     <row r="1136" ht="12.75" hidden="1">
       <c r="A1136" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1136" t="s">
         <v>1651</v>
       </c>
-      <c r="C1136" s="11" t="s">
-        <v>1640</v>
+      <c r="C1136" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1136" s="1"/>
     </row>
     <row r="1137" ht="12.75" hidden="1">
       <c r="A1137" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1137" t="s">
         <v>1652</v>
       </c>
-      <c r="C1137" s="11" t="s">
-        <v>1640</v>
+      <c r="C1137" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1137"/>
       <c r="G1137"/>
     </row>
     <row r="1138" ht="12.75" hidden="1">
       <c r="A1138" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1138" t="s">
         <v>1653</v>
       </c>
-      <c r="C1138" s="11" t="s">
-        <v>1640</v>
+      <c r="C1138" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1138" s="1"/>
     </row>
     <row r="1139" ht="12.75" hidden="1">
       <c r="A1139" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1139" t="s">
         <v>1654</v>
       </c>
-      <c r="C1139" s="11" t="s">
-        <v>1640</v>
+      <c r="C1139" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1139"/>
       <c r="G1139"/>
     </row>
     <row r="1140" ht="12.75" hidden="1">
       <c r="A1140" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1140" t="s">
         <v>1655</v>
       </c>
-      <c r="C1140" s="11" t="s">
-        <v>1640</v>
+      <c r="C1140" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1140" s="1"/>
     </row>
     <row r="1141" ht="12.75" hidden="1">
       <c r="A1141" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1141" t="s">
         <v>1656</v>
       </c>
-      <c r="C1141" s="11" t="s">
-        <v>1640</v>
+      <c r="C1141" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1141"/>
       <c r="G1141"/>
     </row>
     <row r="1142" ht="12.75" hidden="1">
       <c r="A1142" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1142" t="s">
         <v>1657</v>
       </c>
-      <c r="C1142" s="11" t="s">
-        <v>1640</v>
+      <c r="C1142" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1142" s="1"/>
     </row>
     <row r="1143" ht="12.75" hidden="1">
       <c r="A1143" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1143" t="s">
         <v>1658</v>
       </c>
-      <c r="C1143" s="11" t="s">
-        <v>1640</v>
+      <c r="C1143" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1143"/>
       <c r="G1143"/>
     </row>
     <row r="1144" ht="12.75" hidden="1">
       <c r="A1144" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1144" t="s">
         <v>1659</v>
       </c>
-      <c r="C1144" s="11" t="s">
-        <v>1640</v>
+      <c r="C1144" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1144" s="1"/>
     </row>
     <row r="1145" ht="12.75" hidden="1">
       <c r="A1145" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1145" t="s">
         <v>1660</v>
       </c>
-      <c r="C1145" s="11" t="s">
-        <v>1640</v>
+      <c r="C1145" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1145"/>
       <c r="G1145"/>
     </row>
     <row r="1146" ht="12.75" hidden="1">
       <c r="A1146" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1146" t="s">
         <v>1661</v>
       </c>
-      <c r="C1146" s="11" t="s">
-        <v>1640</v>
+      <c r="C1146" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1146" s="1"/>
     </row>
     <row r="1147" ht="12.75" hidden="1">
       <c r="A1147" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1147" t="s">
         <v>1662</v>
       </c>
-      <c r="C1147" s="11" t="s">
-        <v>1640</v>
+      <c r="C1147" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1147"/>
       <c r="G1147"/>
     </row>
     <row r="1148" ht="12.75" hidden="1">
       <c r="A1148" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1148" t="s">
         <v>1663</v>
       </c>
-      <c r="C1148" s="11" t="s">
-        <v>1640</v>
+      <c r="C1148" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1148" s="1"/>
     </row>
     <row r="1149" ht="12.75" hidden="1">
       <c r="A1149" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1149" t="s">
         <v>1664</v>
       </c>
-      <c r="C1149" s="11" t="s">
-        <v>1640</v>
+      <c r="C1149" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1149"/>
       <c r="G1149"/>
     </row>
     <row r="1150" ht="12.75" hidden="1">
       <c r="A1150" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1150" t="s">
         <v>1665</v>
       </c>
-      <c r="C1150" s="11" t="s">
-        <v>1640</v>
+      <c r="C1150" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1150" s="1"/>
     </row>
     <row r="1151" ht="12.75" hidden="1">
       <c r="A1151" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1151" t="s">
         <v>1666</v>
       </c>
-      <c r="C1151" s="11" t="s">
-        <v>1640</v>
+      <c r="C1151" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1151"/>
       <c r="G1151"/>
     </row>
     <row r="1152" ht="12.75" hidden="1">
       <c r="A1152" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1152" t="s">
         <v>1667</v>
       </c>
-      <c r="C1152" s="11" t="s">
-        <v>1640</v>
+      <c r="C1152" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1152" s="1"/>
     </row>
     <row r="1153" ht="12.75" hidden="1">
       <c r="A1153" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1153" t="s">
         <v>1668</v>
       </c>
-      <c r="C1153" s="11" t="s">
-        <v>1640</v>
+      <c r="C1153" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1153"/>
       <c r="G1153"/>
     </row>
     <row r="1154" ht="12.75" hidden="1">
       <c r="A1154" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1154" t="s">
         <v>1669</v>
       </c>
-      <c r="C1154" s="11" t="s">
-        <v>1640</v>
+      <c r="C1154" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1154" s="1"/>
     </row>
     <row r="1155" ht="12.75" hidden="1">
       <c r="A1155" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1155" t="s">
         <v>1670</v>
       </c>
-      <c r="C1155" s="11" t="s">
-        <v>1640</v>
+      <c r="C1155" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1155"/>
       <c r="G1155"/>
     </row>
     <row r="1156" ht="12.75" hidden="1">
       <c r="A1156" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1156" t="s">
         <v>1671</v>
       </c>
-      <c r="C1156" s="11" t="s">
-        <v>1640</v>
+      <c r="C1156" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1156" s="1"/>
     </row>
     <row r="1157" ht="12.75" hidden="1">
       <c r="A1157" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1157" t="s">
         <v>1672</v>
       </c>
-      <c r="C1157" s="11" t="s">
-        <v>1640</v>
+      <c r="C1157" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1157"/>
       <c r="G1157"/>
     </row>
     <row r="1158" ht="12.75" hidden="1">
       <c r="A1158" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1158" t="s">
         <v>1673</v>
       </c>
-      <c r="C1158" s="11" t="s">
-        <v>1640</v>
+      <c r="C1158" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1158" s="1"/>
     </row>
     <row r="1159" ht="12.75" hidden="1">
       <c r="A1159" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1159" t="s">
         <v>1674</v>
       </c>
-      <c r="C1159" s="11" t="s">
-        <v>1640</v>
+      <c r="C1159" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1159"/>
       <c r="G1159"/>
     </row>
     <row r="1160" ht="12.75" hidden="1">
       <c r="A1160" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1160" t="s">
         <v>1675</v>
       </c>
-      <c r="C1160" s="11" t="s">
-        <v>1640</v>
+      <c r="C1160" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1160" s="1"/>
     </row>
     <row r="1161" ht="12.75" hidden="1">
       <c r="A1161" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1161" t="s">
         <v>1676</v>
       </c>
-      <c r="C1161" s="11" t="s">
-        <v>1640</v>
+      <c r="C1161" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1161"/>
       <c r="G1161"/>
     </row>
     <row r="1162" ht="12.75" hidden="1">
       <c r="A1162" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1162" t="s">
         <v>1677</v>
       </c>
-      <c r="C1162" s="11" t="s">
-        <v>1640</v>
+      <c r="C1162" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1162" s="1"/>
     </row>
     <row r="1163" ht="12.75" hidden="1">
       <c r="A1163" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1163" t="s">
         <v>1678</v>
       </c>
-      <c r="C1163" s="11" t="s">
-        <v>1640</v>
+      <c r="C1163" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1163"/>
       <c r="G1163"/>
     </row>
     <row r="1164" ht="12.75" hidden="1">
       <c r="A1164" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1164" t="s">
         <v>1679</v>
       </c>
-      <c r="C1164" s="11" t="s">
-        <v>1640</v>
+      <c r="C1164" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1164" s="1"/>
     </row>
     <row r="1165" ht="12.75" hidden="1">
       <c r="A1165" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1165" t="s">
         <v>1680</v>
       </c>
-      <c r="B1165" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>1682</v>
+      <c r="C1165" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1165"/>
       <c r="G1165"/>
     </row>
     <row r="1166" ht="12.75" hidden="1">
       <c r="A1166" s="7" t="s">
-        <v>1680</v>
+        <v>1640</v>
       </c>
       <c r="B1166" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1166" s="11" t="s">
-        <v>1682</v>
+        <v>1681</v>
+      </c>
+      <c r="C1166" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="D1166" s="1"/>
     </row>
     <row r="1167" ht="12.75" hidden="1">
       <c r="A1167" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1167" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1167" t="s">
         <v>1684</v>
-      </c>
-      <c r="C1167" s="11" t="s">
-        <v>1682</v>
       </c>
       <c r="D1167"/>
       <c r="G1167"/>
     </row>
     <row r="1168" ht="12.75" hidden="1">
       <c r="A1168" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1168" t="s">
         <v>1685</v>
       </c>
-      <c r="C1168" s="11" t="s">
-        <v>1682</v>
+      <c r="C1168" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1168" s="1"/>
     </row>
     <row r="1169" ht="12.75" hidden="1">
       <c r="A1169" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1169" t="s">
         <v>1686</v>
       </c>
-      <c r="C1169" s="11" t="s">
-        <v>1682</v>
+      <c r="C1169" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1169"/>
       <c r="G1169"/>
     </row>
     <row r="1170" ht="12.75" hidden="1">
       <c r="A1170" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1170" t="s">
         <v>1687</v>
       </c>
-      <c r="C1170" s="11" t="s">
-        <v>1682</v>
+      <c r="C1170" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1170" s="1"/>
     </row>
     <row r="1171" ht="12.75" hidden="1">
       <c r="A1171" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1171" t="s">
         <v>1688</v>
       </c>
-      <c r="C1171" s="11" t="s">
-        <v>1682</v>
+      <c r="C1171" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1171"/>
       <c r="G1171"/>
     </row>
     <row r="1172" ht="12.75" hidden="1">
       <c r="A1172" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1172" t="s">
         <v>1689</v>
       </c>
-      <c r="C1172" s="11" t="s">
-        <v>1682</v>
+      <c r="C1172" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1172" s="1"/>
     </row>
     <row r="1173" ht="12.75" hidden="1">
       <c r="A1173" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B1173" s="6">
-        <v>530</v>
-      </c>
-      <c r="C1173" s="11" t="s">
         <v>1682</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1173" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1173"/>
       <c r="G1173"/>
     </row>
     <row r="1174" ht="12.75" hidden="1">
       <c r="A1174" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1174" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C1174" s="11" t="s">
-        <v>1682</v>
+        <v>1691</v>
+      </c>
+      <c r="C1174" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1174" s="1"/>
     </row>
     <row r="1175" ht="12.75" hidden="1">
       <c r="A1175" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C1175" s="11" t="s">
         <v>1682</v>
+      </c>
+      <c r="B1175" s="6">
+        <v>530</v>
+      </c>
+      <c r="C1175" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1175"/>
       <c r="G1175"/>
     </row>
     <row r="1176" ht="12.75" hidden="1">
       <c r="A1176" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1176" t="s">
         <v>1692</v>
       </c>
-      <c r="C1176" s="11" t="s">
-        <v>1682</v>
+      <c r="C1176" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1176" s="1"/>
     </row>
     <row r="1177" ht="12.75" hidden="1">
       <c r="A1177" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1177" t="s">
         <v>1693</v>
       </c>
-      <c r="C1177" s="11" t="s">
-        <v>1682</v>
+      <c r="C1177" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1177"/>
       <c r="G1177"/>
     </row>
     <row r="1178" ht="12.75" hidden="1">
       <c r="A1178" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1178" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1178" s="11" t="s">
-        <v>1682</v>
+        <v>1694</v>
+      </c>
+      <c r="C1178" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1178" s="1"/>
     </row>
     <row r="1179" ht="12.75" hidden="1">
       <c r="A1179" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1179" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C1179" s="11" t="s">
-        <v>1682</v>
+        <v>1695</v>
+      </c>
+      <c r="C1179" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1179"/>
       <c r="G1179"/>
     </row>
     <row r="1180" ht="12.75" hidden="1">
       <c r="A1180" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1180" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C1180" s="11" t="s">
-        <v>1682</v>
+        <v>1685</v>
+      </c>
+      <c r="C1180" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1180" s="1"/>
     </row>
     <row r="1181" ht="12.75" hidden="1">
       <c r="A1181" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1181" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C1181" s="11" t="s">
-        <v>1682</v>
+        <v>1696</v>
+      </c>
+      <c r="C1181" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1181"/>
       <c r="G1181"/>
     </row>
     <row r="1182" ht="12.75" hidden="1">
       <c r="A1182" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1182" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C1182" s="11" t="s">
-        <v>1682</v>
+        <v>1697</v>
+      </c>
+      <c r="C1182" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1182" s="1"/>
     </row>
     <row r="1183" ht="12.75" hidden="1">
       <c r="A1183" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1183" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C1183" s="11" t="s">
-        <v>1682</v>
+        <v>1689</v>
+      </c>
+      <c r="C1183" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1183"/>
       <c r="G1183"/>
     </row>
     <row r="1184" ht="12.75" hidden="1">
       <c r="A1184" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1184" t="s">
         <v>1698</v>
       </c>
-      <c r="C1184" s="11" t="s">
-        <v>1682</v>
+      <c r="C1184" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1184" s="1"/>
     </row>
     <row r="1185" ht="12.75" hidden="1">
       <c r="A1185" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1185" t="s">
         <v>1699</v>
       </c>
-      <c r="C1185" s="11" t="s">
-        <v>1682</v>
+      <c r="C1185" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1185"/>
       <c r="G1185"/>
     </row>
     <row r="1186" ht="12.75" hidden="1">
       <c r="A1186" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1186" t="s">
         <v>1700</v>
       </c>
-      <c r="C1186" s="11" t="s">
-        <v>1682</v>
+      <c r="C1186" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1186" s="1"/>
     </row>
     <row r="1187" ht="12.75" hidden="1">
       <c r="A1187" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1187" t="s">
         <v>1701</v>
       </c>
-      <c r="C1187" s="11" t="s">
-        <v>1682</v>
+      <c r="C1187" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1187"/>
       <c r="G1187"/>
     </row>
     <row r="1188" ht="12.75" hidden="1">
       <c r="A1188" s="7" t="s">
-        <v>1431</v>
+        <v>1682</v>
       </c>
       <c r="B1188" t="s">
         <v>1702</v>
       </c>
-      <c r="C1188" s="11" t="s">
-        <v>1703</v>
+      <c r="C1188" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1188" s="1"/>
     </row>
     <row r="1189" ht="12.75" hidden="1">
       <c r="A1189" s="7" t="s">
-        <v>1431</v>
+        <v>1682</v>
       </c>
       <c r="B1189" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C1189" t="s">
         <v>1703</v>
+      </c>
+      <c r="C1189" s="9" t="s">
+        <v>1684</v>
       </c>
       <c r="D1189"/>
       <c r="G1189"/>
     </row>
     <row r="1190" ht="12.75" hidden="1">
       <c r="A1190" s="7" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B1190" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1190" s="9" t="s">
         <v>1705</v>
-      </c>
-      <c r="C1190" s="8" t="s">
-        <v>1703</v>
       </c>
       <c r="D1190" s="1"/>
     </row>
     <row r="1191" ht="12.75" hidden="1">
       <c r="A1191" s="7" t="s">
-        <v>1616</v>
+        <v>1433</v>
       </c>
       <c r="B1191" t="s">
         <v>1706</v>
       </c>
       <c r="C1191" t="s">
-        <v>1618</v>
+        <v>1705</v>
       </c>
       <c r="D1191"/>
       <c r="G1191"/>
     </row>
     <row r="1192" ht="12.75" hidden="1">
-      <c r="A1192" s="6" t="s">
+      <c r="A1192" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1192" t="s">
         <v>1707</v>
       </c>
-      <c r="B1192" t="s">
+      <c r="C1192" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D1192" s="1"/>
+    </row>
+    <row r="1193" ht="12.75" hidden="1">
+      <c r="A1193" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1193" t="s">
         <v>1708</v>
       </c>
-      <c r="C1192" t="s">
+      <c r="C1193" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D1193"/>
+      <c r="G1193"/>
+    </row>
+    <row r="1194" ht="12.75" hidden="1">
+      <c r="A1194" s="6" t="s">
         <v>1709</v>
       </c>
-      <c r="D1192" s="1"/>
-    </row>
-    <row r="1193" ht="12.75" hidden="1">
-      <c r="A1193" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1193" t="s">
+      <c r="B1194" t="s">
         <v>1710</v>
       </c>
-      <c r="C1193" t="s">
+      <c r="C1194" t="s">
         <v>1711</v>
       </c>
-      <c r="D1193" s="1"/>
-      <c r="G1193" s="1"/>
-    </row>
-    <row r="1194" ht="12.75" hidden="1">
-      <c r="A1194" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1194" t="s">
+      <c r="D1194" s="1"/>
+    </row>
+    <row r="1195" ht="12.75" hidden="1">
+      <c r="A1195" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1195" t="s">
         <v>1712</v>
       </c>
-      <c r="C1194" t="s">
+      <c r="C1195" t="s">
         <v>1713</v>
       </c>
-      <c r="D1194" s="1"/>
-    </row>
-    <row r="1195" ht="12.75" hidden="1">
-      <c r="A1195" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1195" t="s">
+      <c r="D1195" s="1"/>
+      <c r="G1195" s="1"/>
+    </row>
+    <row r="1196" ht="12.75" hidden="1">
+      <c r="A1196" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1196" t="s">
         <v>1714</v>
       </c>
-      <c r="C1195" t="s">
+      <c r="C1196" t="s">
         <v>1715</v>
       </c>
-      <c r="D1195"/>
-      <c r="G1195"/>
-    </row>
-    <row r="1196" ht="12.75" hidden="1">
-      <c r="A1196" s="6" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1196" t="s">
+      <c r="D1196" s="1"/>
+    </row>
+    <row r="1197" ht="12.75" hidden="1">
+      <c r="A1197" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1197" t="s">
         <v>1716</v>
       </c>
-      <c r="C1196" t="s">
+      <c r="C1197" t="s">
         <v>1717</v>
-      </c>
-      <c r="D1196" s="1"/>
-    </row>
-    <row r="1197" ht="12.75" hidden="1">
-      <c r="A1197" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>1719</v>
       </c>
       <c r="D1197"/>
       <c r="G1197"/>
     </row>
     <row r="1198" ht="12.75" hidden="1">
-      <c r="A1198" s="2" t="s">
-        <v>1707</v>
+      <c r="A1198" s="6" t="s">
+        <v>1709</v>
       </c>
       <c r="B1198" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D1198" s="1"/>
+    </row>
+    <row r="1199" ht="12.75" hidden="1">
+      <c r="A1199" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1199" t="s">
         <v>1720</v>
       </c>
-      <c r="C1198" t="s">
+      <c r="C1199" t="s">
         <v>1721</v>
-      </c>
-      <c r="D1198" s="1"/>
-    </row>
-    <row r="1199" ht="12.75" hidden="1">
-      <c r="A1199" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C1199" t="s">
-        <v>1723</v>
       </c>
       <c r="D1199"/>
       <c r="G1199"/>
     </row>
     <row r="1200" ht="12.75" hidden="1">
-      <c r="A1200" s="12" t="s">
-        <v>1707</v>
+      <c r="A1200" s="2" t="s">
+        <v>1709</v>
       </c>
       <c r="B1200" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D1200" s="1"/>
+    </row>
+    <row r="1201" ht="12.75" hidden="1">
+      <c r="A1201" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1201" t="s">
         <v>1724</v>
       </c>
-      <c r="C1200" t="s">
+      <c r="C1201" t="s">
         <v>1725</v>
-      </c>
-      <c r="D1200" s="1"/>
-    </row>
-    <row r="1201" ht="12.75" hidden="1">
-      <c r="A1201" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>1727</v>
       </c>
       <c r="D1201"/>
       <c r="G1201"/>
     </row>
     <row r="1202" ht="12.75" hidden="1">
-      <c r="A1202" s="2" t="s">
-        <v>1707</v>
+      <c r="A1202" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1202" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1202" s="1"/>
+    </row>
+    <row r="1203" ht="12.75" hidden="1">
+      <c r="A1203" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1203" t="s">
         <v>1728</v>
       </c>
-      <c r="C1202" t="s">
+      <c r="C1203" t="s">
         <v>1729</v>
-      </c>
-      <c r="D1202" s="1"/>
-    </row>
-    <row r="1203" ht="12.75" hidden="1">
-      <c r="A1203" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C1203" t="s">
-        <v>1731</v>
       </c>
       <c r="D1203"/>
       <c r="G1203"/>
     </row>
     <row r="1204" ht="12.75" hidden="1">
-      <c r="A1204" s="12" t="s">
-        <v>1707</v>
+      <c r="A1204" s="2" t="s">
+        <v>1709</v>
       </c>
       <c r="B1204" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D1204" s="1"/>
+    </row>
+    <row r="1205" ht="12.75" hidden="1">
+      <c r="A1205" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1205" t="s">
         <v>1732</v>
       </c>
-      <c r="C1204" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D1204" s="1"/>
-    </row>
-    <row r="1205" ht="12.75" hidden="1">
-      <c r="A1205" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1205" t="s">
+      <c r="C1205" t="s">
         <v>1733</v>
-      </c>
-      <c r="C1205" t="s">
-        <v>1734</v>
       </c>
       <c r="D1205"/>
       <c r="G1205"/>
     </row>
     <row r="1206" ht="12.75" hidden="1">
-      <c r="A1206" s="2" t="s">
-        <v>1707</v>
+      <c r="A1206" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1206" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D1206" s="1"/>
+    </row>
+    <row r="1207" ht="12.75" hidden="1">
+      <c r="A1207" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1207" t="s">
         <v>1735</v>
       </c>
-      <c r="C1206" t="s">
+      <c r="C1207" t="s">
         <v>1736</v>
-      </c>
-      <c r="D1206" s="1"/>
-    </row>
-    <row r="1207" ht="12.75" hidden="1">
-      <c r="A1207" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C1207" t="s">
-        <v>1738</v>
       </c>
       <c r="D1207"/>
       <c r="G1207"/>
     </row>
     <row r="1208" ht="12.75" hidden="1">
-      <c r="A1208" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1208" s="13">
-        <v>0.16666666666666666</v>
+      <c r="A1208" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1737</v>
       </c>
       <c r="C1208" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D1208" s="1"/>
+    </row>
+    <row r="1209" ht="12.75" hidden="1">
+      <c r="A1209" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1209" t="s">
         <v>1739</v>
       </c>
-      <c r="D1208" s="1"/>
-    </row>
-    <row r="1209" ht="12.75" hidden="1">
-      <c r="A1209" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1209" t="s">
+      <c r="C1209" t="s">
         <v>1740</v>
-      </c>
-      <c r="C1209" t="s">
-        <v>1741</v>
       </c>
       <c r="D1209"/>
       <c r="G1209"/>
     </row>
     <row r="1210" ht="12.75" hidden="1">
-      <c r="A1210" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1210" t="s">
+      <c r="A1210" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1210" s="12">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D1210" s="1"/>
+    </row>
+    <row r="1211" ht="12.75" hidden="1">
+      <c r="A1211" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1211" t="s">
         <v>1742</v>
       </c>
-      <c r="C1210" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1210" s="1"/>
-    </row>
-    <row r="1211" ht="12.75" hidden="1">
-      <c r="A1211" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1211" t="s">
+      <c r="C1211" t="s">
         <v>1743</v>
-      </c>
-      <c r="C1211" t="s">
-        <v>1744</v>
       </c>
       <c r="D1211"/>
       <c r="G1211"/>
     </row>
     <row r="1212" ht="12.75" hidden="1">
-      <c r="A1212" s="12" t="s">
-        <v>1707</v>
+      <c r="A1212" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1212" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1212" s="1"/>
+    </row>
+    <row r="1213" ht="12.75" hidden="1">
+      <c r="A1213" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1213" t="s">
         <v>1745</v>
       </c>
-      <c r="C1212" t="s">
+      <c r="C1213" t="s">
         <v>1746</v>
-      </c>
-      <c r="D1212" s="1"/>
-    </row>
-    <row r="1213" ht="12.75" hidden="1">
-      <c r="A1213" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C1213" t="s">
-        <v>1748</v>
       </c>
       <c r="D1213"/>
       <c r="G1213"/>
     </row>
     <row r="1214" ht="12.75" hidden="1">
-      <c r="A1214" s="12" t="s">
-        <v>1707</v>
+      <c r="A1214" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1214" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1214" s="1"/>
+    </row>
+    <row r="1215" ht="12.75" hidden="1">
+      <c r="A1215" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1215" t="s">
         <v>1749</v>
       </c>
-      <c r="C1214" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D1214" s="1"/>
-    </row>
-    <row r="1215" ht="12.75" hidden="1">
-      <c r="A1215" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1215" t="s">
+      <c r="C1215" t="s">
         <v>1750</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>1751</v>
       </c>
       <c r="D1215"/>
       <c r="G1215"/>
     </row>
     <row r="1216" ht="12.75" hidden="1">
-      <c r="A1216" s="12" t="s">
-        <v>1707</v>
+      <c r="A1216" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1216" t="s">
-        <v>1569</v>
+        <v>1751</v>
       </c>
       <c r="C1216" t="s">
-        <v>1568</v>
+        <v>1721</v>
       </c>
       <c r="D1216" s="1"/>
     </row>
     <row r="1217" ht="12.75" hidden="1">
-      <c r="A1217" s="12" t="s">
-        <v>1707</v>
+      <c r="A1217" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1217" t="s">
         <v>1752</v>
       </c>
       <c r="C1217" t="s">
-        <v>1719</v>
+        <v>1753</v>
       </c>
       <c r="D1217"/>
       <c r="G1217"/>
     </row>
     <row r="1218" ht="12.75" hidden="1">
-      <c r="A1218" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1218" s="1" t="s">
-        <v>1753</v>
+      <c r="A1218" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1571</v>
       </c>
       <c r="C1218" t="s">
-        <v>1717</v>
+        <v>1570</v>
       </c>
       <c r="D1218" s="1"/>
     </row>
     <row r="1219" ht="12.75" hidden="1">
-      <c r="A1219" s="12" t="s">
-        <v>1707</v>
+      <c r="A1219" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1219" t="s">
         <v>1754</v>
       </c>
       <c r="C1219" t="s">
-        <v>1755</v>
+        <v>1721</v>
       </c>
       <c r="D1219"/>
       <c r="G1219"/>
     </row>
     <row r="1220" ht="12.75" hidden="1">
-      <c r="A1220" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1220" s="11" t="s">
+      <c r="A1220" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D1220" s="1"/>
+    </row>
+    <row r="1221" ht="12.75" hidden="1">
+      <c r="A1221" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1221" t="s">
         <v>1756</v>
       </c>
-      <c r="C1220" s="11" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D1220" s="1"/>
-    </row>
-    <row r="1221" ht="12.75" hidden="1">
-      <c r="A1221" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1221" s="1" t="s">
-        <v>300</v>
+      <c r="C1221" t="s">
+        <v>1757</v>
       </c>
       <c r="D1221"/>
       <c r="G1221"/>
     </row>
     <row r="1222" ht="12.75" hidden="1">
-      <c r="A1222" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C1222" t="s">
+      <c r="A1222" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1222" s="9" t="s">
         <v>1758</v>
       </c>
+      <c r="C1222" s="9" t="s">
+        <v>1740</v>
+      </c>
       <c r="D1222" s="1"/>
     </row>
     <row r="1223" ht="12.75" hidden="1">
-      <c r="A1223" s="12" t="s">
-        <v>1707</v>
+      <c r="A1223" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1223" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C1223" t="s">
-        <v>1739</v>
+        <v>299</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="D1223"/>
       <c r="G1223"/>
     </row>
     <row r="1224" ht="12.75" hidden="1">
-      <c r="A1224" s="12" t="s">
-        <v>1707</v>
+      <c r="A1224" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1224" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1224" t="s">
         <v>1760</v>
       </c>
-      <c r="C1224" t="s">
-        <v>1721</v>
-      </c>
       <c r="D1224" s="1"/>
     </row>
     <row r="1225" ht="12.75" hidden="1">
-      <c r="A1225" s="12" t="s">
-        <v>1707</v>
+      <c r="A1225" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1225" t="s">
         <v>1761</v>
       </c>
       <c r="C1225" t="s">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="D1225"/>
       <c r="G1225"/>
     </row>
     <row r="1226" ht="12.75" hidden="1">
-      <c r="A1226" s="12" t="s">
-        <v>1707</v>
+      <c r="A1226" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1226" t="s">
         <v>1762</v>
       </c>
-      <c r="C1226" s="1" t="s">
-        <v>1751</v>
+      <c r="C1226" t="s">
+        <v>1723</v>
       </c>
       <c r="D1226" s="1"/>
     </row>
     <row r="1227" ht="12.75" hidden="1">
-      <c r="A1227" s="12" t="s">
-        <v>1707</v>
+      <c r="A1227" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1227" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1227"/>
+      <c r="G1227"/>
+    </row>
+    <row r="1228" ht="12.75" hidden="1">
+      <c r="A1228" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1228" s="1"/>
+    </row>
+    <row r="1229" ht="12.75" hidden="1">
+      <c r="A1229" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1229" t="s">
         <v>281</v>
       </c>
-      <c r="C1227" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D1227" s="1"/>
-    </row>
-    <row r="1228" ht="12.75" hidden="1">
-      <c r="A1228" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C1228" t="s">
+      <c r="C1229" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1229" s="1"/>
+    </row>
+    <row r="1230" ht="12.75" hidden="1">
+      <c r="A1230" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1230" t="s">
         <v>278</v>
-      </c>
-      <c r="D1228"/>
-      <c r="G1228"/>
-    </row>
-    <row r="1229" ht="12.75" hidden="1">
-      <c r="A1229" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1229" s="11" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C1229" s="11" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1229" s="1"/>
-    </row>
-    <row r="1230" ht="12.75" hidden="1">
-      <c r="A1230" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C1230" s="14" t="s">
-        <v>1711</v>
       </c>
       <c r="D1230"/>
       <c r="G1230"/>
     </row>
     <row r="1231" ht="12.75" hidden="1">
-      <c r="A1231" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1231" t="s">
+      <c r="A1231" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1231" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1231" s="9" t="s">
         <v>1767</v>
       </c>
-      <c r="C1231" t="s">
-        <v>1719</v>
-      </c>
       <c r="D1231" s="1"/>
     </row>
     <row r="1232" ht="12.75" hidden="1">
-      <c r="A1232" s="7" t="s">
-        <v>1707</v>
+      <c r="A1232" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1232" t="s">
         <v>1768</v>
       </c>
-      <c r="C1232" t="s">
-        <v>1769</v>
+      <c r="C1232" s="13" t="s">
+        <v>1713</v>
       </c>
       <c r="D1232"/>
       <c r="G1232"/>
     </row>
     <row r="1233" ht="12.75" hidden="1">
-      <c r="A1233" s="7" t="s">
-        <v>1707</v>
+      <c r="A1233" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1233" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C1233" t="s">
-        <v>1771</v>
+        <v>1721</v>
       </c>
       <c r="D1233" s="1"/>
     </row>
     <row r="1234" ht="12.75" hidden="1">
       <c r="A1234" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1234" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C1234" t="s">
-        <v>1719</v>
+        <v>1771</v>
       </c>
       <c r="D1234"/>
       <c r="G1234"/>
     </row>
     <row r="1235" ht="12.75" hidden="1">
       <c r="A1235" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1235" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1235" t="s">
         <v>1773</v>
       </c>
-      <c r="C1235" t="s">
+      <c r="D1235" s="1"/>
+    </row>
+    <row r="1236" ht="12.75" hidden="1">
+      <c r="A1236" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1236" t="s">
         <v>1774</v>
       </c>
-      <c r="D1235" s="1"/>
-    </row>
-    <row r="1236" ht="12.75" hidden="1">
-      <c r="A1236" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>295</v>
-      </c>
       <c r="C1236" t="s">
-        <v>296</v>
+        <v>1721</v>
       </c>
       <c r="D1236"/>
       <c r="G1236"/>
     </row>
     <row r="1237" ht="12.75" hidden="1">
-      <c r="A1237" s="12" t="s">
-        <v>1707</v>
+      <c r="A1237" s="7" t="s">
+        <v>1709</v>
       </c>
       <c r="B1237" t="s">
         <v>1775</v>
@@ -22959,182 +22972,182 @@
       <c r="D1237" s="1"/>
     </row>
     <row r="1238" ht="12.75" hidden="1">
-      <c r="A1238" s="12" t="s">
-        <v>1707</v>
+      <c r="A1238" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1238" t="s">
-        <v>1777</v>
+        <v>295</v>
       </c>
       <c r="C1238" t="s">
-        <v>1721</v>
+        <v>296</v>
       </c>
       <c r="D1238"/>
       <c r="G1238"/>
     </row>
     <row r="1239" ht="12.75" hidden="1">
-      <c r="A1239" s="12" t="s">
-        <v>1707</v>
+      <c r="A1239" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1239" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1239" t="s">
         <v>1778</v>
       </c>
-      <c r="C1239" t="s">
-        <v>1719</v>
-      </c>
       <c r="D1239" s="1"/>
     </row>
     <row r="1240" ht="12.75" hidden="1">
-      <c r="A1240" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1240" s="1" t="s">
+      <c r="A1240" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1240" t="s">
         <v>1779</v>
       </c>
-      <c r="C1240" s="1" t="s">
-        <v>1780</v>
+      <c r="C1240" t="s">
+        <v>1723</v>
       </c>
       <c r="D1240"/>
       <c r="G1240"/>
     </row>
     <row r="1241" ht="12.75" hidden="1">
-      <c r="A1241" s="6" t="s">
-        <v>1559</v>
+      <c r="A1241" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1241" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1241" s="1"/>
+    </row>
+    <row r="1242" ht="12.75" hidden="1">
+      <c r="A1242" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1242" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="C1241" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D1241" s="1"/>
-    </row>
-    <row r="1242" ht="12.75" hidden="1">
-      <c r="A1242" s="6" t="s">
+      <c r="C1242" s="1" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C1242" t="s">
-        <v>1784</v>
       </c>
       <c r="D1242"/>
       <c r="G1242"/>
     </row>
     <row r="1243" ht="12.75" hidden="1">
-      <c r="A1243" s="6"/>
-      <c r="B1243"/>
+      <c r="A1243" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1783</v>
+      </c>
       <c r="C1243" t="s">
-        <v>423</v>
+        <v>1506</v>
       </c>
       <c r="D1243" s="1"/>
     </row>
     <row r="1244" ht="12.75" hidden="1">
       <c r="A1244" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1244" s="8" t="s">
-        <v>1572</v>
+        <v>1784</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1785</v>
       </c>
       <c r="C1244" t="s">
-        <v>423</v>
+        <v>1786</v>
       </c>
       <c r="D1244"/>
       <c r="G1244"/>
     </row>
     <row r="1245" ht="12.75" hidden="1">
-      <c r="A1245" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1245" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C1245" s="1" t="s">
-        <v>1786</v>
+      <c r="A1245" s="6"/>
+      <c r="B1245"/>
+      <c r="C1245" t="s">
+        <v>423</v>
       </c>
       <c r="D1245" s="1"/>
     </row>
     <row r="1246" ht="12.75" hidden="1">
       <c r="A1246" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1787</v>
+        <v>1784</v>
+      </c>
+      <c r="B1246" s="8" t="s">
+        <v>1574</v>
       </c>
       <c r="C1246" t="s">
         <v>423</v>
       </c>
-      <c r="D1246" s="1"/>
+      <c r="D1246"/>
+      <c r="G1246"/>
     </row>
     <row r="1247" ht="12.75" hidden="1">
-      <c r="A1247" s="7" t="s">
-        <v>1782</v>
+      <c r="A1247" s="6" t="s">
+        <v>1784</v>
       </c>
       <c r="B1247" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1247" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C1247" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D1247"/>
-      <c r="G1247"/>
+      <c r="D1247" s="1"/>
     </row>
     <row r="1248" ht="12.75" hidden="1">
       <c r="A1248" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1248" s="8" t="s">
-        <v>1573</v>
+        <v>1784</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1789</v>
       </c>
       <c r="C1248" t="s">
         <v>423</v>
       </c>
-      <c r="D1248"/>
-      <c r="G1248"/>
+      <c r="D1248" s="1"/>
     </row>
     <row r="1249" ht="12.75" hidden="1">
-      <c r="A1249" s="6" t="s">
-        <v>1782</v>
+      <c r="A1249" s="7" t="s">
+        <v>1784</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D1249" s="1"/>
+        <v>1120</v>
+      </c>
+      <c r="D1249"/>
+      <c r="G1249"/>
     </row>
     <row r="1250" ht="12.75" hidden="1">
       <c r="A1250" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>428</v>
+        <v>1784</v>
+      </c>
+      <c r="B1250" s="8" t="s">
+        <v>1575</v>
       </c>
       <c r="C1250" t="s">
         <v>423</v>
       </c>
-      <c r="D1250" s="1"/>
+      <c r="D1250"/>
+      <c r="G1250"/>
     </row>
     <row r="1251" ht="12.75" hidden="1">
-      <c r="A1251" s="7" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1251" t="s">
+      <c r="A1251" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1251" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="C1251" t="s">
-        <v>930</v>
-      </c>
-      <c r="D1251"/>
-      <c r="G1251"/>
+      <c r="C1251" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D1251" s="1"/>
     </row>
     <row r="1252" ht="12.75" hidden="1">
       <c r="A1252" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1252" s="8" t="s">
-        <v>1578</v>
+        <v>1784</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>428</v>
       </c>
       <c r="C1252" t="s">
         <v>423</v>
@@ -23142,642 +23155,642 @@
       <c r="D1252" s="1"/>
     </row>
     <row r="1253" ht="12.75" hidden="1">
-      <c r="A1253" s="6" t="s">
-        <v>1782</v>
+      <c r="A1253" s="7" t="s">
+        <v>1784</v>
       </c>
       <c r="B1253" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C1253" t="s">
-        <v>1120</v>
+        <v>930</v>
       </c>
       <c r="D1253"/>
       <c r="G1253"/>
     </row>
     <row r="1254" ht="12.75" hidden="1">
       <c r="A1254" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C1254" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1254" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1254" t="s">
         <v>423</v>
       </c>
       <c r="D1254" s="1"/>
     </row>
     <row r="1255" ht="12.75" hidden="1">
-      <c r="A1255" s="7" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1255" s="1" t="s">
+      <c r="A1255" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1255" t="s">
         <v>1794</v>
       </c>
-      <c r="C1255" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D1255" s="1"/>
+      <c r="C1255" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1255"/>
+      <c r="G1255"/>
     </row>
     <row r="1256" ht="12.75" hidden="1">
       <c r="A1256" s="6" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B1256" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C1256" s="8" t="s">
         <v>423</v>
       </c>
       <c r="D1256" s="1"/>
-      <c r="G1256" s="1"/>
     </row>
     <row r="1257" ht="12.75" hidden="1">
       <c r="A1257" s="7" t="s">
-        <v>1571</v>
+        <v>1784</v>
       </c>
       <c r="B1257" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1257" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="C1257" s="8" t="s">
+      <c r="D1257" s="1"/>
+    </row>
+    <row r="1258" ht="12.75" hidden="1">
+      <c r="A1258" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1258" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D1257"/>
-      <c r="G1257"/>
-    </row>
-    <row r="1258" ht="12.75" hidden="1">
-      <c r="A1258" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1258" s="15" t="s">
+      <c r="D1258" s="1"/>
+      <c r="G1258" s="1"/>
+    </row>
+    <row r="1259" ht="12.75">
+      <c r="A1259" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1259" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="C1258" s="15" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D1258" s="1"/>
-    </row>
-    <row r="1259" ht="12.75" hidden="1">
-      <c r="A1259" s="7" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B1259" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C1259" s="1" t="s">
-        <v>1640</v>
+      <c r="C1259" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="D1259"/>
       <c r="G1259"/>
     </row>
     <row r="1260" ht="12.75" hidden="1">
-      <c r="A1260" s="6" t="s">
+      <c r="A1260" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1260" s="9" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1260" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="B1260" t="s">
+      <c r="D1260" s="1"/>
+    </row>
+    <row r="1261" ht="12.75" hidden="1">
+      <c r="A1261" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1261" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="C1260" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D1260" s="1"/>
-    </row>
-    <row r="1261" ht="12.75" hidden="1">
-      <c r="A1261" s="6" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>1805</v>
+      <c r="C1261" s="1" t="s">
+        <v>1642</v>
       </c>
       <c r="D1261"/>
       <c r="G1261"/>
     </row>
     <row r="1262" ht="12.75" hidden="1">
       <c r="A1262" s="6" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B1262" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C1262"/>
+        <v>1805</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1517</v>
+      </c>
       <c r="D1262" s="1"/>
     </row>
     <row r="1263" ht="12.75" hidden="1">
       <c r="A1263" s="6" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B1263" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1263" t="s">
         <v>1807</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>432</v>
       </c>
       <c r="D1263"/>
       <c r="G1263"/>
     </row>
     <row r="1264" ht="12.75" hidden="1">
-      <c r="A1264" s="7" t="s">
-        <v>1638</v>
+      <c r="A1264" s="6" t="s">
+        <v>1804</v>
       </c>
       <c r="B1264" t="s">
         <v>1808</v>
       </c>
-      <c r="C1264" s="1" t="s">
-        <v>1640</v>
-      </c>
+      <c r="C1264"/>
       <c r="D1264" s="1"/>
     </row>
     <row r="1265" ht="12.75" hidden="1">
       <c r="A1265" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1265" t="s">
         <v>1809</v>
       </c>
-      <c r="B1265" t="s">
-        <v>1810</v>
-      </c>
       <c r="C1265" t="s">
-        <v>1811</v>
+        <v>432</v>
       </c>
       <c r="D1265"/>
       <c r="G1265"/>
     </row>
     <row r="1266" ht="12.75" hidden="1">
-      <c r="A1266" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1266" s="11" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>432</v>
+      <c r="A1266" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>1642</v>
       </c>
       <c r="D1266" s="1"/>
     </row>
     <row r="1267" ht="12.75" hidden="1">
       <c r="A1267" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1267" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1267" t="s">
         <v>1813</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>1087</v>
       </c>
       <c r="D1267"/>
       <c r="G1267"/>
     </row>
     <row r="1268" ht="12.75" hidden="1">
       <c r="A1268" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1268" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1268" s="9" t="s">
         <v>1814</v>
       </c>
       <c r="C1268" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="D1268" s="1"/>
     </row>
     <row r="1269" ht="12.75" hidden="1">
       <c r="A1269" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1269" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1269" s="9" t="s">
         <v>1815</v>
       </c>
       <c r="C1269" t="s">
-        <v>1816</v>
+        <v>1087</v>
       </c>
       <c r="D1269"/>
       <c r="G1269"/>
     </row>
     <row r="1270" ht="12.75" hidden="1">
       <c r="A1270" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1270" s="11" t="s">
-        <v>1817</v>
+        <v>1811</v>
+      </c>
+      <c r="B1270" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="C1270" t="s">
-        <v>1098</v>
+        <v>497</v>
       </c>
       <c r="D1270" s="1"/>
     </row>
     <row r="1271" ht="12.75" hidden="1">
       <c r="A1271" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1271" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1271" s="9" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1271" t="s">
         <v>1818</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>126</v>
       </c>
       <c r="D1271"/>
       <c r="G1271"/>
     </row>
     <row r="1272" ht="12.75" hidden="1">
       <c r="A1272" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1272" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1272" s="9" t="s">
         <v>1819</v>
       </c>
       <c r="C1272" t="s">
-        <v>1820</v>
+        <v>1098</v>
       </c>
       <c r="D1272" s="1"/>
     </row>
     <row r="1273" ht="12.75" hidden="1">
       <c r="A1273" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1273" s="11" t="s">
-        <v>1821</v>
+        <v>1811</v>
+      </c>
+      <c r="B1273" s="9" t="s">
+        <v>1820</v>
       </c>
       <c r="C1273" t="s">
-        <v>1822</v>
+        <v>126</v>
       </c>
       <c r="D1273"/>
       <c r="G1273"/>
     </row>
     <row r="1274" ht="12.75" hidden="1">
       <c r="A1274" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1274" s="11" t="s">
-        <v>1823</v>
+        <v>1811</v>
+      </c>
+      <c r="B1274" s="9" t="s">
+        <v>1821</v>
       </c>
       <c r="C1274" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D1274" s="1"/>
     </row>
     <row r="1275" ht="12.75" hidden="1">
       <c r="A1275" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C1275"/>
+        <v>1811</v>
+      </c>
+      <c r="B1275" s="9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1824</v>
+      </c>
       <c r="D1275"/>
       <c r="G1275"/>
     </row>
     <row r="1276" ht="12.75" hidden="1">
       <c r="A1276" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1276" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1276" s="9" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1276" t="s">
         <v>1826</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>1827</v>
       </c>
       <c r="D1276" s="1"/>
     </row>
     <row r="1277" ht="12.75" hidden="1">
       <c r="A1277" s="6" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B1277" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C1277" t="s">
-        <v>423</v>
-      </c>
+        <v>1827</v>
+      </c>
+      <c r="C1277"/>
       <c r="D1277"/>
       <c r="G1277"/>
     </row>
     <row r="1278" ht="12.75" hidden="1">
-      <c r="A1278" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1278" t="s">
+      <c r="A1278" s="6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1278" s="9" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1278" t="s">
         <v>1829</v>
       </c>
-      <c r="C1278" t="s">
-        <v>1738</v>
-      </c>
       <c r="D1278" s="1"/>
     </row>
     <row r="1279" ht="12.75" hidden="1">
-      <c r="A1279" s="12" t="s">
-        <v>1707</v>
+      <c r="A1279" s="6" t="s">
+        <v>1811</v>
       </c>
       <c r="B1279" t="s">
         <v>1830</v>
       </c>
       <c r="C1279" t="s">
-        <v>1831</v>
+        <v>423</v>
       </c>
       <c r="D1279"/>
       <c r="G1279"/>
     </row>
     <row r="1280" ht="12.75" hidden="1">
-      <c r="A1280" s="7" t="s">
-        <v>1317</v>
+      <c r="A1280" s="11" t="s">
+        <v>1709</v>
       </c>
       <c r="B1280" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1280" s="1"/>
+    </row>
+    <row r="1281" ht="12.75" hidden="1">
+      <c r="A1281" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1281" t="s">
         <v>1832</v>
       </c>
-      <c r="C1280" t="s">
+      <c r="C1281" t="s">
         <v>1833</v>
-      </c>
-      <c r="D1280" s="1"/>
-    </row>
-    <row r="1281" ht="12.75" hidden="1">
-      <c r="A1281" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C1281" t="s">
-        <v>1835</v>
       </c>
       <c r="D1281"/>
       <c r="G1281"/>
     </row>
     <row r="1282" ht="12.75" hidden="1">
-      <c r="A1282" s="6" t="s">
+      <c r="A1282" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1282" s="1"/>
+    </row>
+    <row r="1283" ht="12.75" hidden="1">
+      <c r="A1283" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1283" t="s">
         <v>1836</v>
       </c>
-      <c r="B1282" t="s">
+      <c r="C1283" t="s">
         <v>1837</v>
       </c>
-      <c r="C1282" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D1282" s="11"/>
-      <c r="G1282" s="11"/>
-    </row>
-    <row r="1283" ht="12.75" hidden="1">
-      <c r="A1283" s="16" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C1283" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D1283" s="1"/>
+      <c r="D1283"/>
+      <c r="G1283"/>
     </row>
     <row r="1284" ht="12.75" hidden="1">
       <c r="A1284" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1284" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1284" t="s">
         <v>1840</v>
       </c>
-      <c r="C1284" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D1284"/>
-      <c r="G1284"/>
+      <c r="D1284" s="9"/>
+      <c r="G1284" s="9"/>
     </row>
     <row r="1285" ht="12.75" hidden="1">
       <c r="A1285" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1285" t="s">
         <v>1841</v>
       </c>
       <c r="C1285" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1285" s="1"/>
     </row>
     <row r="1286" ht="12.75" hidden="1">
       <c r="A1286" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1286" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1286" t="s">
         <v>1842</v>
       </c>
       <c r="C1286" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1286"/>
       <c r="G1286"/>
     </row>
     <row r="1287" ht="12.75" hidden="1">
       <c r="A1287" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1287" t="s">
         <v>1843</v>
       </c>
       <c r="C1287" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1287" s="1"/>
     </row>
     <row r="1288" ht="12.75" hidden="1">
       <c r="A1288" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1288" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1288" s="1" t="s">
         <v>1844</v>
       </c>
       <c r="C1288" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1288"/>
       <c r="G1288"/>
     </row>
     <row r="1289" ht="12.75" hidden="1">
       <c r="A1289" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1289" t="s">
         <v>1845</v>
       </c>
       <c r="C1289" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D1289"/>
-      <c r="G1289"/>
+        <v>1840</v>
+      </c>
+      <c r="D1289" s="1"/>
     </row>
     <row r="1290" ht="12.75" hidden="1">
       <c r="A1290" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1290" t="s">
         <v>1846</v>
       </c>
       <c r="C1290" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D1290" s="1"/>
+        <v>1840</v>
+      </c>
+      <c r="D1290"/>
+      <c r="G1290"/>
     </row>
     <row r="1291" ht="12.75" hidden="1">
       <c r="A1291" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1291" t="s">
         <v>1847</v>
       </c>
       <c r="C1291" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1291"/>
       <c r="G1291"/>
     </row>
     <row r="1292" ht="12.75" hidden="1">
       <c r="A1292" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1292" t="s">
         <v>1848</v>
       </c>
       <c r="C1292" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1292" s="1"/>
     </row>
     <row r="1293" ht="12.75" hidden="1">
       <c r="A1293" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1293" t="s">
         <v>1849</v>
       </c>
-      <c r="C1293" s="8" t="s">
-        <v>1838</v>
+      <c r="C1293" t="s">
+        <v>1840</v>
       </c>
       <c r="D1293"/>
       <c r="G1293"/>
     </row>
     <row r="1294" ht="12.75" hidden="1">
       <c r="A1294" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1294" t="s">
         <v>1850</v>
       </c>
-      <c r="C1294" s="8" t="s">
-        <v>1838</v>
+      <c r="C1294" t="s">
+        <v>1840</v>
       </c>
       <c r="D1294" s="1"/>
     </row>
     <row r="1295" ht="12.75" hidden="1">
       <c r="A1295" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1295" s="11" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1295" t="s">
         <v>1851</v>
       </c>
       <c r="C1295" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1295"/>
       <c r="G1295"/>
     </row>
     <row r="1296" ht="12.75" hidden="1">
       <c r="A1296" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1296" s="11" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1296" t="s">
         <v>1852</v>
       </c>
       <c r="C1296" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1296" s="1"/>
     </row>
     <row r="1297" ht="12.75" hidden="1">
       <c r="A1297" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1297" s="11" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1297" s="9" t="s">
         <v>1853</v>
       </c>
       <c r="C1297" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1297"/>
       <c r="G1297"/>
     </row>
     <row r="1298" ht="12.75" hidden="1">
       <c r="A1298" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1298" s="11"/>
+        <v>1838</v>
+      </c>
+      <c r="B1298" s="9" t="s">
+        <v>1854</v>
+      </c>
       <c r="C1298" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1298" s="1"/>
     </row>
     <row r="1299" ht="12.75" hidden="1">
       <c r="A1299" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1299" s="11"/>
+        <v>1838</v>
+      </c>
+      <c r="B1299" s="9" t="s">
+        <v>1855</v>
+      </c>
       <c r="C1299" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1299"/>
       <c r="G1299"/>
     </row>
     <row r="1300" ht="12.75" hidden="1">
       <c r="A1300" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1300" s="11"/>
+        <v>1838</v>
+      </c>
+      <c r="B1300" s="9"/>
       <c r="C1300" s="8" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D1300" s="1"/>
     </row>
     <row r="1301" ht="12.75" hidden="1">
       <c r="A1301" s="6" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C1301" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D1301" s="1"/>
-      <c r="G1301" s="1"/>
+        <v>1838</v>
+      </c>
+      <c r="B1301" s="9"/>
+      <c r="C1301" s="8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D1301"/>
+      <c r="G1301"/>
     </row>
     <row r="1302" ht="12.75" hidden="1">
       <c r="A1302" s="6" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C1302" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D1302"/>
-      <c r="G1302"/>
+        <v>1838</v>
+      </c>
+      <c r="B1302" s="9"/>
+      <c r="C1302" s="8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D1302" s="1"/>
     </row>
     <row r="1303" ht="12.75" hidden="1">
       <c r="A1303" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1303" t="s">
         <v>1857</v>
       </c>
-      <c r="C1303" s="8" t="s">
+      <c r="C1303" t="s">
         <v>1201</v>
       </c>
       <c r="D1303" s="1"/>
+      <c r="G1303" s="1"/>
     </row>
     <row r="1304" ht="12.75" hidden="1">
       <c r="A1304" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1304" t="s">
         <v>1858</v>
       </c>
-      <c r="C1304" s="8" t="s">
+      <c r="C1304" t="s">
         <v>1201</v>
       </c>
       <c r="D1304"/>
@@ -23785,7 +23798,7 @@
     </row>
     <row r="1305" ht="12.75" hidden="1">
       <c r="A1305" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1305" t="s">
         <v>1859</v>
@@ -23797,7 +23810,7 @@
     </row>
     <row r="1306" ht="12.75" hidden="1">
       <c r="A1306" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1306" t="s">
         <v>1860</v>
@@ -23810,7 +23823,7 @@
     </row>
     <row r="1307" ht="12.75" hidden="1">
       <c r="A1307" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1307" t="s">
         <v>1861</v>
@@ -23822,7 +23835,7 @@
     </row>
     <row r="1308" ht="12.75" hidden="1">
       <c r="A1308" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1308" t="s">
         <v>1862</v>
@@ -23835,7 +23848,7 @@
     </row>
     <row r="1309" ht="12.75" hidden="1">
       <c r="A1309" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1309" t="s">
         <v>1863</v>
@@ -23843,12 +23856,11 @@
       <c r="C1309" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1309"/>
-      <c r="G1309"/>
+      <c r="D1309" s="1"/>
     </row>
     <row r="1310" ht="12.75" hidden="1">
       <c r="A1310" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1310" t="s">
         <v>1864</v>
@@ -23856,980 +23868,1006 @@
       <c r="C1310" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1310" s="1"/>
+      <c r="D1310"/>
+      <c r="G1310"/>
     </row>
     <row r="1311" ht="12.75" hidden="1">
       <c r="A1311" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1311" t="s">
         <v>1865</v>
       </c>
-      <c r="B1311" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C1311" t="s">
-        <v>1867</v>
+      <c r="C1311" s="8" t="s">
+        <v>1201</v>
       </c>
       <c r="D1311"/>
       <c r="G1311"/>
     </row>
     <row r="1312" ht="12.75" hidden="1">
       <c r="A1312" s="6" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="B1312" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C1312" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1312" s="8" t="s">
         <v>1201</v>
       </c>
       <c r="D1312" s="1"/>
-      <c r="G1312" s="1"/>
     </row>
     <row r="1313" ht="12.75" hidden="1">
       <c r="A1313" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1313" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C1313" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1313" t="s">
         <v>1868</v>
       </c>
-      <c r="D1313" s="1"/>
-      <c r="G1313" s="1"/>
+      <c r="C1313" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D1313"/>
+      <c r="G1313"/>
     </row>
     <row r="1314" ht="12.75" hidden="1">
       <c r="A1314" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1314" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C1314" s="8" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1314" t="s">
         <v>1201</v>
       </c>
-      <c r="D1314"/>
-      <c r="G1314"/>
+      <c r="D1314" s="1"/>
+      <c r="G1314" s="1"/>
     </row>
     <row r="1315" ht="12.75" hidden="1">
       <c r="A1315" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1315" s="11" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C1315" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1315" s="11"/>
-      <c r="G1315" s="11"/>
+        <v>1867</v>
+      </c>
+      <c r="B1315" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1315" s="9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D1315" s="1"/>
+      <c r="G1315" s="1"/>
     </row>
     <row r="1316" ht="12.75" hidden="1">
       <c r="A1316" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1316" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C1316" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1316" s="1"/>
+      <c r="D1316"/>
+      <c r="G1316"/>
     </row>
     <row r="1317" ht="12.75" hidden="1">
       <c r="A1317" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1317" s="11" t="s">
-        <v>1870</v>
+        <v>1867</v>
+      </c>
+      <c r="B1317" s="9" t="s">
+        <v>1871</v>
       </c>
       <c r="C1317" s="8" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D1317" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="D1317" s="9"/>
+      <c r="G1317" s="9"/>
     </row>
     <row r="1318" ht="12.75" hidden="1">
       <c r="A1318" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1318" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C1318" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1318"/>
-      <c r="G1318"/>
+      <c r="D1318" s="1"/>
     </row>
     <row r="1319" ht="12.75" hidden="1">
       <c r="A1319" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1319" s="11" t="s">
-        <v>1871</v>
+        <v>1867</v>
+      </c>
+      <c r="B1319" s="9" t="s">
+        <v>1872</v>
       </c>
       <c r="C1319" s="8" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D1319" s="11"/>
-      <c r="G1319" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D1319" s="1"/>
     </row>
     <row r="1320" ht="12.75" hidden="1">
       <c r="A1320" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1320" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C1320" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1320" s="1"/>
+      <c r="D1320"/>
+      <c r="G1320"/>
     </row>
     <row r="1321" ht="12.75" hidden="1">
       <c r="A1321" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1321" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1321" s="9" t="s">
         <v>1873</v>
       </c>
       <c r="C1321" s="8" t="s">
         <v>1874</v>
       </c>
-      <c r="D1321" s="1"/>
+      <c r="D1321" s="9"/>
+      <c r="G1321" s="9"/>
     </row>
     <row r="1322" ht="12.75" hidden="1">
       <c r="A1322" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1322" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C1322" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1322"/>
-      <c r="G1322"/>
+      <c r="D1322" s="1"/>
     </row>
     <row r="1323" ht="12.75" hidden="1">
       <c r="A1323" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1323" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1323" s="9" t="s">
         <v>1875</v>
       </c>
       <c r="C1323" s="8" t="s">
         <v>1876</v>
       </c>
-      <c r="D1323" s="11"/>
-      <c r="G1323" s="11"/>
+      <c r="D1323" s="1"/>
     </row>
     <row r="1324" ht="12.75" hidden="1">
       <c r="A1324" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1324" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C1324" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1324" s="1"/>
+      <c r="D1324"/>
+      <c r="G1324"/>
     </row>
     <row r="1325" ht="12.75" hidden="1">
       <c r="A1325" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1325" s="11" t="s">
-        <v>1116</v>
+        <v>1867</v>
+      </c>
+      <c r="B1325" s="9" t="s">
+        <v>1877</v>
       </c>
       <c r="C1325" s="8" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D1325" s="1"/>
+        <v>1878</v>
+      </c>
+      <c r="D1325" s="9"/>
+      <c r="G1325" s="9"/>
     </row>
     <row r="1326" ht="12.75" hidden="1">
       <c r="A1326" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1326" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C1326" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1326"/>
-      <c r="G1326"/>
+      <c r="D1326" s="1"/>
     </row>
     <row r="1327" ht="12.75" hidden="1">
       <c r="A1327" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1327" s="11" t="s">
-        <v>1878</v>
+        <v>1867</v>
+      </c>
+      <c r="B1327" s="9" t="s">
+        <v>1116</v>
       </c>
       <c r="C1327" s="8" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D1327" s="11"/>
-      <c r="G1327" s="11"/>
+        <v>1879</v>
+      </c>
+      <c r="D1327" s="1"/>
     </row>
     <row r="1328" ht="12.75" hidden="1">
       <c r="A1328" s="6" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B1328" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C1328" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1328" s="1"/>
+      <c r="D1328"/>
+      <c r="G1328"/>
     </row>
     <row r="1329" ht="12.75" hidden="1">
       <c r="A1329" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1329"/>
-      <c r="C1329" s="8"/>
-      <c r="D1329" s="1"/>
+        <v>1867</v>
+      </c>
+      <c r="B1329" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1329" s="8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D1329" s="9"/>
+      <c r="G1329" s="9"/>
     </row>
     <row r="1330" ht="12.75" hidden="1">
       <c r="A1330" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1330" t="s">
         <v>1865</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>1864</v>
       </c>
       <c r="C1330" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1330"/>
-      <c r="G1330"/>
+      <c r="D1330" s="1"/>
     </row>
     <row r="1331" ht="12.75" hidden="1">
-      <c r="A1331" s="7" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C1331" t="s">
-        <v>1504</v>
-      </c>
+      <c r="A1331" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1331"/>
+      <c r="C1331" s="8"/>
       <c r="D1331" s="1"/>
     </row>
-    <row r="1332" ht="12.75">
-      <c r="A1332" s="16" t="s">
-        <v>1880</v>
+    <row r="1332" ht="12.75" hidden="1">
+      <c r="A1332" s="6" t="s">
+        <v>1867</v>
       </c>
       <c r="B1332" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C1332" t="s">
-        <v>1765</v>
+        <v>1866</v>
+      </c>
+      <c r="C1332" s="8" t="s">
+        <v>1201</v>
       </c>
       <c r="D1332"/>
       <c r="G1332"/>
     </row>
-    <row r="1333" ht="12.75">
-      <c r="A1333" s="16" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B1333" s="15" t="s">
+    <row r="1333" ht="12.75" hidden="1">
+      <c r="A1333" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1333" s="1"/>
+    </row>
+    <row r="1334" ht="12.75" hidden="1">
+      <c r="A1334" s="6" t="s">
         <v>1882</v>
-      </c>
-      <c r="C1333" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1333" s="1"/>
-    </row>
-    <row r="1334" ht="12.75">
-      <c r="A1334" s="16" t="s">
-        <v>1880</v>
       </c>
       <c r="B1334" t="s">
         <v>1883</v>
       </c>
       <c r="C1334" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1334"/>
       <c r="G1334"/>
     </row>
-    <row r="1335" ht="12.75">
-      <c r="A1335" s="16" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B1335" t="s">
+    <row r="1335" ht="12.75" hidden="1">
+      <c r="A1335" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1335" s="9" t="s">
         <v>1884</v>
       </c>
       <c r="C1335" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1335" s="1"/>
     </row>
-    <row r="1336" ht="12.75">
-      <c r="A1336" s="16" t="s">
-        <v>1880</v>
+    <row r="1336" ht="12.75" hidden="1">
+      <c r="A1336" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1336" t="s">
         <v>1885</v>
       </c>
       <c r="C1336" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1336"/>
       <c r="G1336"/>
     </row>
-    <row r="1337" ht="12.75">
-      <c r="A1337" s="16" t="s">
-        <v>1880</v>
+    <row r="1337" ht="12.75" hidden="1">
+      <c r="A1337" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1337" t="s">
         <v>1886</v>
       </c>
       <c r="C1337" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1337" s="1"/>
     </row>
-    <row r="1338" ht="12.75">
-      <c r="A1338" s="16" t="s">
-        <v>1880</v>
+    <row r="1338" ht="12.75" hidden="1">
+      <c r="A1338" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1338" t="s">
         <v>1887</v>
       </c>
       <c r="C1338" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1338"/>
       <c r="G1338"/>
     </row>
     <row r="1339" ht="12.75" hidden="1">
-      <c r="A1339" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1339" s="15" t="s">
+      <c r="A1339" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1339" t="s">
         <v>1888</v>
       </c>
-      <c r="C1339" s="15" t="s">
+      <c r="C1339" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1339"/>
+      <c r="G1339"/>
+    </row>
+    <row r="1340" ht="12.75" hidden="1">
+      <c r="A1340" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1340" s="9" t="s">
         <v>1889</v>
       </c>
-      <c r="D1339" s="1"/>
-    </row>
-    <row r="1340" ht="12.75" hidden="1">
-      <c r="A1340" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1340" s="15" t="s">
+      <c r="C1340" s="9" t="s">
         <v>1890</v>
       </c>
-      <c r="C1340" t="s">
+      <c r="D1340" s="1"/>
+    </row>
+    <row r="1341" ht="12.75" hidden="1">
+      <c r="A1341" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1341" s="9" t="s">
         <v>1891</v>
       </c>
-      <c r="D1340"/>
-      <c r="G1340"/>
-    </row>
-    <row r="1341" ht="12.75" hidden="1">
-      <c r="A1341" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1341" s="15" t="s">
+      <c r="C1341" t="s">
         <v>1892</v>
       </c>
-      <c r="C1341" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D1341" s="1"/>
+      <c r="D1341"/>
+      <c r="G1341"/>
     </row>
     <row r="1342" ht="12.75" hidden="1">
-      <c r="A1342" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1342" s="15" t="s">
+      <c r="A1342" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1342" s="9" t="s">
         <v>1893</v>
       </c>
       <c r="C1342" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D1342" s="1"/>
+    </row>
+    <row r="1343" ht="12.75" hidden="1">
+      <c r="A1343" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1343" s="9" t="s">
         <v>1894</v>
       </c>
-      <c r="D1342"/>
-      <c r="G1342"/>
-    </row>
-    <row r="1343" ht="12.75" hidden="1">
-      <c r="A1343" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1343" s="15" t="s">
+      <c r="C1343" t="s">
         <v>1895</v>
       </c>
-      <c r="C1343" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D1343" s="1"/>
+      <c r="D1343"/>
+      <c r="G1343"/>
     </row>
     <row r="1344" ht="12.75" hidden="1">
-      <c r="A1344" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1344" s="15" t="s">
+      <c r="A1344" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1344" s="9" t="s">
         <v>1896</v>
       </c>
       <c r="C1344" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1344" s="1"/>
+    </row>
+    <row r="1345" ht="12.75" hidden="1">
+      <c r="A1345" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1345" s="9" t="s">
         <v>1897</v>
       </c>
-      <c r="D1344"/>
-      <c r="G1344"/>
-    </row>
-    <row r="1345" ht="12.75" hidden="1">
-      <c r="A1345" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1345" t="s">
+      <c r="C1345" t="s">
         <v>1898</v>
       </c>
-      <c r="C1345" t="s">
+      <c r="D1345"/>
+      <c r="G1345"/>
+    </row>
+    <row r="1346" ht="12.75" hidden="1">
+      <c r="A1346" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1346" t="s">
         <v>1899</v>
       </c>
-      <c r="D1345" s="1"/>
-    </row>
-    <row r="1346" ht="12.75" hidden="1">
-      <c r="A1346" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1346" s="15" t="s">
+      <c r="C1346" t="s">
         <v>1900</v>
       </c>
-      <c r="C1346" t="s">
+      <c r="D1346" s="1"/>
+    </row>
+    <row r="1347" ht="12.75" hidden="1">
+      <c r="A1347" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1347" s="9" t="s">
         <v>1901</v>
       </c>
-      <c r="D1346"/>
-      <c r="G1346"/>
-    </row>
-    <row r="1347" ht="12.75" hidden="1">
-      <c r="A1347" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1347" s="15" t="s">
+      <c r="C1347" t="s">
         <v>1902</v>
       </c>
-      <c r="C1347" t="s">
+      <c r="D1347"/>
+      <c r="G1347"/>
+    </row>
+    <row r="1348" ht="12.75" hidden="1">
+      <c r="A1348" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1348" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="D1347" s="1"/>
-    </row>
-    <row r="1348" ht="12.75" hidden="1">
-      <c r="A1348" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1348" s="15" t="s">
+      <c r="C1348" t="s">
         <v>1904</v>
       </c>
-      <c r="C1348" t="s">
+      <c r="D1348" s="1"/>
+    </row>
+    <row r="1349" ht="12.75" hidden="1">
+      <c r="A1349" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1349" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="D1348"/>
-      <c r="G1348"/>
-    </row>
-    <row r="1349" ht="12.75" hidden="1">
-      <c r="A1349" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1349" s="15" t="s">
+      <c r="C1349" t="s">
         <v>1906</v>
       </c>
-      <c r="C1349" t="s">
+      <c r="D1349"/>
+      <c r="G1349"/>
+    </row>
+    <row r="1350" ht="12.75" hidden="1">
+      <c r="A1350" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1350" s="9" t="s">
         <v>1907</v>
       </c>
-      <c r="D1349" s="1"/>
-    </row>
-    <row r="1350" ht="12.75" hidden="1">
-      <c r="A1350" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1350" s="15" t="s">
+      <c r="C1350" t="s">
         <v>1908</v>
       </c>
-      <c r="C1350" s="15" t="s">
+      <c r="D1350" s="1"/>
+    </row>
+    <row r="1351" ht="12.75" hidden="1">
+      <c r="A1351" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1351" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="D1350"/>
-      <c r="G1350"/>
-    </row>
-    <row r="1351" ht="12.75" hidden="1">
-      <c r="A1351" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1351" s="15" t="s">
+      <c r="C1351" s="9" t="s">
         <v>1910</v>
       </c>
-      <c r="C1351" s="15" t="s">
+      <c r="D1351"/>
+      <c r="G1351"/>
+    </row>
+    <row r="1352" ht="12.75" hidden="1">
+      <c r="A1352" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1352" s="9" t="s">
         <v>1911</v>
       </c>
-      <c r="D1351" s="1"/>
-    </row>
-    <row r="1352" ht="12.75" hidden="1">
-      <c r="A1352" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1352" s="15" t="s">
+      <c r="C1352" s="9" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D1352" s="1"/>
+    </row>
+    <row r="1353" ht="12.75" hidden="1">
+      <c r="A1353" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1353" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C1352" s="15" t="s">
+      <c r="C1353" s="9" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D1353"/>
+      <c r="G1353"/>
+    </row>
+    <row r="1354" ht="12.75" hidden="1">
+      <c r="A1354" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1354" s="9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1354" s="9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1354" s="1"/>
+    </row>
+    <row r="1355" ht="12.75" hidden="1">
+      <c r="A1355" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1355" s="9" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1355" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1355"/>
+      <c r="G1355"/>
+    </row>
+    <row r="1356" ht="12.75" hidden="1">
+      <c r="A1356" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1356" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1356" s="9" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1356" s="1"/>
+    </row>
+    <row r="1357" ht="12.75" hidden="1">
+      <c r="A1357" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1357" s="9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1357" s="9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D1357"/>
+      <c r="G1357"/>
+    </row>
+    <row r="1358" ht="12.75" hidden="1">
+      <c r="A1358" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1358" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1358" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D1358" s="1"/>
+    </row>
+    <row r="1359" ht="12.75" hidden="1">
+      <c r="A1359" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1359" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1359"/>
+      <c r="G1359"/>
+    </row>
+    <row r="1360" ht="12.75" hidden="1">
+      <c r="A1360" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1360" s="9" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1360" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D1360" s="1"/>
+    </row>
+    <row r="1361" ht="12.75" hidden="1">
+      <c r="A1361" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1361" s="9" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1361"/>
+      <c r="G1361"/>
+    </row>
+    <row r="1362" ht="12.75" hidden="1">
+      <c r="A1362" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1362" s="9" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1362" s="9" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1362" s="1"/>
+    </row>
+    <row r="1363" ht="12.75" hidden="1">
+      <c r="A1363" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1363" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1363"/>
+      <c r="G1363"/>
+    </row>
+    <row r="1364" ht="12.75" hidden="1">
+      <c r="A1364" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1364" s="9" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1364" s="1"/>
+    </row>
+    <row r="1365" ht="12.75" hidden="1">
+      <c r="A1365" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1365" s="9" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1365"/>
+      <c r="G1365"/>
+    </row>
+    <row r="1366" ht="12.75" hidden="1">
+      <c r="A1366" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1366" s="9" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1366" s="1"/>
+    </row>
+    <row r="1367" ht="12.75" hidden="1">
+      <c r="A1367" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1367" s="9" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1367" t="s">
         <v>1912</v>
       </c>
-      <c r="D1352"/>
-      <c r="G1352"/>
-    </row>
-    <row r="1353" ht="12.75" hidden="1">
-      <c r="A1353" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1353" s="15" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C1353" s="15" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D1353" s="1"/>
-    </row>
-    <row r="1354" ht="12.75" hidden="1">
-      <c r="A1354" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1354" s="15" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C1354" s="15" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D1354"/>
-      <c r="G1354"/>
-    </row>
-    <row r="1355" ht="12.75" hidden="1">
-      <c r="A1355" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1355" s="15" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C1355" s="15" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D1355" s="1"/>
-    </row>
-    <row r="1356" ht="12.75" hidden="1">
-      <c r="A1356" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1356" s="15" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C1356" s="15" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D1356"/>
-      <c r="G1356"/>
-    </row>
-    <row r="1357" ht="12.75" hidden="1">
-      <c r="A1357" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1357" s="15" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C1357" s="15" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D1357" s="1"/>
-    </row>
-    <row r="1358" ht="12.75" hidden="1">
-      <c r="A1358" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1358" s="15" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C1358" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D1358"/>
-      <c r="G1358"/>
-    </row>
-    <row r="1359" ht="12.75" hidden="1">
-      <c r="A1359" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1359" s="15" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C1359" s="15" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D1359" s="1"/>
-    </row>
-    <row r="1360" ht="12.75" hidden="1">
-      <c r="A1360" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1360" s="15" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C1360" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D1360"/>
-      <c r="G1360"/>
-    </row>
-    <row r="1361" ht="12.75" hidden="1">
-      <c r="A1361" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1361" s="15" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C1361" s="15" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D1361" s="1"/>
-    </row>
-    <row r="1362" ht="12.75" hidden="1">
-      <c r="A1362" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1362" s="15" t="s">
+      <c r="D1367"/>
+      <c r="G1367"/>
+    </row>
+    <row r="1368" ht="12.75" hidden="1">
+      <c r="A1368" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1368" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D1368" s="1"/>
+    </row>
+    <row r="1369" ht="12.75" hidden="1">
+      <c r="A1369" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1369" s="9" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1369"/>
+      <c r="G1369"/>
+    </row>
+    <row r="1370" ht="12.75" hidden="1">
+      <c r="A1370" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1370" s="9" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1370" s="1"/>
+    </row>
+    <row r="1371" ht="12.75" hidden="1">
+      <c r="A1371" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1371" s="9" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1371"/>
+      <c r="G1371"/>
+    </row>
+    <row r="1372" ht="12.75" hidden="1">
+      <c r="A1372" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1372" s="9" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1372" s="1"/>
+    </row>
+    <row r="1373" ht="12.75" hidden="1">
+      <c r="A1373" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1373" s="9" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D1373"/>
+      <c r="G1373"/>
+    </row>
+    <row r="1374" ht="12.75" hidden="1">
+      <c r="A1374" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1374" s="9" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1374" t="s">
         <v>1930</v>
       </c>
-      <c r="C1362" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1362"/>
-      <c r="G1362"/>
-    </row>
-    <row r="1363" ht="12.75" hidden="1">
-      <c r="A1363" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1363" s="15" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C1363" t="s">
+      <c r="D1374" s="1"/>
+    </row>
+    <row r="1375" ht="12.75" hidden="1">
+      <c r="A1375" s="11" t="s">
         <v>1800</v>
       </c>
-      <c r="D1363" s="1"/>
-    </row>
-    <row r="1364" ht="12.75" hidden="1">
-      <c r="A1364" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1364" s="15" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C1364" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D1364"/>
-      <c r="G1364"/>
-    </row>
-    <row r="1365" ht="12.75" hidden="1">
-      <c r="A1365" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1365" s="15" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C1365" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D1365" s="1"/>
-    </row>
-    <row r="1366" ht="12.75" hidden="1">
-      <c r="A1366" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1366" s="15" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C1366" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D1366"/>
-      <c r="G1366"/>
-    </row>
-    <row r="1367" ht="12.75" hidden="1">
-      <c r="A1367" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1367" s="15" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C1367" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D1367" s="1"/>
-    </row>
-    <row r="1368" ht="12.75" hidden="1">
-      <c r="A1368" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1368" s="15" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D1368"/>
-      <c r="G1368"/>
-    </row>
-    <row r="1369" ht="12.75" hidden="1">
-      <c r="A1369" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1369" s="15" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C1369" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D1369" s="1"/>
-    </row>
-    <row r="1370" ht="12.75" hidden="1">
-      <c r="A1370" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1370" s="15" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C1370" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1370"/>
-      <c r="G1370"/>
-    </row>
-    <row r="1371" ht="12.75" hidden="1">
-      <c r="A1371" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1371" s="15" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C1371" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D1371" s="1"/>
-    </row>
-    <row r="1372" ht="12.75" hidden="1">
-      <c r="A1372" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1372" s="15" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C1372" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D1372"/>
-      <c r="G1372"/>
-    </row>
-    <row r="1373" ht="12.75" hidden="1">
-      <c r="A1373" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1373" s="15" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D1373" s="1"/>
-    </row>
-    <row r="1374" ht="12.75" hidden="1">
-      <c r="A1374" s="12" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1374" s="15" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C1374" s="15" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D1374"/>
-      <c r="G1374"/>
-    </row>
-    <row r="1375" ht="12.75" hidden="1">
-      <c r="A1375" s="16" t="s">
+      <c r="B1375" s="9" t="s">
         <v>1949</v>
       </c>
-      <c r="B1375" s="15" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C1375" t="s">
-        <v>1951</v>
+      <c r="C1375" s="9" t="s">
+        <v>1908</v>
       </c>
       <c r="D1375"/>
       <c r="G1375"/>
     </row>
     <row r="1376" ht="12.75" hidden="1">
-      <c r="A1376" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1376" s="15" t="s">
-        <v>1411</v>
+      <c r="A1376" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1376" s="9" t="s">
+        <v>1951</v>
       </c>
       <c r="C1376" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D1376" s="1"/>
+        <v>1952</v>
+      </c>
+      <c r="D1376"/>
+      <c r="G1376"/>
     </row>
     <row r="1377" ht="12.75" hidden="1">
-      <c r="A1377" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1377" s="15" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C1377" s="15" t="s">
+      <c r="A1377" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1377" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1377" s="1"/>
+    </row>
+    <row r="1378" ht="12.75" hidden="1">
+      <c r="A1378" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1378" s="9" t="s">
         <v>1953</v>
       </c>
-      <c r="D1377"/>
-      <c r="G1377"/>
-    </row>
-    <row r="1378" ht="12.75" hidden="1">
-      <c r="A1378" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1378" s="15" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C1378" t="s">
+      <c r="C1378" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="D1378" s="1"/>
+      <c r="D1378"/>
+      <c r="G1378"/>
     </row>
     <row r="1379" ht="12.75" hidden="1">
-      <c r="A1379" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1379" s="15" t="s">
+      <c r="A1379" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1379" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1379" t="s">
         <v>1955</v>
       </c>
-      <c r="C1379" t="s">
+      <c r="D1379" s="1"/>
+    </row>
+    <row r="1380" ht="12.75" hidden="1">
+      <c r="A1380" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1380" s="9" t="s">
         <v>1956</v>
       </c>
-      <c r="D1379"/>
-      <c r="G1379"/>
-    </row>
-    <row r="1380" ht="12.75" hidden="1">
-      <c r="A1380" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1380" s="15" t="s">
+      <c r="C1380" t="s">
         <v>1957</v>
       </c>
-      <c r="C1380" t="s">
+      <c r="D1380"/>
+      <c r="G1380"/>
+    </row>
+    <row r="1381" ht="12.75" hidden="1">
+      <c r="A1381" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1381" s="9" t="s">
         <v>1958</v>
       </c>
-      <c r="D1380" s="1"/>
-    </row>
-    <row r="1381" ht="12.75" hidden="1">
-      <c r="A1381" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1381" s="15" t="s">
+      <c r="C1381" t="s">
         <v>1959</v>
       </c>
-      <c r="C1381" s="15" t="s">
+      <c r="D1381" s="1"/>
+    </row>
+    <row r="1382" ht="12.75" hidden="1">
+      <c r="A1382" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1382" s="9" t="s">
         <v>1960</v>
       </c>
-      <c r="D1381"/>
-      <c r="G1381"/>
-    </row>
-    <row r="1382" ht="12.75">
-      <c r="A1382" s="16" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B1382" t="s">
+      <c r="C1382" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="C1382" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1382" s="1"/>
-    </row>
-    <row r="1383" ht="12.75">
-      <c r="A1383" s="16" t="s">
-        <v>1880</v>
+      <c r="D1382"/>
+      <c r="G1382"/>
+    </row>
+    <row r="1383" ht="12.75" hidden="1">
+      <c r="A1383" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1383" t="s">
         <v>1962</v>
       </c>
       <c r="C1383" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1383"/>
-      <c r="G1383"/>
-    </row>
-    <row r="1384" ht="12.75">
-      <c r="A1384" s="16" t="s">
-        <v>1880</v>
+        <v>1767</v>
+      </c>
+      <c r="D1383" s="1"/>
+    </row>
+    <row r="1384" ht="12.75" hidden="1">
+      <c r="A1384" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1384" t="s">
         <v>1963</v>
       </c>
       <c r="C1384" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1384" s="1"/>
-    </row>
-    <row r="1385" ht="12.75">
-      <c r="A1385" s="16" t="s">
-        <v>1880</v>
+        <v>1767</v>
+      </c>
+      <c r="D1384"/>
+      <c r="G1384"/>
+    </row>
+    <row r="1385" ht="12.75" hidden="1">
+      <c r="A1385" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1385" t="s">
         <v>1964</v>
       </c>
       <c r="C1385" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1385"/>
       <c r="G1385"/>
     </row>
-    <row r="1386" ht="12.75">
-      <c r="A1386" s="16" t="s">
-        <v>1880</v>
+    <row r="1386" ht="12.75" hidden="1">
+      <c r="A1386" s="6" t="s">
+        <v>1882</v>
       </c>
       <c r="B1386" t="s">
         <v>1965</v>
       </c>
       <c r="C1386" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D1386" s="1"/>
     </row>
-    <row r="1387" ht="12.75">
-      <c r="A1387" s="6"/>
-      <c r="B1387"/>
-      <c r="C1387"/>
+    <row r="1387" ht="12.75" hidden="1">
+      <c r="A1387" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1387" s="8" t="s">
+        <v>1767</v>
+      </c>
       <c r="D1387"/>
       <c r="G1387"/>
     </row>
     <row r="1388" ht="12.75">
-      <c r="A1388" s="6"/>
-      <c r="B1388"/>
-      <c r="C1388"/>
+      <c r="A1388" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1388" s="8" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1388" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D1388" s="1"/>
     </row>
-    <row r="1389" ht="12.75">
-      <c r="A1389" s="6"/>
-      <c r="B1389"/>
-      <c r="C1389"/>
+    <row r="1389" ht="12.75" hidden="1">
+      <c r="A1389" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>1968</v>
+      </c>
       <c r="D1389"/>
       <c r="G1389"/>
     </row>
-    <row r="1390" ht="12.75">
-      <c r="A1390" s="6"/>
-      <c r="B1390"/>
-      <c r="C1390"/>
+    <row r="1390" ht="12.75" hidden="1">
+      <c r="A1390" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>1970</v>
+      </c>
       <c r="D1390" s="1"/>
     </row>
     <row r="1391" ht="12.75">
@@ -26569,7 +26607,7 @@
     </row>
     <row r="2627" ht="12.75">
       <c r="A2627" s="2"/>
-      <c r="C2627" s="17"/>
+      <c r="C2627" s="14"/>
     </row>
     <row r="2628" ht="12.75">
       <c r="A2628" s="6"/>
@@ -26578,10 +26616,10 @@
       <c r="A2629" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1381">
+  <autoFilter ref="A1:C1390">
     <filterColumn colId="0">
       <filters>
-        <filter val="(This is ...) Tatsuro Yamashita"/>
+        <filter val="(This is ...) Jorge Ben"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/playlists.xlsx
+++ b/playlists.xlsx
@@ -9,7 +9,7 @@
     <sheet name="playlists" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1407</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1411</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">playlists!$A$1:$C$1411</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -10629,7 +10629,7 @@
       <c r="D305"/>
       <c r="G305"/>
     </row>
-    <row r="306" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="306" s="0" customFormat="1" ht="12.75">
       <c r="A306" s="6" t="s">
         <v>469</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="AO306"/>
       <c r="AP306"/>
     </row>
-    <row r="307" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="307" s="0" customFormat="1" ht="12.75">
       <c r="A307" s="6" t="s">
         <v>469</v>
       </c>
@@ -10692,7 +10692,7 @@
       <c r="D307"/>
       <c r="G307"/>
     </row>
-    <row r="308" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="308" s="0" customFormat="1" ht="12.75">
       <c r="A308" s="6" t="s">
         <v>469</v>
       </c>
@@ -10742,7 +10742,7 @@
       <c r="AO308"/>
       <c r="AP308"/>
     </row>
-    <row r="309" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="309" s="0" customFormat="1" ht="12.75">
       <c r="A309" s="6" t="s">
         <v>469</v>
       </c>
@@ -10755,7 +10755,7 @@
       <c r="D309"/>
       <c r="G309"/>
     </row>
-    <row r="310" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="310" s="0" customFormat="1" ht="12.75">
       <c r="A310" s="6" t="s">
         <v>469</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="AO310"/>
       <c r="AP310"/>
     </row>
-    <row r="311" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="311" s="0" customFormat="1" ht="12.75">
       <c r="A311" s="6" t="s">
         <v>469</v>
       </c>
@@ -10818,7 +10818,7 @@
       <c r="D311"/>
       <c r="G311"/>
     </row>
-    <row r="312" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="312" s="0" customFormat="1" ht="12.75">
       <c r="A312" s="6" t="s">
         <v>469</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="AO312"/>
       <c r="AP312"/>
     </row>
-    <row r="313" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="313" s="0" customFormat="1" ht="12.75">
       <c r="A313" s="6" t="s">
         <v>469</v>
       </c>
@@ -10881,7 +10881,7 @@
       <c r="D313"/>
       <c r="G313"/>
     </row>
-    <row r="314" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="314" s="0" customFormat="1" ht="12.75">
       <c r="A314" s="6" t="s">
         <v>469</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="AO314"/>
       <c r="AP314"/>
     </row>
-    <row r="315" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="315" s="0" customFormat="1" ht="12.75">
       <c r="A315" s="6" t="s">
         <v>469</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="D315"/>
       <c r="G315"/>
     </row>
-    <row r="316" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="316" s="0" customFormat="1" ht="12.75">
       <c r="A316" s="6" t="s">
         <v>469</v>
       </c>
@@ -10994,7 +10994,7 @@
       <c r="AO316"/>
       <c r="AP316"/>
     </row>
-    <row r="317" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="317" s="0" customFormat="1" ht="12.75">
       <c r="A317" s="6" t="s">
         <v>469</v>
       </c>
@@ -11007,7 +11007,7 @@
       <c r="D317"/>
       <c r="G317"/>
     </row>
-    <row r="318" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="318" s="0" customFormat="1" ht="12.75">
       <c r="A318" s="6" t="s">
         <v>469</v>
       </c>
@@ -11057,7 +11057,7 @@
       <c r="AO318"/>
       <c r="AP318"/>
     </row>
-    <row r="319" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="319" s="0" customFormat="1" ht="12.75">
       <c r="A319" s="6" t="s">
         <v>469</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="D319"/>
       <c r="G319"/>
     </row>
-    <row r="320" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="320" s="0" customFormat="1" ht="12.75">
       <c r="A320" s="6" t="s">
         <v>469</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="AO320"/>
       <c r="AP320"/>
     </row>
-    <row r="321" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="321" s="0" customFormat="1" ht="12.75">
       <c r="A321" s="6" t="s">
         <v>469</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="D321"/>
       <c r="G321"/>
     </row>
-    <row r="322" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="322" s="0" customFormat="1" ht="12.75">
       <c r="A322" s="6" t="s">
         <v>469</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="AO322"/>
       <c r="AP322"/>
     </row>
-    <row r="323" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="323" s="0" customFormat="1" ht="12.75">
       <c r="A323" s="6" t="s">
         <v>469</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="D323"/>
       <c r="G323"/>
     </row>
-    <row r="324" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="324" s="0" customFormat="1" ht="12.75">
       <c r="A324" s="6" t="s">
         <v>469</v>
       </c>
@@ -11246,7 +11246,7 @@
       <c r="AO324"/>
       <c r="AP324"/>
     </row>
-    <row r="325" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="325" s="0" customFormat="1" ht="12.75">
       <c r="A325" s="6" t="s">
         <v>469</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="D325"/>
       <c r="G325"/>
     </row>
-    <row r="326" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="326" s="0" customFormat="1" ht="12.75">
       <c r="A326" s="6" t="s">
         <v>469</v>
       </c>
@@ -11309,7 +11309,7 @@
       <c r="AO326"/>
       <c r="AP326"/>
     </row>
-    <row r="327" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="327" s="0" customFormat="1" ht="12.75">
       <c r="A327" s="6" t="s">
         <v>469</v>
       </c>
@@ -11359,7 +11359,7 @@
       <c r="AO327"/>
       <c r="AP327"/>
     </row>
-    <row r="328" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="328" s="0" customFormat="1" ht="12.75">
       <c r="A328" s="6" t="s">
         <v>469</v>
       </c>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D328"/>
     </row>
-    <row r="329" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="329" s="0" customFormat="1" ht="12.75">
       <c r="A329" s="6" t="s">
         <v>469</v>
       </c>
@@ -11421,7 +11421,7 @@
       <c r="AO329"/>
       <c r="AP329"/>
     </row>
-    <row r="330" s="0" customFormat="1" ht="12.75" hidden="1">
+    <row r="330" s="0" customFormat="1" ht="12.75">
       <c r="A330" s="6" t="s">
         <v>469</v>
       </c>
@@ -20404,7 +20404,7 @@
       <c r="D1022"/>
       <c r="G1022"/>
     </row>
-    <row r="1023" ht="12.75" hidden="1">
+    <row r="1023" ht="12.75">
       <c r="A1023" s="6" t="s">
         <v>469</v>
       </c>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="D1023" s="1"/>
     </row>
-    <row r="1024" ht="12.75" hidden="1">
+    <row r="1024" ht="12.75">
       <c r="A1024" s="6" t="s">
         <v>469</v>
       </c>
@@ -20429,7 +20429,7 @@
       <c r="D1024"/>
       <c r="G1024"/>
     </row>
-    <row r="1025" ht="12.75" hidden="1">
+    <row r="1025" ht="12.75">
       <c r="A1025" s="6" t="s">
         <v>469</v>
       </c>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="D1025" s="1"/>
     </row>
-    <row r="1026" ht="12.75" hidden="1">
+    <row r="1026" ht="12.75">
       <c r="A1026" s="6" t="s">
         <v>469</v>
       </c>
@@ -20454,7 +20454,7 @@
       <c r="D1026"/>
       <c r="G1026"/>
     </row>
-    <row r="1027" ht="12.75" hidden="1">
+    <row r="1027" ht="12.75">
       <c r="A1027" s="6" t="s">
         <v>469</v>
       </c>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="D1027" s="1"/>
     </row>
-    <row r="1028" ht="12.75" hidden="1">
+    <row r="1028" ht="12.75">
       <c r="A1028" s="6" t="s">
         <v>469</v>
       </c>
@@ -20479,7 +20479,7 @@
       <c r="D1028"/>
       <c r="G1028"/>
     </row>
-    <row r="1029" ht="12.75" hidden="1">
+    <row r="1029" ht="12.75">
       <c r="A1029" s="6" t="s">
         <v>469</v>
       </c>
@@ -20491,7 +20491,7 @@
       </c>
       <c r="D1029" s="1"/>
     </row>
-    <row r="1030" ht="12.75" hidden="1">
+    <row r="1030" ht="12.75">
       <c r="A1030" s="6" t="s">
         <v>469</v>
       </c>
@@ -20504,7 +20504,7 @@
       <c r="D1030"/>
       <c r="G1030"/>
     </row>
-    <row r="1031" ht="12.75" hidden="1">
+    <row r="1031" ht="12.75">
       <c r="A1031" s="6" t="s">
         <v>469</v>
       </c>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="D1031" s="1"/>
     </row>
-    <row r="1032" ht="12.75" hidden="1">
+    <row r="1032" ht="12.75">
       <c r="A1032" s="6" t="s">
         <v>469</v>
       </c>
@@ -20529,7 +20529,7 @@
       <c r="D1032"/>
       <c r="G1032"/>
     </row>
-    <row r="1033" ht="12.75" hidden="1">
+    <row r="1033" ht="12.75">
       <c r="A1033" s="6" t="s">
         <v>469</v>
       </c>
@@ -20541,7 +20541,7 @@
       </c>
       <c r="D1033" s="1"/>
     </row>
-    <row r="1034" ht="12.75" hidden="1">
+    <row r="1034" ht="12.75">
       <c r="A1034" s="6" t="s">
         <v>469</v>
       </c>
@@ -20554,7 +20554,7 @@
       <c r="D1034"/>
       <c r="G1034"/>
     </row>
-    <row r="1035" ht="12.75" hidden="1">
+    <row r="1035" ht="12.75">
       <c r="A1035" s="6" t="s">
         <v>469</v>
       </c>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="D1035" s="1"/>
     </row>
-    <row r="1036" ht="12.75" hidden="1">
+    <row r="1036" ht="12.75">
       <c r="A1036" s="6" t="s">
         <v>469</v>
       </c>
@@ -20579,7 +20579,7 @@
       <c r="D1036"/>
       <c r="G1036"/>
     </row>
-    <row r="1037" ht="12.75" hidden="1">
+    <row r="1037" ht="12.75">
       <c r="A1037" s="6" t="s">
         <v>469</v>
       </c>
@@ -24983,7 +24983,7 @@
       <c r="D1390"/>
       <c r="G1390"/>
     </row>
-    <row r="1391" ht="12.75">
+    <row r="1391" ht="12.75" hidden="1">
       <c r="A1391" s="6" t="s">
         <v>1974</v>
       </c>
@@ -24996,7 +24996,7 @@
       <c r="D1391"/>
       <c r="G1391"/>
     </row>
-    <row r="1392" ht="12.75">
+    <row r="1392" ht="12.75" hidden="1">
       <c r="A1392" s="6" t="s">
         <v>1974</v>
       </c>
@@ -25008,7 +25008,7 @@
       </c>
       <c r="D1392" s="1"/>
     </row>
-    <row r="1393" ht="12.75">
+    <row r="1393" ht="12.75" hidden="1">
       <c r="A1393" s="6" t="s">
         <v>1974</v>
       </c>
@@ -25021,7 +25021,7 @@
       <c r="D1393"/>
       <c r="G1393"/>
     </row>
-    <row r="1394" ht="12.75">
+    <row r="1394" ht="12.75" hidden="1">
       <c r="A1394" s="6" t="s">
         <v>1974</v>
       </c>
@@ -25033,7 +25033,7 @@
       </c>
       <c r="D1394" s="1"/>
     </row>
-    <row r="1395" ht="12.75">
+    <row r="1395" ht="12.75" hidden="1">
       <c r="A1395" s="6" t="s">
         <v>1974</v>
       </c>
@@ -25046,7 +25046,7 @@
       <c r="D1395"/>
       <c r="G1395"/>
     </row>
-    <row r="1396" ht="12.75">
+    <row r="1396" ht="12.75" hidden="1">
       <c r="A1396" s="6" t="s">
         <v>1974</v>
       </c>
@@ -25058,7 +25058,7 @@
       </c>
       <c r="D1396" s="1"/>
     </row>
-    <row r="1397" ht="12.75">
+    <row r="1397" ht="12.75" hidden="1">
       <c r="A1397" s="6" t="s">
         <v>1974</v>
       </c>
@@ -26936,7 +26936,7 @@
   <autoFilter ref="A1:C1411">
     <filterColumn colId="0">
       <filters>
-        <filter val="(Genre) R&amp;B"/>
+        <filter val="(Genre) Brazilian CityPop"/>
       </filters>
     </filterColumn>
   </autoFilter>
